--- a/data/export_data_domain_7992.xlsx
+++ b/data/export_data_domain_7992.xlsx
@@ -30491,197 +30491,4369 @@
       <c r="A2761" s="6" t="n">
         <v>44826.708333333336</v>
       </c>
-      <c r="B2761" s="1"/>
-      <c r="C2761" s="1"/>
+      <c r="B2761" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C2761" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="2762">
       <c r="A2762" s="6" t="n">
         <v>44826.71875</v>
       </c>
-      <c r="B2762" s="1"/>
-      <c r="C2762" s="1"/>
+      <c r="B2762" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2762" s="1" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="2763">
       <c r="A2763" s="6" t="n">
         <v>44826.729166666664</v>
       </c>
-      <c r="B2763" s="1"/>
-      <c r="C2763" s="1"/>
+      <c r="B2763" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2763" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2764">
       <c r="A2764" s="6" t="n">
         <v>44826.739583333336</v>
       </c>
-      <c r="B2764" s="1"/>
-      <c r="C2764" s="1"/>
+      <c r="B2764" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C2764" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="2765">
       <c r="A2765" s="6" t="n">
         <v>44826.75</v>
       </c>
-      <c r="B2765" s="1"/>
-      <c r="C2765" s="1"/>
+      <c r="B2765" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C2765" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="2766">
       <c r="A2766" s="6" t="n">
         <v>44826.760416666664</v>
       </c>
-      <c r="B2766" s="1"/>
-      <c r="C2766" s="1"/>
+      <c r="B2766" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2766" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="2767">
       <c r="A2767" s="6" t="n">
         <v>44826.770833333336</v>
       </c>
-      <c r="B2767" s="1"/>
-      <c r="C2767" s="1"/>
+      <c r="B2767" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2767" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="2768">
       <c r="A2768" s="6" t="n">
         <v>44826.78125</v>
       </c>
-      <c r="B2768" s="1"/>
-      <c r="C2768" s="1"/>
+      <c r="B2768" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2768" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2769">
       <c r="A2769" s="6" t="n">
         <v>44826.791666666664</v>
       </c>
-      <c r="B2769" s="1"/>
-      <c r="C2769" s="1"/>
+      <c r="B2769" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2769" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="2770">
       <c r="A2770" s="6" t="n">
         <v>44826.802083333336</v>
       </c>
-      <c r="B2770" s="1"/>
-      <c r="C2770" s="1"/>
+      <c r="B2770" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C2770" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="2771">
       <c r="A2771" s="6" t="n">
         <v>44826.8125</v>
       </c>
-      <c r="B2771" s="1"/>
-      <c r="C2771" s="1"/>
+      <c r="B2771" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2771" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2772">
       <c r="A2772" s="6" t="n">
         <v>44826.822916666664</v>
       </c>
-      <c r="B2772" s="1"/>
-      <c r="C2772" s="1"/>
+      <c r="B2772" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2772" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2773">
       <c r="A2773" s="6" t="n">
         <v>44826.833333333336</v>
       </c>
-      <c r="B2773" s="1"/>
-      <c r="C2773" s="1"/>
+      <c r="B2773" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2773" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2774">
       <c r="A2774" s="6" t="n">
         <v>44826.84375</v>
       </c>
-      <c r="B2774" s="1"/>
-      <c r="C2774" s="1"/>
+      <c r="B2774" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2774" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2775">
       <c r="A2775" s="6" t="n">
         <v>44826.854166666664</v>
       </c>
-      <c r="B2775" s="1"/>
-      <c r="C2775" s="1"/>
+      <c r="B2775" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2775" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="2776">
       <c r="A2776" s="6" t="n">
         <v>44826.864583333336</v>
       </c>
-      <c r="B2776" s="1"/>
-      <c r="C2776" s="1"/>
+      <c r="B2776" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2776" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2777">
       <c r="A2777" s="6" t="n">
         <v>44826.875</v>
       </c>
-      <c r="B2777" s="1"/>
-      <c r="C2777" s="1"/>
+      <c r="B2777" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C2777" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2778">
       <c r="A2778" s="6" t="n">
         <v>44826.885416666664</v>
       </c>
-      <c r="B2778" s="1"/>
-      <c r="C2778" s="1"/>
+      <c r="B2778" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2778" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2779">
       <c r="A2779" s="6" t="n">
         <v>44826.895833333336</v>
       </c>
-      <c r="B2779" s="1"/>
-      <c r="C2779" s="1"/>
+      <c r="B2779" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2779" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2780">
       <c r="A2780" s="6" t="n">
         <v>44826.90625</v>
       </c>
-      <c r="B2780" s="1"/>
-      <c r="C2780" s="1"/>
+      <c r="B2780" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2780" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2781">
       <c r="A2781" s="6" t="n">
         <v>44826.916666666664</v>
       </c>
-      <c r="B2781" s="1"/>
-      <c r="C2781" s="1"/>
+      <c r="B2781" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2781" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2782">
       <c r="A2782" s="6" t="n">
         <v>44826.927083333336</v>
       </c>
-      <c r="B2782" s="1"/>
-      <c r="C2782" s="1"/>
+      <c r="B2782" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2782" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2783">
       <c r="A2783" s="6" t="n">
         <v>44826.9375</v>
       </c>
-      <c r="B2783" s="1"/>
-      <c r="C2783" s="1"/>
+      <c r="B2783" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2783" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2784">
       <c r="A2784" s="6" t="n">
         <v>44826.947916666664</v>
       </c>
-      <c r="B2784" s="1"/>
-      <c r="C2784" s="1"/>
+      <c r="B2784" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2784" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2785">
       <c r="A2785" s="6" t="n">
         <v>44826.958333333336</v>
       </c>
-      <c r="B2785" s="1"/>
-      <c r="C2785" s="1"/>
+      <c r="B2785" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2785" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2786">
       <c r="A2786" s="6" t="n">
         <v>44826.96875</v>
       </c>
-      <c r="B2786" s="1"/>
-      <c r="C2786" s="1"/>
+      <c r="B2786" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2786" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2787">
       <c r="A2787" s="6" t="n">
         <v>44826.979166666664</v>
       </c>
-      <c r="B2787" s="1"/>
-      <c r="C2787" s="1"/>
+      <c r="B2787" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2787" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="2788">
       <c r="A2788" s="6" t="n">
         <v>44826.989583333336</v>
       </c>
-      <c r="B2788" s="1"/>
-      <c r="C2788" s="1"/>
+      <c r="B2788" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2788" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" s="6" t="n">
+        <v>44827.0</v>
+      </c>
+      <c r="B2789" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2789" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" s="6" t="n">
+        <v>44827.010416666664</v>
+      </c>
+      <c r="B2790" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2790" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" s="6" t="n">
+        <v>44827.020833333336</v>
+      </c>
+      <c r="B2791" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2791" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" s="6" t="n">
+        <v>44827.03125</v>
+      </c>
+      <c r="B2792" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2792" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" s="6" t="n">
+        <v>44827.041666666664</v>
+      </c>
+      <c r="B2793" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2793" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" s="6" t="n">
+        <v>44827.052083333336</v>
+      </c>
+      <c r="B2794" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2794" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" s="6" t="n">
+        <v>44827.0625</v>
+      </c>
+      <c r="B2795" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2795" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" s="6" t="n">
+        <v>44827.072916666664</v>
+      </c>
+      <c r="B2796" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2796" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" s="6" t="n">
+        <v>44827.083333333336</v>
+      </c>
+      <c r="B2797" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2797" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" s="6" t="n">
+        <v>44827.09375</v>
+      </c>
+      <c r="B2798" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2798" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" s="6" t="n">
+        <v>44827.104166666664</v>
+      </c>
+      <c r="B2799" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2799" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" s="6" t="n">
+        <v>44827.114583333336</v>
+      </c>
+      <c r="B2800" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2800" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" s="6" t="n">
+        <v>44827.125</v>
+      </c>
+      <c r="B2801" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2801" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" s="6" t="n">
+        <v>44827.135416666664</v>
+      </c>
+      <c r="B2802" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2802" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" s="6" t="n">
+        <v>44827.145833333336</v>
+      </c>
+      <c r="B2803" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2803" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" s="6" t="n">
+        <v>44827.15625</v>
+      </c>
+      <c r="B2804" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2804" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" s="6" t="n">
+        <v>44827.166666666664</v>
+      </c>
+      <c r="B2805" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2805" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" s="6" t="n">
+        <v>44827.177083333336</v>
+      </c>
+      <c r="B2806" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2806" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" s="6" t="n">
+        <v>44827.1875</v>
+      </c>
+      <c r="B2807" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2807" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" s="6" t="n">
+        <v>44827.197916666664</v>
+      </c>
+      <c r="B2808" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2808" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" s="6" t="n">
+        <v>44827.208333333336</v>
+      </c>
+      <c r="B2809" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2809" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" s="6" t="n">
+        <v>44827.21875</v>
+      </c>
+      <c r="B2810" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2810" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" s="6" t="n">
+        <v>44827.229166666664</v>
+      </c>
+      <c r="B2811" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2811" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" s="6" t="n">
+        <v>44827.239583333336</v>
+      </c>
+      <c r="B2812" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2812" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" s="6" t="n">
+        <v>44827.25</v>
+      </c>
+      <c r="B2813" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2813" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" s="6" t="n">
+        <v>44827.260416666664</v>
+      </c>
+      <c r="B2814" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2814" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" s="6" t="n">
+        <v>44827.270833333336</v>
+      </c>
+      <c r="B2815" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2815" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" s="6" t="n">
+        <v>44827.28125</v>
+      </c>
+      <c r="B2816" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2816" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" s="6" t="n">
+        <v>44827.291666666664</v>
+      </c>
+      <c r="B2817" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2817" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" s="6" t="n">
+        <v>44827.302083333336</v>
+      </c>
+      <c r="B2818" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2818" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" s="6" t="n">
+        <v>44827.3125</v>
+      </c>
+      <c r="B2819" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2819" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" s="6" t="n">
+        <v>44827.322916666664</v>
+      </c>
+      <c r="B2820" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2820" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" s="6" t="n">
+        <v>44827.333333333336</v>
+      </c>
+      <c r="B2821" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2821" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" s="6" t="n">
+        <v>44827.34375</v>
+      </c>
+      <c r="B2822" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2822" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" s="6" t="n">
+        <v>44827.354166666664</v>
+      </c>
+      <c r="B2823" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2823" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" s="6" t="n">
+        <v>44827.364583333336</v>
+      </c>
+      <c r="B2824" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2824" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" s="6" t="n">
+        <v>44827.375</v>
+      </c>
+      <c r="B2825" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2825" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" s="6" t="n">
+        <v>44827.385416666664</v>
+      </c>
+      <c r="B2826" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2826" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2827">
+      <c r="A2827" s="6" t="n">
+        <v>44827.395833333336</v>
+      </c>
+      <c r="B2827" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2827" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" s="6" t="n">
+        <v>44827.40625</v>
+      </c>
+      <c r="B2828" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2828" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" s="6" t="n">
+        <v>44827.416666666664</v>
+      </c>
+      <c r="B2829" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2829" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" s="6" t="n">
+        <v>44827.427083333336</v>
+      </c>
+      <c r="B2830" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2830" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" s="6" t="n">
+        <v>44827.4375</v>
+      </c>
+      <c r="B2831" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2831" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" s="6" t="n">
+        <v>44827.447916666664</v>
+      </c>
+      <c r="B2832" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2832" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" s="6" t="n">
+        <v>44827.458333333336</v>
+      </c>
+      <c r="B2833" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2833" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" s="6" t="n">
+        <v>44827.46875</v>
+      </c>
+      <c r="B2834" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2834" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" s="6" t="n">
+        <v>44827.479166666664</v>
+      </c>
+      <c r="B2835" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2835" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" s="6" t="n">
+        <v>44827.489583333336</v>
+      </c>
+      <c r="B2836" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2836" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" s="6" t="n">
+        <v>44827.5</v>
+      </c>
+      <c r="B2837" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2837" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" s="6" t="n">
+        <v>44827.510416666664</v>
+      </c>
+      <c r="B2838" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2838" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" s="6" t="n">
+        <v>44827.520833333336</v>
+      </c>
+      <c r="B2839" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2839" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" s="6" t="n">
+        <v>44827.53125</v>
+      </c>
+      <c r="B2840" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2840" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" s="6" t="n">
+        <v>44827.541666666664</v>
+      </c>
+      <c r="B2841" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2841" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" s="6" t="n">
+        <v>44827.552083333336</v>
+      </c>
+      <c r="B2842" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2842" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" s="6" t="n">
+        <v>44827.5625</v>
+      </c>
+      <c r="B2843" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2843" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" s="6" t="n">
+        <v>44827.572916666664</v>
+      </c>
+      <c r="B2844" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2844" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" s="6" t="n">
+        <v>44827.583333333336</v>
+      </c>
+      <c r="B2845" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2845" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" s="6" t="n">
+        <v>44827.59375</v>
+      </c>
+      <c r="B2846" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2846" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" s="6" t="n">
+        <v>44827.604166666664</v>
+      </c>
+      <c r="B2847" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2847" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" s="6" t="n">
+        <v>44827.614583333336</v>
+      </c>
+      <c r="B2848" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2848" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" s="6" t="n">
+        <v>44827.625</v>
+      </c>
+      <c r="B2849" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2849" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" s="6" t="n">
+        <v>44827.635416666664</v>
+      </c>
+      <c r="B2850" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C2850" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" s="6" t="n">
+        <v>44827.645833333336</v>
+      </c>
+      <c r="B2851" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2851" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" s="6" t="n">
+        <v>44827.65625</v>
+      </c>
+      <c r="B2852" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2852" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" s="6" t="n">
+        <v>44827.666666666664</v>
+      </c>
+      <c r="B2853" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2853" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" s="6" t="n">
+        <v>44827.677083333336</v>
+      </c>
+      <c r="B2854" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2854" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" s="6" t="n">
+        <v>44827.6875</v>
+      </c>
+      <c r="B2855" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2855" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" s="6" t="n">
+        <v>44827.697916666664</v>
+      </c>
+      <c r="B2856" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2856" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" s="6" t="n">
+        <v>44827.708333333336</v>
+      </c>
+      <c r="B2857" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2857" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" s="6" t="n">
+        <v>44827.71875</v>
+      </c>
+      <c r="B2858" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2858" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" s="6" t="n">
+        <v>44827.729166666664</v>
+      </c>
+      <c r="B2859" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2859" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" s="6" t="n">
+        <v>44827.739583333336</v>
+      </c>
+      <c r="B2860" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2860" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" s="6" t="n">
+        <v>44827.75</v>
+      </c>
+      <c r="B2861" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2861" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" s="6" t="n">
+        <v>44827.760416666664</v>
+      </c>
+      <c r="B2862" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2862" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" s="6" t="n">
+        <v>44827.770833333336</v>
+      </c>
+      <c r="B2863" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2863" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" s="6" t="n">
+        <v>44827.78125</v>
+      </c>
+      <c r="B2864" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2864" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" s="6" t="n">
+        <v>44827.791666666664</v>
+      </c>
+      <c r="B2865" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2865" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" s="6" t="n">
+        <v>44827.802083333336</v>
+      </c>
+      <c r="B2866" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2866" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" s="6" t="n">
+        <v>44827.8125</v>
+      </c>
+      <c r="B2867" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2867" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" s="6" t="n">
+        <v>44827.822916666664</v>
+      </c>
+      <c r="B2868" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2868" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" s="6" t="n">
+        <v>44827.833333333336</v>
+      </c>
+      <c r="B2869" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2869" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" s="6" t="n">
+        <v>44827.84375</v>
+      </c>
+      <c r="B2870" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2870" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" s="6" t="n">
+        <v>44827.854166666664</v>
+      </c>
+      <c r="B2871" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2871" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" s="6" t="n">
+        <v>44827.864583333336</v>
+      </c>
+      <c r="B2872" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2872" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" s="6" t="n">
+        <v>44827.875</v>
+      </c>
+      <c r="B2873" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2873" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" s="6" t="n">
+        <v>44827.885416666664</v>
+      </c>
+      <c r="B2874" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2874" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" s="6" t="n">
+        <v>44827.895833333336</v>
+      </c>
+      <c r="B2875" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2875" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" s="6" t="n">
+        <v>44827.90625</v>
+      </c>
+      <c r="B2876" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2876" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" s="6" t="n">
+        <v>44827.916666666664</v>
+      </c>
+      <c r="B2877" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2877" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" s="6" t="n">
+        <v>44827.927083333336</v>
+      </c>
+      <c r="B2878" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2878" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" s="6" t="n">
+        <v>44827.9375</v>
+      </c>
+      <c r="B2879" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2879" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" s="6" t="n">
+        <v>44827.947916666664</v>
+      </c>
+      <c r="B2880" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2880" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" s="6" t="n">
+        <v>44827.958333333336</v>
+      </c>
+      <c r="B2881" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2881" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" s="6" t="n">
+        <v>44827.96875</v>
+      </c>
+      <c r="B2882" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2882" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" s="6" t="n">
+        <v>44827.979166666664</v>
+      </c>
+      <c r="B2883" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2883" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" s="6" t="n">
+        <v>44827.989583333336</v>
+      </c>
+      <c r="B2884" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2884" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" s="6" t="n">
+        <v>44828.0</v>
+      </c>
+      <c r="B2885" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2885" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" s="6" t="n">
+        <v>44828.010416666664</v>
+      </c>
+      <c r="B2886" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2886" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" s="6" t="n">
+        <v>44828.020833333336</v>
+      </c>
+      <c r="B2887" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2887" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" s="6" t="n">
+        <v>44828.03125</v>
+      </c>
+      <c r="B2888" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2888" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" s="6" t="n">
+        <v>44828.041666666664</v>
+      </c>
+      <c r="B2889" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2889" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" s="6" t="n">
+        <v>44828.052083333336</v>
+      </c>
+      <c r="B2890" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2890" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" s="6" t="n">
+        <v>44828.0625</v>
+      </c>
+      <c r="B2891" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2891" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" s="6" t="n">
+        <v>44828.072916666664</v>
+      </c>
+      <c r="B2892" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2892" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" s="6" t="n">
+        <v>44828.083333333336</v>
+      </c>
+      <c r="B2893" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2893" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" s="6" t="n">
+        <v>44828.09375</v>
+      </c>
+      <c r="B2894" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2894" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" s="6" t="n">
+        <v>44828.104166666664</v>
+      </c>
+      <c r="B2895" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2895" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" s="6" t="n">
+        <v>44828.114583333336</v>
+      </c>
+      <c r="B2896" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2896" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" s="6" t="n">
+        <v>44828.125</v>
+      </c>
+      <c r="B2897" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2897" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" s="6" t="n">
+        <v>44828.135416666664</v>
+      </c>
+      <c r="B2898" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2898" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" s="6" t="n">
+        <v>44828.145833333336</v>
+      </c>
+      <c r="B2899" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2899" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" s="6" t="n">
+        <v>44828.15625</v>
+      </c>
+      <c r="B2900" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2900" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" s="6" t="n">
+        <v>44828.166666666664</v>
+      </c>
+      <c r="B2901" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2901" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" s="6" t="n">
+        <v>44828.177083333336</v>
+      </c>
+      <c r="B2902" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2902" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" s="6" t="n">
+        <v>44828.1875</v>
+      </c>
+      <c r="B2903" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2903" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" s="6" t="n">
+        <v>44828.197916666664</v>
+      </c>
+      <c r="B2904" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2904" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" s="6" t="n">
+        <v>44828.208333333336</v>
+      </c>
+      <c r="B2905" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2905" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" s="6" t="n">
+        <v>44828.21875</v>
+      </c>
+      <c r="B2906" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2906" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" s="6" t="n">
+        <v>44828.229166666664</v>
+      </c>
+      <c r="B2907" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2907" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" s="6" t="n">
+        <v>44828.239583333336</v>
+      </c>
+      <c r="B2908" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2908" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" s="6" t="n">
+        <v>44828.25</v>
+      </c>
+      <c r="B2909" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2909" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" s="6" t="n">
+        <v>44828.260416666664</v>
+      </c>
+      <c r="B2910" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2910" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" s="6" t="n">
+        <v>44828.270833333336</v>
+      </c>
+      <c r="B2911" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2911" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" s="6" t="n">
+        <v>44828.28125</v>
+      </c>
+      <c r="B2912" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2912" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" s="6" t="n">
+        <v>44828.291666666664</v>
+      </c>
+      <c r="B2913" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2913" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" s="6" t="n">
+        <v>44828.302083333336</v>
+      </c>
+      <c r="B2914" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2914" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" s="6" t="n">
+        <v>44828.3125</v>
+      </c>
+      <c r="B2915" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2915" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" s="6" t="n">
+        <v>44828.322916666664</v>
+      </c>
+      <c r="B2916" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2916" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" s="6" t="n">
+        <v>44828.333333333336</v>
+      </c>
+      <c r="B2917" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2917" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" s="6" t="n">
+        <v>44828.34375</v>
+      </c>
+      <c r="B2918" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2918" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" s="6" t="n">
+        <v>44828.354166666664</v>
+      </c>
+      <c r="B2919" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2919" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" s="6" t="n">
+        <v>44828.364583333336</v>
+      </c>
+      <c r="B2920" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2920" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" s="6" t="n">
+        <v>44828.375</v>
+      </c>
+      <c r="B2921" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2921" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" s="6" t="n">
+        <v>44828.385416666664</v>
+      </c>
+      <c r="B2922" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2922" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" s="6" t="n">
+        <v>44828.395833333336</v>
+      </c>
+      <c r="B2923" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2923" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" s="6" t="n">
+        <v>44828.40625</v>
+      </c>
+      <c r="B2924" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2924" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" s="6" t="n">
+        <v>44828.416666666664</v>
+      </c>
+      <c r="B2925" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2925" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" s="6" t="n">
+        <v>44828.427083333336</v>
+      </c>
+      <c r="B2926" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2926" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" s="6" t="n">
+        <v>44828.4375</v>
+      </c>
+      <c r="B2927" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2927" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" s="6" t="n">
+        <v>44828.447916666664</v>
+      </c>
+      <c r="B2928" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2928" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" s="6" t="n">
+        <v>44828.458333333336</v>
+      </c>
+      <c r="B2929" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2929" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" s="6" t="n">
+        <v>44828.46875</v>
+      </c>
+      <c r="B2930" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2930" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" s="6" t="n">
+        <v>44828.479166666664</v>
+      </c>
+      <c r="B2931" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2931" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" s="6" t="n">
+        <v>44828.489583333336</v>
+      </c>
+      <c r="B2932" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2932" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" s="6" t="n">
+        <v>44828.5</v>
+      </c>
+      <c r="B2933" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2933" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" s="6" t="n">
+        <v>44828.510416666664</v>
+      </c>
+      <c r="B2934" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2934" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" s="6" t="n">
+        <v>44828.520833333336</v>
+      </c>
+      <c r="B2935" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2935" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" s="6" t="n">
+        <v>44828.53125</v>
+      </c>
+      <c r="B2936" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2936" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" s="6" t="n">
+        <v>44828.541666666664</v>
+      </c>
+      <c r="B2937" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2937" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" s="6" t="n">
+        <v>44828.552083333336</v>
+      </c>
+      <c r="B2938" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2938" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" s="6" t="n">
+        <v>44828.5625</v>
+      </c>
+      <c r="B2939" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C2939" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" s="6" t="n">
+        <v>44828.572916666664</v>
+      </c>
+      <c r="B2940" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2940" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" s="6" t="n">
+        <v>44828.583333333336</v>
+      </c>
+      <c r="B2941" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2941" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" s="6" t="n">
+        <v>44828.59375</v>
+      </c>
+      <c r="B2942" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2942" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" s="6" t="n">
+        <v>44828.604166666664</v>
+      </c>
+      <c r="B2943" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C2943" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" s="6" t="n">
+        <v>44828.614583333336</v>
+      </c>
+      <c r="B2944" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2944" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" s="6" t="n">
+        <v>44828.625</v>
+      </c>
+      <c r="B2945" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2945" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" s="6" t="n">
+        <v>44828.635416666664</v>
+      </c>
+      <c r="B2946" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2946" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" s="6" t="n">
+        <v>44828.645833333336</v>
+      </c>
+      <c r="B2947" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C2947" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" s="6" t="n">
+        <v>44828.65625</v>
+      </c>
+      <c r="B2948" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C2948" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" s="6" t="n">
+        <v>44828.666666666664</v>
+      </c>
+      <c r="B2949" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C2949" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" s="6" t="n">
+        <v>44828.677083333336</v>
+      </c>
+      <c r="B2950" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2950" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" s="6" t="n">
+        <v>44828.6875</v>
+      </c>
+      <c r="B2951" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C2951" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" s="6" t="n">
+        <v>44828.697916666664</v>
+      </c>
+      <c r="B2952" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C2952" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" s="6" t="n">
+        <v>44828.708333333336</v>
+      </c>
+      <c r="B2953" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C2953" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" s="6" t="n">
+        <v>44828.71875</v>
+      </c>
+      <c r="B2954" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2954" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" s="6" t="n">
+        <v>44828.729166666664</v>
+      </c>
+      <c r="B2955" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C2955" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" s="6" t="n">
+        <v>44828.739583333336</v>
+      </c>
+      <c r="B2956" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2956" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" s="6" t="n">
+        <v>44828.75</v>
+      </c>
+      <c r="B2957" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C2957" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" s="6" t="n">
+        <v>44828.760416666664</v>
+      </c>
+      <c r="B2958" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2958" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" s="6" t="n">
+        <v>44828.770833333336</v>
+      </c>
+      <c r="B2959" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2959" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" s="6" t="n">
+        <v>44828.78125</v>
+      </c>
+      <c r="B2960" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2960" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" s="6" t="n">
+        <v>44828.791666666664</v>
+      </c>
+      <c r="B2961" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2961" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" s="6" t="n">
+        <v>44828.802083333336</v>
+      </c>
+      <c r="B2962" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2962" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" s="6" t="n">
+        <v>44828.8125</v>
+      </c>
+      <c r="B2963" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2963" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" s="6" t="n">
+        <v>44828.822916666664</v>
+      </c>
+      <c r="B2964" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2964" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" s="6" t="n">
+        <v>44828.833333333336</v>
+      </c>
+      <c r="B2965" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2965" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" s="6" t="n">
+        <v>44828.84375</v>
+      </c>
+      <c r="B2966" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2966" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" s="6" t="n">
+        <v>44828.854166666664</v>
+      </c>
+      <c r="B2967" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2967" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" s="6" t="n">
+        <v>44828.864583333336</v>
+      </c>
+      <c r="B2968" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2968" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" s="6" t="n">
+        <v>44828.875</v>
+      </c>
+      <c r="B2969" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2969" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" s="6" t="n">
+        <v>44828.885416666664</v>
+      </c>
+      <c r="B2970" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2970" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" s="6" t="n">
+        <v>44828.895833333336</v>
+      </c>
+      <c r="B2971" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2971" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" s="6" t="n">
+        <v>44828.90625</v>
+      </c>
+      <c r="B2972" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2972" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" s="6" t="n">
+        <v>44828.916666666664</v>
+      </c>
+      <c r="B2973" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2973" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" s="6" t="n">
+        <v>44828.927083333336</v>
+      </c>
+      <c r="B2974" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2974" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" s="6" t="n">
+        <v>44828.9375</v>
+      </c>
+      <c r="B2975" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2975" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" s="6" t="n">
+        <v>44828.947916666664</v>
+      </c>
+      <c r="B2976" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2976" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" s="6" t="n">
+        <v>44828.958333333336</v>
+      </c>
+      <c r="B2977" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2977" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" s="6" t="n">
+        <v>44828.96875</v>
+      </c>
+      <c r="B2978" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2978" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" s="6" t="n">
+        <v>44828.979166666664</v>
+      </c>
+      <c r="B2979" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2979" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" s="6" t="n">
+        <v>44828.989583333336</v>
+      </c>
+      <c r="B2980" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2980" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" s="6" t="n">
+        <v>44829.0</v>
+      </c>
+      <c r="B2981" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2981" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" s="6" t="n">
+        <v>44829.010416666664</v>
+      </c>
+      <c r="B2982" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2982" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" s="6" t="n">
+        <v>44829.020833333336</v>
+      </c>
+      <c r="B2983" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" s="6" t="n">
+        <v>44829.03125</v>
+      </c>
+      <c r="B2984" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2984" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" s="6" t="n">
+        <v>44829.041666666664</v>
+      </c>
+      <c r="B2985" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2985" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" s="6" t="n">
+        <v>44829.052083333336</v>
+      </c>
+      <c r="B2986" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2986" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" s="6" t="n">
+        <v>44829.0625</v>
+      </c>
+      <c r="B2987" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2987" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" s="6" t="n">
+        <v>44829.072916666664</v>
+      </c>
+      <c r="B2988" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2988" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" s="6" t="n">
+        <v>44829.083333333336</v>
+      </c>
+      <c r="B2989" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2989" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" s="6" t="n">
+        <v>44829.09375</v>
+      </c>
+      <c r="B2990" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2990" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" s="6" t="n">
+        <v>44829.104166666664</v>
+      </c>
+      <c r="B2991" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2991" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" s="6" t="n">
+        <v>44829.114583333336</v>
+      </c>
+      <c r="B2992" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2992" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" s="6" t="n">
+        <v>44829.125</v>
+      </c>
+      <c r="B2993" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2993" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" s="6" t="n">
+        <v>44829.135416666664</v>
+      </c>
+      <c r="B2994" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2994" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" s="6" t="n">
+        <v>44829.145833333336</v>
+      </c>
+      <c r="B2995" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2995" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" s="6" t="n">
+        <v>44829.15625</v>
+      </c>
+      <c r="B2996" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2996" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" s="6" t="n">
+        <v>44829.166666666664</v>
+      </c>
+      <c r="B2997" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2997" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" s="6" t="n">
+        <v>44829.177083333336</v>
+      </c>
+      <c r="B2998" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2998" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" s="6" t="n">
+        <v>44829.1875</v>
+      </c>
+      <c r="B2999" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2999" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" s="6" t="n">
+        <v>44829.197916666664</v>
+      </c>
+      <c r="B3000" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3000" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" s="6" t="n">
+        <v>44829.208333333336</v>
+      </c>
+      <c r="B3001" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3001" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" s="6" t="n">
+        <v>44829.21875</v>
+      </c>
+      <c r="B3002" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3002" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" s="6" t="n">
+        <v>44829.229166666664</v>
+      </c>
+      <c r="B3003" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3003" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" s="6" t="n">
+        <v>44829.239583333336</v>
+      </c>
+      <c r="B3004" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3004" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" s="6" t="n">
+        <v>44829.25</v>
+      </c>
+      <c r="B3005" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3005" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" s="6" t="n">
+        <v>44829.260416666664</v>
+      </c>
+      <c r="B3006" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3006" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" s="6" t="n">
+        <v>44829.270833333336</v>
+      </c>
+      <c r="B3007" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3007" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" s="6" t="n">
+        <v>44829.28125</v>
+      </c>
+      <c r="B3008" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3008" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" s="6" t="n">
+        <v>44829.291666666664</v>
+      </c>
+      <c r="B3009" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3009" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" s="6" t="n">
+        <v>44829.302083333336</v>
+      </c>
+      <c r="B3010" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3010" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" s="6" t="n">
+        <v>44829.3125</v>
+      </c>
+      <c r="B3011" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3011" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" s="6" t="n">
+        <v>44829.322916666664</v>
+      </c>
+      <c r="B3012" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3012" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" s="6" t="n">
+        <v>44829.333333333336</v>
+      </c>
+      <c r="B3013" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3013" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" s="6" t="n">
+        <v>44829.34375</v>
+      </c>
+      <c r="B3014" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3014" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" s="6" t="n">
+        <v>44829.354166666664</v>
+      </c>
+      <c r="B3015" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3015" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" s="6" t="n">
+        <v>44829.364583333336</v>
+      </c>
+      <c r="B3016" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3016" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" s="6" t="n">
+        <v>44829.375</v>
+      </c>
+      <c r="B3017" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3017" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" s="6" t="n">
+        <v>44829.385416666664</v>
+      </c>
+      <c r="B3018" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3018" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" s="6" t="n">
+        <v>44829.395833333336</v>
+      </c>
+      <c r="B3019" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3019" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" s="6" t="n">
+        <v>44829.40625</v>
+      </c>
+      <c r="B3020" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3020" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" s="6" t="n">
+        <v>44829.416666666664</v>
+      </c>
+      <c r="B3021" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3021" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" s="6" t="n">
+        <v>44829.427083333336</v>
+      </c>
+      <c r="B3022" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3022" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" s="6" t="n">
+        <v>44829.4375</v>
+      </c>
+      <c r="B3023" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3023" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" s="6" t="n">
+        <v>44829.447916666664</v>
+      </c>
+      <c r="B3024" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3024" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" s="6" t="n">
+        <v>44829.458333333336</v>
+      </c>
+      <c r="B3025" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3025" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" s="6" t="n">
+        <v>44829.46875</v>
+      </c>
+      <c r="B3026" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3026" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" s="6" t="n">
+        <v>44829.479166666664</v>
+      </c>
+      <c r="B3027" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3027" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" s="6" t="n">
+        <v>44829.489583333336</v>
+      </c>
+      <c r="B3028" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3028" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" s="6" t="n">
+        <v>44829.5</v>
+      </c>
+      <c r="B3029" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3029" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" s="6" t="n">
+        <v>44829.510416666664</v>
+      </c>
+      <c r="B3030" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3030" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" s="6" t="n">
+        <v>44829.520833333336</v>
+      </c>
+      <c r="B3031" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3031" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" s="6" t="n">
+        <v>44829.53125</v>
+      </c>
+      <c r="B3032" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3032" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" s="6" t="n">
+        <v>44829.541666666664</v>
+      </c>
+      <c r="B3033" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3033" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" s="6" t="n">
+        <v>44829.552083333336</v>
+      </c>
+      <c r="B3034" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3034" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" s="6" t="n">
+        <v>44829.5625</v>
+      </c>
+      <c r="B3035" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3035" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" s="6" t="n">
+        <v>44829.572916666664</v>
+      </c>
+      <c r="B3036" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3036" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" s="6" t="n">
+        <v>44829.583333333336</v>
+      </c>
+      <c r="B3037" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3037" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" s="6" t="n">
+        <v>44829.59375</v>
+      </c>
+      <c r="B3038" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3038" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" s="6" t="n">
+        <v>44829.604166666664</v>
+      </c>
+      <c r="B3039" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3039" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" s="6" t="n">
+        <v>44829.614583333336</v>
+      </c>
+      <c r="B3040" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3040" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" s="6" t="n">
+        <v>44829.625</v>
+      </c>
+      <c r="B3041" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3041" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" s="6" t="n">
+        <v>44829.635416666664</v>
+      </c>
+      <c r="B3042" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3042" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" s="6" t="n">
+        <v>44829.645833333336</v>
+      </c>
+      <c r="B3043" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3043" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" s="6" t="n">
+        <v>44829.65625</v>
+      </c>
+      <c r="B3044" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3044" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" s="6" t="n">
+        <v>44829.666666666664</v>
+      </c>
+      <c r="B3045" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3045" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" s="6" t="n">
+        <v>44829.677083333336</v>
+      </c>
+      <c r="B3046" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3046" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" s="6" t="n">
+        <v>44829.6875</v>
+      </c>
+      <c r="B3047" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3047" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" s="6" t="n">
+        <v>44829.697916666664</v>
+      </c>
+      <c r="B3048" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3048" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" s="6" t="n">
+        <v>44829.708333333336</v>
+      </c>
+      <c r="B3049" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3049" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" s="6" t="n">
+        <v>44829.71875</v>
+      </c>
+      <c r="B3050" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3050" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" s="6" t="n">
+        <v>44829.729166666664</v>
+      </c>
+      <c r="B3051" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3051" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" s="6" t="n">
+        <v>44829.739583333336</v>
+      </c>
+      <c r="B3052" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3052" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" s="6" t="n">
+        <v>44829.75</v>
+      </c>
+      <c r="B3053" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3053" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" s="6" t="n">
+        <v>44829.760416666664</v>
+      </c>
+      <c r="B3054" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3054" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" s="6" t="n">
+        <v>44829.770833333336</v>
+      </c>
+      <c r="B3055" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3055" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" s="6" t="n">
+        <v>44829.78125</v>
+      </c>
+      <c r="B3056" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3056" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" s="6" t="n">
+        <v>44829.791666666664</v>
+      </c>
+      <c r="B3057" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3057" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" s="6" t="n">
+        <v>44829.802083333336</v>
+      </c>
+      <c r="B3058" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3058" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" s="6" t="n">
+        <v>44829.8125</v>
+      </c>
+      <c r="B3059" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3059" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" s="6" t="n">
+        <v>44829.822916666664</v>
+      </c>
+      <c r="B3060" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3060" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" s="6" t="n">
+        <v>44829.833333333336</v>
+      </c>
+      <c r="B3061" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3061" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" s="6" t="n">
+        <v>44829.84375</v>
+      </c>
+      <c r="B3062" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3062" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" s="6" t="n">
+        <v>44829.854166666664</v>
+      </c>
+      <c r="B3063" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3063" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" s="6" t="n">
+        <v>44829.864583333336</v>
+      </c>
+      <c r="B3064" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3064" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" s="6" t="n">
+        <v>44829.875</v>
+      </c>
+      <c r="B3065" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3065" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" s="6" t="n">
+        <v>44829.885416666664</v>
+      </c>
+      <c r="B3066" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3066" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" s="6" t="n">
+        <v>44829.895833333336</v>
+      </c>
+      <c r="B3067" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3067" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" s="6" t="n">
+        <v>44829.90625</v>
+      </c>
+      <c r="B3068" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3068" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" s="6" t="n">
+        <v>44829.916666666664</v>
+      </c>
+      <c r="B3069" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3069" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" s="6" t="n">
+        <v>44829.927083333336</v>
+      </c>
+      <c r="B3070" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3070" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" s="6" t="n">
+        <v>44829.9375</v>
+      </c>
+      <c r="B3071" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3071" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" s="6" t="n">
+        <v>44829.947916666664</v>
+      </c>
+      <c r="B3072" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3072" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" s="6" t="n">
+        <v>44829.958333333336</v>
+      </c>
+      <c r="B3073" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3073" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" s="6" t="n">
+        <v>44829.96875</v>
+      </c>
+      <c r="B3074" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3074" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" s="6" t="n">
+        <v>44829.979166666664</v>
+      </c>
+      <c r="B3075" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3075" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" s="6" t="n">
+        <v>44829.989583333336</v>
+      </c>
+      <c r="B3076" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3076" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" s="6" t="n">
+        <v>44830.0</v>
+      </c>
+      <c r="B3077" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3077" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" s="6" t="n">
+        <v>44830.010416666664</v>
+      </c>
+      <c r="B3078" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3078" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" s="6" t="n">
+        <v>44830.020833333336</v>
+      </c>
+      <c r="B3079" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3079" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" s="6" t="n">
+        <v>44830.03125</v>
+      </c>
+      <c r="B3080" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3080" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" s="6" t="n">
+        <v>44830.041666666664</v>
+      </c>
+      <c r="B3081" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3081" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" s="6" t="n">
+        <v>44830.052083333336</v>
+      </c>
+      <c r="B3082" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3082" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" s="6" t="n">
+        <v>44830.0625</v>
+      </c>
+      <c r="B3083" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3083" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" s="6" t="n">
+        <v>44830.072916666664</v>
+      </c>
+      <c r="B3084" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3084" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" s="6" t="n">
+        <v>44830.083333333336</v>
+      </c>
+      <c r="B3085" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3085" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" s="6" t="n">
+        <v>44830.09375</v>
+      </c>
+      <c r="B3086" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3086" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" s="6" t="n">
+        <v>44830.104166666664</v>
+      </c>
+      <c r="B3087" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3087" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" s="6" t="n">
+        <v>44830.114583333336</v>
+      </c>
+      <c r="B3088" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3088" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" s="6" t="n">
+        <v>44830.125</v>
+      </c>
+      <c r="B3089" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3089" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" s="6" t="n">
+        <v>44830.135416666664</v>
+      </c>
+      <c r="B3090" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3090" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" s="6" t="n">
+        <v>44830.145833333336</v>
+      </c>
+      <c r="B3091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" s="6" t="n">
+        <v>44830.15625</v>
+      </c>
+      <c r="B3092" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3092" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" s="6" t="n">
+        <v>44830.166666666664</v>
+      </c>
+      <c r="B3093" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3093" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" s="6" t="n">
+        <v>44830.177083333336</v>
+      </c>
+      <c r="B3094" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3094" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" s="6" t="n">
+        <v>44830.1875</v>
+      </c>
+      <c r="B3095" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3095" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" s="6" t="n">
+        <v>44830.197916666664</v>
+      </c>
+      <c r="B3096" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3096" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" s="6" t="n">
+        <v>44830.208333333336</v>
+      </c>
+      <c r="B3097" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3097" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" s="6" t="n">
+        <v>44830.21875</v>
+      </c>
+      <c r="B3098" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3098" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" s="6" t="n">
+        <v>44830.229166666664</v>
+      </c>
+      <c r="B3099" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3099" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" s="6" t="n">
+        <v>44830.239583333336</v>
+      </c>
+      <c r="B3100" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3100" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" s="6" t="n">
+        <v>44830.25</v>
+      </c>
+      <c r="B3101" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3101" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" s="6" t="n">
+        <v>44830.260416666664</v>
+      </c>
+      <c r="B3102" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3102" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" s="6" t="n">
+        <v>44830.270833333336</v>
+      </c>
+      <c r="B3103" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3103" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" s="6" t="n">
+        <v>44830.28125</v>
+      </c>
+      <c r="B3104" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3104" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" s="6" t="n">
+        <v>44830.291666666664</v>
+      </c>
+      <c r="B3105" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3105" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" s="6" t="n">
+        <v>44830.302083333336</v>
+      </c>
+      <c r="B3106" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3106" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" s="6" t="n">
+        <v>44830.3125</v>
+      </c>
+      <c r="B3107" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3107" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" s="6" t="n">
+        <v>44830.322916666664</v>
+      </c>
+      <c r="B3108" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3108" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" s="6" t="n">
+        <v>44830.333333333336</v>
+      </c>
+      <c r="B3109" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3109" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" s="6" t="n">
+        <v>44830.34375</v>
+      </c>
+      <c r="B3110" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3110" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" s="6" t="n">
+        <v>44830.354166666664</v>
+      </c>
+      <c r="B3111" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3111" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" s="6" t="n">
+        <v>44830.364583333336</v>
+      </c>
+      <c r="B3112" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3112" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" s="6" t="n">
+        <v>44830.375</v>
+      </c>
+      <c r="B3113" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3113" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" s="6" t="n">
+        <v>44830.385416666664</v>
+      </c>
+      <c r="B3114" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3114" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" s="6" t="n">
+        <v>44830.395833333336</v>
+      </c>
+      <c r="B3115" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3115" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" s="6" t="n">
+        <v>44830.40625</v>
+      </c>
+      <c r="B3116" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3116" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" s="6" t="n">
+        <v>44830.416666666664</v>
+      </c>
+      <c r="B3117" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3117" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" s="6" t="n">
+        <v>44830.427083333336</v>
+      </c>
+      <c r="B3118" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3118" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" s="6" t="n">
+        <v>44830.4375</v>
+      </c>
+      <c r="B3119" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3119" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" s="6" t="n">
+        <v>44830.447916666664</v>
+      </c>
+      <c r="B3120" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3120" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" s="6" t="n">
+        <v>44830.458333333336</v>
+      </c>
+      <c r="B3121" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3121" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" s="6" t="n">
+        <v>44830.46875</v>
+      </c>
+      <c r="B3122" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3122" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" s="6" t="n">
+        <v>44830.479166666664</v>
+      </c>
+      <c r="B3123" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3123" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" s="6" t="n">
+        <v>44830.489583333336</v>
+      </c>
+      <c r="B3124" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3124" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" s="6" t="n">
+        <v>44830.5</v>
+      </c>
+      <c r="B3125" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3125" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" s="6" t="n">
+        <v>44830.510416666664</v>
+      </c>
+      <c r="B3126" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3126" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" s="6" t="n">
+        <v>44830.520833333336</v>
+      </c>
+      <c r="B3127" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3127" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" s="6" t="n">
+        <v>44830.53125</v>
+      </c>
+      <c r="B3128" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3128" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" s="6" t="n">
+        <v>44830.541666666664</v>
+      </c>
+      <c r="B3129" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3129" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" s="6" t="n">
+        <v>44830.552083333336</v>
+      </c>
+      <c r="B3130" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3130" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" s="6" t="n">
+        <v>44830.5625</v>
+      </c>
+      <c r="B3131" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3131" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" s="6" t="n">
+        <v>44830.572916666664</v>
+      </c>
+      <c r="B3132" s="1"/>
+      <c r="C3132" s="1"/>
+    </row>
+    <row r="3133">
+      <c r="A3133" s="6" t="n">
+        <v>44830.583333333336</v>
+      </c>
+      <c r="B3133" s="1"/>
+      <c r="C3133" s="1"/>
+    </row>
+    <row r="3134">
+      <c r="A3134" s="6" t="n">
+        <v>44830.59375</v>
+      </c>
+      <c r="B3134" s="1"/>
+      <c r="C3134" s="1"/>
+    </row>
+    <row r="3135">
+      <c r="A3135" s="6" t="n">
+        <v>44830.604166666664</v>
+      </c>
+      <c r="B3135" s="1"/>
+      <c r="C3135" s="1"/>
+    </row>
+    <row r="3136">
+      <c r="A3136" s="6" t="n">
+        <v>44830.614583333336</v>
+      </c>
+      <c r="B3136" s="1"/>
+      <c r="C3136" s="1"/>
+    </row>
+    <row r="3137">
+      <c r="A3137" s="6" t="n">
+        <v>44830.625</v>
+      </c>
+      <c r="B3137" s="1"/>
+      <c r="C3137" s="1"/>
+    </row>
+    <row r="3138">
+      <c r="A3138" s="6" t="n">
+        <v>44830.635416666664</v>
+      </c>
+      <c r="B3138" s="1"/>
+      <c r="C3138" s="1"/>
+    </row>
+    <row r="3139">
+      <c r="A3139" s="6" t="n">
+        <v>44830.645833333336</v>
+      </c>
+      <c r="B3139" s="1"/>
+      <c r="C3139" s="1"/>
+    </row>
+    <row r="3140">
+      <c r="A3140" s="6" t="n">
+        <v>44830.65625</v>
+      </c>
+      <c r="B3140" s="1"/>
+      <c r="C3140" s="1"/>
+    </row>
+    <row r="3141">
+      <c r="A3141" s="6" t="n">
+        <v>44830.666666666664</v>
+      </c>
+      <c r="B3141" s="1"/>
+      <c r="C3141" s="1"/>
+    </row>
+    <row r="3142">
+      <c r="A3142" s="6" t="n">
+        <v>44830.677083333336</v>
+      </c>
+      <c r="B3142" s="1"/>
+      <c r="C3142" s="1"/>
+    </row>
+    <row r="3143">
+      <c r="A3143" s="6" t="n">
+        <v>44830.6875</v>
+      </c>
+      <c r="B3143" s="1"/>
+      <c r="C3143" s="1"/>
+    </row>
+    <row r="3144">
+      <c r="A3144" s="6" t="n">
+        <v>44830.697916666664</v>
+      </c>
+      <c r="B3144" s="1"/>
+      <c r="C3144" s="1"/>
+    </row>
+    <row r="3145">
+      <c r="A3145" s="6" t="n">
+        <v>44830.708333333336</v>
+      </c>
+      <c r="B3145" s="1"/>
+      <c r="C3145" s="1"/>
+    </row>
+    <row r="3146">
+      <c r="A3146" s="6" t="n">
+        <v>44830.71875</v>
+      </c>
+      <c r="B3146" s="1"/>
+      <c r="C3146" s="1"/>
+    </row>
+    <row r="3147">
+      <c r="A3147" s="6" t="n">
+        <v>44830.729166666664</v>
+      </c>
+      <c r="B3147" s="1"/>
+      <c r="C3147" s="1"/>
+    </row>
+    <row r="3148">
+      <c r="A3148" s="6" t="n">
+        <v>44830.739583333336</v>
+      </c>
+      <c r="B3148" s="1"/>
+      <c r="C3148" s="1"/>
+    </row>
+    <row r="3149">
+      <c r="A3149" s="6" t="n">
+        <v>44830.75</v>
+      </c>
+      <c r="B3149" s="1"/>
+      <c r="C3149" s="1"/>
+    </row>
+    <row r="3150">
+      <c r="A3150" s="6" t="n">
+        <v>44830.760416666664</v>
+      </c>
+      <c r="B3150" s="1"/>
+      <c r="C3150" s="1"/>
+    </row>
+    <row r="3151">
+      <c r="A3151" s="6" t="n">
+        <v>44830.770833333336</v>
+      </c>
+      <c r="B3151" s="1"/>
+      <c r="C3151" s="1"/>
+    </row>
+    <row r="3152">
+      <c r="A3152" s="6" t="n">
+        <v>44830.78125</v>
+      </c>
+      <c r="B3152" s="1"/>
+      <c r="C3152" s="1"/>
+    </row>
+    <row r="3153">
+      <c r="A3153" s="6" t="n">
+        <v>44830.791666666664</v>
+      </c>
+      <c r="B3153" s="1"/>
+      <c r="C3153" s="1"/>
+    </row>
+    <row r="3154">
+      <c r="A3154" s="6" t="n">
+        <v>44830.802083333336</v>
+      </c>
+      <c r="B3154" s="1"/>
+      <c r="C3154" s="1"/>
+    </row>
+    <row r="3155">
+      <c r="A3155" s="6" t="n">
+        <v>44830.8125</v>
+      </c>
+      <c r="B3155" s="1"/>
+      <c r="C3155" s="1"/>
+    </row>
+    <row r="3156">
+      <c r="A3156" s="6" t="n">
+        <v>44830.822916666664</v>
+      </c>
+      <c r="B3156" s="1"/>
+      <c r="C3156" s="1"/>
+    </row>
+    <row r="3157">
+      <c r="A3157" s="6" t="n">
+        <v>44830.833333333336</v>
+      </c>
+      <c r="B3157" s="1"/>
+      <c r="C3157" s="1"/>
+    </row>
+    <row r="3158">
+      <c r="A3158" s="6" t="n">
+        <v>44830.84375</v>
+      </c>
+      <c r="B3158" s="1"/>
+      <c r="C3158" s="1"/>
+    </row>
+    <row r="3159">
+      <c r="A3159" s="6" t="n">
+        <v>44830.854166666664</v>
+      </c>
+      <c r="B3159" s="1"/>
+      <c r="C3159" s="1"/>
+    </row>
+    <row r="3160">
+      <c r="A3160" s="6" t="n">
+        <v>44830.864583333336</v>
+      </c>
+      <c r="B3160" s="1"/>
+      <c r="C3160" s="1"/>
+    </row>
+    <row r="3161">
+      <c r="A3161" s="6" t="n">
+        <v>44830.875</v>
+      </c>
+      <c r="B3161" s="1"/>
+      <c r="C3161" s="1"/>
+    </row>
+    <row r="3162">
+      <c r="A3162" s="6" t="n">
+        <v>44830.885416666664</v>
+      </c>
+      <c r="B3162" s="1"/>
+      <c r="C3162" s="1"/>
+    </row>
+    <row r="3163">
+      <c r="A3163" s="6" t="n">
+        <v>44830.895833333336</v>
+      </c>
+      <c r="B3163" s="1"/>
+      <c r="C3163" s="1"/>
+    </row>
+    <row r="3164">
+      <c r="A3164" s="6" t="n">
+        <v>44830.90625</v>
+      </c>
+      <c r="B3164" s="1"/>
+      <c r="C3164" s="1"/>
+    </row>
+    <row r="3165">
+      <c r="A3165" s="6" t="n">
+        <v>44830.916666666664</v>
+      </c>
+      <c r="B3165" s="1"/>
+      <c r="C3165" s="1"/>
+    </row>
+    <row r="3166">
+      <c r="A3166" s="6" t="n">
+        <v>44830.927083333336</v>
+      </c>
+      <c r="B3166" s="1"/>
+      <c r="C3166" s="1"/>
+    </row>
+    <row r="3167">
+      <c r="A3167" s="6" t="n">
+        <v>44830.9375</v>
+      </c>
+      <c r="B3167" s="1"/>
+      <c r="C3167" s="1"/>
+    </row>
+    <row r="3168">
+      <c r="A3168" s="6" t="n">
+        <v>44830.947916666664</v>
+      </c>
+      <c r="B3168" s="1"/>
+      <c r="C3168" s="1"/>
+    </row>
+    <row r="3169">
+      <c r="A3169" s="6" t="n">
+        <v>44830.958333333336</v>
+      </c>
+      <c r="B3169" s="1"/>
+      <c r="C3169" s="1"/>
+    </row>
+    <row r="3170">
+      <c r="A3170" s="6" t="n">
+        <v>44830.96875</v>
+      </c>
+      <c r="B3170" s="1"/>
+      <c r="C3170" s="1"/>
+    </row>
+    <row r="3171">
+      <c r="A3171" s="6" t="n">
+        <v>44830.979166666664</v>
+      </c>
+      <c r="B3171" s="1"/>
+      <c r="C3171" s="1"/>
+    </row>
+    <row r="3172">
+      <c r="A3172" s="6" t="n">
+        <v>44830.989583333336</v>
+      </c>
+      <c r="B3172" s="1"/>
+      <c r="C3172" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/export_data_domain_7992.xlsx
+++ b/data/export_data_domain_7992.xlsx
@@ -34572,288 +34572,2384 @@
       <c r="A3132" s="6" t="n">
         <v>44830.572916666664</v>
       </c>
-      <c r="B3132" s="1"/>
-      <c r="C3132" s="1"/>
+      <c r="B3132" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3132" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3133">
       <c r="A3133" s="6" t="n">
         <v>44830.583333333336</v>
       </c>
-      <c r="B3133" s="1"/>
-      <c r="C3133" s="1"/>
+      <c r="B3133" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3133" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3134">
       <c r="A3134" s="6" t="n">
         <v>44830.59375</v>
       </c>
-      <c r="B3134" s="1"/>
-      <c r="C3134" s="1"/>
+      <c r="B3134" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3134" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3135">
       <c r="A3135" s="6" t="n">
         <v>44830.604166666664</v>
       </c>
-      <c r="B3135" s="1"/>
-      <c r="C3135" s="1"/>
+      <c r="B3135" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3135" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3136">
       <c r="A3136" s="6" t="n">
         <v>44830.614583333336</v>
       </c>
-      <c r="B3136" s="1"/>
-      <c r="C3136" s="1"/>
+      <c r="B3136" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3136" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3137">
       <c r="A3137" s="6" t="n">
         <v>44830.625</v>
       </c>
-      <c r="B3137" s="1"/>
-      <c r="C3137" s="1"/>
+      <c r="B3137" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3137" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3138">
       <c r="A3138" s="6" t="n">
         <v>44830.635416666664</v>
       </c>
-      <c r="B3138" s="1"/>
-      <c r="C3138" s="1"/>
+      <c r="B3138" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3138" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3139">
       <c r="A3139" s="6" t="n">
         <v>44830.645833333336</v>
       </c>
-      <c r="B3139" s="1"/>
-      <c r="C3139" s="1"/>
+      <c r="B3139" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3139" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3140">
       <c r="A3140" s="6" t="n">
         <v>44830.65625</v>
       </c>
-      <c r="B3140" s="1"/>
-      <c r="C3140" s="1"/>
+      <c r="B3140" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3140" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3141">
       <c r="A3141" s="6" t="n">
         <v>44830.666666666664</v>
       </c>
-      <c r="B3141" s="1"/>
-      <c r="C3141" s="1"/>
+      <c r="B3141" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3141" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3142">
       <c r="A3142" s="6" t="n">
         <v>44830.677083333336</v>
       </c>
-      <c r="B3142" s="1"/>
-      <c r="C3142" s="1"/>
+      <c r="B3142" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3142" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3143">
       <c r="A3143" s="6" t="n">
         <v>44830.6875</v>
       </c>
-      <c r="B3143" s="1"/>
-      <c r="C3143" s="1"/>
+      <c r="B3143" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3143" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="3144">
       <c r="A3144" s="6" t="n">
         <v>44830.697916666664</v>
       </c>
-      <c r="B3144" s="1"/>
-      <c r="C3144" s="1"/>
+      <c r="B3144" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3144" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3145">
       <c r="A3145" s="6" t="n">
         <v>44830.708333333336</v>
       </c>
-      <c r="B3145" s="1"/>
-      <c r="C3145" s="1"/>
+      <c r="B3145" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3145" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3146">
       <c r="A3146" s="6" t="n">
         <v>44830.71875</v>
       </c>
-      <c r="B3146" s="1"/>
-      <c r="C3146" s="1"/>
+      <c r="B3146" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3146" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3147">
       <c r="A3147" s="6" t="n">
         <v>44830.729166666664</v>
       </c>
-      <c r="B3147" s="1"/>
-      <c r="C3147" s="1"/>
+      <c r="B3147" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3147" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3148">
       <c r="A3148" s="6" t="n">
         <v>44830.739583333336</v>
       </c>
-      <c r="B3148" s="1"/>
-      <c r="C3148" s="1"/>
+      <c r="B3148" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3148" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3149">
       <c r="A3149" s="6" t="n">
         <v>44830.75</v>
       </c>
-      <c r="B3149" s="1"/>
-      <c r="C3149" s="1"/>
+      <c r="B3149" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3149" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3150">
       <c r="A3150" s="6" t="n">
         <v>44830.760416666664</v>
       </c>
-      <c r="B3150" s="1"/>
-      <c r="C3150" s="1"/>
+      <c r="B3150" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3150" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3151">
       <c r="A3151" s="6" t="n">
         <v>44830.770833333336</v>
       </c>
-      <c r="B3151" s="1"/>
-      <c r="C3151" s="1"/>
+      <c r="B3151" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3151" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3152">
       <c r="A3152" s="6" t="n">
         <v>44830.78125</v>
       </c>
-      <c r="B3152" s="1"/>
-      <c r="C3152" s="1"/>
+      <c r="B3152" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3152" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3153">
       <c r="A3153" s="6" t="n">
         <v>44830.791666666664</v>
       </c>
-      <c r="B3153" s="1"/>
-      <c r="C3153" s="1"/>
+      <c r="B3153" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3153" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3154">
       <c r="A3154" s="6" t="n">
         <v>44830.802083333336</v>
       </c>
-      <c r="B3154" s="1"/>
-      <c r="C3154" s="1"/>
+      <c r="B3154" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3154" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3155">
       <c r="A3155" s="6" t="n">
         <v>44830.8125</v>
       </c>
-      <c r="B3155" s="1"/>
-      <c r="C3155" s="1"/>
+      <c r="B3155" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3155" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3156">
       <c r="A3156" s="6" t="n">
         <v>44830.822916666664</v>
       </c>
-      <c r="B3156" s="1"/>
-      <c r="C3156" s="1"/>
+      <c r="B3156" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3156" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3157">
       <c r="A3157" s="6" t="n">
         <v>44830.833333333336</v>
       </c>
-      <c r="B3157" s="1"/>
-      <c r="C3157" s="1"/>
+      <c r="B3157" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3157" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3158">
       <c r="A3158" s="6" t="n">
         <v>44830.84375</v>
       </c>
-      <c r="B3158" s="1"/>
-      <c r="C3158" s="1"/>
+      <c r="B3158" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3158" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3159">
       <c r="A3159" s="6" t="n">
         <v>44830.854166666664</v>
       </c>
-      <c r="B3159" s="1"/>
-      <c r="C3159" s="1"/>
+      <c r="B3159" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3159" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3160">
       <c r="A3160" s="6" t="n">
         <v>44830.864583333336</v>
       </c>
-      <c r="B3160" s="1"/>
-      <c r="C3160" s="1"/>
+      <c r="B3160" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3160" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3161">
       <c r="A3161" s="6" t="n">
         <v>44830.875</v>
       </c>
-      <c r="B3161" s="1"/>
-      <c r="C3161" s="1"/>
+      <c r="B3161" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3161" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3162">
       <c r="A3162" s="6" t="n">
         <v>44830.885416666664</v>
       </c>
-      <c r="B3162" s="1"/>
-      <c r="C3162" s="1"/>
+      <c r="B3162" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3162" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3163">
       <c r="A3163" s="6" t="n">
         <v>44830.895833333336</v>
       </c>
-      <c r="B3163" s="1"/>
-      <c r="C3163" s="1"/>
+      <c r="B3163" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3163" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3164">
       <c r="A3164" s="6" t="n">
         <v>44830.90625</v>
       </c>
-      <c r="B3164" s="1"/>
-      <c r="C3164" s="1"/>
+      <c r="B3164" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3164" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3165">
       <c r="A3165" s="6" t="n">
         <v>44830.916666666664</v>
       </c>
-      <c r="B3165" s="1"/>
-      <c r="C3165" s="1"/>
+      <c r="B3165" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3165" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3166">
       <c r="A3166" s="6" t="n">
         <v>44830.927083333336</v>
       </c>
-      <c r="B3166" s="1"/>
-      <c r="C3166" s="1"/>
+      <c r="B3166" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3166" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3167">
       <c r="A3167" s="6" t="n">
         <v>44830.9375</v>
       </c>
-      <c r="B3167" s="1"/>
-      <c r="C3167" s="1"/>
+      <c r="B3167" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3167" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3168">
       <c r="A3168" s="6" t="n">
         <v>44830.947916666664</v>
       </c>
-      <c r="B3168" s="1"/>
-      <c r="C3168" s="1"/>
+      <c r="B3168" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3168" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3169">
       <c r="A3169" s="6" t="n">
         <v>44830.958333333336</v>
       </c>
-      <c r="B3169" s="1"/>
-      <c r="C3169" s="1"/>
+      <c r="B3169" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3169" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3170">
       <c r="A3170" s="6" t="n">
         <v>44830.96875</v>
       </c>
-      <c r="B3170" s="1"/>
-      <c r="C3170" s="1"/>
+      <c r="B3170" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3170" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3171">
       <c r="A3171" s="6" t="n">
         <v>44830.979166666664</v>
       </c>
-      <c r="B3171" s="1"/>
-      <c r="C3171" s="1"/>
+      <c r="B3171" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3171" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3172">
       <c r="A3172" s="6" t="n">
         <v>44830.989583333336</v>
       </c>
-      <c r="B3172" s="1"/>
-      <c r="C3172" s="1"/>
+      <c r="B3172" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3172" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" s="6" t="n">
+        <v>44831.0</v>
+      </c>
+      <c r="B3173" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3173" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" s="6" t="n">
+        <v>44831.010416666664</v>
+      </c>
+      <c r="B3174" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3174" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" s="6" t="n">
+        <v>44831.020833333336</v>
+      </c>
+      <c r="B3175" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3175" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" s="6" t="n">
+        <v>44831.03125</v>
+      </c>
+      <c r="B3176" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3176" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" s="6" t="n">
+        <v>44831.041666666664</v>
+      </c>
+      <c r="B3177" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3177" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" s="6" t="n">
+        <v>44831.052083333336</v>
+      </c>
+      <c r="B3178" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3178" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" s="6" t="n">
+        <v>44831.0625</v>
+      </c>
+      <c r="B3179" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3179" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" s="6" t="n">
+        <v>44831.072916666664</v>
+      </c>
+      <c r="B3180" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3180" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" s="6" t="n">
+        <v>44831.083333333336</v>
+      </c>
+      <c r="B3181" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3181" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" s="6" t="n">
+        <v>44831.09375</v>
+      </c>
+      <c r="B3182" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3182" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" s="6" t="n">
+        <v>44831.104166666664</v>
+      </c>
+      <c r="B3183" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3183" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" s="6" t="n">
+        <v>44831.114583333336</v>
+      </c>
+      <c r="B3184" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3184" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" s="6" t="n">
+        <v>44831.125</v>
+      </c>
+      <c r="B3185" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3185" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" s="6" t="n">
+        <v>44831.135416666664</v>
+      </c>
+      <c r="B3186" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3186" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" s="6" t="n">
+        <v>44831.145833333336</v>
+      </c>
+      <c r="B3187" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3187" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" s="6" t="n">
+        <v>44831.15625</v>
+      </c>
+      <c r="B3188" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3188" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" s="6" t="n">
+        <v>44831.166666666664</v>
+      </c>
+      <c r="B3189" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3189" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" s="6" t="n">
+        <v>44831.177083333336</v>
+      </c>
+      <c r="B3190" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3190" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" s="6" t="n">
+        <v>44831.1875</v>
+      </c>
+      <c r="B3191" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3191" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" s="6" t="n">
+        <v>44831.197916666664</v>
+      </c>
+      <c r="B3192" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3192" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" s="6" t="n">
+        <v>44831.208333333336</v>
+      </c>
+      <c r="B3193" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3193" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" s="6" t="n">
+        <v>44831.21875</v>
+      </c>
+      <c r="B3194" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3194" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" s="6" t="n">
+        <v>44831.229166666664</v>
+      </c>
+      <c r="B3195" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3195" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" s="6" t="n">
+        <v>44831.239583333336</v>
+      </c>
+      <c r="B3196" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3196" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" s="6" t="n">
+        <v>44831.25</v>
+      </c>
+      <c r="B3197" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3197" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" s="6" t="n">
+        <v>44831.260416666664</v>
+      </c>
+      <c r="B3198" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3198" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" s="6" t="n">
+        <v>44831.270833333336</v>
+      </c>
+      <c r="B3199" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3199" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" s="6" t="n">
+        <v>44831.28125</v>
+      </c>
+      <c r="B3200" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3200" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" s="6" t="n">
+        <v>44831.291666666664</v>
+      </c>
+      <c r="B3201" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3201" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" s="6" t="n">
+        <v>44831.302083333336</v>
+      </c>
+      <c r="B3202" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3202" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" s="6" t="n">
+        <v>44831.3125</v>
+      </c>
+      <c r="B3203" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3203" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" s="6" t="n">
+        <v>44831.322916666664</v>
+      </c>
+      <c r="B3204" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3204" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" s="6" t="n">
+        <v>44831.333333333336</v>
+      </c>
+      <c r="B3205" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3205" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" s="6" t="n">
+        <v>44831.34375</v>
+      </c>
+      <c r="B3206" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3206" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" s="6" t="n">
+        <v>44831.354166666664</v>
+      </c>
+      <c r="B3207" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3207" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" s="6" t="n">
+        <v>44831.364583333336</v>
+      </c>
+      <c r="B3208" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3208" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" s="6" t="n">
+        <v>44831.375</v>
+      </c>
+      <c r="B3209" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3209" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" s="6" t="n">
+        <v>44831.385416666664</v>
+      </c>
+      <c r="B3210" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3210" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" s="6" t="n">
+        <v>44831.395833333336</v>
+      </c>
+      <c r="B3211" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3211" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" s="6" t="n">
+        <v>44831.40625</v>
+      </c>
+      <c r="B3212" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3212" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" s="6" t="n">
+        <v>44831.416666666664</v>
+      </c>
+      <c r="B3213" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3213" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" s="6" t="n">
+        <v>44831.427083333336</v>
+      </c>
+      <c r="B3214" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3214" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" s="6" t="n">
+        <v>44831.4375</v>
+      </c>
+      <c r="B3215" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3215" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" s="6" t="n">
+        <v>44831.447916666664</v>
+      </c>
+      <c r="B3216" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3216" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" s="6" t="n">
+        <v>44831.458333333336</v>
+      </c>
+      <c r="B3217" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3217" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" s="6" t="n">
+        <v>44831.46875</v>
+      </c>
+      <c r="B3218" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3218" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" s="6" t="n">
+        <v>44831.479166666664</v>
+      </c>
+      <c r="B3219" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3219" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" s="6" t="n">
+        <v>44831.489583333336</v>
+      </c>
+      <c r="B3220" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3220" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" s="6" t="n">
+        <v>44831.5</v>
+      </c>
+      <c r="B3221" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3221" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" s="6" t="n">
+        <v>44831.510416666664</v>
+      </c>
+      <c r="B3222" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3222" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" s="6" t="n">
+        <v>44831.520833333336</v>
+      </c>
+      <c r="B3223" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3223" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" s="6" t="n">
+        <v>44831.53125</v>
+      </c>
+      <c r="B3224" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3224" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" s="6" t="n">
+        <v>44831.541666666664</v>
+      </c>
+      <c r="B3225" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3225" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" s="6" t="n">
+        <v>44831.552083333336</v>
+      </c>
+      <c r="B3226" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3226" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" s="6" t="n">
+        <v>44831.5625</v>
+      </c>
+      <c r="B3227" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3227" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" s="6" t="n">
+        <v>44831.572916666664</v>
+      </c>
+      <c r="B3228" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3228" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" s="6" t="n">
+        <v>44831.583333333336</v>
+      </c>
+      <c r="B3229" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3229" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" s="6" t="n">
+        <v>44831.59375</v>
+      </c>
+      <c r="B3230" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3230" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" s="6" t="n">
+        <v>44831.604166666664</v>
+      </c>
+      <c r="B3231" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3231" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" s="6" t="n">
+        <v>44831.614583333336</v>
+      </c>
+      <c r="B3232" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3232" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" s="6" t="n">
+        <v>44831.625</v>
+      </c>
+      <c r="B3233" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3233" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" s="6" t="n">
+        <v>44831.635416666664</v>
+      </c>
+      <c r="B3234" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3234" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" s="6" t="n">
+        <v>44831.645833333336</v>
+      </c>
+      <c r="B3235" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3235" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" s="6" t="n">
+        <v>44831.65625</v>
+      </c>
+      <c r="B3236" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3236" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" s="6" t="n">
+        <v>44831.666666666664</v>
+      </c>
+      <c r="B3237" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3237" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" s="6" t="n">
+        <v>44831.677083333336</v>
+      </c>
+      <c r="B3238" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3238" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" s="6" t="n">
+        <v>44831.6875</v>
+      </c>
+      <c r="B3239" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3239" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" s="6" t="n">
+        <v>44831.697916666664</v>
+      </c>
+      <c r="B3240" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3240" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" s="6" t="n">
+        <v>44831.708333333336</v>
+      </c>
+      <c r="B3241" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C3241" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" s="6" t="n">
+        <v>44831.71875</v>
+      </c>
+      <c r="B3242" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3242" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" s="6" t="n">
+        <v>44831.729166666664</v>
+      </c>
+      <c r="B3243" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3243" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" s="6" t="n">
+        <v>44831.739583333336</v>
+      </c>
+      <c r="B3244" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3244" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" s="6" t="n">
+        <v>44831.75</v>
+      </c>
+      <c r="B3245" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C3245" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" s="6" t="n">
+        <v>44831.760416666664</v>
+      </c>
+      <c r="B3246" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3246" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" s="6" t="n">
+        <v>44831.770833333336</v>
+      </c>
+      <c r="B3247" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3247" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" s="6" t="n">
+        <v>44831.78125</v>
+      </c>
+      <c r="B3248" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3248" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" s="6" t="n">
+        <v>44831.791666666664</v>
+      </c>
+      <c r="B3249" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3249" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" s="6" t="n">
+        <v>44831.802083333336</v>
+      </c>
+      <c r="B3250" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3250" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" s="6" t="n">
+        <v>44831.8125</v>
+      </c>
+      <c r="B3251" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3251" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" s="6" t="n">
+        <v>44831.822916666664</v>
+      </c>
+      <c r="B3252" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3252" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" s="6" t="n">
+        <v>44831.833333333336</v>
+      </c>
+      <c r="B3253" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3253" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" s="6" t="n">
+        <v>44831.84375</v>
+      </c>
+      <c r="B3254" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3254" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" s="6" t="n">
+        <v>44831.854166666664</v>
+      </c>
+      <c r="B3255" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3255" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" s="6" t="n">
+        <v>44831.864583333336</v>
+      </c>
+      <c r="B3256" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3256" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" s="6" t="n">
+        <v>44831.875</v>
+      </c>
+      <c r="B3257" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3257" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" s="6" t="n">
+        <v>44831.885416666664</v>
+      </c>
+      <c r="B3258" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3258" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" s="6" t="n">
+        <v>44831.895833333336</v>
+      </c>
+      <c r="B3259" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3259" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" s="6" t="n">
+        <v>44831.90625</v>
+      </c>
+      <c r="B3260" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3260" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" s="6" t="n">
+        <v>44831.916666666664</v>
+      </c>
+      <c r="B3261" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3261" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" s="6" t="n">
+        <v>44831.927083333336</v>
+      </c>
+      <c r="B3262" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3262" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" s="6" t="n">
+        <v>44831.9375</v>
+      </c>
+      <c r="B3263" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3263" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" s="6" t="n">
+        <v>44831.947916666664</v>
+      </c>
+      <c r="B3264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" s="6" t="n">
+        <v>44831.958333333336</v>
+      </c>
+      <c r="B3265" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3265" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" s="6" t="n">
+        <v>44831.96875</v>
+      </c>
+      <c r="B3266" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3266" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" s="6" t="n">
+        <v>44831.979166666664</v>
+      </c>
+      <c r="B3267" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3267" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" s="6" t="n">
+        <v>44831.989583333336</v>
+      </c>
+      <c r="B3268" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3268" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" s="6" t="n">
+        <v>44832.0</v>
+      </c>
+      <c r="B3269" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3269" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" s="6" t="n">
+        <v>44832.010416666664</v>
+      </c>
+      <c r="B3270" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3270" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" s="6" t="n">
+        <v>44832.020833333336</v>
+      </c>
+      <c r="B3271" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3271" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" s="6" t="n">
+        <v>44832.03125</v>
+      </c>
+      <c r="B3272" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3272" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" s="6" t="n">
+        <v>44832.041666666664</v>
+      </c>
+      <c r="B3273" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3273" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" s="6" t="n">
+        <v>44832.052083333336</v>
+      </c>
+      <c r="B3274" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3274" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" s="6" t="n">
+        <v>44832.0625</v>
+      </c>
+      <c r="B3275" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3275" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" s="6" t="n">
+        <v>44832.072916666664</v>
+      </c>
+      <c r="B3276" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3276" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" s="6" t="n">
+        <v>44832.083333333336</v>
+      </c>
+      <c r="B3277" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3277" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" s="6" t="n">
+        <v>44832.09375</v>
+      </c>
+      <c r="B3278" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3278" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" s="6" t="n">
+        <v>44832.104166666664</v>
+      </c>
+      <c r="B3279" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3279" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" s="6" t="n">
+        <v>44832.114583333336</v>
+      </c>
+      <c r="B3280" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3280" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" s="6" t="n">
+        <v>44832.125</v>
+      </c>
+      <c r="B3281" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3281" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" s="6" t="n">
+        <v>44832.135416666664</v>
+      </c>
+      <c r="B3282" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3282" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" s="6" t="n">
+        <v>44832.145833333336</v>
+      </c>
+      <c r="B3283" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3283" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" s="6" t="n">
+        <v>44832.15625</v>
+      </c>
+      <c r="B3284" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3284" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" s="6" t="n">
+        <v>44832.166666666664</v>
+      </c>
+      <c r="B3285" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3285" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" s="6" t="n">
+        <v>44832.177083333336</v>
+      </c>
+      <c r="B3286" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3286" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" s="6" t="n">
+        <v>44832.1875</v>
+      </c>
+      <c r="B3287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" s="6" t="n">
+        <v>44832.197916666664</v>
+      </c>
+      <c r="B3288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" s="6" t="n">
+        <v>44832.208333333336</v>
+      </c>
+      <c r="B3289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" s="6" t="n">
+        <v>44832.21875</v>
+      </c>
+      <c r="B3290" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3290" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" s="6" t="n">
+        <v>44832.229166666664</v>
+      </c>
+      <c r="B3291" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3291" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" s="6" t="n">
+        <v>44832.239583333336</v>
+      </c>
+      <c r="B3292" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3292" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" s="6" t="n">
+        <v>44832.25</v>
+      </c>
+      <c r="B3293" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3293" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" s="6" t="n">
+        <v>44832.260416666664</v>
+      </c>
+      <c r="B3294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" s="6" t="n">
+        <v>44832.270833333336</v>
+      </c>
+      <c r="B3295" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3295" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" s="6" t="n">
+        <v>44832.28125</v>
+      </c>
+      <c r="B3296" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3296" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" s="6" t="n">
+        <v>44832.291666666664</v>
+      </c>
+      <c r="B3297" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3297" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" s="6" t="n">
+        <v>44832.302083333336</v>
+      </c>
+      <c r="B3298" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3298" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" s="6" t="n">
+        <v>44832.3125</v>
+      </c>
+      <c r="B3299" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3299" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" s="6" t="n">
+        <v>44832.322916666664</v>
+      </c>
+      <c r="B3300" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3300" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" s="6" t="n">
+        <v>44832.333333333336</v>
+      </c>
+      <c r="B3301" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3301" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" s="6" t="n">
+        <v>44832.34375</v>
+      </c>
+      <c r="B3302" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3302" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" s="6" t="n">
+        <v>44832.354166666664</v>
+      </c>
+      <c r="B3303" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3303" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" s="6" t="n">
+        <v>44832.364583333336</v>
+      </c>
+      <c r="B3304" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3304" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" s="6" t="n">
+        <v>44832.375</v>
+      </c>
+      <c r="B3305" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3305" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" s="6" t="n">
+        <v>44832.385416666664</v>
+      </c>
+      <c r="B3306" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3306" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" s="6" t="n">
+        <v>44832.395833333336</v>
+      </c>
+      <c r="B3307" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3307" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" s="6" t="n">
+        <v>44832.40625</v>
+      </c>
+      <c r="B3308" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3308" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" s="6" t="n">
+        <v>44832.416666666664</v>
+      </c>
+      <c r="B3309" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3309" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" s="6" t="n">
+        <v>44832.427083333336</v>
+      </c>
+      <c r="B3310" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3310" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" s="6" t="n">
+        <v>44832.4375</v>
+      </c>
+      <c r="B3311" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3311" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" s="6" t="n">
+        <v>44832.447916666664</v>
+      </c>
+      <c r="B3312" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3312" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" s="6" t="n">
+        <v>44832.458333333336</v>
+      </c>
+      <c r="B3313" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3313" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" s="6" t="n">
+        <v>44832.46875</v>
+      </c>
+      <c r="B3314" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3314" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" s="6" t="n">
+        <v>44832.479166666664</v>
+      </c>
+      <c r="B3315" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3315" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" s="6" t="n">
+        <v>44832.489583333336</v>
+      </c>
+      <c r="B3316" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3316" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" s="6" t="n">
+        <v>44832.5</v>
+      </c>
+      <c r="B3317" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3317" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" s="6" t="n">
+        <v>44832.510416666664</v>
+      </c>
+      <c r="B3318" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3318" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" s="6" t="n">
+        <v>44832.520833333336</v>
+      </c>
+      <c r="B3319" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3319" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" s="6" t="n">
+        <v>44832.53125</v>
+      </c>
+      <c r="B3320" s="1"/>
+      <c r="C3320" s="1"/>
+    </row>
+    <row r="3321">
+      <c r="A3321" s="6" t="n">
+        <v>44832.541666666664</v>
+      </c>
+      <c r="B3321" s="1"/>
+      <c r="C3321" s="1"/>
+    </row>
+    <row r="3322">
+      <c r="A3322" s="6" t="n">
+        <v>44832.552083333336</v>
+      </c>
+      <c r="B3322" s="1"/>
+      <c r="C3322" s="1"/>
+    </row>
+    <row r="3323">
+      <c r="A3323" s="6" t="n">
+        <v>44832.5625</v>
+      </c>
+      <c r="B3323" s="1"/>
+      <c r="C3323" s="1"/>
+    </row>
+    <row r="3324">
+      <c r="A3324" s="6" t="n">
+        <v>44832.572916666664</v>
+      </c>
+      <c r="B3324" s="1"/>
+      <c r="C3324" s="1"/>
+    </row>
+    <row r="3325">
+      <c r="A3325" s="6" t="n">
+        <v>44832.583333333336</v>
+      </c>
+      <c r="B3325" s="1"/>
+      <c r="C3325" s="1"/>
+    </row>
+    <row r="3326">
+      <c r="A3326" s="6" t="n">
+        <v>44832.59375</v>
+      </c>
+      <c r="B3326" s="1"/>
+      <c r="C3326" s="1"/>
+    </row>
+    <row r="3327">
+      <c r="A3327" s="6" t="n">
+        <v>44832.604166666664</v>
+      </c>
+      <c r="B3327" s="1"/>
+      <c r="C3327" s="1"/>
+    </row>
+    <row r="3328">
+      <c r="A3328" s="6" t="n">
+        <v>44832.614583333336</v>
+      </c>
+      <c r="B3328" s="1"/>
+      <c r="C3328" s="1"/>
+    </row>
+    <row r="3329">
+      <c r="A3329" s="6" t="n">
+        <v>44832.625</v>
+      </c>
+      <c r="B3329" s="1"/>
+      <c r="C3329" s="1"/>
+    </row>
+    <row r="3330">
+      <c r="A3330" s="6" t="n">
+        <v>44832.635416666664</v>
+      </c>
+      <c r="B3330" s="1"/>
+      <c r="C3330" s="1"/>
+    </row>
+    <row r="3331">
+      <c r="A3331" s="6" t="n">
+        <v>44832.645833333336</v>
+      </c>
+      <c r="B3331" s="1"/>
+      <c r="C3331" s="1"/>
+    </row>
+    <row r="3332">
+      <c r="A3332" s="6" t="n">
+        <v>44832.65625</v>
+      </c>
+      <c r="B3332" s="1"/>
+      <c r="C3332" s="1"/>
+    </row>
+    <row r="3333">
+      <c r="A3333" s="6" t="n">
+        <v>44832.666666666664</v>
+      </c>
+      <c r="B3333" s="1"/>
+      <c r="C3333" s="1"/>
+    </row>
+    <row r="3334">
+      <c r="A3334" s="6" t="n">
+        <v>44832.677083333336</v>
+      </c>
+      <c r="B3334" s="1"/>
+      <c r="C3334" s="1"/>
+    </row>
+    <row r="3335">
+      <c r="A3335" s="6" t="n">
+        <v>44832.6875</v>
+      </c>
+      <c r="B3335" s="1"/>
+      <c r="C3335" s="1"/>
+    </row>
+    <row r="3336">
+      <c r="A3336" s="6" t="n">
+        <v>44832.697916666664</v>
+      </c>
+      <c r="B3336" s="1"/>
+      <c r="C3336" s="1"/>
+    </row>
+    <row r="3337">
+      <c r="A3337" s="6" t="n">
+        <v>44832.708333333336</v>
+      </c>
+      <c r="B3337" s="1"/>
+      <c r="C3337" s="1"/>
+    </row>
+    <row r="3338">
+      <c r="A3338" s="6" t="n">
+        <v>44832.71875</v>
+      </c>
+      <c r="B3338" s="1"/>
+      <c r="C3338" s="1"/>
+    </row>
+    <row r="3339">
+      <c r="A3339" s="6" t="n">
+        <v>44832.729166666664</v>
+      </c>
+      <c r="B3339" s="1"/>
+      <c r="C3339" s="1"/>
+    </row>
+    <row r="3340">
+      <c r="A3340" s="6" t="n">
+        <v>44832.739583333336</v>
+      </c>
+      <c r="B3340" s="1"/>
+      <c r="C3340" s="1"/>
+    </row>
+    <row r="3341">
+      <c r="A3341" s="6" t="n">
+        <v>44832.75</v>
+      </c>
+      <c r="B3341" s="1"/>
+      <c r="C3341" s="1"/>
+    </row>
+    <row r="3342">
+      <c r="A3342" s="6" t="n">
+        <v>44832.760416666664</v>
+      </c>
+      <c r="B3342" s="1"/>
+      <c r="C3342" s="1"/>
+    </row>
+    <row r="3343">
+      <c r="A3343" s="6" t="n">
+        <v>44832.770833333336</v>
+      </c>
+      <c r="B3343" s="1"/>
+      <c r="C3343" s="1"/>
+    </row>
+    <row r="3344">
+      <c r="A3344" s="6" t="n">
+        <v>44832.78125</v>
+      </c>
+      <c r="B3344" s="1"/>
+      <c r="C3344" s="1"/>
+    </row>
+    <row r="3345">
+      <c r="A3345" s="6" t="n">
+        <v>44832.791666666664</v>
+      </c>
+      <c r="B3345" s="1"/>
+      <c r="C3345" s="1"/>
+    </row>
+    <row r="3346">
+      <c r="A3346" s="6" t="n">
+        <v>44832.802083333336</v>
+      </c>
+      <c r="B3346" s="1"/>
+      <c r="C3346" s="1"/>
+    </row>
+    <row r="3347">
+      <c r="A3347" s="6" t="n">
+        <v>44832.8125</v>
+      </c>
+      <c r="B3347" s="1"/>
+      <c r="C3347" s="1"/>
+    </row>
+    <row r="3348">
+      <c r="A3348" s="6" t="n">
+        <v>44832.822916666664</v>
+      </c>
+      <c r="B3348" s="1"/>
+      <c r="C3348" s="1"/>
+    </row>
+    <row r="3349">
+      <c r="A3349" s="6" t="n">
+        <v>44832.833333333336</v>
+      </c>
+      <c r="B3349" s="1"/>
+      <c r="C3349" s="1"/>
+    </row>
+    <row r="3350">
+      <c r="A3350" s="6" t="n">
+        <v>44832.84375</v>
+      </c>
+      <c r="B3350" s="1"/>
+      <c r="C3350" s="1"/>
+    </row>
+    <row r="3351">
+      <c r="A3351" s="6" t="n">
+        <v>44832.854166666664</v>
+      </c>
+      <c r="B3351" s="1"/>
+      <c r="C3351" s="1"/>
+    </row>
+    <row r="3352">
+      <c r="A3352" s="6" t="n">
+        <v>44832.864583333336</v>
+      </c>
+      <c r="B3352" s="1"/>
+      <c r="C3352" s="1"/>
+    </row>
+    <row r="3353">
+      <c r="A3353" s="6" t="n">
+        <v>44832.875</v>
+      </c>
+      <c r="B3353" s="1"/>
+      <c r="C3353" s="1"/>
+    </row>
+    <row r="3354">
+      <c r="A3354" s="6" t="n">
+        <v>44832.885416666664</v>
+      </c>
+      <c r="B3354" s="1"/>
+      <c r="C3354" s="1"/>
+    </row>
+    <row r="3355">
+      <c r="A3355" s="6" t="n">
+        <v>44832.895833333336</v>
+      </c>
+      <c r="B3355" s="1"/>
+      <c r="C3355" s="1"/>
+    </row>
+    <row r="3356">
+      <c r="A3356" s="6" t="n">
+        <v>44832.90625</v>
+      </c>
+      <c r="B3356" s="1"/>
+      <c r="C3356" s="1"/>
+    </row>
+    <row r="3357">
+      <c r="A3357" s="6" t="n">
+        <v>44832.916666666664</v>
+      </c>
+      <c r="B3357" s="1"/>
+      <c r="C3357" s="1"/>
+    </row>
+    <row r="3358">
+      <c r="A3358" s="6" t="n">
+        <v>44832.927083333336</v>
+      </c>
+      <c r="B3358" s="1"/>
+      <c r="C3358" s="1"/>
+    </row>
+    <row r="3359">
+      <c r="A3359" s="6" t="n">
+        <v>44832.9375</v>
+      </c>
+      <c r="B3359" s="1"/>
+      <c r="C3359" s="1"/>
+    </row>
+    <row r="3360">
+      <c r="A3360" s="6" t="n">
+        <v>44832.947916666664</v>
+      </c>
+      <c r="B3360" s="1"/>
+      <c r="C3360" s="1"/>
+    </row>
+    <row r="3361">
+      <c r="A3361" s="6" t="n">
+        <v>44832.958333333336</v>
+      </c>
+      <c r="B3361" s="1"/>
+      <c r="C3361" s="1"/>
+    </row>
+    <row r="3362">
+      <c r="A3362" s="6" t="n">
+        <v>44832.96875</v>
+      </c>
+      <c r="B3362" s="1"/>
+      <c r="C3362" s="1"/>
+    </row>
+    <row r="3363">
+      <c r="A3363" s="6" t="n">
+        <v>44832.979166666664</v>
+      </c>
+      <c r="B3363" s="1"/>
+      <c r="C3363" s="1"/>
+    </row>
+    <row r="3364">
+      <c r="A3364" s="6" t="n">
+        <v>44832.989583333336</v>
+      </c>
+      <c r="B3364" s="1"/>
+      <c r="C3364" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/export_data_domain_7992.xlsx
+++ b/data/export_data_domain_7992.xlsx
@@ -36640,316 +36640,7700 @@
       <c r="A3320" s="6" t="n">
         <v>44832.53125</v>
       </c>
-      <c r="B3320" s="1"/>
-      <c r="C3320" s="1"/>
+      <c r="B3320" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3320" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3321">
       <c r="A3321" s="6" t="n">
         <v>44832.541666666664</v>
       </c>
-      <c r="B3321" s="1"/>
-      <c r="C3321" s="1"/>
+      <c r="B3321" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3321" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3322">
       <c r="A3322" s="6" t="n">
         <v>44832.552083333336</v>
       </c>
-      <c r="B3322" s="1"/>
-      <c r="C3322" s="1"/>
+      <c r="B3322" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3322" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3323">
       <c r="A3323" s="6" t="n">
         <v>44832.5625</v>
       </c>
-      <c r="B3323" s="1"/>
-      <c r="C3323" s="1"/>
+      <c r="B3323" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3323" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3324">
       <c r="A3324" s="6" t="n">
         <v>44832.572916666664</v>
       </c>
-      <c r="B3324" s="1"/>
-      <c r="C3324" s="1"/>
+      <c r="B3324" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3324" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3325">
       <c r="A3325" s="6" t="n">
         <v>44832.583333333336</v>
       </c>
-      <c r="B3325" s="1"/>
-      <c r="C3325" s="1"/>
+      <c r="B3325" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3325" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3326">
       <c r="A3326" s="6" t="n">
         <v>44832.59375</v>
       </c>
-      <c r="B3326" s="1"/>
-      <c r="C3326" s="1"/>
+      <c r="B3326" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3326" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3327">
       <c r="A3327" s="6" t="n">
         <v>44832.604166666664</v>
       </c>
-      <c r="B3327" s="1"/>
-      <c r="C3327" s="1"/>
+      <c r="B3327" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3327" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3328">
       <c r="A3328" s="6" t="n">
         <v>44832.614583333336</v>
       </c>
-      <c r="B3328" s="1"/>
-      <c r="C3328" s="1"/>
+      <c r="B3328" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3328" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3329">
       <c r="A3329" s="6" t="n">
         <v>44832.625</v>
       </c>
-      <c r="B3329" s="1"/>
-      <c r="C3329" s="1"/>
+      <c r="B3329" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3329" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3330">
       <c r="A3330" s="6" t="n">
         <v>44832.635416666664</v>
       </c>
-      <c r="B3330" s="1"/>
-      <c r="C3330" s="1"/>
+      <c r="B3330" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3330" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3331">
       <c r="A3331" s="6" t="n">
         <v>44832.645833333336</v>
       </c>
-      <c r="B3331" s="1"/>
-      <c r="C3331" s="1"/>
+      <c r="B3331" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3331" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3332">
       <c r="A3332" s="6" t="n">
         <v>44832.65625</v>
       </c>
-      <c r="B3332" s="1"/>
-      <c r="C3332" s="1"/>
+      <c r="B3332" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3332" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3333">
       <c r="A3333" s="6" t="n">
         <v>44832.666666666664</v>
       </c>
-      <c r="B3333" s="1"/>
-      <c r="C3333" s="1"/>
+      <c r="B3333" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3333" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3334">
       <c r="A3334" s="6" t="n">
         <v>44832.677083333336</v>
       </c>
-      <c r="B3334" s="1"/>
-      <c r="C3334" s="1"/>
+      <c r="B3334" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3334" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3335">
       <c r="A3335" s="6" t="n">
         <v>44832.6875</v>
       </c>
-      <c r="B3335" s="1"/>
-      <c r="C3335" s="1"/>
+      <c r="B3335" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3335" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3336">
       <c r="A3336" s="6" t="n">
         <v>44832.697916666664</v>
       </c>
-      <c r="B3336" s="1"/>
-      <c r="C3336" s="1"/>
+      <c r="B3336" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3336" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3337">
       <c r="A3337" s="6" t="n">
         <v>44832.708333333336</v>
       </c>
-      <c r="B3337" s="1"/>
-      <c r="C3337" s="1"/>
+      <c r="B3337" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3337" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3338">
       <c r="A3338" s="6" t="n">
         <v>44832.71875</v>
       </c>
-      <c r="B3338" s="1"/>
-      <c r="C3338" s="1"/>
+      <c r="B3338" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C3338" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3339">
       <c r="A3339" s="6" t="n">
         <v>44832.729166666664</v>
       </c>
-      <c r="B3339" s="1"/>
-      <c r="C3339" s="1"/>
+      <c r="B3339" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C3339" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3340">
       <c r="A3340" s="6" t="n">
         <v>44832.739583333336</v>
       </c>
-      <c r="B3340" s="1"/>
-      <c r="C3340" s="1"/>
+      <c r="B3340" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3340" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="3341">
       <c r="A3341" s="6" t="n">
         <v>44832.75</v>
       </c>
-      <c r="B3341" s="1"/>
-      <c r="C3341" s="1"/>
+      <c r="B3341" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3341" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3342">
       <c r="A3342" s="6" t="n">
         <v>44832.760416666664</v>
       </c>
-      <c r="B3342" s="1"/>
-      <c r="C3342" s="1"/>
+      <c r="B3342" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3342" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3343">
       <c r="A3343" s="6" t="n">
         <v>44832.770833333336</v>
       </c>
-      <c r="B3343" s="1"/>
-      <c r="C3343" s="1"/>
+      <c r="B3343" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3343" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3344">
       <c r="A3344" s="6" t="n">
         <v>44832.78125</v>
       </c>
-      <c r="B3344" s="1"/>
-      <c r="C3344" s="1"/>
+      <c r="B3344" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3344" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="3345">
       <c r="A3345" s="6" t="n">
         <v>44832.791666666664</v>
       </c>
-      <c r="B3345" s="1"/>
-      <c r="C3345" s="1"/>
+      <c r="B3345" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3345" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3346">
       <c r="A3346" s="6" t="n">
         <v>44832.802083333336</v>
       </c>
-      <c r="B3346" s="1"/>
-      <c r="C3346" s="1"/>
+      <c r="B3346" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3346" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3347">
       <c r="A3347" s="6" t="n">
         <v>44832.8125</v>
       </c>
-      <c r="B3347" s="1"/>
-      <c r="C3347" s="1"/>
+      <c r="B3347" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3347" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3348">
       <c r="A3348" s="6" t="n">
         <v>44832.822916666664</v>
       </c>
-      <c r="B3348" s="1"/>
-      <c r="C3348" s="1"/>
+      <c r="B3348" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3348" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3349">
       <c r="A3349" s="6" t="n">
         <v>44832.833333333336</v>
       </c>
-      <c r="B3349" s="1"/>
-      <c r="C3349" s="1"/>
+      <c r="B3349" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3349" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3350">
       <c r="A3350" s="6" t="n">
         <v>44832.84375</v>
       </c>
-      <c r="B3350" s="1"/>
-      <c r="C3350" s="1"/>
+      <c r="B3350" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3350" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3351">
       <c r="A3351" s="6" t="n">
         <v>44832.854166666664</v>
       </c>
-      <c r="B3351" s="1"/>
-      <c r="C3351" s="1"/>
+      <c r="B3351" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3351" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3352">
       <c r="A3352" s="6" t="n">
         <v>44832.864583333336</v>
       </c>
-      <c r="B3352" s="1"/>
-      <c r="C3352" s="1"/>
+      <c r="B3352" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3352" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3353">
       <c r="A3353" s="6" t="n">
         <v>44832.875</v>
       </c>
-      <c r="B3353" s="1"/>
-      <c r="C3353" s="1"/>
+      <c r="B3353" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3353" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3354">
       <c r="A3354" s="6" t="n">
         <v>44832.885416666664</v>
       </c>
-      <c r="B3354" s="1"/>
-      <c r="C3354" s="1"/>
+      <c r="B3354" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3354" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3355">
       <c r="A3355" s="6" t="n">
         <v>44832.895833333336</v>
       </c>
-      <c r="B3355" s="1"/>
-      <c r="C3355" s="1"/>
+      <c r="B3355" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3355" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3356">
       <c r="A3356" s="6" t="n">
         <v>44832.90625</v>
       </c>
-      <c r="B3356" s="1"/>
-      <c r="C3356" s="1"/>
+      <c r="B3356" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3356" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3357">
       <c r="A3357" s="6" t="n">
         <v>44832.916666666664</v>
       </c>
-      <c r="B3357" s="1"/>
-      <c r="C3357" s="1"/>
+      <c r="B3357" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3357" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3358">
       <c r="A3358" s="6" t="n">
         <v>44832.927083333336</v>
       </c>
-      <c r="B3358" s="1"/>
-      <c r="C3358" s="1"/>
+      <c r="B3358" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3358" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3359">
       <c r="A3359" s="6" t="n">
         <v>44832.9375</v>
       </c>
-      <c r="B3359" s="1"/>
-      <c r="C3359" s="1"/>
+      <c r="B3359" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3359" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3360">
       <c r="A3360" s="6" t="n">
         <v>44832.947916666664</v>
       </c>
-      <c r="B3360" s="1"/>
-      <c r="C3360" s="1"/>
+      <c r="B3360" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3360" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3361">
       <c r="A3361" s="6" t="n">
         <v>44832.958333333336</v>
       </c>
-      <c r="B3361" s="1"/>
-      <c r="C3361" s="1"/>
+      <c r="B3361" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3361" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3362">
       <c r="A3362" s="6" t="n">
         <v>44832.96875</v>
       </c>
-      <c r="B3362" s="1"/>
-      <c r="C3362" s="1"/>
+      <c r="B3362" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3362" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3363">
       <c r="A3363" s="6" t="n">
         <v>44832.979166666664</v>
       </c>
-      <c r="B3363" s="1"/>
-      <c r="C3363" s="1"/>
+      <c r="B3363" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3363" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3364">
       <c r="A3364" s="6" t="n">
         <v>44832.989583333336</v>
       </c>
-      <c r="B3364" s="1"/>
-      <c r="C3364" s="1"/>
+      <c r="B3364" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3364" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" s="6" t="n">
+        <v>44833.0</v>
+      </c>
+      <c r="B3365" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3365" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" s="6" t="n">
+        <v>44833.010416666664</v>
+      </c>
+      <c r="B3366" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3366" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" s="6" t="n">
+        <v>44833.020833333336</v>
+      </c>
+      <c r="B3367" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3367" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" s="6" t="n">
+        <v>44833.03125</v>
+      </c>
+      <c r="B3368" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3368" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" s="6" t="n">
+        <v>44833.041666666664</v>
+      </c>
+      <c r="B3369" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3369" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" s="6" t="n">
+        <v>44833.052083333336</v>
+      </c>
+      <c r="B3370" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3370" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" s="6" t="n">
+        <v>44833.0625</v>
+      </c>
+      <c r="B3371" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3371" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" s="6" t="n">
+        <v>44833.072916666664</v>
+      </c>
+      <c r="B3372" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3372" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" s="6" t="n">
+        <v>44833.083333333336</v>
+      </c>
+      <c r="B3373" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3373" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" s="6" t="n">
+        <v>44833.09375</v>
+      </c>
+      <c r="B3374" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3374" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" s="6" t="n">
+        <v>44833.104166666664</v>
+      </c>
+      <c r="B3375" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3375" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" s="6" t="n">
+        <v>44833.114583333336</v>
+      </c>
+      <c r="B3376" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3376" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" s="6" t="n">
+        <v>44833.125</v>
+      </c>
+      <c r="B3377" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3377" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" s="6" t="n">
+        <v>44833.135416666664</v>
+      </c>
+      <c r="B3378" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3378" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" s="6" t="n">
+        <v>44833.145833333336</v>
+      </c>
+      <c r="B3379" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3379" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" s="6" t="n">
+        <v>44833.15625</v>
+      </c>
+      <c r="B3380" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3380" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" s="6" t="n">
+        <v>44833.166666666664</v>
+      </c>
+      <c r="B3381" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3381" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" s="6" t="n">
+        <v>44833.177083333336</v>
+      </c>
+      <c r="B3382" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3382" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" s="6" t="n">
+        <v>44833.1875</v>
+      </c>
+      <c r="B3383" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3383" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" s="6" t="n">
+        <v>44833.197916666664</v>
+      </c>
+      <c r="B3384" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3384" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" s="6" t="n">
+        <v>44833.208333333336</v>
+      </c>
+      <c r="B3385" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3385" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" s="6" t="n">
+        <v>44833.21875</v>
+      </c>
+      <c r="B3386" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3386" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" s="6" t="n">
+        <v>44833.229166666664</v>
+      </c>
+      <c r="B3387" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3387" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" s="6" t="n">
+        <v>44833.239583333336</v>
+      </c>
+      <c r="B3388" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3388" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" s="6" t="n">
+        <v>44833.25</v>
+      </c>
+      <c r="B3389" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3389" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" s="6" t="n">
+        <v>44833.260416666664</v>
+      </c>
+      <c r="B3390" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3390" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" s="6" t="n">
+        <v>44833.270833333336</v>
+      </c>
+      <c r="B3391" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3391" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" s="6" t="n">
+        <v>44833.28125</v>
+      </c>
+      <c r="B3392" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3392" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" s="6" t="n">
+        <v>44833.291666666664</v>
+      </c>
+      <c r="B3393" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3393" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" s="6" t="n">
+        <v>44833.302083333336</v>
+      </c>
+      <c r="B3394" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3394" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" s="6" t="n">
+        <v>44833.3125</v>
+      </c>
+      <c r="B3395" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3395" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" s="6" t="n">
+        <v>44833.322916666664</v>
+      </c>
+      <c r="B3396" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3396" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" s="6" t="n">
+        <v>44833.333333333336</v>
+      </c>
+      <c r="B3397" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C3397" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" s="6" t="n">
+        <v>44833.34375</v>
+      </c>
+      <c r="B3398" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3398" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" s="6" t="n">
+        <v>44833.354166666664</v>
+      </c>
+      <c r="B3399" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3399" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" s="6" t="n">
+        <v>44833.364583333336</v>
+      </c>
+      <c r="B3400" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3400" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" s="6" t="n">
+        <v>44833.375</v>
+      </c>
+      <c r="B3401" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3401" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" s="6" t="n">
+        <v>44833.385416666664</v>
+      </c>
+      <c r="B3402" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3402" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" s="6" t="n">
+        <v>44833.395833333336</v>
+      </c>
+      <c r="B3403" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3403" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" s="6" t="n">
+        <v>44833.40625</v>
+      </c>
+      <c r="B3404" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3404" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" s="6" t="n">
+        <v>44833.416666666664</v>
+      </c>
+      <c r="B3405" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3405" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" s="6" t="n">
+        <v>44833.427083333336</v>
+      </c>
+      <c r="B3406" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3406" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" s="6" t="n">
+        <v>44833.4375</v>
+      </c>
+      <c r="B3407" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3407" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" s="6" t="n">
+        <v>44833.447916666664</v>
+      </c>
+      <c r="B3408" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3408" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" s="6" t="n">
+        <v>44833.458333333336</v>
+      </c>
+      <c r="B3409" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3409" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" s="6" t="n">
+        <v>44833.46875</v>
+      </c>
+      <c r="B3410" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3410" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="6" t="n">
+        <v>44833.479166666664</v>
+      </c>
+      <c r="B3411" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3411" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="6" t="n">
+        <v>44833.489583333336</v>
+      </c>
+      <c r="B3412" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3412" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="6" t="n">
+        <v>44833.5</v>
+      </c>
+      <c r="B3413" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3413" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="6" t="n">
+        <v>44833.510416666664</v>
+      </c>
+      <c r="B3414" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3414" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="6" t="n">
+        <v>44833.520833333336</v>
+      </c>
+      <c r="B3415" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3415" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="6" t="n">
+        <v>44833.53125</v>
+      </c>
+      <c r="B3416" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3416" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="6" t="n">
+        <v>44833.541666666664</v>
+      </c>
+      <c r="B3417" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3417" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="6" t="n">
+        <v>44833.552083333336</v>
+      </c>
+      <c r="B3418" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3418" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="6" t="n">
+        <v>44833.5625</v>
+      </c>
+      <c r="B3419" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3419" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="6" t="n">
+        <v>44833.572916666664</v>
+      </c>
+      <c r="B3420" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3420" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" s="6" t="n">
+        <v>44833.583333333336</v>
+      </c>
+      <c r="B3421" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3421" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="6" t="n">
+        <v>44833.59375</v>
+      </c>
+      <c r="B3422" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3422" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" s="6" t="n">
+        <v>44833.604166666664</v>
+      </c>
+      <c r="B3423" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3423" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" s="6" t="n">
+        <v>44833.614583333336</v>
+      </c>
+      <c r="B3424" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3424" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="6" t="n">
+        <v>44833.625</v>
+      </c>
+      <c r="B3425" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3425" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="6" t="n">
+        <v>44833.635416666664</v>
+      </c>
+      <c r="B3426" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3426" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="6" t="n">
+        <v>44833.645833333336</v>
+      </c>
+      <c r="B3427" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3427" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="6" t="n">
+        <v>44833.65625</v>
+      </c>
+      <c r="B3428" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3428" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="6" t="n">
+        <v>44833.666666666664</v>
+      </c>
+      <c r="B3429" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3429" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="6" t="n">
+        <v>44833.677083333336</v>
+      </c>
+      <c r="B3430" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3430" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="6" t="n">
+        <v>44833.6875</v>
+      </c>
+      <c r="B3431" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3431" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="6" t="n">
+        <v>44833.697916666664</v>
+      </c>
+      <c r="B3432" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3432" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="6" t="n">
+        <v>44833.708333333336</v>
+      </c>
+      <c r="B3433" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3433" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="6" t="n">
+        <v>44833.71875</v>
+      </c>
+      <c r="B3434" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3434" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="6" t="n">
+        <v>44833.729166666664</v>
+      </c>
+      <c r="B3435" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3435" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="6" t="n">
+        <v>44833.739583333336</v>
+      </c>
+      <c r="B3436" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3436" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="6" t="n">
+        <v>44833.75</v>
+      </c>
+      <c r="B3437" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C3437" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="6" t="n">
+        <v>44833.760416666664</v>
+      </c>
+      <c r="B3438" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3438" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="6" t="n">
+        <v>44833.770833333336</v>
+      </c>
+      <c r="B3439" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3439" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="6" t="n">
+        <v>44833.78125</v>
+      </c>
+      <c r="B3440" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3440" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="6" t="n">
+        <v>44833.791666666664</v>
+      </c>
+      <c r="B3441" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3441" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="6" t="n">
+        <v>44833.802083333336</v>
+      </c>
+      <c r="B3442" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3442" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="6" t="n">
+        <v>44833.8125</v>
+      </c>
+      <c r="B3443" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3443" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="6" t="n">
+        <v>44833.822916666664</v>
+      </c>
+      <c r="B3444" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3444" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" s="6" t="n">
+        <v>44833.833333333336</v>
+      </c>
+      <c r="B3445" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3445" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" s="6" t="n">
+        <v>44833.84375</v>
+      </c>
+      <c r="B3446" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3446" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" s="6" t="n">
+        <v>44833.854166666664</v>
+      </c>
+      <c r="B3447" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3447" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" s="6" t="n">
+        <v>44833.864583333336</v>
+      </c>
+      <c r="B3448" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3448" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" s="6" t="n">
+        <v>44833.875</v>
+      </c>
+      <c r="B3449" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3449" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" s="6" t="n">
+        <v>44833.885416666664</v>
+      </c>
+      <c r="B3450" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3450" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" s="6" t="n">
+        <v>44833.895833333336</v>
+      </c>
+      <c r="B3451" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3451" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" s="6" t="n">
+        <v>44833.90625</v>
+      </c>
+      <c r="B3452" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3452" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" s="6" t="n">
+        <v>44833.916666666664</v>
+      </c>
+      <c r="B3453" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3453" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" s="6" t="n">
+        <v>44833.927083333336</v>
+      </c>
+      <c r="B3454" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3454" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" s="6" t="n">
+        <v>44833.9375</v>
+      </c>
+      <c r="B3455" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3455" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" s="6" t="n">
+        <v>44833.947916666664</v>
+      </c>
+      <c r="B3456" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3456" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" s="6" t="n">
+        <v>44833.958333333336</v>
+      </c>
+      <c r="B3457" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3457" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" s="6" t="n">
+        <v>44833.96875</v>
+      </c>
+      <c r="B3458" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3458" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" s="6" t="n">
+        <v>44833.979166666664</v>
+      </c>
+      <c r="B3459" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3459" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" s="6" t="n">
+        <v>44833.989583333336</v>
+      </c>
+      <c r="B3460" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3460" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" s="6" t="n">
+        <v>44834.0</v>
+      </c>
+      <c r="B3461" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3461" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" s="6" t="n">
+        <v>44834.010416666664</v>
+      </c>
+      <c r="B3462" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3462" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" s="6" t="n">
+        <v>44834.020833333336</v>
+      </c>
+      <c r="B3463" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3463" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" s="6" t="n">
+        <v>44834.03125</v>
+      </c>
+      <c r="B3464" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3464" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" s="6" t="n">
+        <v>44834.041666666664</v>
+      </c>
+      <c r="B3465" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3465" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" s="6" t="n">
+        <v>44834.052083333336</v>
+      </c>
+      <c r="B3466" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3466" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" s="6" t="n">
+        <v>44834.0625</v>
+      </c>
+      <c r="B3467" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3467" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" s="6" t="n">
+        <v>44834.072916666664</v>
+      </c>
+      <c r="B3468" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3468" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" s="6" t="n">
+        <v>44834.083333333336</v>
+      </c>
+      <c r="B3469" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3469" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" s="6" t="n">
+        <v>44834.09375</v>
+      </c>
+      <c r="B3470" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3470" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" s="6" t="n">
+        <v>44834.104166666664</v>
+      </c>
+      <c r="B3471" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3471" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" s="6" t="n">
+        <v>44834.114583333336</v>
+      </c>
+      <c r="B3472" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3472" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" s="6" t="n">
+        <v>44834.125</v>
+      </c>
+      <c r="B3473" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3473" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" s="6" t="n">
+        <v>44834.135416666664</v>
+      </c>
+      <c r="B3474" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3474" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" s="6" t="n">
+        <v>44834.145833333336</v>
+      </c>
+      <c r="B3475" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3475" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" s="6" t="n">
+        <v>44834.15625</v>
+      </c>
+      <c r="B3476" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3476" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" s="6" t="n">
+        <v>44834.166666666664</v>
+      </c>
+      <c r="B3477" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3477" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" s="6" t="n">
+        <v>44834.177083333336</v>
+      </c>
+      <c r="B3478" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3478" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" s="6" t="n">
+        <v>44834.1875</v>
+      </c>
+      <c r="B3479" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3479" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" s="6" t="n">
+        <v>44834.197916666664</v>
+      </c>
+      <c r="B3480" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3480" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" s="6" t="n">
+        <v>44834.208333333336</v>
+      </c>
+      <c r="B3481" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3481" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3482">
+      <c r="A3482" s="6" t="n">
+        <v>44834.21875</v>
+      </c>
+      <c r="B3482" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3482" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3483">
+      <c r="A3483" s="6" t="n">
+        <v>44834.229166666664</v>
+      </c>
+      <c r="B3483" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3483" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3484">
+      <c r="A3484" s="6" t="n">
+        <v>44834.239583333336</v>
+      </c>
+      <c r="B3484" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3484" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3485">
+      <c r="A3485" s="6" t="n">
+        <v>44834.25</v>
+      </c>
+      <c r="B3485" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3485" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3486">
+      <c r="A3486" s="6" t="n">
+        <v>44834.260416666664</v>
+      </c>
+      <c r="B3486" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3486" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3487">
+      <c r="A3487" s="6" t="n">
+        <v>44834.270833333336</v>
+      </c>
+      <c r="B3487" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3487" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3488">
+      <c r="A3488" s="6" t="n">
+        <v>44834.28125</v>
+      </c>
+      <c r="B3488" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3488" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3489">
+      <c r="A3489" s="6" t="n">
+        <v>44834.291666666664</v>
+      </c>
+      <c r="B3489" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3489" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3490">
+      <c r="A3490" s="6" t="n">
+        <v>44834.302083333336</v>
+      </c>
+      <c r="B3490" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3490" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3491">
+      <c r="A3491" s="6" t="n">
+        <v>44834.3125</v>
+      </c>
+      <c r="B3491" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3491" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3492">
+      <c r="A3492" s="6" t="n">
+        <v>44834.322916666664</v>
+      </c>
+      <c r="B3492" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3492" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3493">
+      <c r="A3493" s="6" t="n">
+        <v>44834.333333333336</v>
+      </c>
+      <c r="B3493" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3493" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3494">
+      <c r="A3494" s="6" t="n">
+        <v>44834.34375</v>
+      </c>
+      <c r="B3494" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3494" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3495">
+      <c r="A3495" s="6" t="n">
+        <v>44834.354166666664</v>
+      </c>
+      <c r="B3495" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3495" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3496">
+      <c r="A3496" s="6" t="n">
+        <v>44834.364583333336</v>
+      </c>
+      <c r="B3496" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3496" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3497">
+      <c r="A3497" s="6" t="n">
+        <v>44834.375</v>
+      </c>
+      <c r="B3497" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3497" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3498">
+      <c r="A3498" s="6" t="n">
+        <v>44834.385416666664</v>
+      </c>
+      <c r="B3498" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3498" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3499">
+      <c r="A3499" s="6" t="n">
+        <v>44834.395833333336</v>
+      </c>
+      <c r="B3499" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3499" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3500">
+      <c r="A3500" s="6" t="n">
+        <v>44834.40625</v>
+      </c>
+      <c r="B3500" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3500" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3501">
+      <c r="A3501" s="6" t="n">
+        <v>44834.416666666664</v>
+      </c>
+      <c r="B3501" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3501" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3502">
+      <c r="A3502" s="6" t="n">
+        <v>44834.427083333336</v>
+      </c>
+      <c r="B3502" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3502" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3503">
+      <c r="A3503" s="6" t="n">
+        <v>44834.4375</v>
+      </c>
+      <c r="B3503" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3503" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3504">
+      <c r="A3504" s="6" t="n">
+        <v>44834.447916666664</v>
+      </c>
+      <c r="B3504" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3504" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3505">
+      <c r="A3505" s="6" t="n">
+        <v>44834.458333333336</v>
+      </c>
+      <c r="B3505" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3505" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3506">
+      <c r="A3506" s="6" t="n">
+        <v>44834.46875</v>
+      </c>
+      <c r="B3506" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3506" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3507">
+      <c r="A3507" s="6" t="n">
+        <v>44834.479166666664</v>
+      </c>
+      <c r="B3507" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3507" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3508">
+      <c r="A3508" s="6" t="n">
+        <v>44834.489583333336</v>
+      </c>
+      <c r="B3508" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3508" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3509">
+      <c r="A3509" s="6" t="n">
+        <v>44834.5</v>
+      </c>
+      <c r="B3509" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3509" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3510">
+      <c r="A3510" s="6" t="n">
+        <v>44834.510416666664</v>
+      </c>
+      <c r="B3510" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3510" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3511">
+      <c r="A3511" s="6" t="n">
+        <v>44834.520833333336</v>
+      </c>
+      <c r="B3511" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3511" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3512">
+      <c r="A3512" s="6" t="n">
+        <v>44834.53125</v>
+      </c>
+      <c r="B3512" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3512" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3513">
+      <c r="A3513" s="6" t="n">
+        <v>44834.541666666664</v>
+      </c>
+      <c r="B3513" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3513" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" s="6" t="n">
+        <v>44834.552083333336</v>
+      </c>
+      <c r="B3514" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3514" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" s="6" t="n">
+        <v>44834.5625</v>
+      </c>
+      <c r="B3515" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3515" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" s="6" t="n">
+        <v>44834.572916666664</v>
+      </c>
+      <c r="B3516" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3516" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3517">
+      <c r="A3517" s="6" t="n">
+        <v>44834.583333333336</v>
+      </c>
+      <c r="B3517" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3517" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" s="6" t="n">
+        <v>44834.59375</v>
+      </c>
+      <c r="B3518" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3518" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" s="6" t="n">
+        <v>44834.604166666664</v>
+      </c>
+      <c r="B3519" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3519" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3520">
+      <c r="A3520" s="6" t="n">
+        <v>44834.614583333336</v>
+      </c>
+      <c r="B3520" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3520" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3521">
+      <c r="A3521" s="6" t="n">
+        <v>44834.625</v>
+      </c>
+      <c r="B3521" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3521" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3522">
+      <c r="A3522" s="6" t="n">
+        <v>44834.635416666664</v>
+      </c>
+      <c r="B3522" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3522" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3523">
+      <c r="A3523" s="6" t="n">
+        <v>44834.645833333336</v>
+      </c>
+      <c r="B3523" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3523" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3524">
+      <c r="A3524" s="6" t="n">
+        <v>44834.65625</v>
+      </c>
+      <c r="B3524" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3524" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3525">
+      <c r="A3525" s="6" t="n">
+        <v>44834.666666666664</v>
+      </c>
+      <c r="B3525" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3525" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" s="6" t="n">
+        <v>44834.677083333336</v>
+      </c>
+      <c r="B3526" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3526" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" s="6" t="n">
+        <v>44834.6875</v>
+      </c>
+      <c r="B3527" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3527" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" s="6" t="n">
+        <v>44834.697916666664</v>
+      </c>
+      <c r="B3528" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3528" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" s="6" t="n">
+        <v>44834.708333333336</v>
+      </c>
+      <c r="B3529" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3529" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" s="6" t="n">
+        <v>44834.71875</v>
+      </c>
+      <c r="B3530" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3530" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" s="6" t="n">
+        <v>44834.729166666664</v>
+      </c>
+      <c r="B3531" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3531" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3532">
+      <c r="A3532" s="6" t="n">
+        <v>44834.739583333336</v>
+      </c>
+      <c r="B3532" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3532" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" s="6" t="n">
+        <v>44834.75</v>
+      </c>
+      <c r="B3533" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3533" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3534">
+      <c r="A3534" s="6" t="n">
+        <v>44834.760416666664</v>
+      </c>
+      <c r="B3534" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3534" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3535">
+      <c r="A3535" s="6" t="n">
+        <v>44834.770833333336</v>
+      </c>
+      <c r="B3535" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3535" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3536">
+      <c r="A3536" s="6" t="n">
+        <v>44834.78125</v>
+      </c>
+      <c r="B3536" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3536" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3537">
+      <c r="A3537" s="6" t="n">
+        <v>44834.791666666664</v>
+      </c>
+      <c r="B3537" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3537" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3538">
+      <c r="A3538" s="6" t="n">
+        <v>44834.802083333336</v>
+      </c>
+      <c r="B3538" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3538" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3539">
+      <c r="A3539" s="6" t="n">
+        <v>44834.8125</v>
+      </c>
+      <c r="B3539" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3539" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3540">
+      <c r="A3540" s="6" t="n">
+        <v>44834.822916666664</v>
+      </c>
+      <c r="B3540" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3540" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3541">
+      <c r="A3541" s="6" t="n">
+        <v>44834.833333333336</v>
+      </c>
+      <c r="B3541" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3541" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3542">
+      <c r="A3542" s="6" t="n">
+        <v>44834.84375</v>
+      </c>
+      <c r="B3542" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3542" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3543">
+      <c r="A3543" s="6" t="n">
+        <v>44834.854166666664</v>
+      </c>
+      <c r="B3543" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3543" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3544">
+      <c r="A3544" s="6" t="n">
+        <v>44834.864583333336</v>
+      </c>
+      <c r="B3544" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3544" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3545">
+      <c r="A3545" s="6" t="n">
+        <v>44834.875</v>
+      </c>
+      <c r="B3545" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3545" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3546">
+      <c r="A3546" s="6" t="n">
+        <v>44834.885416666664</v>
+      </c>
+      <c r="B3546" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3546" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3547">
+      <c r="A3547" s="6" t="n">
+        <v>44834.895833333336</v>
+      </c>
+      <c r="B3547" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3547" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3548">
+      <c r="A3548" s="6" t="n">
+        <v>44834.90625</v>
+      </c>
+      <c r="B3548" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3548" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3549">
+      <c r="A3549" s="6" t="n">
+        <v>44834.916666666664</v>
+      </c>
+      <c r="B3549" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3549" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3550">
+      <c r="A3550" s="6" t="n">
+        <v>44834.927083333336</v>
+      </c>
+      <c r="B3550" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3550" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3551">
+      <c r="A3551" s="6" t="n">
+        <v>44834.9375</v>
+      </c>
+      <c r="B3551" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3551" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" s="6" t="n">
+        <v>44834.947916666664</v>
+      </c>
+      <c r="B3552" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3552" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" s="6" t="n">
+        <v>44834.958333333336</v>
+      </c>
+      <c r="B3553" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3553" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" s="6" t="n">
+        <v>44834.96875</v>
+      </c>
+      <c r="B3554" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3554" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" s="6" t="n">
+        <v>44834.979166666664</v>
+      </c>
+      <c r="B3555" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3555" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" s="6" t="n">
+        <v>44834.989583333336</v>
+      </c>
+      <c r="B3556" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3556" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" s="6" t="n">
+        <v>44835.0</v>
+      </c>
+      <c r="B3557" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3557" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3558">
+      <c r="A3558" s="6" t="n">
+        <v>44835.010416666664</v>
+      </c>
+      <c r="B3558" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3558" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3559">
+      <c r="A3559" s="6" t="n">
+        <v>44835.020833333336</v>
+      </c>
+      <c r="B3559" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3559" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" s="6" t="n">
+        <v>44835.03125</v>
+      </c>
+      <c r="B3560" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3560" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" s="6" t="n">
+        <v>44835.041666666664</v>
+      </c>
+      <c r="B3561" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3561" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" s="6" t="n">
+        <v>44835.052083333336</v>
+      </c>
+      <c r="B3562" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3562" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" s="6" t="n">
+        <v>44835.0625</v>
+      </c>
+      <c r="B3563" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3563" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" s="6" t="n">
+        <v>44835.072916666664</v>
+      </c>
+      <c r="B3564" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3564" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" s="6" t="n">
+        <v>44835.083333333336</v>
+      </c>
+      <c r="B3565" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3565" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" s="6" t="n">
+        <v>44835.09375</v>
+      </c>
+      <c r="B3566" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3566" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3567">
+      <c r="A3567" s="6" t="n">
+        <v>44835.104166666664</v>
+      </c>
+      <c r="B3567" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3567" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3568">
+      <c r="A3568" s="6" t="n">
+        <v>44835.114583333336</v>
+      </c>
+      <c r="B3568" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3568" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3569">
+      <c r="A3569" s="6" t="n">
+        <v>44835.125</v>
+      </c>
+      <c r="B3569" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3569" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3570">
+      <c r="A3570" s="6" t="n">
+        <v>44835.135416666664</v>
+      </c>
+      <c r="B3570" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3570" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3571">
+      <c r="A3571" s="6" t="n">
+        <v>44835.145833333336</v>
+      </c>
+      <c r="B3571" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3571" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3572">
+      <c r="A3572" s="6" t="n">
+        <v>44835.15625</v>
+      </c>
+      <c r="B3572" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3572" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3573">
+      <c r="A3573" s="6" t="n">
+        <v>44835.166666666664</v>
+      </c>
+      <c r="B3573" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3573" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3574">
+      <c r="A3574" s="6" t="n">
+        <v>44835.177083333336</v>
+      </c>
+      <c r="B3574" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3574" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3575">
+      <c r="A3575" s="6" t="n">
+        <v>44835.1875</v>
+      </c>
+      <c r="B3575" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3575" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3576">
+      <c r="A3576" s="6" t="n">
+        <v>44835.197916666664</v>
+      </c>
+      <c r="B3576" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3576" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3577">
+      <c r="A3577" s="6" t="n">
+        <v>44835.208333333336</v>
+      </c>
+      <c r="B3577" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3577" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3578">
+      <c r="A3578" s="6" t="n">
+        <v>44835.21875</v>
+      </c>
+      <c r="B3578" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3578" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3579">
+      <c r="A3579" s="6" t="n">
+        <v>44835.229166666664</v>
+      </c>
+      <c r="B3579" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3579" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3580">
+      <c r="A3580" s="6" t="n">
+        <v>44835.239583333336</v>
+      </c>
+      <c r="B3580" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3580" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3581">
+      <c r="A3581" s="6" t="n">
+        <v>44835.25</v>
+      </c>
+      <c r="B3581" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3581" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3582">
+      <c r="A3582" s="6" t="n">
+        <v>44835.260416666664</v>
+      </c>
+      <c r="B3582" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3582" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3583">
+      <c r="A3583" s="6" t="n">
+        <v>44835.270833333336</v>
+      </c>
+      <c r="B3583" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3583" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3584">
+      <c r="A3584" s="6" t="n">
+        <v>44835.28125</v>
+      </c>
+      <c r="B3584" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3584" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3585">
+      <c r="A3585" s="6" t="n">
+        <v>44835.291666666664</v>
+      </c>
+      <c r="B3585" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3585" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3586">
+      <c r="A3586" s="6" t="n">
+        <v>44835.302083333336</v>
+      </c>
+      <c r="B3586" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3586" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3587">
+      <c r="A3587" s="6" t="n">
+        <v>44835.3125</v>
+      </c>
+      <c r="B3587" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3587" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3588">
+      <c r="A3588" s="6" t="n">
+        <v>44835.322916666664</v>
+      </c>
+      <c r="B3588" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3588" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3589">
+      <c r="A3589" s="6" t="n">
+        <v>44835.333333333336</v>
+      </c>
+      <c r="B3589" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3589" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3590">
+      <c r="A3590" s="6" t="n">
+        <v>44835.34375</v>
+      </c>
+      <c r="B3590" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3590" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3591">
+      <c r="A3591" s="6" t="n">
+        <v>44835.354166666664</v>
+      </c>
+      <c r="B3591" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3591" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3592">
+      <c r="A3592" s="6" t="n">
+        <v>44835.364583333336</v>
+      </c>
+      <c r="B3592" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3592" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3593">
+      <c r="A3593" s="6" t="n">
+        <v>44835.375</v>
+      </c>
+      <c r="B3593" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3593" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3594">
+      <c r="A3594" s="6" t="n">
+        <v>44835.385416666664</v>
+      </c>
+      <c r="B3594" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3594" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3595">
+      <c r="A3595" s="6" t="n">
+        <v>44835.395833333336</v>
+      </c>
+      <c r="B3595" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3595" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3596">
+      <c r="A3596" s="6" t="n">
+        <v>44835.40625</v>
+      </c>
+      <c r="B3596" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C3596" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3597">
+      <c r="A3597" s="6" t="n">
+        <v>44835.416666666664</v>
+      </c>
+      <c r="B3597" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3597" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3598">
+      <c r="A3598" s="6" t="n">
+        <v>44835.427083333336</v>
+      </c>
+      <c r="B3598" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3598" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3599">
+      <c r="A3599" s="6" t="n">
+        <v>44835.4375</v>
+      </c>
+      <c r="B3599" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3599" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3600">
+      <c r="A3600" s="6" t="n">
+        <v>44835.447916666664</v>
+      </c>
+      <c r="B3600" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3600" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3601">
+      <c r="A3601" s="6" t="n">
+        <v>44835.458333333336</v>
+      </c>
+      <c r="B3601" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3601" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3602">
+      <c r="A3602" s="6" t="n">
+        <v>44835.46875</v>
+      </c>
+      <c r="B3602" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3602" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3603">
+      <c r="A3603" s="6" t="n">
+        <v>44835.479166666664</v>
+      </c>
+      <c r="B3603" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3603" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3604">
+      <c r="A3604" s="6" t="n">
+        <v>44835.489583333336</v>
+      </c>
+      <c r="B3604" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3604" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3605">
+      <c r="A3605" s="6" t="n">
+        <v>44835.5</v>
+      </c>
+      <c r="B3605" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3605" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3606">
+      <c r="A3606" s="6" t="n">
+        <v>44835.510416666664</v>
+      </c>
+      <c r="B3606" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3606" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3607">
+      <c r="A3607" s="6" t="n">
+        <v>44835.520833333336</v>
+      </c>
+      <c r="B3607" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3607" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3608">
+      <c r="A3608" s="6" t="n">
+        <v>44835.53125</v>
+      </c>
+      <c r="B3608" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3608" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3609">
+      <c r="A3609" s="6" t="n">
+        <v>44835.541666666664</v>
+      </c>
+      <c r="B3609" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3609" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3610">
+      <c r="A3610" s="6" t="n">
+        <v>44835.552083333336</v>
+      </c>
+      <c r="B3610" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C3610" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3611">
+      <c r="A3611" s="6" t="n">
+        <v>44835.5625</v>
+      </c>
+      <c r="B3611" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3611" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3612">
+      <c r="A3612" s="6" t="n">
+        <v>44835.572916666664</v>
+      </c>
+      <c r="B3612" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3612" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3613">
+      <c r="A3613" s="6" t="n">
+        <v>44835.583333333336</v>
+      </c>
+      <c r="B3613" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3613" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3614">
+      <c r="A3614" s="6" t="n">
+        <v>44835.59375</v>
+      </c>
+      <c r="B3614" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3614" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3615">
+      <c r="A3615" s="6" t="n">
+        <v>44835.604166666664</v>
+      </c>
+      <c r="B3615" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3615" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3616">
+      <c r="A3616" s="6" t="n">
+        <v>44835.614583333336</v>
+      </c>
+      <c r="B3616" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3616" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3617">
+      <c r="A3617" s="6" t="n">
+        <v>44835.625</v>
+      </c>
+      <c r="B3617" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3617" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3618">
+      <c r="A3618" s="6" t="n">
+        <v>44835.635416666664</v>
+      </c>
+      <c r="B3618" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3618" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3619">
+      <c r="A3619" s="6" t="n">
+        <v>44835.645833333336</v>
+      </c>
+      <c r="B3619" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3619" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3620">
+      <c r="A3620" s="6" t="n">
+        <v>44835.65625</v>
+      </c>
+      <c r="B3620" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3620" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3621">
+      <c r="A3621" s="6" t="n">
+        <v>44835.666666666664</v>
+      </c>
+      <c r="B3621" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C3621" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3622">
+      <c r="A3622" s="6" t="n">
+        <v>44835.677083333336</v>
+      </c>
+      <c r="B3622" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3622" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3623">
+      <c r="A3623" s="6" t="n">
+        <v>44835.6875</v>
+      </c>
+      <c r="B3623" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3623" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3624">
+      <c r="A3624" s="6" t="n">
+        <v>44835.697916666664</v>
+      </c>
+      <c r="B3624" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3624" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3625">
+      <c r="A3625" s="6" t="n">
+        <v>44835.708333333336</v>
+      </c>
+      <c r="B3625" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3625" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3626">
+      <c r="A3626" s="6" t="n">
+        <v>44835.71875</v>
+      </c>
+      <c r="B3626" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3626" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3627">
+      <c r="A3627" s="6" t="n">
+        <v>44835.729166666664</v>
+      </c>
+      <c r="B3627" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3627" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3628">
+      <c r="A3628" s="6" t="n">
+        <v>44835.739583333336</v>
+      </c>
+      <c r="B3628" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3628" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3629">
+      <c r="A3629" s="6" t="n">
+        <v>44835.75</v>
+      </c>
+      <c r="B3629" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3629" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3630">
+      <c r="A3630" s="6" t="n">
+        <v>44835.760416666664</v>
+      </c>
+      <c r="B3630" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3630" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3631">
+      <c r="A3631" s="6" t="n">
+        <v>44835.770833333336</v>
+      </c>
+      <c r="B3631" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3631" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3632">
+      <c r="A3632" s="6" t="n">
+        <v>44835.78125</v>
+      </c>
+      <c r="B3632" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3632" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3633">
+      <c r="A3633" s="6" t="n">
+        <v>44835.791666666664</v>
+      </c>
+      <c r="B3633" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3633" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3634">
+      <c r="A3634" s="6" t="n">
+        <v>44835.802083333336</v>
+      </c>
+      <c r="B3634" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3634" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3635">
+      <c r="A3635" s="6" t="n">
+        <v>44835.8125</v>
+      </c>
+      <c r="B3635" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3635" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3636">
+      <c r="A3636" s="6" t="n">
+        <v>44835.822916666664</v>
+      </c>
+      <c r="B3636" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3636" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3637">
+      <c r="A3637" s="6" t="n">
+        <v>44835.833333333336</v>
+      </c>
+      <c r="B3637" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3637" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3638">
+      <c r="A3638" s="6" t="n">
+        <v>44835.84375</v>
+      </c>
+      <c r="B3638" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3638" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3639">
+      <c r="A3639" s="6" t="n">
+        <v>44835.854166666664</v>
+      </c>
+      <c r="B3639" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3639" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3640">
+      <c r="A3640" s="6" t="n">
+        <v>44835.864583333336</v>
+      </c>
+      <c r="B3640" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3640" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3641">
+      <c r="A3641" s="6" t="n">
+        <v>44835.875</v>
+      </c>
+      <c r="B3641" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3641" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3642">
+      <c r="A3642" s="6" t="n">
+        <v>44835.885416666664</v>
+      </c>
+      <c r="B3642" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3642" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3643">
+      <c r="A3643" s="6" t="n">
+        <v>44835.895833333336</v>
+      </c>
+      <c r="B3643" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3643" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3644">
+      <c r="A3644" s="6" t="n">
+        <v>44835.90625</v>
+      </c>
+      <c r="B3644" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3644" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3645">
+      <c r="A3645" s="6" t="n">
+        <v>44835.916666666664</v>
+      </c>
+      <c r="B3645" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3645" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3646">
+      <c r="A3646" s="6" t="n">
+        <v>44835.927083333336</v>
+      </c>
+      <c r="B3646" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3646" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3647">
+      <c r="A3647" s="6" t="n">
+        <v>44835.9375</v>
+      </c>
+      <c r="B3647" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3647" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3648">
+      <c r="A3648" s="6" t="n">
+        <v>44835.947916666664</v>
+      </c>
+      <c r="B3648" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3648" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3649">
+      <c r="A3649" s="6" t="n">
+        <v>44835.958333333336</v>
+      </c>
+      <c r="B3649" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3649" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3650">
+      <c r="A3650" s="6" t="n">
+        <v>44835.96875</v>
+      </c>
+      <c r="B3650" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3650" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3651">
+      <c r="A3651" s="6" t="n">
+        <v>44835.979166666664</v>
+      </c>
+      <c r="B3651" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3651" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3652">
+      <c r="A3652" s="6" t="n">
+        <v>44835.989583333336</v>
+      </c>
+      <c r="B3652" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3652" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3653">
+      <c r="A3653" s="6" t="n">
+        <v>44836.0</v>
+      </c>
+      <c r="B3653" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3653" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3654">
+      <c r="A3654" s="6" t="n">
+        <v>44836.010416666664</v>
+      </c>
+      <c r="B3654" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3654" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3655">
+      <c r="A3655" s="6" t="n">
+        <v>44836.020833333336</v>
+      </c>
+      <c r="B3655" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3655" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3656">
+      <c r="A3656" s="6" t="n">
+        <v>44836.03125</v>
+      </c>
+      <c r="B3656" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3656" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3657">
+      <c r="A3657" s="6" t="n">
+        <v>44836.041666666664</v>
+      </c>
+      <c r="B3657" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3657" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3658">
+      <c r="A3658" s="6" t="n">
+        <v>44836.052083333336</v>
+      </c>
+      <c r="B3658" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3658" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3659">
+      <c r="A3659" s="6" t="n">
+        <v>44836.0625</v>
+      </c>
+      <c r="B3659" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3659" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3660">
+      <c r="A3660" s="6" t="n">
+        <v>44836.072916666664</v>
+      </c>
+      <c r="B3660" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3660" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3661">
+      <c r="A3661" s="6" t="n">
+        <v>44836.083333333336</v>
+      </c>
+      <c r="B3661" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3661" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3662">
+      <c r="A3662" s="6" t="n">
+        <v>44836.09375</v>
+      </c>
+      <c r="B3662" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3662" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3663">
+      <c r="A3663" s="6" t="n">
+        <v>44836.104166666664</v>
+      </c>
+      <c r="B3663" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3663" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3664">
+      <c r="A3664" s="6" t="n">
+        <v>44836.114583333336</v>
+      </c>
+      <c r="B3664" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3664" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3665">
+      <c r="A3665" s="6" t="n">
+        <v>44836.125</v>
+      </c>
+      <c r="B3665" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3665" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3666">
+      <c r="A3666" s="6" t="n">
+        <v>44836.135416666664</v>
+      </c>
+      <c r="B3666" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3666" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3667">
+      <c r="A3667" s="6" t="n">
+        <v>44836.145833333336</v>
+      </c>
+      <c r="B3667" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3667" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3668">
+      <c r="A3668" s="6" t="n">
+        <v>44836.15625</v>
+      </c>
+      <c r="B3668" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3668" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3669">
+      <c r="A3669" s="6" t="n">
+        <v>44836.166666666664</v>
+      </c>
+      <c r="B3669" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3669" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3670">
+      <c r="A3670" s="6" t="n">
+        <v>44836.177083333336</v>
+      </c>
+      <c r="B3670" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3670" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3671">
+      <c r="A3671" s="6" t="n">
+        <v>44836.1875</v>
+      </c>
+      <c r="B3671" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3671" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3672">
+      <c r="A3672" s="6" t="n">
+        <v>44836.197916666664</v>
+      </c>
+      <c r="B3672" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3672" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3673">
+      <c r="A3673" s="6" t="n">
+        <v>44836.208333333336</v>
+      </c>
+      <c r="B3673" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3673" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3674">
+      <c r="A3674" s="6" t="n">
+        <v>44836.21875</v>
+      </c>
+      <c r="B3674" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3674" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3675">
+      <c r="A3675" s="6" t="n">
+        <v>44836.229166666664</v>
+      </c>
+      <c r="B3675" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3675" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3676">
+      <c r="A3676" s="6" t="n">
+        <v>44836.239583333336</v>
+      </c>
+      <c r="B3676" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3676" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3677">
+      <c r="A3677" s="6" t="n">
+        <v>44836.25</v>
+      </c>
+      <c r="B3677" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3677" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3678">
+      <c r="A3678" s="6" t="n">
+        <v>44836.260416666664</v>
+      </c>
+      <c r="B3678" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3678" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3679">
+      <c r="A3679" s="6" t="n">
+        <v>44836.270833333336</v>
+      </c>
+      <c r="B3679" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3679" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3680">
+      <c r="A3680" s="6" t="n">
+        <v>44836.28125</v>
+      </c>
+      <c r="B3680" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3680" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3681">
+      <c r="A3681" s="6" t="n">
+        <v>44836.291666666664</v>
+      </c>
+      <c r="B3681" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3681" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3682">
+      <c r="A3682" s="6" t="n">
+        <v>44836.302083333336</v>
+      </c>
+      <c r="B3682" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3682" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3683">
+      <c r="A3683" s="6" t="n">
+        <v>44836.3125</v>
+      </c>
+      <c r="B3683" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3683" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3684">
+      <c r="A3684" s="6" t="n">
+        <v>44836.322916666664</v>
+      </c>
+      <c r="B3684" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3684" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3685">
+      <c r="A3685" s="6" t="n">
+        <v>44836.333333333336</v>
+      </c>
+      <c r="B3685" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3685" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3686">
+      <c r="A3686" s="6" t="n">
+        <v>44836.34375</v>
+      </c>
+      <c r="B3686" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3686" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3687">
+      <c r="A3687" s="6" t="n">
+        <v>44836.354166666664</v>
+      </c>
+      <c r="B3687" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3687" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3688">
+      <c r="A3688" s="6" t="n">
+        <v>44836.364583333336</v>
+      </c>
+      <c r="B3688" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3688" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3689">
+      <c r="A3689" s="6" t="n">
+        <v>44836.375</v>
+      </c>
+      <c r="B3689" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3689" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3690">
+      <c r="A3690" s="6" t="n">
+        <v>44836.385416666664</v>
+      </c>
+      <c r="B3690" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3690" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3691">
+      <c r="A3691" s="6" t="n">
+        <v>44836.395833333336</v>
+      </c>
+      <c r="B3691" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3691" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3692">
+      <c r="A3692" s="6" t="n">
+        <v>44836.40625</v>
+      </c>
+      <c r="B3692" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3692" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3693">
+      <c r="A3693" s="6" t="n">
+        <v>44836.416666666664</v>
+      </c>
+      <c r="B3693" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3693" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3694">
+      <c r="A3694" s="6" t="n">
+        <v>44836.427083333336</v>
+      </c>
+      <c r="B3694" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3694" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3695">
+      <c r="A3695" s="6" t="n">
+        <v>44836.4375</v>
+      </c>
+      <c r="B3695" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3695" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3696">
+      <c r="A3696" s="6" t="n">
+        <v>44836.447916666664</v>
+      </c>
+      <c r="B3696" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3696" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3697">
+      <c r="A3697" s="6" t="n">
+        <v>44836.458333333336</v>
+      </c>
+      <c r="B3697" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3697" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3698">
+      <c r="A3698" s="6" t="n">
+        <v>44836.46875</v>
+      </c>
+      <c r="B3698" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3698" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3699">
+      <c r="A3699" s="6" t="n">
+        <v>44836.479166666664</v>
+      </c>
+      <c r="B3699" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3699" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3700">
+      <c r="A3700" s="6" t="n">
+        <v>44836.489583333336</v>
+      </c>
+      <c r="B3700" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3700" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3701">
+      <c r="A3701" s="6" t="n">
+        <v>44836.5</v>
+      </c>
+      <c r="B3701" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3701" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3702">
+      <c r="A3702" s="6" t="n">
+        <v>44836.510416666664</v>
+      </c>
+      <c r="B3702" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3702" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3703">
+      <c r="A3703" s="6" t="n">
+        <v>44836.520833333336</v>
+      </c>
+      <c r="B3703" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3703" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3704">
+      <c r="A3704" s="6" t="n">
+        <v>44836.53125</v>
+      </c>
+      <c r="B3704" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3704" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3705">
+      <c r="A3705" s="6" t="n">
+        <v>44836.541666666664</v>
+      </c>
+      <c r="B3705" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3705" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3706">
+      <c r="A3706" s="6" t="n">
+        <v>44836.552083333336</v>
+      </c>
+      <c r="B3706" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3706" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3707">
+      <c r="A3707" s="6" t="n">
+        <v>44836.5625</v>
+      </c>
+      <c r="B3707" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3707" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3708">
+      <c r="A3708" s="6" t="n">
+        <v>44836.572916666664</v>
+      </c>
+      <c r="B3708" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3708" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3709">
+      <c r="A3709" s="6" t="n">
+        <v>44836.583333333336</v>
+      </c>
+      <c r="B3709" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3709" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3710">
+      <c r="A3710" s="6" t="n">
+        <v>44836.59375</v>
+      </c>
+      <c r="B3710" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3710" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3711">
+      <c r="A3711" s="6" t="n">
+        <v>44836.604166666664</v>
+      </c>
+      <c r="B3711" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3711" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3712">
+      <c r="A3712" s="6" t="n">
+        <v>44836.614583333336</v>
+      </c>
+      <c r="B3712" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3712" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3713">
+      <c r="A3713" s="6" t="n">
+        <v>44836.625</v>
+      </c>
+      <c r="B3713" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3713" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3714">
+      <c r="A3714" s="6" t="n">
+        <v>44836.635416666664</v>
+      </c>
+      <c r="B3714" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3714" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3715">
+      <c r="A3715" s="6" t="n">
+        <v>44836.645833333336</v>
+      </c>
+      <c r="B3715" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3715" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3716">
+      <c r="A3716" s="6" t="n">
+        <v>44836.65625</v>
+      </c>
+      <c r="B3716" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3716" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3717">
+      <c r="A3717" s="6" t="n">
+        <v>44836.666666666664</v>
+      </c>
+      <c r="B3717" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3717" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3718">
+      <c r="A3718" s="6" t="n">
+        <v>44836.677083333336</v>
+      </c>
+      <c r="B3718" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3718" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3719">
+      <c r="A3719" s="6" t="n">
+        <v>44836.6875</v>
+      </c>
+      <c r="B3719" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3719" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3720">
+      <c r="A3720" s="6" t="n">
+        <v>44836.697916666664</v>
+      </c>
+      <c r="B3720" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3720" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3721">
+      <c r="A3721" s="6" t="n">
+        <v>44836.708333333336</v>
+      </c>
+      <c r="B3721" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3721" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3722">
+      <c r="A3722" s="6" t="n">
+        <v>44836.71875</v>
+      </c>
+      <c r="B3722" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3722" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3723">
+      <c r="A3723" s="6" t="n">
+        <v>44836.729166666664</v>
+      </c>
+      <c r="B3723" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3723" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3724">
+      <c r="A3724" s="6" t="n">
+        <v>44836.739583333336</v>
+      </c>
+      <c r="B3724" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3724" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3725">
+      <c r="A3725" s="6" t="n">
+        <v>44836.75</v>
+      </c>
+      <c r="B3725" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3725" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3726">
+      <c r="A3726" s="6" t="n">
+        <v>44836.760416666664</v>
+      </c>
+      <c r="B3726" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3726" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3727">
+      <c r="A3727" s="6" t="n">
+        <v>44836.770833333336</v>
+      </c>
+      <c r="B3727" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3727" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3728">
+      <c r="A3728" s="6" t="n">
+        <v>44836.78125</v>
+      </c>
+      <c r="B3728" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3728" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3729">
+      <c r="A3729" s="6" t="n">
+        <v>44836.791666666664</v>
+      </c>
+      <c r="B3729" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3729" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3730">
+      <c r="A3730" s="6" t="n">
+        <v>44836.802083333336</v>
+      </c>
+      <c r="B3730" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3730" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3731">
+      <c r="A3731" s="6" t="n">
+        <v>44836.8125</v>
+      </c>
+      <c r="B3731" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3731" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3732">
+      <c r="A3732" s="6" t="n">
+        <v>44836.822916666664</v>
+      </c>
+      <c r="B3732" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3732" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3733">
+      <c r="A3733" s="6" t="n">
+        <v>44836.833333333336</v>
+      </c>
+      <c r="B3733" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3733" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3734">
+      <c r="A3734" s="6" t="n">
+        <v>44836.84375</v>
+      </c>
+      <c r="B3734" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3734" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3735">
+      <c r="A3735" s="6" t="n">
+        <v>44836.854166666664</v>
+      </c>
+      <c r="B3735" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3735" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3736">
+      <c r="A3736" s="6" t="n">
+        <v>44836.864583333336</v>
+      </c>
+      <c r="B3736" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3736" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3737">
+      <c r="A3737" s="6" t="n">
+        <v>44836.875</v>
+      </c>
+      <c r="B3737" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3737" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3738">
+      <c r="A3738" s="6" t="n">
+        <v>44836.885416666664</v>
+      </c>
+      <c r="B3738" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3738" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3739">
+      <c r="A3739" s="6" t="n">
+        <v>44836.895833333336</v>
+      </c>
+      <c r="B3739" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3739" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3740">
+      <c r="A3740" s="6" t="n">
+        <v>44836.90625</v>
+      </c>
+      <c r="B3740" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3740" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3741">
+      <c r="A3741" s="6" t="n">
+        <v>44836.916666666664</v>
+      </c>
+      <c r="B3741" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3741" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3742">
+      <c r="A3742" s="6" t="n">
+        <v>44836.927083333336</v>
+      </c>
+      <c r="B3742" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3742" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3743">
+      <c r="A3743" s="6" t="n">
+        <v>44836.9375</v>
+      </c>
+      <c r="B3743" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3743" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3744">
+      <c r="A3744" s="6" t="n">
+        <v>44836.947916666664</v>
+      </c>
+      <c r="B3744" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3744" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3745">
+      <c r="A3745" s="6" t="n">
+        <v>44836.958333333336</v>
+      </c>
+      <c r="B3745" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3745" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3746">
+      <c r="A3746" s="6" t="n">
+        <v>44836.96875</v>
+      </c>
+      <c r="B3746" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3746" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3747">
+      <c r="A3747" s="6" t="n">
+        <v>44836.979166666664</v>
+      </c>
+      <c r="B3747" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3747" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3748">
+      <c r="A3748" s="6" t="n">
+        <v>44836.989583333336</v>
+      </c>
+      <c r="B3748" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3748" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3749">
+      <c r="A3749" s="6" t="n">
+        <v>44837.0</v>
+      </c>
+      <c r="B3749" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3749" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3750">
+      <c r="A3750" s="6" t="n">
+        <v>44837.010416666664</v>
+      </c>
+      <c r="B3750" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3750" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3751">
+      <c r="A3751" s="6" t="n">
+        <v>44837.020833333336</v>
+      </c>
+      <c r="B3751" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3751" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3752">
+      <c r="A3752" s="6" t="n">
+        <v>44837.03125</v>
+      </c>
+      <c r="B3752" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3752" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3753">
+      <c r="A3753" s="6" t="n">
+        <v>44837.041666666664</v>
+      </c>
+      <c r="B3753" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3753" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3754">
+      <c r="A3754" s="6" t="n">
+        <v>44837.052083333336</v>
+      </c>
+      <c r="B3754" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3754" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3755">
+      <c r="A3755" s="6" t="n">
+        <v>44837.0625</v>
+      </c>
+      <c r="B3755" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3755" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3756">
+      <c r="A3756" s="6" t="n">
+        <v>44837.072916666664</v>
+      </c>
+      <c r="B3756" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3756" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3757">
+      <c r="A3757" s="6" t="n">
+        <v>44837.083333333336</v>
+      </c>
+      <c r="B3757" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3757" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3758">
+      <c r="A3758" s="6" t="n">
+        <v>44837.09375</v>
+      </c>
+      <c r="B3758" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3758" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3759">
+      <c r="A3759" s="6" t="n">
+        <v>44837.104166666664</v>
+      </c>
+      <c r="B3759" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3759" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3760">
+      <c r="A3760" s="6" t="n">
+        <v>44837.114583333336</v>
+      </c>
+      <c r="B3760" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3760" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3761">
+      <c r="A3761" s="6" t="n">
+        <v>44837.125</v>
+      </c>
+      <c r="B3761" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3761" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3762">
+      <c r="A3762" s="6" t="n">
+        <v>44837.135416666664</v>
+      </c>
+      <c r="B3762" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3762" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3763">
+      <c r="A3763" s="6" t="n">
+        <v>44837.145833333336</v>
+      </c>
+      <c r="B3763" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3763" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3764">
+      <c r="A3764" s="6" t="n">
+        <v>44837.15625</v>
+      </c>
+      <c r="B3764" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3764" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3765">
+      <c r="A3765" s="6" t="n">
+        <v>44837.166666666664</v>
+      </c>
+      <c r="B3765" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3765" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3766">
+      <c r="A3766" s="6" t="n">
+        <v>44837.177083333336</v>
+      </c>
+      <c r="B3766" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3766" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3767">
+      <c r="A3767" s="6" t="n">
+        <v>44837.1875</v>
+      </c>
+      <c r="B3767" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3767" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3768">
+      <c r="A3768" s="6" t="n">
+        <v>44837.197916666664</v>
+      </c>
+      <c r="B3768" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3768" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3769">
+      <c r="A3769" s="6" t="n">
+        <v>44837.208333333336</v>
+      </c>
+      <c r="B3769" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3769" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3770">
+      <c r="A3770" s="6" t="n">
+        <v>44837.21875</v>
+      </c>
+      <c r="B3770" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3770" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3771">
+      <c r="A3771" s="6" t="n">
+        <v>44837.229166666664</v>
+      </c>
+      <c r="B3771" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3771" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3772">
+      <c r="A3772" s="6" t="n">
+        <v>44837.239583333336</v>
+      </c>
+      <c r="B3772" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3772" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3773">
+      <c r="A3773" s="6" t="n">
+        <v>44837.25</v>
+      </c>
+      <c r="B3773" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3773" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3774">
+      <c r="A3774" s="6" t="n">
+        <v>44837.260416666664</v>
+      </c>
+      <c r="B3774" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3774" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3775">
+      <c r="A3775" s="6" t="n">
+        <v>44837.270833333336</v>
+      </c>
+      <c r="B3775" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3775" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3776">
+      <c r="A3776" s="6" t="n">
+        <v>44837.28125</v>
+      </c>
+      <c r="B3776" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3776" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3777">
+      <c r="A3777" s="6" t="n">
+        <v>44837.291666666664</v>
+      </c>
+      <c r="B3777" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3777" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3778">
+      <c r="A3778" s="6" t="n">
+        <v>44837.302083333336</v>
+      </c>
+      <c r="B3778" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3778" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3779">
+      <c r="A3779" s="6" t="n">
+        <v>44837.3125</v>
+      </c>
+      <c r="B3779" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3779" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3780">
+      <c r="A3780" s="6" t="n">
+        <v>44837.322916666664</v>
+      </c>
+      <c r="B3780" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3780" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3781">
+      <c r="A3781" s="6" t="n">
+        <v>44837.333333333336</v>
+      </c>
+      <c r="B3781" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3781" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3782">
+      <c r="A3782" s="6" t="n">
+        <v>44837.34375</v>
+      </c>
+      <c r="B3782" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3782" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3783">
+      <c r="A3783" s="6" t="n">
+        <v>44837.354166666664</v>
+      </c>
+      <c r="B3783" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3783" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3784">
+      <c r="A3784" s="6" t="n">
+        <v>44837.364583333336</v>
+      </c>
+      <c r="B3784" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3784" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3785">
+      <c r="A3785" s="6" t="n">
+        <v>44837.375</v>
+      </c>
+      <c r="B3785" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3785" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3786">
+      <c r="A3786" s="6" t="n">
+        <v>44837.385416666664</v>
+      </c>
+      <c r="B3786" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3786" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3787">
+      <c r="A3787" s="6" t="n">
+        <v>44837.395833333336</v>
+      </c>
+      <c r="B3787" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3787" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3788">
+      <c r="A3788" s="6" t="n">
+        <v>44837.40625</v>
+      </c>
+      <c r="B3788" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3788" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3789">
+      <c r="A3789" s="6" t="n">
+        <v>44837.416666666664</v>
+      </c>
+      <c r="B3789" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3789" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3790">
+      <c r="A3790" s="6" t="n">
+        <v>44837.427083333336</v>
+      </c>
+      <c r="B3790" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3790" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3791">
+      <c r="A3791" s="6" t="n">
+        <v>44837.4375</v>
+      </c>
+      <c r="B3791" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3791" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3792">
+      <c r="A3792" s="6" t="n">
+        <v>44837.447916666664</v>
+      </c>
+      <c r="B3792" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3792" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3793">
+      <c r="A3793" s="6" t="n">
+        <v>44837.458333333336</v>
+      </c>
+      <c r="B3793" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3793" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3794">
+      <c r="A3794" s="6" t="n">
+        <v>44837.46875</v>
+      </c>
+      <c r="B3794" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3794" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3795">
+      <c r="A3795" s="6" t="n">
+        <v>44837.479166666664</v>
+      </c>
+      <c r="B3795" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3795" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3796">
+      <c r="A3796" s="6" t="n">
+        <v>44837.489583333336</v>
+      </c>
+      <c r="B3796" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3796" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3797">
+      <c r="A3797" s="6" t="n">
+        <v>44837.5</v>
+      </c>
+      <c r="B3797" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3797" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3798">
+      <c r="A3798" s="6" t="n">
+        <v>44837.510416666664</v>
+      </c>
+      <c r="B3798" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3798" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3799">
+      <c r="A3799" s="6" t="n">
+        <v>44837.520833333336</v>
+      </c>
+      <c r="B3799" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3799" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3800">
+      <c r="A3800" s="6" t="n">
+        <v>44837.53125</v>
+      </c>
+      <c r="B3800" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3800" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3801">
+      <c r="A3801" s="6" t="n">
+        <v>44837.541666666664</v>
+      </c>
+      <c r="B3801" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3801" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3802">
+      <c r="A3802" s="6" t="n">
+        <v>44837.552083333336</v>
+      </c>
+      <c r="B3802" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3802" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3803">
+      <c r="A3803" s="6" t="n">
+        <v>44837.5625</v>
+      </c>
+      <c r="B3803" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3803" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3804">
+      <c r="A3804" s="6" t="n">
+        <v>44837.572916666664</v>
+      </c>
+      <c r="B3804" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3804" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3805">
+      <c r="A3805" s="6" t="n">
+        <v>44837.583333333336</v>
+      </c>
+      <c r="B3805" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3805" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3806">
+      <c r="A3806" s="6" t="n">
+        <v>44837.59375</v>
+      </c>
+      <c r="B3806" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3806" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3807">
+      <c r="A3807" s="6" t="n">
+        <v>44837.604166666664</v>
+      </c>
+      <c r="B3807" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3807" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3808">
+      <c r="A3808" s="6" t="n">
+        <v>44837.614583333336</v>
+      </c>
+      <c r="B3808" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3808" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3809">
+      <c r="A3809" s="6" t="n">
+        <v>44837.625</v>
+      </c>
+      <c r="B3809" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3809" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3810">
+      <c r="A3810" s="6" t="n">
+        <v>44837.635416666664</v>
+      </c>
+      <c r="B3810" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3810" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3811">
+      <c r="A3811" s="6" t="n">
+        <v>44837.645833333336</v>
+      </c>
+      <c r="B3811" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3811" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3812">
+      <c r="A3812" s="6" t="n">
+        <v>44837.65625</v>
+      </c>
+      <c r="B3812" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3812" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3813">
+      <c r="A3813" s="6" t="n">
+        <v>44837.666666666664</v>
+      </c>
+      <c r="B3813" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3813" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3814">
+      <c r="A3814" s="6" t="n">
+        <v>44837.677083333336</v>
+      </c>
+      <c r="B3814" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3814" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3815">
+      <c r="A3815" s="6" t="n">
+        <v>44837.6875</v>
+      </c>
+      <c r="B3815" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3815" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3816">
+      <c r="A3816" s="6" t="n">
+        <v>44837.697916666664</v>
+      </c>
+      <c r="B3816" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C3816" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3817">
+      <c r="A3817" s="6" t="n">
+        <v>44837.708333333336</v>
+      </c>
+      <c r="B3817" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3817" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3818">
+      <c r="A3818" s="6" t="n">
+        <v>44837.71875</v>
+      </c>
+      <c r="B3818" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3818" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3819">
+      <c r="A3819" s="6" t="n">
+        <v>44837.729166666664</v>
+      </c>
+      <c r="B3819" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3819" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3820">
+      <c r="A3820" s="6" t="n">
+        <v>44837.739583333336</v>
+      </c>
+      <c r="B3820" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3820" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3821">
+      <c r="A3821" s="6" t="n">
+        <v>44837.75</v>
+      </c>
+      <c r="B3821" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3821" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3822">
+      <c r="A3822" s="6" t="n">
+        <v>44837.760416666664</v>
+      </c>
+      <c r="B3822" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3822" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3823">
+      <c r="A3823" s="6" t="n">
+        <v>44837.770833333336</v>
+      </c>
+      <c r="B3823" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3823" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3824">
+      <c r="A3824" s="6" t="n">
+        <v>44837.78125</v>
+      </c>
+      <c r="B3824" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3824" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3825">
+      <c r="A3825" s="6" t="n">
+        <v>44837.791666666664</v>
+      </c>
+      <c r="B3825" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3825" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3826">
+      <c r="A3826" s="6" t="n">
+        <v>44837.802083333336</v>
+      </c>
+      <c r="B3826" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3826" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3827">
+      <c r="A3827" s="6" t="n">
+        <v>44837.8125</v>
+      </c>
+      <c r="B3827" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C3827" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3828">
+      <c r="A3828" s="6" t="n">
+        <v>44837.822916666664</v>
+      </c>
+      <c r="B3828" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3828" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3829">
+      <c r="A3829" s="6" t="n">
+        <v>44837.833333333336</v>
+      </c>
+      <c r="B3829" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3829" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3830">
+      <c r="A3830" s="6" t="n">
+        <v>44837.84375</v>
+      </c>
+      <c r="B3830" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3830" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3831">
+      <c r="A3831" s="6" t="n">
+        <v>44837.854166666664</v>
+      </c>
+      <c r="B3831" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3831" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3832">
+      <c r="A3832" s="6" t="n">
+        <v>44837.864583333336</v>
+      </c>
+      <c r="B3832" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3832" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3833">
+      <c r="A3833" s="6" t="n">
+        <v>44837.875</v>
+      </c>
+      <c r="B3833" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3833" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3834">
+      <c r="A3834" s="6" t="n">
+        <v>44837.885416666664</v>
+      </c>
+      <c r="B3834" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3834" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3835">
+      <c r="A3835" s="6" t="n">
+        <v>44837.895833333336</v>
+      </c>
+      <c r="B3835" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3835" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3836">
+      <c r="A3836" s="6" t="n">
+        <v>44837.90625</v>
+      </c>
+      <c r="B3836" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3836" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3837">
+      <c r="A3837" s="6" t="n">
+        <v>44837.916666666664</v>
+      </c>
+      <c r="B3837" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3837" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3838">
+      <c r="A3838" s="6" t="n">
+        <v>44837.927083333336</v>
+      </c>
+      <c r="B3838" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3838" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3839">
+      <c r="A3839" s="6" t="n">
+        <v>44837.9375</v>
+      </c>
+      <c r="B3839" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3839" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3840">
+      <c r="A3840" s="6" t="n">
+        <v>44837.947916666664</v>
+      </c>
+      <c r="B3840" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3840" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3841">
+      <c r="A3841" s="6" t="n">
+        <v>44837.958333333336</v>
+      </c>
+      <c r="B3841" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3841" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3842">
+      <c r="A3842" s="6" t="n">
+        <v>44837.96875</v>
+      </c>
+      <c r="B3842" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3842" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3843">
+      <c r="A3843" s="6" t="n">
+        <v>44837.979166666664</v>
+      </c>
+      <c r="B3843" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C3843" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3844">
+      <c r="A3844" s="6" t="n">
+        <v>44837.989583333336</v>
+      </c>
+      <c r="B3844" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3844" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3845">
+      <c r="A3845" s="6" t="n">
+        <v>44838.0</v>
+      </c>
+      <c r="B3845" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3845" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3846">
+      <c r="A3846" s="6" t="n">
+        <v>44838.010416666664</v>
+      </c>
+      <c r="B3846" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3846" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3847">
+      <c r="A3847" s="6" t="n">
+        <v>44838.020833333336</v>
+      </c>
+      <c r="B3847" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3847" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3848">
+      <c r="A3848" s="6" t="n">
+        <v>44838.03125</v>
+      </c>
+      <c r="B3848" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3848" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3849">
+      <c r="A3849" s="6" t="n">
+        <v>44838.041666666664</v>
+      </c>
+      <c r="B3849" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3849" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3850">
+      <c r="A3850" s="6" t="n">
+        <v>44838.052083333336</v>
+      </c>
+      <c r="B3850" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3850" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3851">
+      <c r="A3851" s="6" t="n">
+        <v>44838.0625</v>
+      </c>
+      <c r="B3851" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3851" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3852">
+      <c r="A3852" s="6" t="n">
+        <v>44838.072916666664</v>
+      </c>
+      <c r="B3852" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3852" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3853">
+      <c r="A3853" s="6" t="n">
+        <v>44838.083333333336</v>
+      </c>
+      <c r="B3853" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3853" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3854">
+      <c r="A3854" s="6" t="n">
+        <v>44838.09375</v>
+      </c>
+      <c r="B3854" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3854" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3855">
+      <c r="A3855" s="6" t="n">
+        <v>44838.104166666664</v>
+      </c>
+      <c r="B3855" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3855" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3856">
+      <c r="A3856" s="6" t="n">
+        <v>44838.114583333336</v>
+      </c>
+      <c r="B3856" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3856" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3857">
+      <c r="A3857" s="6" t="n">
+        <v>44838.125</v>
+      </c>
+      <c r="B3857" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3857" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3858">
+      <c r="A3858" s="6" t="n">
+        <v>44838.135416666664</v>
+      </c>
+      <c r="B3858" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3858" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3859">
+      <c r="A3859" s="6" t="n">
+        <v>44838.145833333336</v>
+      </c>
+      <c r="B3859" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3859" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3860">
+      <c r="A3860" s="6" t="n">
+        <v>44838.15625</v>
+      </c>
+      <c r="B3860" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3860" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3861">
+      <c r="A3861" s="6" t="n">
+        <v>44838.166666666664</v>
+      </c>
+      <c r="B3861" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3861" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3862">
+      <c r="A3862" s="6" t="n">
+        <v>44838.177083333336</v>
+      </c>
+      <c r="B3862" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3862" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3863">
+      <c r="A3863" s="6" t="n">
+        <v>44838.1875</v>
+      </c>
+      <c r="B3863" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3863" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3864">
+      <c r="A3864" s="6" t="n">
+        <v>44838.197916666664</v>
+      </c>
+      <c r="B3864" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3864" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3865">
+      <c r="A3865" s="6" t="n">
+        <v>44838.208333333336</v>
+      </c>
+      <c r="B3865" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3865" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3866">
+      <c r="A3866" s="6" t="n">
+        <v>44838.21875</v>
+      </c>
+      <c r="B3866" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3866" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3867">
+      <c r="A3867" s="6" t="n">
+        <v>44838.229166666664</v>
+      </c>
+      <c r="B3867" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3867" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3868">
+      <c r="A3868" s="6" t="n">
+        <v>44838.239583333336</v>
+      </c>
+      <c r="B3868" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3868" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3869">
+      <c r="A3869" s="6" t="n">
+        <v>44838.25</v>
+      </c>
+      <c r="B3869" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3869" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3870">
+      <c r="A3870" s="6" t="n">
+        <v>44838.260416666664</v>
+      </c>
+      <c r="B3870" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3870" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3871">
+      <c r="A3871" s="6" t="n">
+        <v>44838.270833333336</v>
+      </c>
+      <c r="B3871" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3871" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3872">
+      <c r="A3872" s="6" t="n">
+        <v>44838.28125</v>
+      </c>
+      <c r="B3872" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3872" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3873">
+      <c r="A3873" s="6" t="n">
+        <v>44838.291666666664</v>
+      </c>
+      <c r="B3873" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3873" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3874">
+      <c r="A3874" s="6" t="n">
+        <v>44838.302083333336</v>
+      </c>
+      <c r="B3874" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3874" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3875">
+      <c r="A3875" s="6" t="n">
+        <v>44838.3125</v>
+      </c>
+      <c r="B3875" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3875" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3876">
+      <c r="A3876" s="6" t="n">
+        <v>44838.322916666664</v>
+      </c>
+      <c r="B3876" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3876" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3877">
+      <c r="A3877" s="6" t="n">
+        <v>44838.333333333336</v>
+      </c>
+      <c r="B3877" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3877" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3878">
+      <c r="A3878" s="6" t="n">
+        <v>44838.34375</v>
+      </c>
+      <c r="B3878" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3878" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3879">
+      <c r="A3879" s="6" t="n">
+        <v>44838.354166666664</v>
+      </c>
+      <c r="B3879" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3879" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3880">
+      <c r="A3880" s="6" t="n">
+        <v>44838.364583333336</v>
+      </c>
+      <c r="B3880" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3880" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3881">
+      <c r="A3881" s="6" t="n">
+        <v>44838.375</v>
+      </c>
+      <c r="B3881" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3881" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3882">
+      <c r="A3882" s="6" t="n">
+        <v>44838.385416666664</v>
+      </c>
+      <c r="B3882" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3882" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3883">
+      <c r="A3883" s="6" t="n">
+        <v>44838.395833333336</v>
+      </c>
+      <c r="B3883" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3883" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3884">
+      <c r="A3884" s="6" t="n">
+        <v>44838.40625</v>
+      </c>
+      <c r="B3884" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3884" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3885">
+      <c r="A3885" s="6" t="n">
+        <v>44838.416666666664</v>
+      </c>
+      <c r="B3885" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3885" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3886">
+      <c r="A3886" s="6" t="n">
+        <v>44838.427083333336</v>
+      </c>
+      <c r="B3886" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3886" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3887">
+      <c r="A3887" s="6" t="n">
+        <v>44838.4375</v>
+      </c>
+      <c r="B3887" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3887" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3888">
+      <c r="A3888" s="6" t="n">
+        <v>44838.447916666664</v>
+      </c>
+      <c r="B3888" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3888" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3889">
+      <c r="A3889" s="6" t="n">
+        <v>44838.458333333336</v>
+      </c>
+      <c r="B3889" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3889" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3890">
+      <c r="A3890" s="6" t="n">
+        <v>44838.46875</v>
+      </c>
+      <c r="B3890" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3890" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3891">
+      <c r="A3891" s="6" t="n">
+        <v>44838.479166666664</v>
+      </c>
+      <c r="B3891" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3891" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3892">
+      <c r="A3892" s="6" t="n">
+        <v>44838.489583333336</v>
+      </c>
+      <c r="B3892" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3892" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3893">
+      <c r="A3893" s="6" t="n">
+        <v>44838.5</v>
+      </c>
+      <c r="B3893" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3893" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3894">
+      <c r="A3894" s="6" t="n">
+        <v>44838.510416666664</v>
+      </c>
+      <c r="B3894" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3894" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3895">
+      <c r="A3895" s="6" t="n">
+        <v>44838.520833333336</v>
+      </c>
+      <c r="B3895" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3895" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3896">
+      <c r="A3896" s="6" t="n">
+        <v>44838.53125</v>
+      </c>
+      <c r="B3896" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3896" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3897">
+      <c r="A3897" s="6" t="n">
+        <v>44838.541666666664</v>
+      </c>
+      <c r="B3897" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3897" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3898">
+      <c r="A3898" s="6" t="n">
+        <v>44838.552083333336</v>
+      </c>
+      <c r="B3898" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3898" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3899">
+      <c r="A3899" s="6" t="n">
+        <v>44838.5625</v>
+      </c>
+      <c r="B3899" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3899" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3900">
+      <c r="A3900" s="6" t="n">
+        <v>44838.572916666664</v>
+      </c>
+      <c r="B3900" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3900" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3901">
+      <c r="A3901" s="6" t="n">
+        <v>44838.583333333336</v>
+      </c>
+      <c r="B3901" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3901" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3902">
+      <c r="A3902" s="6" t="n">
+        <v>44838.59375</v>
+      </c>
+      <c r="B3902" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3902" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3903">
+      <c r="A3903" s="6" t="n">
+        <v>44838.604166666664</v>
+      </c>
+      <c r="B3903" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3903" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3904">
+      <c r="A3904" s="6" t="n">
+        <v>44838.614583333336</v>
+      </c>
+      <c r="B3904" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3904" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3905">
+      <c r="A3905" s="6" t="n">
+        <v>44838.625</v>
+      </c>
+      <c r="B3905" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3905" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3906">
+      <c r="A3906" s="6" t="n">
+        <v>44838.635416666664</v>
+      </c>
+      <c r="B3906" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3906" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3907">
+      <c r="A3907" s="6" t="n">
+        <v>44838.645833333336</v>
+      </c>
+      <c r="B3907" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3907" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3908">
+      <c r="A3908" s="6" t="n">
+        <v>44838.65625</v>
+      </c>
+      <c r="B3908" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3908" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3909">
+      <c r="A3909" s="6" t="n">
+        <v>44838.666666666664</v>
+      </c>
+      <c r="B3909" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3909" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3910">
+      <c r="A3910" s="6" t="n">
+        <v>44838.677083333336</v>
+      </c>
+      <c r="B3910" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3910" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3911">
+      <c r="A3911" s="6" t="n">
+        <v>44838.6875</v>
+      </c>
+      <c r="B3911" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3911" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3912">
+      <c r="A3912" s="6" t="n">
+        <v>44838.697916666664</v>
+      </c>
+      <c r="B3912" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3912" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3913">
+      <c r="A3913" s="6" t="n">
+        <v>44838.708333333336</v>
+      </c>
+      <c r="B3913" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3913" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3914">
+      <c r="A3914" s="6" t="n">
+        <v>44838.71875</v>
+      </c>
+      <c r="B3914" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3914" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3915">
+      <c r="A3915" s="6" t="n">
+        <v>44838.729166666664</v>
+      </c>
+      <c r="B3915" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3915" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3916">
+      <c r="A3916" s="6" t="n">
+        <v>44838.739583333336</v>
+      </c>
+      <c r="B3916" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3916" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3917">
+      <c r="A3917" s="6" t="n">
+        <v>44838.75</v>
+      </c>
+      <c r="B3917" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3917" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3918">
+      <c r="A3918" s="6" t="n">
+        <v>44838.760416666664</v>
+      </c>
+      <c r="B3918" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3918" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3919">
+      <c r="A3919" s="6" t="n">
+        <v>44838.770833333336</v>
+      </c>
+      <c r="B3919" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3919" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3920">
+      <c r="A3920" s="6" t="n">
+        <v>44838.78125</v>
+      </c>
+      <c r="B3920" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3920" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3921">
+      <c r="A3921" s="6" t="n">
+        <v>44838.791666666664</v>
+      </c>
+      <c r="B3921" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3921" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3922">
+      <c r="A3922" s="6" t="n">
+        <v>44838.802083333336</v>
+      </c>
+      <c r="B3922" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3922" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3923">
+      <c r="A3923" s="6" t="n">
+        <v>44838.8125</v>
+      </c>
+      <c r="B3923" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3923" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3924">
+      <c r="A3924" s="6" t="n">
+        <v>44838.822916666664</v>
+      </c>
+      <c r="B3924" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3924" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3925">
+      <c r="A3925" s="6" t="n">
+        <v>44838.833333333336</v>
+      </c>
+      <c r="B3925" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3925" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3926">
+      <c r="A3926" s="6" t="n">
+        <v>44838.84375</v>
+      </c>
+      <c r="B3926" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3926" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3927">
+      <c r="A3927" s="6" t="n">
+        <v>44838.854166666664</v>
+      </c>
+      <c r="B3927" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3927" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3928">
+      <c r="A3928" s="6" t="n">
+        <v>44838.864583333336</v>
+      </c>
+      <c r="B3928" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3928" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3929">
+      <c r="A3929" s="6" t="n">
+        <v>44838.875</v>
+      </c>
+      <c r="B3929" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3929" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3930">
+      <c r="A3930" s="6" t="n">
+        <v>44838.885416666664</v>
+      </c>
+      <c r="B3930" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3930" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3931">
+      <c r="A3931" s="6" t="n">
+        <v>44838.895833333336</v>
+      </c>
+      <c r="B3931" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3931" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3932">
+      <c r="A3932" s="6" t="n">
+        <v>44838.90625</v>
+      </c>
+      <c r="B3932" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3932" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3933">
+      <c r="A3933" s="6" t="n">
+        <v>44838.916666666664</v>
+      </c>
+      <c r="B3933" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3933" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3934">
+      <c r="A3934" s="6" t="n">
+        <v>44838.927083333336</v>
+      </c>
+      <c r="B3934" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3934" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3935">
+      <c r="A3935" s="6" t="n">
+        <v>44838.9375</v>
+      </c>
+      <c r="B3935" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3935" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3936">
+      <c r="A3936" s="6" t="n">
+        <v>44838.947916666664</v>
+      </c>
+      <c r="B3936" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3936" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3937">
+      <c r="A3937" s="6" t="n">
+        <v>44838.958333333336</v>
+      </c>
+      <c r="B3937" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3937" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3938">
+      <c r="A3938" s="6" t="n">
+        <v>44838.96875</v>
+      </c>
+      <c r="B3938" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3938" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3939">
+      <c r="A3939" s="6" t="n">
+        <v>44838.979166666664</v>
+      </c>
+      <c r="B3939" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3939" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3940">
+      <c r="A3940" s="6" t="n">
+        <v>44838.989583333336</v>
+      </c>
+      <c r="B3940" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3940" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3941">
+      <c r="A3941" s="6" t="n">
+        <v>44839.0</v>
+      </c>
+      <c r="B3941" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3941" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3942">
+      <c r="A3942" s="6" t="n">
+        <v>44839.010416666664</v>
+      </c>
+      <c r="B3942" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3942" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3943">
+      <c r="A3943" s="6" t="n">
+        <v>44839.020833333336</v>
+      </c>
+      <c r="B3943" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3943" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3944">
+      <c r="A3944" s="6" t="n">
+        <v>44839.03125</v>
+      </c>
+      <c r="B3944" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3944" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3945">
+      <c r="A3945" s="6" t="n">
+        <v>44839.041666666664</v>
+      </c>
+      <c r="B3945" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3945" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3946">
+      <c r="A3946" s="6" t="n">
+        <v>44839.052083333336</v>
+      </c>
+      <c r="B3946" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3946" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3947">
+      <c r="A3947" s="6" t="n">
+        <v>44839.0625</v>
+      </c>
+      <c r="B3947" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3947" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3948">
+      <c r="A3948" s="6" t="n">
+        <v>44839.072916666664</v>
+      </c>
+      <c r="B3948" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3948" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3949">
+      <c r="A3949" s="6" t="n">
+        <v>44839.083333333336</v>
+      </c>
+      <c r="B3949" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3949" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3950">
+      <c r="A3950" s="6" t="n">
+        <v>44839.09375</v>
+      </c>
+      <c r="B3950" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3950" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3951">
+      <c r="A3951" s="6" t="n">
+        <v>44839.104166666664</v>
+      </c>
+      <c r="B3951" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3951" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3952">
+      <c r="A3952" s="6" t="n">
+        <v>44839.114583333336</v>
+      </c>
+      <c r="B3952" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3952" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3953">
+      <c r="A3953" s="6" t="n">
+        <v>44839.125</v>
+      </c>
+      <c r="B3953" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3953" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3954">
+      <c r="A3954" s="6" t="n">
+        <v>44839.135416666664</v>
+      </c>
+      <c r="B3954" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3954" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3955">
+      <c r="A3955" s="6" t="n">
+        <v>44839.145833333336</v>
+      </c>
+      <c r="B3955" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3955" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3956">
+      <c r="A3956" s="6" t="n">
+        <v>44839.15625</v>
+      </c>
+      <c r="B3956" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3956" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3957">
+      <c r="A3957" s="6" t="n">
+        <v>44839.166666666664</v>
+      </c>
+      <c r="B3957" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3957" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3958">
+      <c r="A3958" s="6" t="n">
+        <v>44839.177083333336</v>
+      </c>
+      <c r="B3958" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3958" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3959">
+      <c r="A3959" s="6" t="n">
+        <v>44839.1875</v>
+      </c>
+      <c r="B3959" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3959" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3960">
+      <c r="A3960" s="6" t="n">
+        <v>44839.197916666664</v>
+      </c>
+      <c r="B3960" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3960" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3961">
+      <c r="A3961" s="6" t="n">
+        <v>44839.208333333336</v>
+      </c>
+      <c r="B3961" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3961" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3962">
+      <c r="A3962" s="6" t="n">
+        <v>44839.21875</v>
+      </c>
+      <c r="B3962" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3962" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3963">
+      <c r="A3963" s="6" t="n">
+        <v>44839.229166666664</v>
+      </c>
+      <c r="B3963" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3963" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3964">
+      <c r="A3964" s="6" t="n">
+        <v>44839.239583333336</v>
+      </c>
+      <c r="B3964" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3964" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3965">
+      <c r="A3965" s="6" t="n">
+        <v>44839.25</v>
+      </c>
+      <c r="B3965" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3965" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3966">
+      <c r="A3966" s="6" t="n">
+        <v>44839.260416666664</v>
+      </c>
+      <c r="B3966" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3966" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3967">
+      <c r="A3967" s="6" t="n">
+        <v>44839.270833333336</v>
+      </c>
+      <c r="B3967" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3967" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3968">
+      <c r="A3968" s="6" t="n">
+        <v>44839.28125</v>
+      </c>
+      <c r="B3968" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3968" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3969">
+      <c r="A3969" s="6" t="n">
+        <v>44839.291666666664</v>
+      </c>
+      <c r="B3969" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3969" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3970">
+      <c r="A3970" s="6" t="n">
+        <v>44839.302083333336</v>
+      </c>
+      <c r="B3970" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3970" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3971">
+      <c r="A3971" s="6" t="n">
+        <v>44839.3125</v>
+      </c>
+      <c r="B3971" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3971" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3972">
+      <c r="A3972" s="6" t="n">
+        <v>44839.322916666664</v>
+      </c>
+      <c r="B3972" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C3972" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3973">
+      <c r="A3973" s="6" t="n">
+        <v>44839.333333333336</v>
+      </c>
+      <c r="B3973" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3973" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3974">
+      <c r="A3974" s="6" t="n">
+        <v>44839.34375</v>
+      </c>
+      <c r="B3974" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3974" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3975">
+      <c r="A3975" s="6" t="n">
+        <v>44839.354166666664</v>
+      </c>
+      <c r="B3975" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3975" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3976">
+      <c r="A3976" s="6" t="n">
+        <v>44839.364583333336</v>
+      </c>
+      <c r="B3976" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3976" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3977">
+      <c r="A3977" s="6" t="n">
+        <v>44839.375</v>
+      </c>
+      <c r="B3977" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3977" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3978">
+      <c r="A3978" s="6" t="n">
+        <v>44839.385416666664</v>
+      </c>
+      <c r="B3978" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3978" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3979">
+      <c r="A3979" s="6" t="n">
+        <v>44839.395833333336</v>
+      </c>
+      <c r="B3979" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3979" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3980">
+      <c r="A3980" s="6" t="n">
+        <v>44839.40625</v>
+      </c>
+      <c r="B3980" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3980" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3981">
+      <c r="A3981" s="6" t="n">
+        <v>44839.416666666664</v>
+      </c>
+      <c r="B3981" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3981" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3982">
+      <c r="A3982" s="6" t="n">
+        <v>44839.427083333336</v>
+      </c>
+      <c r="B3982" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3982" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3983">
+      <c r="A3983" s="6" t="n">
+        <v>44839.4375</v>
+      </c>
+      <c r="B3983" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3984">
+      <c r="A3984" s="6" t="n">
+        <v>44839.447916666664</v>
+      </c>
+      <c r="B3984" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3984" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3985">
+      <c r="A3985" s="6" t="n">
+        <v>44839.458333333336</v>
+      </c>
+      <c r="B3985" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3985" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3986">
+      <c r="A3986" s="6" t="n">
+        <v>44839.46875</v>
+      </c>
+      <c r="B3986" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3986" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3987">
+      <c r="A3987" s="6" t="n">
+        <v>44839.479166666664</v>
+      </c>
+      <c r="B3987" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3987" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3988">
+      <c r="A3988" s="6" t="n">
+        <v>44839.489583333336</v>
+      </c>
+      <c r="B3988" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3988" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3989">
+      <c r="A3989" s="6" t="n">
+        <v>44839.5</v>
+      </c>
+      <c r="B3989" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3989" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3990">
+      <c r="A3990" s="6" t="n">
+        <v>44839.510416666664</v>
+      </c>
+      <c r="B3990" s="1"/>
+      <c r="C3990" s="1"/>
+    </row>
+    <row r="3991">
+      <c r="A3991" s="6" t="n">
+        <v>44839.520833333336</v>
+      </c>
+      <c r="B3991" s="1"/>
+      <c r="C3991" s="1"/>
+    </row>
+    <row r="3992">
+      <c r="A3992" s="6" t="n">
+        <v>44839.53125</v>
+      </c>
+      <c r="B3992" s="1"/>
+      <c r="C3992" s="1"/>
+    </row>
+    <row r="3993">
+      <c r="A3993" s="6" t="n">
+        <v>44839.541666666664</v>
+      </c>
+      <c r="B3993" s="1"/>
+      <c r="C3993" s="1"/>
+    </row>
+    <row r="3994">
+      <c r="A3994" s="6" t="n">
+        <v>44839.552083333336</v>
+      </c>
+      <c r="B3994" s="1"/>
+      <c r="C3994" s="1"/>
+    </row>
+    <row r="3995">
+      <c r="A3995" s="6" t="n">
+        <v>44839.5625</v>
+      </c>
+      <c r="B3995" s="1"/>
+      <c r="C3995" s="1"/>
+    </row>
+    <row r="3996">
+      <c r="A3996" s="6" t="n">
+        <v>44839.572916666664</v>
+      </c>
+      <c r="B3996" s="1"/>
+      <c r="C3996" s="1"/>
+    </row>
+    <row r="3997">
+      <c r="A3997" s="6" t="n">
+        <v>44839.583333333336</v>
+      </c>
+      <c r="B3997" s="1"/>
+      <c r="C3997" s="1"/>
+    </row>
+    <row r="3998">
+      <c r="A3998" s="6" t="n">
+        <v>44839.59375</v>
+      </c>
+      <c r="B3998" s="1"/>
+      <c r="C3998" s="1"/>
+    </row>
+    <row r="3999">
+      <c r="A3999" s="6" t="n">
+        <v>44839.604166666664</v>
+      </c>
+      <c r="B3999" s="1"/>
+      <c r="C3999" s="1"/>
+    </row>
+    <row r="4000">
+      <c r="A4000" s="6" t="n">
+        <v>44839.614583333336</v>
+      </c>
+      <c r="B4000" s="1"/>
+      <c r="C4000" s="1"/>
+    </row>
+    <row r="4001">
+      <c r="A4001" s="6" t="n">
+        <v>44839.625</v>
+      </c>
+      <c r="B4001" s="1"/>
+      <c r="C4001" s="1"/>
+    </row>
+    <row r="4002">
+      <c r="A4002" s="6" t="n">
+        <v>44839.635416666664</v>
+      </c>
+      <c r="B4002" s="1"/>
+      <c r="C4002" s="1"/>
+    </row>
+    <row r="4003">
+      <c r="A4003" s="6" t="n">
+        <v>44839.645833333336</v>
+      </c>
+      <c r="B4003" s="1"/>
+      <c r="C4003" s="1"/>
+    </row>
+    <row r="4004">
+      <c r="A4004" s="6" t="n">
+        <v>44839.65625</v>
+      </c>
+      <c r="B4004" s="1"/>
+      <c r="C4004" s="1"/>
+    </row>
+    <row r="4005">
+      <c r="A4005" s="6" t="n">
+        <v>44839.666666666664</v>
+      </c>
+      <c r="B4005" s="1"/>
+      <c r="C4005" s="1"/>
+    </row>
+    <row r="4006">
+      <c r="A4006" s="6" t="n">
+        <v>44839.677083333336</v>
+      </c>
+      <c r="B4006" s="1"/>
+      <c r="C4006" s="1"/>
+    </row>
+    <row r="4007">
+      <c r="A4007" s="6" t="n">
+        <v>44839.6875</v>
+      </c>
+      <c r="B4007" s="1"/>
+      <c r="C4007" s="1"/>
+    </row>
+    <row r="4008">
+      <c r="A4008" s="6" t="n">
+        <v>44839.697916666664</v>
+      </c>
+      <c r="B4008" s="1"/>
+      <c r="C4008" s="1"/>
+    </row>
+    <row r="4009">
+      <c r="A4009" s="6" t="n">
+        <v>44839.708333333336</v>
+      </c>
+      <c r="B4009" s="1"/>
+      <c r="C4009" s="1"/>
+    </row>
+    <row r="4010">
+      <c r="A4010" s="6" t="n">
+        <v>44839.71875</v>
+      </c>
+      <c r="B4010" s="1"/>
+      <c r="C4010" s="1"/>
+    </row>
+    <row r="4011">
+      <c r="A4011" s="6" t="n">
+        <v>44839.729166666664</v>
+      </c>
+      <c r="B4011" s="1"/>
+      <c r="C4011" s="1"/>
+    </row>
+    <row r="4012">
+      <c r="A4012" s="6" t="n">
+        <v>44839.739583333336</v>
+      </c>
+      <c r="B4012" s="1"/>
+      <c r="C4012" s="1"/>
+    </row>
+    <row r="4013">
+      <c r="A4013" s="6" t="n">
+        <v>44839.75</v>
+      </c>
+      <c r="B4013" s="1"/>
+      <c r="C4013" s="1"/>
+    </row>
+    <row r="4014">
+      <c r="A4014" s="6" t="n">
+        <v>44839.760416666664</v>
+      </c>
+      <c r="B4014" s="1"/>
+      <c r="C4014" s="1"/>
+    </row>
+    <row r="4015">
+      <c r="A4015" s="6" t="n">
+        <v>44839.770833333336</v>
+      </c>
+      <c r="B4015" s="1"/>
+      <c r="C4015" s="1"/>
+    </row>
+    <row r="4016">
+      <c r="A4016" s="6" t="n">
+        <v>44839.78125</v>
+      </c>
+      <c r="B4016" s="1"/>
+      <c r="C4016" s="1"/>
+    </row>
+    <row r="4017">
+      <c r="A4017" s="6" t="n">
+        <v>44839.791666666664</v>
+      </c>
+      <c r="B4017" s="1"/>
+      <c r="C4017" s="1"/>
+    </row>
+    <row r="4018">
+      <c r="A4018" s="6" t="n">
+        <v>44839.802083333336</v>
+      </c>
+      <c r="B4018" s="1"/>
+      <c r="C4018" s="1"/>
+    </row>
+    <row r="4019">
+      <c r="A4019" s="6" t="n">
+        <v>44839.8125</v>
+      </c>
+      <c r="B4019" s="1"/>
+      <c r="C4019" s="1"/>
+    </row>
+    <row r="4020">
+      <c r="A4020" s="6" t="n">
+        <v>44839.822916666664</v>
+      </c>
+      <c r="B4020" s="1"/>
+      <c r="C4020" s="1"/>
+    </row>
+    <row r="4021">
+      <c r="A4021" s="6" t="n">
+        <v>44839.833333333336</v>
+      </c>
+      <c r="B4021" s="1"/>
+      <c r="C4021" s="1"/>
+    </row>
+    <row r="4022">
+      <c r="A4022" s="6" t="n">
+        <v>44839.84375</v>
+      </c>
+      <c r="B4022" s="1"/>
+      <c r="C4022" s="1"/>
+    </row>
+    <row r="4023">
+      <c r="A4023" s="6" t="n">
+        <v>44839.854166666664</v>
+      </c>
+      <c r="B4023" s="1"/>
+      <c r="C4023" s="1"/>
+    </row>
+    <row r="4024">
+      <c r="A4024" s="6" t="n">
+        <v>44839.864583333336</v>
+      </c>
+      <c r="B4024" s="1"/>
+      <c r="C4024" s="1"/>
+    </row>
+    <row r="4025">
+      <c r="A4025" s="6" t="n">
+        <v>44839.875</v>
+      </c>
+      <c r="B4025" s="1"/>
+      <c r="C4025" s="1"/>
+    </row>
+    <row r="4026">
+      <c r="A4026" s="6" t="n">
+        <v>44839.885416666664</v>
+      </c>
+      <c r="B4026" s="1"/>
+      <c r="C4026" s="1"/>
+    </row>
+    <row r="4027">
+      <c r="A4027" s="6" t="n">
+        <v>44839.895833333336</v>
+      </c>
+      <c r="B4027" s="1"/>
+      <c r="C4027" s="1"/>
+    </row>
+    <row r="4028">
+      <c r="A4028" s="6" t="n">
+        <v>44839.90625</v>
+      </c>
+      <c r="B4028" s="1"/>
+      <c r="C4028" s="1"/>
+    </row>
+    <row r="4029">
+      <c r="A4029" s="6" t="n">
+        <v>44839.916666666664</v>
+      </c>
+      <c r="B4029" s="1"/>
+      <c r="C4029" s="1"/>
+    </row>
+    <row r="4030">
+      <c r="A4030" s="6" t="n">
+        <v>44839.927083333336</v>
+      </c>
+      <c r="B4030" s="1"/>
+      <c r="C4030" s="1"/>
+    </row>
+    <row r="4031">
+      <c r="A4031" s="6" t="n">
+        <v>44839.9375</v>
+      </c>
+      <c r="B4031" s="1"/>
+      <c r="C4031" s="1"/>
+    </row>
+    <row r="4032">
+      <c r="A4032" s="6" t="n">
+        <v>44839.947916666664</v>
+      </c>
+      <c r="B4032" s="1"/>
+      <c r="C4032" s="1"/>
+    </row>
+    <row r="4033">
+      <c r="A4033" s="6" t="n">
+        <v>44839.958333333336</v>
+      </c>
+      <c r="B4033" s="1"/>
+      <c r="C4033" s="1"/>
+    </row>
+    <row r="4034">
+      <c r="A4034" s="6" t="n">
+        <v>44839.96875</v>
+      </c>
+      <c r="B4034" s="1"/>
+      <c r="C4034" s="1"/>
+    </row>
+    <row r="4035">
+      <c r="A4035" s="6" t="n">
+        <v>44839.979166666664</v>
+      </c>
+      <c r="B4035" s="1"/>
+      <c r="C4035" s="1"/>
+    </row>
+    <row r="4036">
+      <c r="A4036" s="6" t="n">
+        <v>44839.989583333336</v>
+      </c>
+      <c r="B4036" s="1"/>
+      <c r="C4036" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/export_data_domain_7992.xlsx
+++ b/data/export_data_domain_7992.xlsx
@@ -44010,330 +44010,6678 @@
       <c r="A3990" s="6" t="n">
         <v>44839.510416666664</v>
       </c>
-      <c r="B3990" s="1"/>
-      <c r="C3990" s="1"/>
+      <c r="B3990" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3990" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3991">
       <c r="A3991" s="6" t="n">
         <v>44839.520833333336</v>
       </c>
-      <c r="B3991" s="1"/>
-      <c r="C3991" s="1"/>
+      <c r="B3991" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3991" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3992">
       <c r="A3992" s="6" t="n">
         <v>44839.53125</v>
       </c>
-      <c r="B3992" s="1"/>
-      <c r="C3992" s="1"/>
+      <c r="B3992" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3992" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3993">
       <c r="A3993" s="6" t="n">
         <v>44839.541666666664</v>
       </c>
-      <c r="B3993" s="1"/>
-      <c r="C3993" s="1"/>
+      <c r="B3993" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3993" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3994">
       <c r="A3994" s="6" t="n">
         <v>44839.552083333336</v>
       </c>
-      <c r="B3994" s="1"/>
-      <c r="C3994" s="1"/>
+      <c r="B3994" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3994" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3995">
       <c r="A3995" s="6" t="n">
         <v>44839.5625</v>
       </c>
-      <c r="B3995" s="1"/>
-      <c r="C3995" s="1"/>
+      <c r="B3995" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3995" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3996">
       <c r="A3996" s="6" t="n">
         <v>44839.572916666664</v>
       </c>
-      <c r="B3996" s="1"/>
-      <c r="C3996" s="1"/>
+      <c r="B3996" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3996" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3997">
       <c r="A3997" s="6" t="n">
         <v>44839.583333333336</v>
       </c>
-      <c r="B3997" s="1"/>
-      <c r="C3997" s="1"/>
+      <c r="B3997" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3997" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3998">
       <c r="A3998" s="6" t="n">
         <v>44839.59375</v>
       </c>
-      <c r="B3998" s="1"/>
-      <c r="C3998" s="1"/>
+      <c r="B3998" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C3998" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3999">
       <c r="A3999" s="6" t="n">
         <v>44839.604166666664</v>
       </c>
-      <c r="B3999" s="1"/>
-      <c r="C3999" s="1"/>
+      <c r="B3999" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3999" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4000">
       <c r="A4000" s="6" t="n">
         <v>44839.614583333336</v>
       </c>
-      <c r="B4000" s="1"/>
-      <c r="C4000" s="1"/>
+      <c r="B4000" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4000" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4001">
       <c r="A4001" s="6" t="n">
         <v>44839.625</v>
       </c>
-      <c r="B4001" s="1"/>
-      <c r="C4001" s="1"/>
+      <c r="B4001" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4001" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4002">
       <c r="A4002" s="6" t="n">
         <v>44839.635416666664</v>
       </c>
-      <c r="B4002" s="1"/>
-      <c r="C4002" s="1"/>
+      <c r="B4002" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4002" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4003">
       <c r="A4003" s="6" t="n">
         <v>44839.645833333336</v>
       </c>
-      <c r="B4003" s="1"/>
-      <c r="C4003" s="1"/>
+      <c r="B4003" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4003" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4004">
       <c r="A4004" s="6" t="n">
         <v>44839.65625</v>
       </c>
-      <c r="B4004" s="1"/>
-      <c r="C4004" s="1"/>
+      <c r="B4004" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4004" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4005">
       <c r="A4005" s="6" t="n">
         <v>44839.666666666664</v>
       </c>
-      <c r="B4005" s="1"/>
-      <c r="C4005" s="1"/>
+      <c r="B4005" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4005" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4006">
       <c r="A4006" s="6" t="n">
         <v>44839.677083333336</v>
       </c>
-      <c r="B4006" s="1"/>
-      <c r="C4006" s="1"/>
+      <c r="B4006" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4006" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4007">
       <c r="A4007" s="6" t="n">
         <v>44839.6875</v>
       </c>
-      <c r="B4007" s="1"/>
-      <c r="C4007" s="1"/>
+      <c r="B4007" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4007" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4008">
       <c r="A4008" s="6" t="n">
         <v>44839.697916666664</v>
       </c>
-      <c r="B4008" s="1"/>
-      <c r="C4008" s="1"/>
+      <c r="B4008" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4008" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4009">
       <c r="A4009" s="6" t="n">
         <v>44839.708333333336</v>
       </c>
-      <c r="B4009" s="1"/>
-      <c r="C4009" s="1"/>
+      <c r="B4009" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4009" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4010">
       <c r="A4010" s="6" t="n">
         <v>44839.71875</v>
       </c>
-      <c r="B4010" s="1"/>
-      <c r="C4010" s="1"/>
+      <c r="B4010" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4010" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4011">
       <c r="A4011" s="6" t="n">
         <v>44839.729166666664</v>
       </c>
-      <c r="B4011" s="1"/>
-      <c r="C4011" s="1"/>
+      <c r="B4011" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4011" s="1" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4012">
       <c r="A4012" s="6" t="n">
         <v>44839.739583333336</v>
       </c>
-      <c r="B4012" s="1"/>
-      <c r="C4012" s="1"/>
+      <c r="B4012" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4012" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4013">
       <c r="A4013" s="6" t="n">
         <v>44839.75</v>
       </c>
-      <c r="B4013" s="1"/>
-      <c r="C4013" s="1"/>
+      <c r="B4013" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C4013" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4014">
       <c r="A4014" s="6" t="n">
         <v>44839.760416666664</v>
       </c>
-      <c r="B4014" s="1"/>
-      <c r="C4014" s="1"/>
+      <c r="B4014" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4014" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4015">
       <c r="A4015" s="6" t="n">
         <v>44839.770833333336</v>
       </c>
-      <c r="B4015" s="1"/>
-      <c r="C4015" s="1"/>
+      <c r="B4015" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4015" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4016">
       <c r="A4016" s="6" t="n">
         <v>44839.78125</v>
       </c>
-      <c r="B4016" s="1"/>
-      <c r="C4016" s="1"/>
+      <c r="B4016" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4016" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4017">
       <c r="A4017" s="6" t="n">
         <v>44839.791666666664</v>
       </c>
-      <c r="B4017" s="1"/>
-      <c r="C4017" s="1"/>
+      <c r="B4017" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4017" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4018">
       <c r="A4018" s="6" t="n">
         <v>44839.802083333336</v>
       </c>
-      <c r="B4018" s="1"/>
-      <c r="C4018" s="1"/>
+      <c r="B4018" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4018" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4019">
       <c r="A4019" s="6" t="n">
         <v>44839.8125</v>
       </c>
-      <c r="B4019" s="1"/>
-      <c r="C4019" s="1"/>
+      <c r="B4019" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4019" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4020">
       <c r="A4020" s="6" t="n">
         <v>44839.822916666664</v>
       </c>
-      <c r="B4020" s="1"/>
-      <c r="C4020" s="1"/>
+      <c r="B4020" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4020" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4021">
       <c r="A4021" s="6" t="n">
         <v>44839.833333333336</v>
       </c>
-      <c r="B4021" s="1"/>
-      <c r="C4021" s="1"/>
+      <c r="B4021" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4021" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4022">
       <c r="A4022" s="6" t="n">
         <v>44839.84375</v>
       </c>
-      <c r="B4022" s="1"/>
-      <c r="C4022" s="1"/>
+      <c r="B4022" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4022" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4023">
       <c r="A4023" s="6" t="n">
         <v>44839.854166666664</v>
       </c>
-      <c r="B4023" s="1"/>
-      <c r="C4023" s="1"/>
+      <c r="B4023" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4023" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4024">
       <c r="A4024" s="6" t="n">
         <v>44839.864583333336</v>
       </c>
-      <c r="B4024" s="1"/>
-      <c r="C4024" s="1"/>
+      <c r="B4024" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4024" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4025">
       <c r="A4025" s="6" t="n">
         <v>44839.875</v>
       </c>
-      <c r="B4025" s="1"/>
-      <c r="C4025" s="1"/>
+      <c r="B4025" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4025" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4026">
       <c r="A4026" s="6" t="n">
         <v>44839.885416666664</v>
       </c>
-      <c r="B4026" s="1"/>
-      <c r="C4026" s="1"/>
+      <c r="B4026" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4026" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4027">
       <c r="A4027" s="6" t="n">
         <v>44839.895833333336</v>
       </c>
-      <c r="B4027" s="1"/>
-      <c r="C4027" s="1"/>
+      <c r="B4027" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4027" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4028">
       <c r="A4028" s="6" t="n">
         <v>44839.90625</v>
       </c>
-      <c r="B4028" s="1"/>
-      <c r="C4028" s="1"/>
+      <c r="B4028" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4028" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4029">
       <c r="A4029" s="6" t="n">
         <v>44839.916666666664</v>
       </c>
-      <c r="B4029" s="1"/>
-      <c r="C4029" s="1"/>
+      <c r="B4029" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4029" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4030">
       <c r="A4030" s="6" t="n">
         <v>44839.927083333336</v>
       </c>
-      <c r="B4030" s="1"/>
-      <c r="C4030" s="1"/>
+      <c r="B4030" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4030" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4031">
       <c r="A4031" s="6" t="n">
         <v>44839.9375</v>
       </c>
-      <c r="B4031" s="1"/>
-      <c r="C4031" s="1"/>
+      <c r="B4031" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4031" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4032">
       <c r="A4032" s="6" t="n">
         <v>44839.947916666664</v>
       </c>
-      <c r="B4032" s="1"/>
-      <c r="C4032" s="1"/>
+      <c r="B4032" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4032" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4033">
       <c r="A4033" s="6" t="n">
         <v>44839.958333333336</v>
       </c>
-      <c r="B4033" s="1"/>
-      <c r="C4033" s="1"/>
+      <c r="B4033" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4033" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4034">
       <c r="A4034" s="6" t="n">
         <v>44839.96875</v>
       </c>
-      <c r="B4034" s="1"/>
-      <c r="C4034" s="1"/>
+      <c r="B4034" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4034" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4035">
       <c r="A4035" s="6" t="n">
         <v>44839.979166666664</v>
       </c>
-      <c r="B4035" s="1"/>
-      <c r="C4035" s="1"/>
+      <c r="B4035" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4035" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4036">
       <c r="A4036" s="6" t="n">
         <v>44839.989583333336</v>
       </c>
-      <c r="B4036" s="1"/>
-      <c r="C4036" s="1"/>
+      <c r="B4036" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4036" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4037">
+      <c r="A4037" s="6" t="n">
+        <v>44840.0</v>
+      </c>
+      <c r="B4037" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4037" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4038">
+      <c r="A4038" s="6" t="n">
+        <v>44840.010416666664</v>
+      </c>
+      <c r="B4038" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4038" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4039">
+      <c r="A4039" s="6" t="n">
+        <v>44840.020833333336</v>
+      </c>
+      <c r="B4039" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4039" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4040">
+      <c r="A4040" s="6" t="n">
+        <v>44840.03125</v>
+      </c>
+      <c r="B4040" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4040" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4041">
+      <c r="A4041" s="6" t="n">
+        <v>44840.041666666664</v>
+      </c>
+      <c r="B4041" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4041" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4042">
+      <c r="A4042" s="6" t="n">
+        <v>44840.052083333336</v>
+      </c>
+      <c r="B4042" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4042" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4043">
+      <c r="A4043" s="6" t="n">
+        <v>44840.0625</v>
+      </c>
+      <c r="B4043" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4043" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4044">
+      <c r="A4044" s="6" t="n">
+        <v>44840.072916666664</v>
+      </c>
+      <c r="B4044" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4044" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4045">
+      <c r="A4045" s="6" t="n">
+        <v>44840.083333333336</v>
+      </c>
+      <c r="B4045" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4045" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4046">
+      <c r="A4046" s="6" t="n">
+        <v>44840.09375</v>
+      </c>
+      <c r="B4046" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4046" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4047">
+      <c r="A4047" s="6" t="n">
+        <v>44840.104166666664</v>
+      </c>
+      <c r="B4047" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4047" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4048">
+      <c r="A4048" s="6" t="n">
+        <v>44840.114583333336</v>
+      </c>
+      <c r="B4048" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4048" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4049">
+      <c r="A4049" s="6" t="n">
+        <v>44840.125</v>
+      </c>
+      <c r="B4049" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4049" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4050">
+      <c r="A4050" s="6" t="n">
+        <v>44840.135416666664</v>
+      </c>
+      <c r="B4050" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4050" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4051">
+      <c r="A4051" s="6" t="n">
+        <v>44840.145833333336</v>
+      </c>
+      <c r="B4051" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4051" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4052">
+      <c r="A4052" s="6" t="n">
+        <v>44840.15625</v>
+      </c>
+      <c r="B4052" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4052" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4053">
+      <c r="A4053" s="6" t="n">
+        <v>44840.166666666664</v>
+      </c>
+      <c r="B4053" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4053" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4054">
+      <c r="A4054" s="6" t="n">
+        <v>44840.177083333336</v>
+      </c>
+      <c r="B4054" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4054" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4055">
+      <c r="A4055" s="6" t="n">
+        <v>44840.1875</v>
+      </c>
+      <c r="B4055" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4055" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4056">
+      <c r="A4056" s="6" t="n">
+        <v>44840.197916666664</v>
+      </c>
+      <c r="B4056" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4056" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4057">
+      <c r="A4057" s="6" t="n">
+        <v>44840.208333333336</v>
+      </c>
+      <c r="B4057" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4057" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4058">
+      <c r="A4058" s="6" t="n">
+        <v>44840.21875</v>
+      </c>
+      <c r="B4058" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4058" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4059">
+      <c r="A4059" s="6" t="n">
+        <v>44840.229166666664</v>
+      </c>
+      <c r="B4059" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4059" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4060">
+      <c r="A4060" s="6" t="n">
+        <v>44840.239583333336</v>
+      </c>
+      <c r="B4060" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4060" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4061">
+      <c r="A4061" s="6" t="n">
+        <v>44840.25</v>
+      </c>
+      <c r="B4061" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4061" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4062">
+      <c r="A4062" s="6" t="n">
+        <v>44840.260416666664</v>
+      </c>
+      <c r="B4062" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4062" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4063">
+      <c r="A4063" s="6" t="n">
+        <v>44840.270833333336</v>
+      </c>
+      <c r="B4063" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4063" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4064">
+      <c r="A4064" s="6" t="n">
+        <v>44840.28125</v>
+      </c>
+      <c r="B4064" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4064" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4065">
+      <c r="A4065" s="6" t="n">
+        <v>44840.291666666664</v>
+      </c>
+      <c r="B4065" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4065" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4066">
+      <c r="A4066" s="6" t="n">
+        <v>44840.302083333336</v>
+      </c>
+      <c r="B4066" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4066" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4067">
+      <c r="A4067" s="6" t="n">
+        <v>44840.3125</v>
+      </c>
+      <c r="B4067" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4067" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4068">
+      <c r="A4068" s="6" t="n">
+        <v>44840.322916666664</v>
+      </c>
+      <c r="B4068" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4068" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4069">
+      <c r="A4069" s="6" t="n">
+        <v>44840.333333333336</v>
+      </c>
+      <c r="B4069" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4069" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4070">
+      <c r="A4070" s="6" t="n">
+        <v>44840.34375</v>
+      </c>
+      <c r="B4070" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4070" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4071">
+      <c r="A4071" s="6" t="n">
+        <v>44840.354166666664</v>
+      </c>
+      <c r="B4071" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4071" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4072">
+      <c r="A4072" s="6" t="n">
+        <v>44840.364583333336</v>
+      </c>
+      <c r="B4072" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4072" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4073">
+      <c r="A4073" s="6" t="n">
+        <v>44840.375</v>
+      </c>
+      <c r="B4073" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4073" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4074">
+      <c r="A4074" s="6" t="n">
+        <v>44840.385416666664</v>
+      </c>
+      <c r="B4074" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4074" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4075">
+      <c r="A4075" s="6" t="n">
+        <v>44840.395833333336</v>
+      </c>
+      <c r="B4075" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4075" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4076">
+      <c r="A4076" s="6" t="n">
+        <v>44840.40625</v>
+      </c>
+      <c r="B4076" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4076" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4077">
+      <c r="A4077" s="6" t="n">
+        <v>44840.416666666664</v>
+      </c>
+      <c r="B4077" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4077" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4078">
+      <c r="A4078" s="6" t="n">
+        <v>44840.427083333336</v>
+      </c>
+      <c r="B4078" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4078" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4079">
+      <c r="A4079" s="6" t="n">
+        <v>44840.4375</v>
+      </c>
+      <c r="B4079" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4079" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4080">
+      <c r="A4080" s="6" t="n">
+        <v>44840.447916666664</v>
+      </c>
+      <c r="B4080" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4080" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4081">
+      <c r="A4081" s="6" t="n">
+        <v>44840.458333333336</v>
+      </c>
+      <c r="B4081" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4081" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4082">
+      <c r="A4082" s="6" t="n">
+        <v>44840.46875</v>
+      </c>
+      <c r="B4082" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4082" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4083">
+      <c r="A4083" s="6" t="n">
+        <v>44840.479166666664</v>
+      </c>
+      <c r="B4083" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4083" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4084">
+      <c r="A4084" s="6" t="n">
+        <v>44840.489583333336</v>
+      </c>
+      <c r="B4084" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4084" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4085">
+      <c r="A4085" s="6" t="n">
+        <v>44840.5</v>
+      </c>
+      <c r="B4085" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4085" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4086">
+      <c r="A4086" s="6" t="n">
+        <v>44840.510416666664</v>
+      </c>
+      <c r="B4086" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4086" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4087">
+      <c r="A4087" s="6" t="n">
+        <v>44840.520833333336</v>
+      </c>
+      <c r="B4087" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4087" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4088">
+      <c r="A4088" s="6" t="n">
+        <v>44840.53125</v>
+      </c>
+      <c r="B4088" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4088" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4089">
+      <c r="A4089" s="6" t="n">
+        <v>44840.541666666664</v>
+      </c>
+      <c r="B4089" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4089" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4090">
+      <c r="A4090" s="6" t="n">
+        <v>44840.552083333336</v>
+      </c>
+      <c r="B4090" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4090" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4091">
+      <c r="A4091" s="6" t="n">
+        <v>44840.5625</v>
+      </c>
+      <c r="B4091" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4092">
+      <c r="A4092" s="6" t="n">
+        <v>44840.572916666664</v>
+      </c>
+      <c r="B4092" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4092" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4093">
+      <c r="A4093" s="6" t="n">
+        <v>44840.583333333336</v>
+      </c>
+      <c r="B4093" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4093" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4094">
+      <c r="A4094" s="6" t="n">
+        <v>44840.59375</v>
+      </c>
+      <c r="B4094" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4094" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4095">
+      <c r="A4095" s="6" t="n">
+        <v>44840.604166666664</v>
+      </c>
+      <c r="B4095" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4095" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4096">
+      <c r="A4096" s="6" t="n">
+        <v>44840.614583333336</v>
+      </c>
+      <c r="B4096" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4096" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4097">
+      <c r="A4097" s="6" t="n">
+        <v>44840.625</v>
+      </c>
+      <c r="B4097" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4097" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4098">
+      <c r="A4098" s="6" t="n">
+        <v>44840.635416666664</v>
+      </c>
+      <c r="B4098" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4098" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4099">
+      <c r="A4099" s="6" t="n">
+        <v>44840.645833333336</v>
+      </c>
+      <c r="B4099" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4099" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4100">
+      <c r="A4100" s="6" t="n">
+        <v>44840.65625</v>
+      </c>
+      <c r="B4100" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4100" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4101">
+      <c r="A4101" s="6" t="n">
+        <v>44840.666666666664</v>
+      </c>
+      <c r="B4101" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4101" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4102">
+      <c r="A4102" s="6" t="n">
+        <v>44840.677083333336</v>
+      </c>
+      <c r="B4102" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4102" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4103">
+      <c r="A4103" s="6" t="n">
+        <v>44840.6875</v>
+      </c>
+      <c r="B4103" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4103" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4104">
+      <c r="A4104" s="6" t="n">
+        <v>44840.697916666664</v>
+      </c>
+      <c r="B4104" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4104" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4105">
+      <c r="A4105" s="6" t="n">
+        <v>44840.708333333336</v>
+      </c>
+      <c r="B4105" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4105" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4106">
+      <c r="A4106" s="6" t="n">
+        <v>44840.71875</v>
+      </c>
+      <c r="B4106" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4106" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4107">
+      <c r="A4107" s="6" t="n">
+        <v>44840.729166666664</v>
+      </c>
+      <c r="B4107" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4107" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4108">
+      <c r="A4108" s="6" t="n">
+        <v>44840.739583333336</v>
+      </c>
+      <c r="B4108" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4108" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4109">
+      <c r="A4109" s="6" t="n">
+        <v>44840.75</v>
+      </c>
+      <c r="B4109" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4109" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4110">
+      <c r="A4110" s="6" t="n">
+        <v>44840.760416666664</v>
+      </c>
+      <c r="B4110" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4110" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4111">
+      <c r="A4111" s="6" t="n">
+        <v>44840.770833333336</v>
+      </c>
+      <c r="B4111" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4111" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4112">
+      <c r="A4112" s="6" t="n">
+        <v>44840.78125</v>
+      </c>
+      <c r="B4112" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4112" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4113">
+      <c r="A4113" s="6" t="n">
+        <v>44840.791666666664</v>
+      </c>
+      <c r="B4113" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4113" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4114">
+      <c r="A4114" s="6" t="n">
+        <v>44840.802083333336</v>
+      </c>
+      <c r="B4114" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4114" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4115">
+      <c r="A4115" s="6" t="n">
+        <v>44840.8125</v>
+      </c>
+      <c r="B4115" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4115" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4116">
+      <c r="A4116" s="6" t="n">
+        <v>44840.822916666664</v>
+      </c>
+      <c r="B4116" s="1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C4116" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4117">
+      <c r="A4117" s="6" t="n">
+        <v>44840.833333333336</v>
+      </c>
+      <c r="B4117" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4117" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4118">
+      <c r="A4118" s="6" t="n">
+        <v>44840.84375</v>
+      </c>
+      <c r="B4118" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4118" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4119">
+      <c r="A4119" s="6" t="n">
+        <v>44840.854166666664</v>
+      </c>
+      <c r="B4119" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4119" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4120">
+      <c r="A4120" s="6" t="n">
+        <v>44840.864583333336</v>
+      </c>
+      <c r="B4120" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4120" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4121">
+      <c r="A4121" s="6" t="n">
+        <v>44840.875</v>
+      </c>
+      <c r="B4121" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4121" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4122">
+      <c r="A4122" s="6" t="n">
+        <v>44840.885416666664</v>
+      </c>
+      <c r="B4122" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4122" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4123">
+      <c r="A4123" s="6" t="n">
+        <v>44840.895833333336</v>
+      </c>
+      <c r="B4123" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4123" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4124">
+      <c r="A4124" s="6" t="n">
+        <v>44840.90625</v>
+      </c>
+      <c r="B4124" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4124" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4125">
+      <c r="A4125" s="6" t="n">
+        <v>44840.916666666664</v>
+      </c>
+      <c r="B4125" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4125" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4126">
+      <c r="A4126" s="6" t="n">
+        <v>44840.927083333336</v>
+      </c>
+      <c r="B4126" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4126" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4127">
+      <c r="A4127" s="6" t="n">
+        <v>44840.9375</v>
+      </c>
+      <c r="B4127" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4127" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4128">
+      <c r="A4128" s="6" t="n">
+        <v>44840.947916666664</v>
+      </c>
+      <c r="B4128" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4128" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4129">
+      <c r="A4129" s="6" t="n">
+        <v>44840.958333333336</v>
+      </c>
+      <c r="B4129" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4129" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4130">
+      <c r="A4130" s="6" t="n">
+        <v>44840.96875</v>
+      </c>
+      <c r="B4130" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4130" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4131">
+      <c r="A4131" s="6" t="n">
+        <v>44840.979166666664</v>
+      </c>
+      <c r="B4131" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4131" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4132">
+      <c r="A4132" s="6" t="n">
+        <v>44840.989583333336</v>
+      </c>
+      <c r="B4132" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4132" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4133">
+      <c r="A4133" s="6" t="n">
+        <v>44841.0</v>
+      </c>
+      <c r="B4133" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4133" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4134">
+      <c r="A4134" s="6" t="n">
+        <v>44841.010416666664</v>
+      </c>
+      <c r="B4134" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4134" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4135">
+      <c r="A4135" s="6" t="n">
+        <v>44841.020833333336</v>
+      </c>
+      <c r="B4135" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4135" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4136">
+      <c r="A4136" s="6" t="n">
+        <v>44841.03125</v>
+      </c>
+      <c r="B4136" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4136" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4137">
+      <c r="A4137" s="6" t="n">
+        <v>44841.041666666664</v>
+      </c>
+      <c r="B4137" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4137" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4138">
+      <c r="A4138" s="6" t="n">
+        <v>44841.052083333336</v>
+      </c>
+      <c r="B4138" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4138" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4139">
+      <c r="A4139" s="6" t="n">
+        <v>44841.0625</v>
+      </c>
+      <c r="B4139" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4139" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4140">
+      <c r="A4140" s="6" t="n">
+        <v>44841.072916666664</v>
+      </c>
+      <c r="B4140" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4140" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4141">
+      <c r="A4141" s="6" t="n">
+        <v>44841.083333333336</v>
+      </c>
+      <c r="B4141" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4141" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4142">
+      <c r="A4142" s="6" t="n">
+        <v>44841.09375</v>
+      </c>
+      <c r="B4142" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4142" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4143">
+      <c r="A4143" s="6" t="n">
+        <v>44841.104166666664</v>
+      </c>
+      <c r="B4143" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4143" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4144">
+      <c r="A4144" s="6" t="n">
+        <v>44841.114583333336</v>
+      </c>
+      <c r="B4144" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4144" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4145">
+      <c r="A4145" s="6" t="n">
+        <v>44841.125</v>
+      </c>
+      <c r="B4145" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4145" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4146">
+      <c r="A4146" s="6" t="n">
+        <v>44841.135416666664</v>
+      </c>
+      <c r="B4146" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4146" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4147">
+      <c r="A4147" s="6" t="n">
+        <v>44841.145833333336</v>
+      </c>
+      <c r="B4147" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4147" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4148">
+      <c r="A4148" s="6" t="n">
+        <v>44841.15625</v>
+      </c>
+      <c r="B4148" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4148" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4149">
+      <c r="A4149" s="6" t="n">
+        <v>44841.166666666664</v>
+      </c>
+      <c r="B4149" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4149" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4150">
+      <c r="A4150" s="6" t="n">
+        <v>44841.177083333336</v>
+      </c>
+      <c r="B4150" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4150" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4151">
+      <c r="A4151" s="6" t="n">
+        <v>44841.1875</v>
+      </c>
+      <c r="B4151" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4151" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4152">
+      <c r="A4152" s="6" t="n">
+        <v>44841.197916666664</v>
+      </c>
+      <c r="B4152" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4152" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4153">
+      <c r="A4153" s="6" t="n">
+        <v>44841.208333333336</v>
+      </c>
+      <c r="B4153" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4153" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4154">
+      <c r="A4154" s="6" t="n">
+        <v>44841.21875</v>
+      </c>
+      <c r="B4154" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4154" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4155">
+      <c r="A4155" s="6" t="n">
+        <v>44841.229166666664</v>
+      </c>
+      <c r="B4155" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4155" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4156">
+      <c r="A4156" s="6" t="n">
+        <v>44841.239583333336</v>
+      </c>
+      <c r="B4156" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4156" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4157">
+      <c r="A4157" s="6" t="n">
+        <v>44841.25</v>
+      </c>
+      <c r="B4157" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4157" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4158">
+      <c r="A4158" s="6" t="n">
+        <v>44841.260416666664</v>
+      </c>
+      <c r="B4158" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4158" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4159">
+      <c r="A4159" s="6" t="n">
+        <v>44841.270833333336</v>
+      </c>
+      <c r="B4159" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4159" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4160">
+      <c r="A4160" s="6" t="n">
+        <v>44841.28125</v>
+      </c>
+      <c r="B4160" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4160" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4161">
+      <c r="A4161" s="6" t="n">
+        <v>44841.291666666664</v>
+      </c>
+      <c r="B4161" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4161" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4162">
+      <c r="A4162" s="6" t="n">
+        <v>44841.302083333336</v>
+      </c>
+      <c r="B4162" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4162" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4163">
+      <c r="A4163" s="6" t="n">
+        <v>44841.3125</v>
+      </c>
+      <c r="B4163" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4163" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4164">
+      <c r="A4164" s="6" t="n">
+        <v>44841.322916666664</v>
+      </c>
+      <c r="B4164" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4164" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4165">
+      <c r="A4165" s="6" t="n">
+        <v>44841.333333333336</v>
+      </c>
+      <c r="B4165" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4165" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4166">
+      <c r="A4166" s="6" t="n">
+        <v>44841.34375</v>
+      </c>
+      <c r="B4166" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4166" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4167">
+      <c r="A4167" s="6" t="n">
+        <v>44841.354166666664</v>
+      </c>
+      <c r="B4167" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4167" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4168">
+      <c r="A4168" s="6" t="n">
+        <v>44841.364583333336</v>
+      </c>
+      <c r="B4168" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4168" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4169">
+      <c r="A4169" s="6" t="n">
+        <v>44841.375</v>
+      </c>
+      <c r="B4169" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4169" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4170">
+      <c r="A4170" s="6" t="n">
+        <v>44841.385416666664</v>
+      </c>
+      <c r="B4170" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4170" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4171">
+      <c r="A4171" s="6" t="n">
+        <v>44841.395833333336</v>
+      </c>
+      <c r="B4171" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4171" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4172">
+      <c r="A4172" s="6" t="n">
+        <v>44841.40625</v>
+      </c>
+      <c r="B4172" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4172" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4173">
+      <c r="A4173" s="6" t="n">
+        <v>44841.416666666664</v>
+      </c>
+      <c r="B4173" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4173" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4174">
+      <c r="A4174" s="6" t="n">
+        <v>44841.427083333336</v>
+      </c>
+      <c r="B4174" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4174" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4175">
+      <c r="A4175" s="6" t="n">
+        <v>44841.4375</v>
+      </c>
+      <c r="B4175" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4175" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4176">
+      <c r="A4176" s="6" t="n">
+        <v>44841.447916666664</v>
+      </c>
+      <c r="B4176" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4176" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4177">
+      <c r="A4177" s="6" t="n">
+        <v>44841.458333333336</v>
+      </c>
+      <c r="B4177" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4177" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4178">
+      <c r="A4178" s="6" t="n">
+        <v>44841.46875</v>
+      </c>
+      <c r="B4178" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4178" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4179">
+      <c r="A4179" s="6" t="n">
+        <v>44841.479166666664</v>
+      </c>
+      <c r="B4179" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4179" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4180">
+      <c r="A4180" s="6" t="n">
+        <v>44841.489583333336</v>
+      </c>
+      <c r="B4180" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4180" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4181">
+      <c r="A4181" s="6" t="n">
+        <v>44841.5</v>
+      </c>
+      <c r="B4181" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4181" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4182">
+      <c r="A4182" s="6" t="n">
+        <v>44841.510416666664</v>
+      </c>
+      <c r="B4182" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4182" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4183">
+      <c r="A4183" s="6" t="n">
+        <v>44841.520833333336</v>
+      </c>
+      <c r="B4183" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4183" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4184">
+      <c r="A4184" s="6" t="n">
+        <v>44841.53125</v>
+      </c>
+      <c r="B4184" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4184" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4185">
+      <c r="A4185" s="6" t="n">
+        <v>44841.541666666664</v>
+      </c>
+      <c r="B4185" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4185" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4186">
+      <c r="A4186" s="6" t="n">
+        <v>44841.552083333336</v>
+      </c>
+      <c r="B4186" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4186" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4187">
+      <c r="A4187" s="6" t="n">
+        <v>44841.5625</v>
+      </c>
+      <c r="B4187" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4187" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4188">
+      <c r="A4188" s="6" t="n">
+        <v>44841.572916666664</v>
+      </c>
+      <c r="B4188" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4188" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4189">
+      <c r="A4189" s="6" t="n">
+        <v>44841.583333333336</v>
+      </c>
+      <c r="B4189" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4189" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4190">
+      <c r="A4190" s="6" t="n">
+        <v>44841.59375</v>
+      </c>
+      <c r="B4190" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4190" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4191">
+      <c r="A4191" s="6" t="n">
+        <v>44841.604166666664</v>
+      </c>
+      <c r="B4191" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4191" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4192">
+      <c r="A4192" s="6" t="n">
+        <v>44841.614583333336</v>
+      </c>
+      <c r="B4192" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4192" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4193">
+      <c r="A4193" s="6" t="n">
+        <v>44841.625</v>
+      </c>
+      <c r="B4193" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4193" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4194">
+      <c r="A4194" s="6" t="n">
+        <v>44841.635416666664</v>
+      </c>
+      <c r="B4194" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4194" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4195">
+      <c r="A4195" s="6" t="n">
+        <v>44841.645833333336</v>
+      </c>
+      <c r="B4195" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4195" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4196">
+      <c r="A4196" s="6" t="n">
+        <v>44841.65625</v>
+      </c>
+      <c r="B4196" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4196" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4197">
+      <c r="A4197" s="6" t="n">
+        <v>44841.666666666664</v>
+      </c>
+      <c r="B4197" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4197" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4198">
+      <c r="A4198" s="6" t="n">
+        <v>44841.677083333336</v>
+      </c>
+      <c r="B4198" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4198" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4199">
+      <c r="A4199" s="6" t="n">
+        <v>44841.6875</v>
+      </c>
+      <c r="B4199" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4199" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4200">
+      <c r="A4200" s="6" t="n">
+        <v>44841.697916666664</v>
+      </c>
+      <c r="B4200" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4200" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4201">
+      <c r="A4201" s="6" t="n">
+        <v>44841.708333333336</v>
+      </c>
+      <c r="B4201" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4201" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4202">
+      <c r="A4202" s="6" t="n">
+        <v>44841.71875</v>
+      </c>
+      <c r="B4202" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C4202" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4203">
+      <c r="A4203" s="6" t="n">
+        <v>44841.729166666664</v>
+      </c>
+      <c r="B4203" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4203" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4204">
+      <c r="A4204" s="6" t="n">
+        <v>44841.739583333336</v>
+      </c>
+      <c r="B4204" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4204" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4205">
+      <c r="A4205" s="6" t="n">
+        <v>44841.75</v>
+      </c>
+      <c r="B4205" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4205" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4206">
+      <c r="A4206" s="6" t="n">
+        <v>44841.760416666664</v>
+      </c>
+      <c r="B4206" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4206" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4207">
+      <c r="A4207" s="6" t="n">
+        <v>44841.770833333336</v>
+      </c>
+      <c r="B4207" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4207" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4208">
+      <c r="A4208" s="6" t="n">
+        <v>44841.78125</v>
+      </c>
+      <c r="B4208" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4208" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4209">
+      <c r="A4209" s="6" t="n">
+        <v>44841.791666666664</v>
+      </c>
+      <c r="B4209" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4209" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4210">
+      <c r="A4210" s="6" t="n">
+        <v>44841.802083333336</v>
+      </c>
+      <c r="B4210" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4210" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4211">
+      <c r="A4211" s="6" t="n">
+        <v>44841.8125</v>
+      </c>
+      <c r="B4211" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4211" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4212">
+      <c r="A4212" s="6" t="n">
+        <v>44841.822916666664</v>
+      </c>
+      <c r="B4212" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4212" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4213">
+      <c r="A4213" s="6" t="n">
+        <v>44841.833333333336</v>
+      </c>
+      <c r="B4213" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4213" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4214">
+      <c r="A4214" s="6" t="n">
+        <v>44841.84375</v>
+      </c>
+      <c r="B4214" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4214" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4215">
+      <c r="A4215" s="6" t="n">
+        <v>44841.854166666664</v>
+      </c>
+      <c r="B4215" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4215" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4216">
+      <c r="A4216" s="6" t="n">
+        <v>44841.864583333336</v>
+      </c>
+      <c r="B4216" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4216" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4217">
+      <c r="A4217" s="6" t="n">
+        <v>44841.875</v>
+      </c>
+      <c r="B4217" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4217" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4218">
+      <c r="A4218" s="6" t="n">
+        <v>44841.885416666664</v>
+      </c>
+      <c r="B4218" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4218" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4219">
+      <c r="A4219" s="6" t="n">
+        <v>44841.895833333336</v>
+      </c>
+      <c r="B4219" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4219" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4220">
+      <c r="A4220" s="6" t="n">
+        <v>44841.90625</v>
+      </c>
+      <c r="B4220" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4220" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4221">
+      <c r="A4221" s="6" t="n">
+        <v>44841.916666666664</v>
+      </c>
+      <c r="B4221" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4221" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4222">
+      <c r="A4222" s="6" t="n">
+        <v>44841.927083333336</v>
+      </c>
+      <c r="B4222" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4222" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4223">
+      <c r="A4223" s="6" t="n">
+        <v>44841.9375</v>
+      </c>
+      <c r="B4223" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4223" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4224">
+      <c r="A4224" s="6" t="n">
+        <v>44841.947916666664</v>
+      </c>
+      <c r="B4224" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4224" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4225">
+      <c r="A4225" s="6" t="n">
+        <v>44841.958333333336</v>
+      </c>
+      <c r="B4225" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4225" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4226">
+      <c r="A4226" s="6" t="n">
+        <v>44841.96875</v>
+      </c>
+      <c r="B4226" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4226" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4227">
+      <c r="A4227" s="6" t="n">
+        <v>44841.979166666664</v>
+      </c>
+      <c r="B4227" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4227" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4228">
+      <c r="A4228" s="6" t="n">
+        <v>44841.989583333336</v>
+      </c>
+      <c r="B4228" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4228" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4229">
+      <c r="A4229" s="6" t="n">
+        <v>44842.0</v>
+      </c>
+      <c r="B4229" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4229" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4230">
+      <c r="A4230" s="6" t="n">
+        <v>44842.010416666664</v>
+      </c>
+      <c r="B4230" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4230" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4231">
+      <c r="A4231" s="6" t="n">
+        <v>44842.020833333336</v>
+      </c>
+      <c r="B4231" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4231" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4232">
+      <c r="A4232" s="6" t="n">
+        <v>44842.03125</v>
+      </c>
+      <c r="B4232" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4232" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4233">
+      <c r="A4233" s="6" t="n">
+        <v>44842.041666666664</v>
+      </c>
+      <c r="B4233" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4233" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4234">
+      <c r="A4234" s="6" t="n">
+        <v>44842.052083333336</v>
+      </c>
+      <c r="B4234" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4234" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4235">
+      <c r="A4235" s="6" t="n">
+        <v>44842.0625</v>
+      </c>
+      <c r="B4235" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4235" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4236">
+      <c r="A4236" s="6" t="n">
+        <v>44842.072916666664</v>
+      </c>
+      <c r="B4236" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4236" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4237">
+      <c r="A4237" s="6" t="n">
+        <v>44842.083333333336</v>
+      </c>
+      <c r="B4237" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4237" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4238">
+      <c r="A4238" s="6" t="n">
+        <v>44842.09375</v>
+      </c>
+      <c r="B4238" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4238" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4239">
+      <c r="A4239" s="6" t="n">
+        <v>44842.104166666664</v>
+      </c>
+      <c r="B4239" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4239" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4240">
+      <c r="A4240" s="6" t="n">
+        <v>44842.114583333336</v>
+      </c>
+      <c r="B4240" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4240" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4241">
+      <c r="A4241" s="6" t="n">
+        <v>44842.125</v>
+      </c>
+      <c r="B4241" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4241" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4242">
+      <c r="A4242" s="6" t="n">
+        <v>44842.135416666664</v>
+      </c>
+      <c r="B4242" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4242" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4243">
+      <c r="A4243" s="6" t="n">
+        <v>44842.145833333336</v>
+      </c>
+      <c r="B4243" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4243" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4244">
+      <c r="A4244" s="6" t="n">
+        <v>44842.15625</v>
+      </c>
+      <c r="B4244" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4244" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4245">
+      <c r="A4245" s="6" t="n">
+        <v>44842.166666666664</v>
+      </c>
+      <c r="B4245" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4245" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4246">
+      <c r="A4246" s="6" t="n">
+        <v>44842.177083333336</v>
+      </c>
+      <c r="B4246" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4246" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4247">
+      <c r="A4247" s="6" t="n">
+        <v>44842.1875</v>
+      </c>
+      <c r="B4247" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4247" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4248">
+      <c r="A4248" s="6" t="n">
+        <v>44842.197916666664</v>
+      </c>
+      <c r="B4248" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4248" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4249">
+      <c r="A4249" s="6" t="n">
+        <v>44842.208333333336</v>
+      </c>
+      <c r="B4249" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4249" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4250">
+      <c r="A4250" s="6" t="n">
+        <v>44842.21875</v>
+      </c>
+      <c r="B4250" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4250" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4251">
+      <c r="A4251" s="6" t="n">
+        <v>44842.229166666664</v>
+      </c>
+      <c r="B4251" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4251" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4252">
+      <c r="A4252" s="6" t="n">
+        <v>44842.239583333336</v>
+      </c>
+      <c r="B4252" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4252" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4253">
+      <c r="A4253" s="6" t="n">
+        <v>44842.25</v>
+      </c>
+      <c r="B4253" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4253" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4254">
+      <c r="A4254" s="6" t="n">
+        <v>44842.260416666664</v>
+      </c>
+      <c r="B4254" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4254" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4255">
+      <c r="A4255" s="6" t="n">
+        <v>44842.270833333336</v>
+      </c>
+      <c r="B4255" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4255" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4256">
+      <c r="A4256" s="6" t="n">
+        <v>44842.28125</v>
+      </c>
+      <c r="B4256" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4256" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4257">
+      <c r="A4257" s="6" t="n">
+        <v>44842.291666666664</v>
+      </c>
+      <c r="B4257" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4257" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4258">
+      <c r="A4258" s="6" t="n">
+        <v>44842.302083333336</v>
+      </c>
+      <c r="B4258" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4258" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4259">
+      <c r="A4259" s="6" t="n">
+        <v>44842.3125</v>
+      </c>
+      <c r="B4259" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4259" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4260">
+      <c r="A4260" s="6" t="n">
+        <v>44842.322916666664</v>
+      </c>
+      <c r="B4260" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4260" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" s="6" t="n">
+        <v>44842.333333333336</v>
+      </c>
+      <c r="B4261" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4261" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" s="6" t="n">
+        <v>44842.34375</v>
+      </c>
+      <c r="B4262" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4262" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" s="6" t="n">
+        <v>44842.354166666664</v>
+      </c>
+      <c r="B4263" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4263" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" s="6" t="n">
+        <v>44842.364583333336</v>
+      </c>
+      <c r="B4264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" s="6" t="n">
+        <v>44842.375</v>
+      </c>
+      <c r="B4265" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4265" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4266">
+      <c r="A4266" s="6" t="n">
+        <v>44842.385416666664</v>
+      </c>
+      <c r="B4266" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4266" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4267">
+      <c r="A4267" s="6" t="n">
+        <v>44842.395833333336</v>
+      </c>
+      <c r="B4267" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4267" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4268">
+      <c r="A4268" s="6" t="n">
+        <v>44842.40625</v>
+      </c>
+      <c r="B4268" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4268" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4269">
+      <c r="A4269" s="6" t="n">
+        <v>44842.416666666664</v>
+      </c>
+      <c r="B4269" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4269" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4270">
+      <c r="A4270" s="6" t="n">
+        <v>44842.427083333336</v>
+      </c>
+      <c r="B4270" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4270" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4271">
+      <c r="A4271" s="6" t="n">
+        <v>44842.4375</v>
+      </c>
+      <c r="B4271" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4271" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4272">
+      <c r="A4272" s="6" t="n">
+        <v>44842.447916666664</v>
+      </c>
+      <c r="B4272" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4272" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4273">
+      <c r="A4273" s="6" t="n">
+        <v>44842.458333333336</v>
+      </c>
+      <c r="B4273" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4273" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4274">
+      <c r="A4274" s="6" t="n">
+        <v>44842.46875</v>
+      </c>
+      <c r="B4274" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4274" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4275">
+      <c r="A4275" s="6" t="n">
+        <v>44842.479166666664</v>
+      </c>
+      <c r="B4275" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4275" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4276">
+      <c r="A4276" s="6" t="n">
+        <v>44842.489583333336</v>
+      </c>
+      <c r="B4276" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4276" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4277">
+      <c r="A4277" s="6" t="n">
+        <v>44842.5</v>
+      </c>
+      <c r="B4277" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4277" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4278">
+      <c r="A4278" s="6" t="n">
+        <v>44842.510416666664</v>
+      </c>
+      <c r="B4278" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4278" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4279">
+      <c r="A4279" s="6" t="n">
+        <v>44842.520833333336</v>
+      </c>
+      <c r="B4279" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4279" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4280">
+      <c r="A4280" s="6" t="n">
+        <v>44842.53125</v>
+      </c>
+      <c r="B4280" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4280" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4281">
+      <c r="A4281" s="6" t="n">
+        <v>44842.541666666664</v>
+      </c>
+      <c r="B4281" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4281" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4282">
+      <c r="A4282" s="6" t="n">
+        <v>44842.552083333336</v>
+      </c>
+      <c r="B4282" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4282" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4283">
+      <c r="A4283" s="6" t="n">
+        <v>44842.5625</v>
+      </c>
+      <c r="B4283" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4283" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4284">
+      <c r="A4284" s="6" t="n">
+        <v>44842.572916666664</v>
+      </c>
+      <c r="B4284" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4284" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4285">
+      <c r="A4285" s="6" t="n">
+        <v>44842.583333333336</v>
+      </c>
+      <c r="B4285" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4285" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4286">
+      <c r="A4286" s="6" t="n">
+        <v>44842.59375</v>
+      </c>
+      <c r="B4286" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4286" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4287">
+      <c r="A4287" s="6" t="n">
+        <v>44842.604166666664</v>
+      </c>
+      <c r="B4287" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4288">
+      <c r="A4288" s="6" t="n">
+        <v>44842.614583333336</v>
+      </c>
+      <c r="B4288" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4289">
+      <c r="A4289" s="6" t="n">
+        <v>44842.625</v>
+      </c>
+      <c r="B4289" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4289" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4290">
+      <c r="A4290" s="6" t="n">
+        <v>44842.635416666664</v>
+      </c>
+      <c r="B4290" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4290" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4291">
+      <c r="A4291" s="6" t="n">
+        <v>44842.645833333336</v>
+      </c>
+      <c r="B4291" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4291" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4292">
+      <c r="A4292" s="6" t="n">
+        <v>44842.65625</v>
+      </c>
+      <c r="B4292" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4292" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4293">
+      <c r="A4293" s="6" t="n">
+        <v>44842.666666666664</v>
+      </c>
+      <c r="B4293" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4293" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4294">
+      <c r="A4294" s="6" t="n">
+        <v>44842.677083333336</v>
+      </c>
+      <c r="B4294" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4295">
+      <c r="A4295" s="6" t="n">
+        <v>44842.6875</v>
+      </c>
+      <c r="B4295" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4295" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4296">
+      <c r="A4296" s="6" t="n">
+        <v>44842.697916666664</v>
+      </c>
+      <c r="B4296" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4296" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4297">
+      <c r="A4297" s="6" t="n">
+        <v>44842.708333333336</v>
+      </c>
+      <c r="B4297" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4297" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4298">
+      <c r="A4298" s="6" t="n">
+        <v>44842.71875</v>
+      </c>
+      <c r="B4298" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4298" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4299">
+      <c r="A4299" s="6" t="n">
+        <v>44842.729166666664</v>
+      </c>
+      <c r="B4299" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4299" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4300">
+      <c r="A4300" s="6" t="n">
+        <v>44842.739583333336</v>
+      </c>
+      <c r="B4300" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4300" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4301">
+      <c r="A4301" s="6" t="n">
+        <v>44842.75</v>
+      </c>
+      <c r="B4301" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4301" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4302">
+      <c r="A4302" s="6" t="n">
+        <v>44842.760416666664</v>
+      </c>
+      <c r="B4302" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4302" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4303">
+      <c r="A4303" s="6" t="n">
+        <v>44842.770833333336</v>
+      </c>
+      <c r="B4303" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4303" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4304">
+      <c r="A4304" s="6" t="n">
+        <v>44842.78125</v>
+      </c>
+      <c r="B4304" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4304" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4305">
+      <c r="A4305" s="6" t="n">
+        <v>44842.791666666664</v>
+      </c>
+      <c r="B4305" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4305" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4306">
+      <c r="A4306" s="6" t="n">
+        <v>44842.802083333336</v>
+      </c>
+      <c r="B4306" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4306" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4307">
+      <c r="A4307" s="6" t="n">
+        <v>44842.8125</v>
+      </c>
+      <c r="B4307" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4307" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4308">
+      <c r="A4308" s="6" t="n">
+        <v>44842.822916666664</v>
+      </c>
+      <c r="B4308" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4308" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4309">
+      <c r="A4309" s="6" t="n">
+        <v>44842.833333333336</v>
+      </c>
+      <c r="B4309" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4309" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4310">
+      <c r="A4310" s="6" t="n">
+        <v>44842.84375</v>
+      </c>
+      <c r="B4310" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4310" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4311">
+      <c r="A4311" s="6" t="n">
+        <v>44842.854166666664</v>
+      </c>
+      <c r="B4311" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4311" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4312">
+      <c r="A4312" s="6" t="n">
+        <v>44842.864583333336</v>
+      </c>
+      <c r="B4312" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4312" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4313">
+      <c r="A4313" s="6" t="n">
+        <v>44842.875</v>
+      </c>
+      <c r="B4313" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4313" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4314">
+      <c r="A4314" s="6" t="n">
+        <v>44842.885416666664</v>
+      </c>
+      <c r="B4314" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4314" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4315">
+      <c r="A4315" s="6" t="n">
+        <v>44842.895833333336</v>
+      </c>
+      <c r="B4315" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4315" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4316">
+      <c r="A4316" s="6" t="n">
+        <v>44842.90625</v>
+      </c>
+      <c r="B4316" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4316" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4317">
+      <c r="A4317" s="6" t="n">
+        <v>44842.916666666664</v>
+      </c>
+      <c r="B4317" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4317" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4318">
+      <c r="A4318" s="6" t="n">
+        <v>44842.927083333336</v>
+      </c>
+      <c r="B4318" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4318" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4319">
+      <c r="A4319" s="6" t="n">
+        <v>44842.9375</v>
+      </c>
+      <c r="B4319" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4319" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4320">
+      <c r="A4320" s="6" t="n">
+        <v>44842.947916666664</v>
+      </c>
+      <c r="B4320" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4320" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4321">
+      <c r="A4321" s="6" t="n">
+        <v>44842.958333333336</v>
+      </c>
+      <c r="B4321" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4321" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4322">
+      <c r="A4322" s="6" t="n">
+        <v>44842.96875</v>
+      </c>
+      <c r="B4322" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4322" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4323">
+      <c r="A4323" s="6" t="n">
+        <v>44842.979166666664</v>
+      </c>
+      <c r="B4323" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4323" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4324">
+      <c r="A4324" s="6" t="n">
+        <v>44842.989583333336</v>
+      </c>
+      <c r="B4324" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4324" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4325">
+      <c r="A4325" s="6" t="n">
+        <v>44843.0</v>
+      </c>
+      <c r="B4325" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4325" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4326">
+      <c r="A4326" s="6" t="n">
+        <v>44843.010416666664</v>
+      </c>
+      <c r="B4326" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4326" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4327">
+      <c r="A4327" s="6" t="n">
+        <v>44843.020833333336</v>
+      </c>
+      <c r="B4327" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4327" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4328">
+      <c r="A4328" s="6" t="n">
+        <v>44843.03125</v>
+      </c>
+      <c r="B4328" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4328" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4329">
+      <c r="A4329" s="6" t="n">
+        <v>44843.041666666664</v>
+      </c>
+      <c r="B4329" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4329" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4330">
+      <c r="A4330" s="6" t="n">
+        <v>44843.052083333336</v>
+      </c>
+      <c r="B4330" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4330" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4331">
+      <c r="A4331" s="6" t="n">
+        <v>44843.0625</v>
+      </c>
+      <c r="B4331" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4331" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4332">
+      <c r="A4332" s="6" t="n">
+        <v>44843.072916666664</v>
+      </c>
+      <c r="B4332" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4332" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4333">
+      <c r="A4333" s="6" t="n">
+        <v>44843.083333333336</v>
+      </c>
+      <c r="B4333" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4333" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4334">
+      <c r="A4334" s="6" t="n">
+        <v>44843.09375</v>
+      </c>
+      <c r="B4334" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4334" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4335">
+      <c r="A4335" s="6" t="n">
+        <v>44843.104166666664</v>
+      </c>
+      <c r="B4335" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4335" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4336">
+      <c r="A4336" s="6" t="n">
+        <v>44843.114583333336</v>
+      </c>
+      <c r="B4336" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4336" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4337">
+      <c r="A4337" s="6" t="n">
+        <v>44843.125</v>
+      </c>
+      <c r="B4337" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4337" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4338">
+      <c r="A4338" s="6" t="n">
+        <v>44843.135416666664</v>
+      </c>
+      <c r="B4338" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4338" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4339">
+      <c r="A4339" s="6" t="n">
+        <v>44843.145833333336</v>
+      </c>
+      <c r="B4339" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4339" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4340">
+      <c r="A4340" s="6" t="n">
+        <v>44843.15625</v>
+      </c>
+      <c r="B4340" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4340" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4341">
+      <c r="A4341" s="6" t="n">
+        <v>44843.166666666664</v>
+      </c>
+      <c r="B4341" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4341" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4342">
+      <c r="A4342" s="6" t="n">
+        <v>44843.177083333336</v>
+      </c>
+      <c r="B4342" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4342" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4343">
+      <c r="A4343" s="6" t="n">
+        <v>44843.1875</v>
+      </c>
+      <c r="B4343" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4343" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4344">
+      <c r="A4344" s="6" t="n">
+        <v>44843.197916666664</v>
+      </c>
+      <c r="B4344" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4344" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4345">
+      <c r="A4345" s="6" t="n">
+        <v>44843.208333333336</v>
+      </c>
+      <c r="B4345" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4345" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4346">
+      <c r="A4346" s="6" t="n">
+        <v>44843.21875</v>
+      </c>
+      <c r="B4346" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4346" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4347">
+      <c r="A4347" s="6" t="n">
+        <v>44843.229166666664</v>
+      </c>
+      <c r="B4347" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4347" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4348">
+      <c r="A4348" s="6" t="n">
+        <v>44843.239583333336</v>
+      </c>
+      <c r="B4348" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4348" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4349">
+      <c r="A4349" s="6" t="n">
+        <v>44843.25</v>
+      </c>
+      <c r="B4349" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4349" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4350">
+      <c r="A4350" s="6" t="n">
+        <v>44843.260416666664</v>
+      </c>
+      <c r="B4350" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4350" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4351">
+      <c r="A4351" s="6" t="n">
+        <v>44843.270833333336</v>
+      </c>
+      <c r="B4351" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4351" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4352">
+      <c r="A4352" s="6" t="n">
+        <v>44843.28125</v>
+      </c>
+      <c r="B4352" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4352" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4353">
+      <c r="A4353" s="6" t="n">
+        <v>44843.291666666664</v>
+      </c>
+      <c r="B4353" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4353" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" s="6" t="n">
+        <v>44843.302083333336</v>
+      </c>
+      <c r="B4354" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4354" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" s="6" t="n">
+        <v>44843.3125</v>
+      </c>
+      <c r="B4355" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4355" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" s="6" t="n">
+        <v>44843.322916666664</v>
+      </c>
+      <c r="B4356" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4356" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" s="6" t="n">
+        <v>44843.333333333336</v>
+      </c>
+      <c r="B4357" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4357" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" s="6" t="n">
+        <v>44843.34375</v>
+      </c>
+      <c r="B4358" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4358" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" s="6" t="n">
+        <v>44843.354166666664</v>
+      </c>
+      <c r="B4359" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4359" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" s="6" t="n">
+        <v>44843.364583333336</v>
+      </c>
+      <c r="B4360" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4360" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" s="6" t="n">
+        <v>44843.375</v>
+      </c>
+      <c r="B4361" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4361" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" s="6" t="n">
+        <v>44843.385416666664</v>
+      </c>
+      <c r="B4362" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4362" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" s="6" t="n">
+        <v>44843.395833333336</v>
+      </c>
+      <c r="B4363" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4363" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" s="6" t="n">
+        <v>44843.40625</v>
+      </c>
+      <c r="B4364" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4364" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" s="6" t="n">
+        <v>44843.416666666664</v>
+      </c>
+      <c r="B4365" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4365" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" s="6" t="n">
+        <v>44843.427083333336</v>
+      </c>
+      <c r="B4366" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4366" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" s="6" t="n">
+        <v>44843.4375</v>
+      </c>
+      <c r="B4367" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4367" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" s="6" t="n">
+        <v>44843.447916666664</v>
+      </c>
+      <c r="B4368" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4368" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" s="6" t="n">
+        <v>44843.458333333336</v>
+      </c>
+      <c r="B4369" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4369" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" s="6" t="n">
+        <v>44843.46875</v>
+      </c>
+      <c r="B4370" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4370" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" s="6" t="n">
+        <v>44843.479166666664</v>
+      </c>
+      <c r="B4371" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4371" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" s="6" t="n">
+        <v>44843.489583333336</v>
+      </c>
+      <c r="B4372" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4372" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" s="6" t="n">
+        <v>44843.5</v>
+      </c>
+      <c r="B4373" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4373" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" s="6" t="n">
+        <v>44843.510416666664</v>
+      </c>
+      <c r="B4374" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4374" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" s="6" t="n">
+        <v>44843.520833333336</v>
+      </c>
+      <c r="B4375" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4375" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" s="6" t="n">
+        <v>44843.53125</v>
+      </c>
+      <c r="B4376" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4376" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" s="6" t="n">
+        <v>44843.541666666664</v>
+      </c>
+      <c r="B4377" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4377" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" s="6" t="n">
+        <v>44843.552083333336</v>
+      </c>
+      <c r="B4378" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4378" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" s="6" t="n">
+        <v>44843.5625</v>
+      </c>
+      <c r="B4379" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4379" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" s="6" t="n">
+        <v>44843.572916666664</v>
+      </c>
+      <c r="B4380" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4380" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" s="6" t="n">
+        <v>44843.583333333336</v>
+      </c>
+      <c r="B4381" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4381" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" s="6" t="n">
+        <v>44843.59375</v>
+      </c>
+      <c r="B4382" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4382" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" s="6" t="n">
+        <v>44843.604166666664</v>
+      </c>
+      <c r="B4383" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4383" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" s="6" t="n">
+        <v>44843.614583333336</v>
+      </c>
+      <c r="B4384" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4384" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" s="6" t="n">
+        <v>44843.625</v>
+      </c>
+      <c r="B4385" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4385" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" s="6" t="n">
+        <v>44843.635416666664</v>
+      </c>
+      <c r="B4386" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4386" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" s="6" t="n">
+        <v>44843.645833333336</v>
+      </c>
+      <c r="B4387" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4387" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" s="6" t="n">
+        <v>44843.65625</v>
+      </c>
+      <c r="B4388" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4388" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" s="6" t="n">
+        <v>44843.666666666664</v>
+      </c>
+      <c r="B4389" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4389" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" s="6" t="n">
+        <v>44843.677083333336</v>
+      </c>
+      <c r="B4390" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4390" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" s="6" t="n">
+        <v>44843.6875</v>
+      </c>
+      <c r="B4391" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4391" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" s="6" t="n">
+        <v>44843.697916666664</v>
+      </c>
+      <c r="B4392" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4392" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" s="6" t="n">
+        <v>44843.708333333336</v>
+      </c>
+      <c r="B4393" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4393" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" s="6" t="n">
+        <v>44843.71875</v>
+      </c>
+      <c r="B4394" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4394" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" s="6" t="n">
+        <v>44843.729166666664</v>
+      </c>
+      <c r="B4395" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4395" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" s="6" t="n">
+        <v>44843.739583333336</v>
+      </c>
+      <c r="B4396" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4396" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" s="6" t="n">
+        <v>44843.75</v>
+      </c>
+      <c r="B4397" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4397" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" s="6" t="n">
+        <v>44843.760416666664</v>
+      </c>
+      <c r="B4398" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4398" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4399">
+      <c r="A4399" s="6" t="n">
+        <v>44843.770833333336</v>
+      </c>
+      <c r="B4399" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4399" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4400">
+      <c r="A4400" s="6" t="n">
+        <v>44843.78125</v>
+      </c>
+      <c r="B4400" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4400" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4401">
+      <c r="A4401" s="6" t="n">
+        <v>44843.791666666664</v>
+      </c>
+      <c r="B4401" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4401" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4402">
+      <c r="A4402" s="6" t="n">
+        <v>44843.802083333336</v>
+      </c>
+      <c r="B4402" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4402" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4403">
+      <c r="A4403" s="6" t="n">
+        <v>44843.8125</v>
+      </c>
+      <c r="B4403" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4403" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4404">
+      <c r="A4404" s="6" t="n">
+        <v>44843.822916666664</v>
+      </c>
+      <c r="B4404" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4404" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4405">
+      <c r="A4405" s="6" t="n">
+        <v>44843.833333333336</v>
+      </c>
+      <c r="B4405" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4405" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4406">
+      <c r="A4406" s="6" t="n">
+        <v>44843.84375</v>
+      </c>
+      <c r="B4406" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4406" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4407">
+      <c r="A4407" s="6" t="n">
+        <v>44843.854166666664</v>
+      </c>
+      <c r="B4407" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4407" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4408">
+      <c r="A4408" s="6" t="n">
+        <v>44843.864583333336</v>
+      </c>
+      <c r="B4408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4409">
+      <c r="A4409" s="6" t="n">
+        <v>44843.875</v>
+      </c>
+      <c r="B4409" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4409" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4410">
+      <c r="A4410" s="6" t="n">
+        <v>44843.885416666664</v>
+      </c>
+      <c r="B4410" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4410" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4411">
+      <c r="A4411" s="6" t="n">
+        <v>44843.895833333336</v>
+      </c>
+      <c r="B4411" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4411" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4412">
+      <c r="A4412" s="6" t="n">
+        <v>44843.90625</v>
+      </c>
+      <c r="B4412" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4412" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4413">
+      <c r="A4413" s="6" t="n">
+        <v>44843.916666666664</v>
+      </c>
+      <c r="B4413" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4413" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4414">
+      <c r="A4414" s="6" t="n">
+        <v>44843.927083333336</v>
+      </c>
+      <c r="B4414" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4414" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4415">
+      <c r="A4415" s="6" t="n">
+        <v>44843.9375</v>
+      </c>
+      <c r="B4415" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4415" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4416">
+      <c r="A4416" s="6" t="n">
+        <v>44843.947916666664</v>
+      </c>
+      <c r="B4416" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4416" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4417">
+      <c r="A4417" s="6" t="n">
+        <v>44843.958333333336</v>
+      </c>
+      <c r="B4417" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4417" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4418">
+      <c r="A4418" s="6" t="n">
+        <v>44843.96875</v>
+      </c>
+      <c r="B4418" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4418" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4419">
+      <c r="A4419" s="6" t="n">
+        <v>44843.979166666664</v>
+      </c>
+      <c r="B4419" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4419" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4420">
+      <c r="A4420" s="6" t="n">
+        <v>44843.989583333336</v>
+      </c>
+      <c r="B4420" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4420" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4421">
+      <c r="A4421" s="6" t="n">
+        <v>44844.0</v>
+      </c>
+      <c r="B4421" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4421" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4422">
+      <c r="A4422" s="6" t="n">
+        <v>44844.010416666664</v>
+      </c>
+      <c r="B4422" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4422" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4423">
+      <c r="A4423" s="6" t="n">
+        <v>44844.020833333336</v>
+      </c>
+      <c r="B4423" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4423" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4424">
+      <c r="A4424" s="6" t="n">
+        <v>44844.03125</v>
+      </c>
+      <c r="B4424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4425">
+      <c r="A4425" s="6" t="n">
+        <v>44844.041666666664</v>
+      </c>
+      <c r="B4425" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4425" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4426">
+      <c r="A4426" s="6" t="n">
+        <v>44844.052083333336</v>
+      </c>
+      <c r="B4426" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4426" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4427">
+      <c r="A4427" s="6" t="n">
+        <v>44844.0625</v>
+      </c>
+      <c r="B4427" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4427" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4428">
+      <c r="A4428" s="6" t="n">
+        <v>44844.072916666664</v>
+      </c>
+      <c r="B4428" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4428" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4429">
+      <c r="A4429" s="6" t="n">
+        <v>44844.083333333336</v>
+      </c>
+      <c r="B4429" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4429" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4430">
+      <c r="A4430" s="6" t="n">
+        <v>44844.09375</v>
+      </c>
+      <c r="B4430" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4430" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4431">
+      <c r="A4431" s="6" t="n">
+        <v>44844.104166666664</v>
+      </c>
+      <c r="B4431" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4431" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4432">
+      <c r="A4432" s="6" t="n">
+        <v>44844.114583333336</v>
+      </c>
+      <c r="B4432" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4432" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4433">
+      <c r="A4433" s="6" t="n">
+        <v>44844.125</v>
+      </c>
+      <c r="B4433" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4433" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4434">
+      <c r="A4434" s="6" t="n">
+        <v>44844.135416666664</v>
+      </c>
+      <c r="B4434" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4434" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4435">
+      <c r="A4435" s="6" t="n">
+        <v>44844.145833333336</v>
+      </c>
+      <c r="B4435" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4435" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4436">
+      <c r="A4436" s="6" t="n">
+        <v>44844.15625</v>
+      </c>
+      <c r="B4436" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4436" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4437">
+      <c r="A4437" s="6" t="n">
+        <v>44844.166666666664</v>
+      </c>
+      <c r="B4437" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4437" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4438">
+      <c r="A4438" s="6" t="n">
+        <v>44844.177083333336</v>
+      </c>
+      <c r="B4438" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4438" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4439">
+      <c r="A4439" s="6" t="n">
+        <v>44844.1875</v>
+      </c>
+      <c r="B4439" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4439" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4440">
+      <c r="A4440" s="6" t="n">
+        <v>44844.197916666664</v>
+      </c>
+      <c r="B4440" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4440" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4441">
+      <c r="A4441" s="6" t="n">
+        <v>44844.208333333336</v>
+      </c>
+      <c r="B4441" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4441" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4442">
+      <c r="A4442" s="6" t="n">
+        <v>44844.21875</v>
+      </c>
+      <c r="B4442" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4442" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4443">
+      <c r="A4443" s="6" t="n">
+        <v>44844.229166666664</v>
+      </c>
+      <c r="B4443" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4443" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4444">
+      <c r="A4444" s="6" t="n">
+        <v>44844.239583333336</v>
+      </c>
+      <c r="B4444" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4444" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4445">
+      <c r="A4445" s="6" t="n">
+        <v>44844.25</v>
+      </c>
+      <c r="B4445" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4445" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4446">
+      <c r="A4446" s="6" t="n">
+        <v>44844.260416666664</v>
+      </c>
+      <c r="B4446" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4446" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4447">
+      <c r="A4447" s="6" t="n">
+        <v>44844.270833333336</v>
+      </c>
+      <c r="B4447" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4447" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" s="6" t="n">
+        <v>44844.28125</v>
+      </c>
+      <c r="B4448" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4448" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" s="6" t="n">
+        <v>44844.291666666664</v>
+      </c>
+      <c r="B4449" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4449" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" s="6" t="n">
+        <v>44844.302083333336</v>
+      </c>
+      <c r="B4450" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4450" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" s="6" t="n">
+        <v>44844.3125</v>
+      </c>
+      <c r="B4451" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4451" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" s="6" t="n">
+        <v>44844.322916666664</v>
+      </c>
+      <c r="B4452" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4452" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" s="6" t="n">
+        <v>44844.333333333336</v>
+      </c>
+      <c r="B4453" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4453" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" s="6" t="n">
+        <v>44844.34375</v>
+      </c>
+      <c r="B4454" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4454" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" s="6" t="n">
+        <v>44844.354166666664</v>
+      </c>
+      <c r="B4455" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4455" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" s="6" t="n">
+        <v>44844.364583333336</v>
+      </c>
+      <c r="B4456" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4456" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4457">
+      <c r="A4457" s="6" t="n">
+        <v>44844.375</v>
+      </c>
+      <c r="B4457" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4457" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4458">
+      <c r="A4458" s="6" t="n">
+        <v>44844.385416666664</v>
+      </c>
+      <c r="B4458" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4458" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4459">
+      <c r="A4459" s="6" t="n">
+        <v>44844.395833333336</v>
+      </c>
+      <c r="B4459" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4459" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" s="6" t="n">
+        <v>44844.40625</v>
+      </c>
+      <c r="B4460" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4460" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" s="6" t="n">
+        <v>44844.416666666664</v>
+      </c>
+      <c r="B4461" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4461" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" s="6" t="n">
+        <v>44844.427083333336</v>
+      </c>
+      <c r="B4462" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4462" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" s="6" t="n">
+        <v>44844.4375</v>
+      </c>
+      <c r="B4463" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4463" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" s="6" t="n">
+        <v>44844.447916666664</v>
+      </c>
+      <c r="B4464" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4464" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" s="6" t="n">
+        <v>44844.458333333336</v>
+      </c>
+      <c r="B4465" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4465" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4466">
+      <c r="A4466" s="6" t="n">
+        <v>44844.46875</v>
+      </c>
+      <c r="B4466" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4466" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" s="6" t="n">
+        <v>44844.479166666664</v>
+      </c>
+      <c r="B4467" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4467" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4468">
+      <c r="A4468" s="6" t="n">
+        <v>44844.489583333336</v>
+      </c>
+      <c r="B4468" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4468" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4469">
+      <c r="A4469" s="6" t="n">
+        <v>44844.5</v>
+      </c>
+      <c r="B4469" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4469" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4470">
+      <c r="A4470" s="6" t="n">
+        <v>44844.510416666664</v>
+      </c>
+      <c r="B4470" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4470" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4471">
+      <c r="A4471" s="6" t="n">
+        <v>44844.520833333336</v>
+      </c>
+      <c r="B4471" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4471" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4472">
+      <c r="A4472" s="6" t="n">
+        <v>44844.53125</v>
+      </c>
+      <c r="B4472" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4472" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4473">
+      <c r="A4473" s="6" t="n">
+        <v>44844.541666666664</v>
+      </c>
+      <c r="B4473" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4473" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4474">
+      <c r="A4474" s="6" t="n">
+        <v>44844.552083333336</v>
+      </c>
+      <c r="B4474" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4474" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4475">
+      <c r="A4475" s="6" t="n">
+        <v>44844.5625</v>
+      </c>
+      <c r="B4475" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4475" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4476">
+      <c r="A4476" s="6" t="n">
+        <v>44844.572916666664</v>
+      </c>
+      <c r="B4476" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4476" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4477">
+      <c r="A4477" s="6" t="n">
+        <v>44844.583333333336</v>
+      </c>
+      <c r="B4477" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4477" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4478">
+      <c r="A4478" s="6" t="n">
+        <v>44844.59375</v>
+      </c>
+      <c r="B4478" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4478" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4479">
+      <c r="A4479" s="6" t="n">
+        <v>44844.604166666664</v>
+      </c>
+      <c r="B4479" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4479" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4480">
+      <c r="A4480" s="6" t="n">
+        <v>44844.614583333336</v>
+      </c>
+      <c r="B4480" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4480" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4481">
+      <c r="A4481" s="6" t="n">
+        <v>44844.625</v>
+      </c>
+      <c r="B4481" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4481" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4482">
+      <c r="A4482" s="6" t="n">
+        <v>44844.635416666664</v>
+      </c>
+      <c r="B4482" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4482" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4483">
+      <c r="A4483" s="6" t="n">
+        <v>44844.645833333336</v>
+      </c>
+      <c r="B4483" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4483" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4484">
+      <c r="A4484" s="6" t="n">
+        <v>44844.65625</v>
+      </c>
+      <c r="B4484" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4484" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4485">
+      <c r="A4485" s="6" t="n">
+        <v>44844.666666666664</v>
+      </c>
+      <c r="B4485" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4485" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4486">
+      <c r="A4486" s="6" t="n">
+        <v>44844.677083333336</v>
+      </c>
+      <c r="B4486" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C4486" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4487">
+      <c r="A4487" s="6" t="n">
+        <v>44844.6875</v>
+      </c>
+      <c r="B4487" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4487" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4488">
+      <c r="A4488" s="6" t="n">
+        <v>44844.697916666664</v>
+      </c>
+      <c r="B4488" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4488" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4489">
+      <c r="A4489" s="6" t="n">
+        <v>44844.708333333336</v>
+      </c>
+      <c r="B4489" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4489" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4490">
+      <c r="A4490" s="6" t="n">
+        <v>44844.71875</v>
+      </c>
+      <c r="B4490" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C4490" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4491">
+      <c r="A4491" s="6" t="n">
+        <v>44844.729166666664</v>
+      </c>
+      <c r="B4491" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4491" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4492">
+      <c r="A4492" s="6" t="n">
+        <v>44844.739583333336</v>
+      </c>
+      <c r="B4492" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4492" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4493">
+      <c r="A4493" s="6" t="n">
+        <v>44844.75</v>
+      </c>
+      <c r="B4493" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4493" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" s="6" t="n">
+        <v>44844.760416666664</v>
+      </c>
+      <c r="B4494" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4494" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" s="6" t="n">
+        <v>44844.770833333336</v>
+      </c>
+      <c r="B4495" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4495" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" s="6" t="n">
+        <v>44844.78125</v>
+      </c>
+      <c r="B4496" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4496" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" s="6" t="n">
+        <v>44844.791666666664</v>
+      </c>
+      <c r="B4497" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4497" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4498">
+      <c r="A4498" s="6" t="n">
+        <v>44844.802083333336</v>
+      </c>
+      <c r="B4498" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4498" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" s="6" t="n">
+        <v>44844.8125</v>
+      </c>
+      <c r="B4499" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4499" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4500">
+      <c r="A4500" s="6" t="n">
+        <v>44844.822916666664</v>
+      </c>
+      <c r="B4500" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4500" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" s="6" t="n">
+        <v>44844.833333333336</v>
+      </c>
+      <c r="B4501" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4501" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" s="6" t="n">
+        <v>44844.84375</v>
+      </c>
+      <c r="B4502" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4502" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" s="6" t="n">
+        <v>44844.854166666664</v>
+      </c>
+      <c r="B4503" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4503" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4504">
+      <c r="A4504" s="6" t="n">
+        <v>44844.864583333336</v>
+      </c>
+      <c r="B4504" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4504" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4505">
+      <c r="A4505" s="6" t="n">
+        <v>44844.875</v>
+      </c>
+      <c r="B4505" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4505" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4506">
+      <c r="A4506" s="6" t="n">
+        <v>44844.885416666664</v>
+      </c>
+      <c r="B4506" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4506" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4507">
+      <c r="A4507" s="6" t="n">
+        <v>44844.895833333336</v>
+      </c>
+      <c r="B4507" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4507" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4508">
+      <c r="A4508" s="6" t="n">
+        <v>44844.90625</v>
+      </c>
+      <c r="B4508" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4508" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" s="6" t="n">
+        <v>44844.916666666664</v>
+      </c>
+      <c r="B4509" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4509" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" s="6" t="n">
+        <v>44844.927083333336</v>
+      </c>
+      <c r="B4510" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4510" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4511">
+      <c r="A4511" s="6" t="n">
+        <v>44844.9375</v>
+      </c>
+      <c r="B4511" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4511" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4512">
+      <c r="A4512" s="6" t="n">
+        <v>44844.947916666664</v>
+      </c>
+      <c r="B4512" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4512" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4513">
+      <c r="A4513" s="6" t="n">
+        <v>44844.958333333336</v>
+      </c>
+      <c r="B4513" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4513" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4514">
+      <c r="A4514" s="6" t="n">
+        <v>44844.96875</v>
+      </c>
+      <c r="B4514" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4514" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4515">
+      <c r="A4515" s="6" t="n">
+        <v>44844.979166666664</v>
+      </c>
+      <c r="B4515" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4515" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4516">
+      <c r="A4516" s="6" t="n">
+        <v>44844.989583333336</v>
+      </c>
+      <c r="B4516" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4516" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4517">
+      <c r="A4517" s="6" t="n">
+        <v>44845.0</v>
+      </c>
+      <c r="B4517" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4517" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" s="6" t="n">
+        <v>44845.010416666664</v>
+      </c>
+      <c r="B4518" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4518" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4519">
+      <c r="A4519" s="6" t="n">
+        <v>44845.020833333336</v>
+      </c>
+      <c r="B4519" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4519" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4520">
+      <c r="A4520" s="6" t="n">
+        <v>44845.03125</v>
+      </c>
+      <c r="B4520" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4520" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4521">
+      <c r="A4521" s="6" t="n">
+        <v>44845.041666666664</v>
+      </c>
+      <c r="B4521" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4521" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4522">
+      <c r="A4522" s="6" t="n">
+        <v>44845.052083333336</v>
+      </c>
+      <c r="B4522" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4522" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4523">
+      <c r="A4523" s="6" t="n">
+        <v>44845.0625</v>
+      </c>
+      <c r="B4523" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4523" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4524">
+      <c r="A4524" s="6" t="n">
+        <v>44845.072916666664</v>
+      </c>
+      <c r="B4524" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4524" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4525">
+      <c r="A4525" s="6" t="n">
+        <v>44845.083333333336</v>
+      </c>
+      <c r="B4525" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4525" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4526">
+      <c r="A4526" s="6" t="n">
+        <v>44845.09375</v>
+      </c>
+      <c r="B4526" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4526" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4527">
+      <c r="A4527" s="6" t="n">
+        <v>44845.104166666664</v>
+      </c>
+      <c r="B4527" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4527" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4528">
+      <c r="A4528" s="6" t="n">
+        <v>44845.114583333336</v>
+      </c>
+      <c r="B4528" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4528" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4529">
+      <c r="A4529" s="6" t="n">
+        <v>44845.125</v>
+      </c>
+      <c r="B4529" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4529" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4530">
+      <c r="A4530" s="6" t="n">
+        <v>44845.135416666664</v>
+      </c>
+      <c r="B4530" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4530" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4531">
+      <c r="A4531" s="6" t="n">
+        <v>44845.145833333336</v>
+      </c>
+      <c r="B4531" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4531" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4532">
+      <c r="A4532" s="6" t="n">
+        <v>44845.15625</v>
+      </c>
+      <c r="B4532" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4532" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4533">
+      <c r="A4533" s="6" t="n">
+        <v>44845.166666666664</v>
+      </c>
+      <c r="B4533" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4533" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4534">
+      <c r="A4534" s="6" t="n">
+        <v>44845.177083333336</v>
+      </c>
+      <c r="B4534" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4534" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4535">
+      <c r="A4535" s="6" t="n">
+        <v>44845.1875</v>
+      </c>
+      <c r="B4535" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4535" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4536">
+      <c r="A4536" s="6" t="n">
+        <v>44845.197916666664</v>
+      </c>
+      <c r="B4536" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4536" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4537">
+      <c r="A4537" s="6" t="n">
+        <v>44845.208333333336</v>
+      </c>
+      <c r="B4537" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4537" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4538">
+      <c r="A4538" s="6" t="n">
+        <v>44845.21875</v>
+      </c>
+      <c r="B4538" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4538" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4539">
+      <c r="A4539" s="6" t="n">
+        <v>44845.229166666664</v>
+      </c>
+      <c r="B4539" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4539" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4540">
+      <c r="A4540" s="6" t="n">
+        <v>44845.239583333336</v>
+      </c>
+      <c r="B4540" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4540" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4541">
+      <c r="A4541" s="6" t="n">
+        <v>44845.25</v>
+      </c>
+      <c r="B4541" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4541" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4542">
+      <c r="A4542" s="6" t="n">
+        <v>44845.260416666664</v>
+      </c>
+      <c r="B4542" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4542" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4543">
+      <c r="A4543" s="6" t="n">
+        <v>44845.270833333336</v>
+      </c>
+      <c r="B4543" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4543" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4544">
+      <c r="A4544" s="6" t="n">
+        <v>44845.28125</v>
+      </c>
+      <c r="B4544" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4544" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4545">
+      <c r="A4545" s="6" t="n">
+        <v>44845.291666666664</v>
+      </c>
+      <c r="B4545" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4545" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4546">
+      <c r="A4546" s="6" t="n">
+        <v>44845.302083333336</v>
+      </c>
+      <c r="B4546" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4546" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4547">
+      <c r="A4547" s="6" t="n">
+        <v>44845.3125</v>
+      </c>
+      <c r="B4547" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4547" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4548">
+      <c r="A4548" s="6" t="n">
+        <v>44845.322916666664</v>
+      </c>
+      <c r="B4548" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4548" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4549">
+      <c r="A4549" s="6" t="n">
+        <v>44845.333333333336</v>
+      </c>
+      <c r="B4549" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4549" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4550">
+      <c r="A4550" s="6" t="n">
+        <v>44845.34375</v>
+      </c>
+      <c r="B4550" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4550" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4551">
+      <c r="A4551" s="6" t="n">
+        <v>44845.354166666664</v>
+      </c>
+      <c r="B4551" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4551" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4552">
+      <c r="A4552" s="6" t="n">
+        <v>44845.364583333336</v>
+      </c>
+      <c r="B4552" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4552" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4553">
+      <c r="A4553" s="6" t="n">
+        <v>44845.375</v>
+      </c>
+      <c r="B4553" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4553" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4554">
+      <c r="A4554" s="6" t="n">
+        <v>44845.385416666664</v>
+      </c>
+      <c r="B4554" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4554" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4555">
+      <c r="A4555" s="6" t="n">
+        <v>44845.395833333336</v>
+      </c>
+      <c r="B4555" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4555" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4556">
+      <c r="A4556" s="6" t="n">
+        <v>44845.40625</v>
+      </c>
+      <c r="B4556" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4556" s="1" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="4557">
+      <c r="A4557" s="6" t="n">
+        <v>44845.416666666664</v>
+      </c>
+      <c r="B4557" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4557" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4558">
+      <c r="A4558" s="6" t="n">
+        <v>44845.427083333336</v>
+      </c>
+      <c r="B4558" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4558" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4559">
+      <c r="A4559" s="6" t="n">
+        <v>44845.4375</v>
+      </c>
+      <c r="B4559" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4559" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4560">
+      <c r="A4560" s="6" t="n">
+        <v>44845.447916666664</v>
+      </c>
+      <c r="B4560" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4560" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4561">
+      <c r="A4561" s="6" t="n">
+        <v>44845.458333333336</v>
+      </c>
+      <c r="B4561" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4561" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4562">
+      <c r="A4562" s="6" t="n">
+        <v>44845.46875</v>
+      </c>
+      <c r="B4562" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4562" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4563">
+      <c r="A4563" s="6" t="n">
+        <v>44845.479166666664</v>
+      </c>
+      <c r="B4563" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4563" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4564">
+      <c r="A4564" s="6" t="n">
+        <v>44845.489583333336</v>
+      </c>
+      <c r="B4564" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4564" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4565">
+      <c r="A4565" s="6" t="n">
+        <v>44845.5</v>
+      </c>
+      <c r="B4565" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4565" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4566">
+      <c r="A4566" s="6" t="n">
+        <v>44845.510416666664</v>
+      </c>
+      <c r="B4566" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4566" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4567">
+      <c r="A4567" s="6" t="n">
+        <v>44845.520833333336</v>
+      </c>
+      <c r="B4567" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4567" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4568">
+      <c r="A4568" s="6" t="n">
+        <v>44845.53125</v>
+      </c>
+      <c r="B4568" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4568" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4569">
+      <c r="A4569" s="6" t="n">
+        <v>44845.541666666664</v>
+      </c>
+      <c r="B4569" s="1"/>
+      <c r="C4569" s="1"/>
+    </row>
+    <row r="4570">
+      <c r="A4570" s="6" t="n">
+        <v>44845.552083333336</v>
+      </c>
+      <c r="B4570" s="1"/>
+      <c r="C4570" s="1"/>
+    </row>
+    <row r="4571">
+      <c r="A4571" s="6" t="n">
+        <v>44845.5625</v>
+      </c>
+      <c r="B4571" s="1"/>
+      <c r="C4571" s="1"/>
+    </row>
+    <row r="4572">
+      <c r="A4572" s="6" t="n">
+        <v>44845.572916666664</v>
+      </c>
+      <c r="B4572" s="1"/>
+      <c r="C4572" s="1"/>
+    </row>
+    <row r="4573">
+      <c r="A4573" s="6" t="n">
+        <v>44845.583333333336</v>
+      </c>
+      <c r="B4573" s="1"/>
+      <c r="C4573" s="1"/>
+    </row>
+    <row r="4574">
+      <c r="A4574" s="6" t="n">
+        <v>44845.59375</v>
+      </c>
+      <c r="B4574" s="1"/>
+      <c r="C4574" s="1"/>
+    </row>
+    <row r="4575">
+      <c r="A4575" s="6" t="n">
+        <v>44845.604166666664</v>
+      </c>
+      <c r="B4575" s="1"/>
+      <c r="C4575" s="1"/>
+    </row>
+    <row r="4576">
+      <c r="A4576" s="6" t="n">
+        <v>44845.614583333336</v>
+      </c>
+      <c r="B4576" s="1"/>
+      <c r="C4576" s="1"/>
+    </row>
+    <row r="4577">
+      <c r="A4577" s="6" t="n">
+        <v>44845.625</v>
+      </c>
+      <c r="B4577" s="1"/>
+      <c r="C4577" s="1"/>
+    </row>
+    <row r="4578">
+      <c r="A4578" s="6" t="n">
+        <v>44845.635416666664</v>
+      </c>
+      <c r="B4578" s="1"/>
+      <c r="C4578" s="1"/>
+    </row>
+    <row r="4579">
+      <c r="A4579" s="6" t="n">
+        <v>44845.645833333336</v>
+      </c>
+      <c r="B4579" s="1"/>
+      <c r="C4579" s="1"/>
+    </row>
+    <row r="4580">
+      <c r="A4580" s="6" t="n">
+        <v>44845.65625</v>
+      </c>
+      <c r="B4580" s="1"/>
+      <c r="C4580" s="1"/>
+    </row>
+    <row r="4581">
+      <c r="A4581" s="6" t="n">
+        <v>44845.666666666664</v>
+      </c>
+      <c r="B4581" s="1"/>
+      <c r="C4581" s="1"/>
+    </row>
+    <row r="4582">
+      <c r="A4582" s="6" t="n">
+        <v>44845.677083333336</v>
+      </c>
+      <c r="B4582" s="1"/>
+      <c r="C4582" s="1"/>
+    </row>
+    <row r="4583">
+      <c r="A4583" s="6" t="n">
+        <v>44845.6875</v>
+      </c>
+      <c r="B4583" s="1"/>
+      <c r="C4583" s="1"/>
+    </row>
+    <row r="4584">
+      <c r="A4584" s="6" t="n">
+        <v>44845.697916666664</v>
+      </c>
+      <c r="B4584" s="1"/>
+      <c r="C4584" s="1"/>
+    </row>
+    <row r="4585">
+      <c r="A4585" s="6" t="n">
+        <v>44845.708333333336</v>
+      </c>
+      <c r="B4585" s="1"/>
+      <c r="C4585" s="1"/>
+    </row>
+    <row r="4586">
+      <c r="A4586" s="6" t="n">
+        <v>44845.71875</v>
+      </c>
+      <c r="B4586" s="1"/>
+      <c r="C4586" s="1"/>
+    </row>
+    <row r="4587">
+      <c r="A4587" s="6" t="n">
+        <v>44845.729166666664</v>
+      </c>
+      <c r="B4587" s="1"/>
+      <c r="C4587" s="1"/>
+    </row>
+    <row r="4588">
+      <c r="A4588" s="6" t="n">
+        <v>44845.739583333336</v>
+      </c>
+      <c r="B4588" s="1"/>
+      <c r="C4588" s="1"/>
+    </row>
+    <row r="4589">
+      <c r="A4589" s="6" t="n">
+        <v>44845.75</v>
+      </c>
+      <c r="B4589" s="1"/>
+      <c r="C4589" s="1"/>
+    </row>
+    <row r="4590">
+      <c r="A4590" s="6" t="n">
+        <v>44845.760416666664</v>
+      </c>
+      <c r="B4590" s="1"/>
+      <c r="C4590" s="1"/>
+    </row>
+    <row r="4591">
+      <c r="A4591" s="6" t="n">
+        <v>44845.770833333336</v>
+      </c>
+      <c r="B4591" s="1"/>
+      <c r="C4591" s="1"/>
+    </row>
+    <row r="4592">
+      <c r="A4592" s="6" t="n">
+        <v>44845.78125</v>
+      </c>
+      <c r="B4592" s="1"/>
+      <c r="C4592" s="1"/>
+    </row>
+    <row r="4593">
+      <c r="A4593" s="6" t="n">
+        <v>44845.791666666664</v>
+      </c>
+      <c r="B4593" s="1"/>
+      <c r="C4593" s="1"/>
+    </row>
+    <row r="4594">
+      <c r="A4594" s="6" t="n">
+        <v>44845.802083333336</v>
+      </c>
+      <c r="B4594" s="1"/>
+      <c r="C4594" s="1"/>
+    </row>
+    <row r="4595">
+      <c r="A4595" s="6" t="n">
+        <v>44845.8125</v>
+      </c>
+      <c r="B4595" s="1"/>
+      <c r="C4595" s="1"/>
+    </row>
+    <row r="4596">
+      <c r="A4596" s="6" t="n">
+        <v>44845.822916666664</v>
+      </c>
+      <c r="B4596" s="1"/>
+      <c r="C4596" s="1"/>
+    </row>
+    <row r="4597">
+      <c r="A4597" s="6" t="n">
+        <v>44845.833333333336</v>
+      </c>
+      <c r="B4597" s="1"/>
+      <c r="C4597" s="1"/>
+    </row>
+    <row r="4598">
+      <c r="A4598" s="6" t="n">
+        <v>44845.84375</v>
+      </c>
+      <c r="B4598" s="1"/>
+      <c r="C4598" s="1"/>
+    </row>
+    <row r="4599">
+      <c r="A4599" s="6" t="n">
+        <v>44845.854166666664</v>
+      </c>
+      <c r="B4599" s="1"/>
+      <c r="C4599" s="1"/>
+    </row>
+    <row r="4600">
+      <c r="A4600" s="6" t="n">
+        <v>44845.864583333336</v>
+      </c>
+      <c r="B4600" s="1"/>
+      <c r="C4600" s="1"/>
+    </row>
+    <row r="4601">
+      <c r="A4601" s="6" t="n">
+        <v>44845.875</v>
+      </c>
+      <c r="B4601" s="1"/>
+      <c r="C4601" s="1"/>
+    </row>
+    <row r="4602">
+      <c r="A4602" s="6" t="n">
+        <v>44845.885416666664</v>
+      </c>
+      <c r="B4602" s="1"/>
+      <c r="C4602" s="1"/>
+    </row>
+    <row r="4603">
+      <c r="A4603" s="6" t="n">
+        <v>44845.895833333336</v>
+      </c>
+      <c r="B4603" s="1"/>
+      <c r="C4603" s="1"/>
+    </row>
+    <row r="4604">
+      <c r="A4604" s="6" t="n">
+        <v>44845.90625</v>
+      </c>
+      <c r="B4604" s="1"/>
+      <c r="C4604" s="1"/>
+    </row>
+    <row r="4605">
+      <c r="A4605" s="6" t="n">
+        <v>44845.916666666664</v>
+      </c>
+      <c r="B4605" s="1"/>
+      <c r="C4605" s="1"/>
+    </row>
+    <row r="4606">
+      <c r="A4606" s="6" t="n">
+        <v>44845.927083333336</v>
+      </c>
+      <c r="B4606" s="1"/>
+      <c r="C4606" s="1"/>
+    </row>
+    <row r="4607">
+      <c r="A4607" s="6" t="n">
+        <v>44845.9375</v>
+      </c>
+      <c r="B4607" s="1"/>
+      <c r="C4607" s="1"/>
+    </row>
+    <row r="4608">
+      <c r="A4608" s="6" t="n">
+        <v>44845.947916666664</v>
+      </c>
+      <c r="B4608" s="1"/>
+      <c r="C4608" s="1"/>
+    </row>
+    <row r="4609">
+      <c r="A4609" s="6" t="n">
+        <v>44845.958333333336</v>
+      </c>
+      <c r="B4609" s="1"/>
+      <c r="C4609" s="1"/>
+    </row>
+    <row r="4610">
+      <c r="A4610" s="6" t="n">
+        <v>44845.96875</v>
+      </c>
+      <c r="B4610" s="1"/>
+      <c r="C4610" s="1"/>
+    </row>
+    <row r="4611">
+      <c r="A4611" s="6" t="n">
+        <v>44845.979166666664</v>
+      </c>
+      <c r="B4611" s="1"/>
+      <c r="C4611" s="1"/>
+    </row>
+    <row r="4612">
+      <c r="A4612" s="6" t="n">
+        <v>44845.989583333336</v>
+      </c>
+      <c r="B4612" s="1"/>
+      <c r="C4612" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/export_data_domain_7992.xlsx
+++ b/data/export_data_domain_7992.xlsx
@@ -50379,309 +50379,1373 @@
       <c r="A4569" s="6" t="n">
         <v>44845.541666666664</v>
       </c>
-      <c r="B4569" s="1"/>
-      <c r="C4569" s="1"/>
+      <c r="B4569" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4569" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4570">
       <c r="A4570" s="6" t="n">
         <v>44845.552083333336</v>
       </c>
-      <c r="B4570" s="1"/>
-      <c r="C4570" s="1"/>
+      <c r="B4570" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4570" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4571">
       <c r="A4571" s="6" t="n">
         <v>44845.5625</v>
       </c>
-      <c r="B4571" s="1"/>
-      <c r="C4571" s="1"/>
+      <c r="B4571" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4571" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4572">
       <c r="A4572" s="6" t="n">
         <v>44845.572916666664</v>
       </c>
-      <c r="B4572" s="1"/>
-      <c r="C4572" s="1"/>
+      <c r="B4572" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4572" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4573">
       <c r="A4573" s="6" t="n">
         <v>44845.583333333336</v>
       </c>
-      <c r="B4573" s="1"/>
-      <c r="C4573" s="1"/>
+      <c r="B4573" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4573" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4574">
       <c r="A4574" s="6" t="n">
         <v>44845.59375</v>
       </c>
-      <c r="B4574" s="1"/>
-      <c r="C4574" s="1"/>
+      <c r="B4574" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4574" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4575">
       <c r="A4575" s="6" t="n">
         <v>44845.604166666664</v>
       </c>
-      <c r="B4575" s="1"/>
-      <c r="C4575" s="1"/>
+      <c r="B4575" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4575" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4576">
       <c r="A4576" s="6" t="n">
         <v>44845.614583333336</v>
       </c>
-      <c r="B4576" s="1"/>
-      <c r="C4576" s="1"/>
+      <c r="B4576" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4576" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4577">
       <c r="A4577" s="6" t="n">
         <v>44845.625</v>
       </c>
-      <c r="B4577" s="1"/>
-      <c r="C4577" s="1"/>
+      <c r="B4577" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4577" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4578">
       <c r="A4578" s="6" t="n">
         <v>44845.635416666664</v>
       </c>
-      <c r="B4578" s="1"/>
-      <c r="C4578" s="1"/>
+      <c r="B4578" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4578" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4579">
       <c r="A4579" s="6" t="n">
         <v>44845.645833333336</v>
       </c>
-      <c r="B4579" s="1"/>
-      <c r="C4579" s="1"/>
+      <c r="B4579" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4579" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4580">
       <c r="A4580" s="6" t="n">
         <v>44845.65625</v>
       </c>
-      <c r="B4580" s="1"/>
-      <c r="C4580" s="1"/>
+      <c r="B4580" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4580" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4581">
       <c r="A4581" s="6" t="n">
         <v>44845.666666666664</v>
       </c>
-      <c r="B4581" s="1"/>
-      <c r="C4581" s="1"/>
+      <c r="B4581" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C4581" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4582">
       <c r="A4582" s="6" t="n">
         <v>44845.677083333336</v>
       </c>
-      <c r="B4582" s="1"/>
-      <c r="C4582" s="1"/>
+      <c r="B4582" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4582" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4583">
       <c r="A4583" s="6" t="n">
         <v>44845.6875</v>
       </c>
-      <c r="B4583" s="1"/>
-      <c r="C4583" s="1"/>
+      <c r="B4583" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4583" s="1" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4584">
       <c r="A4584" s="6" t="n">
         <v>44845.697916666664</v>
       </c>
-      <c r="B4584" s="1"/>
-      <c r="C4584" s="1"/>
+      <c r="B4584" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4584" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4585">
       <c r="A4585" s="6" t="n">
         <v>44845.708333333336</v>
       </c>
-      <c r="B4585" s="1"/>
-      <c r="C4585" s="1"/>
+      <c r="B4585" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4585" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4586">
       <c r="A4586" s="6" t="n">
         <v>44845.71875</v>
       </c>
-      <c r="B4586" s="1"/>
-      <c r="C4586" s="1"/>
+      <c r="B4586" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4586" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4587">
       <c r="A4587" s="6" t="n">
         <v>44845.729166666664</v>
       </c>
-      <c r="B4587" s="1"/>
-      <c r="C4587" s="1"/>
+      <c r="B4587" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C4587" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4588">
       <c r="A4588" s="6" t="n">
         <v>44845.739583333336</v>
       </c>
-      <c r="B4588" s="1"/>
-      <c r="C4588" s="1"/>
+      <c r="B4588" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4588" s="1" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="4589">
       <c r="A4589" s="6" t="n">
         <v>44845.75</v>
       </c>
-      <c r="B4589" s="1"/>
-      <c r="C4589" s="1"/>
+      <c r="B4589" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4589" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4590">
       <c r="A4590" s="6" t="n">
         <v>44845.760416666664</v>
       </c>
-      <c r="B4590" s="1"/>
-      <c r="C4590" s="1"/>
+      <c r="B4590" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4590" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4591">
       <c r="A4591" s="6" t="n">
         <v>44845.770833333336</v>
       </c>
-      <c r="B4591" s="1"/>
-      <c r="C4591" s="1"/>
+      <c r="B4591" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4591" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4592">
       <c r="A4592" s="6" t="n">
         <v>44845.78125</v>
       </c>
-      <c r="B4592" s="1"/>
-      <c r="C4592" s="1"/>
+      <c r="B4592" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4592" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4593">
       <c r="A4593" s="6" t="n">
         <v>44845.791666666664</v>
       </c>
-      <c r="B4593" s="1"/>
-      <c r="C4593" s="1"/>
+      <c r="B4593" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4593" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4594">
       <c r="A4594" s="6" t="n">
         <v>44845.802083333336</v>
       </c>
-      <c r="B4594" s="1"/>
-      <c r="C4594" s="1"/>
+      <c r="B4594" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4594" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4595">
       <c r="A4595" s="6" t="n">
         <v>44845.8125</v>
       </c>
-      <c r="B4595" s="1"/>
-      <c r="C4595" s="1"/>
+      <c r="B4595" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4595" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4596">
       <c r="A4596" s="6" t="n">
         <v>44845.822916666664</v>
       </c>
-      <c r="B4596" s="1"/>
-      <c r="C4596" s="1"/>
+      <c r="B4596" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4596" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4597">
       <c r="A4597" s="6" t="n">
         <v>44845.833333333336</v>
       </c>
-      <c r="B4597" s="1"/>
-      <c r="C4597" s="1"/>
+      <c r="B4597" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4597" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4598">
       <c r="A4598" s="6" t="n">
         <v>44845.84375</v>
       </c>
-      <c r="B4598" s="1"/>
-      <c r="C4598" s="1"/>
+      <c r="B4598" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4598" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4599">
       <c r="A4599" s="6" t="n">
         <v>44845.854166666664</v>
       </c>
-      <c r="B4599" s="1"/>
-      <c r="C4599" s="1"/>
+      <c r="B4599" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4599" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4600">
       <c r="A4600" s="6" t="n">
         <v>44845.864583333336</v>
       </c>
-      <c r="B4600" s="1"/>
-      <c r="C4600" s="1"/>
+      <c r="B4600" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4600" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4601">
       <c r="A4601" s="6" t="n">
         <v>44845.875</v>
       </c>
-      <c r="B4601" s="1"/>
-      <c r="C4601" s="1"/>
+      <c r="B4601" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4601" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4602">
       <c r="A4602" s="6" t="n">
         <v>44845.885416666664</v>
       </c>
-      <c r="B4602" s="1"/>
-      <c r="C4602" s="1"/>
+      <c r="B4602" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4602" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4603">
       <c r="A4603" s="6" t="n">
         <v>44845.895833333336</v>
       </c>
-      <c r="B4603" s="1"/>
-      <c r="C4603" s="1"/>
+      <c r="B4603" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4603" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4604">
       <c r="A4604" s="6" t="n">
         <v>44845.90625</v>
       </c>
-      <c r="B4604" s="1"/>
-      <c r="C4604" s="1"/>
+      <c r="B4604" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4604" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4605">
       <c r="A4605" s="6" t="n">
         <v>44845.916666666664</v>
       </c>
-      <c r="B4605" s="1"/>
-      <c r="C4605" s="1"/>
+      <c r="B4605" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4605" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4606">
       <c r="A4606" s="6" t="n">
         <v>44845.927083333336</v>
       </c>
-      <c r="B4606" s="1"/>
-      <c r="C4606" s="1"/>
+      <c r="B4606" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4606" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4607">
       <c r="A4607" s="6" t="n">
         <v>44845.9375</v>
       </c>
-      <c r="B4607" s="1"/>
-      <c r="C4607" s="1"/>
+      <c r="B4607" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4607" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4608">
       <c r="A4608" s="6" t="n">
         <v>44845.947916666664</v>
       </c>
-      <c r="B4608" s="1"/>
-      <c r="C4608" s="1"/>
+      <c r="B4608" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4608" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4609">
       <c r="A4609" s="6" t="n">
         <v>44845.958333333336</v>
       </c>
-      <c r="B4609" s="1"/>
-      <c r="C4609" s="1"/>
+      <c r="B4609" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4609" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4610">
       <c r="A4610" s="6" t="n">
         <v>44845.96875</v>
       </c>
-      <c r="B4610" s="1"/>
-      <c r="C4610" s="1"/>
+      <c r="B4610" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4610" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4611">
       <c r="A4611" s="6" t="n">
         <v>44845.979166666664</v>
       </c>
-      <c r="B4611" s="1"/>
-      <c r="C4611" s="1"/>
+      <c r="B4611" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4611" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4612">
       <c r="A4612" s="6" t="n">
         <v>44845.989583333336</v>
       </c>
-      <c r="B4612" s="1"/>
-      <c r="C4612" s="1"/>
+      <c r="B4612" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4612" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4613">
+      <c r="A4613" s="6" t="n">
+        <v>44846.0</v>
+      </c>
+      <c r="B4613" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4613" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4614">
+      <c r="A4614" s="6" t="n">
+        <v>44846.010416666664</v>
+      </c>
+      <c r="B4614" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4614" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4615">
+      <c r="A4615" s="6" t="n">
+        <v>44846.020833333336</v>
+      </c>
+      <c r="B4615" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4615" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4616">
+      <c r="A4616" s="6" t="n">
+        <v>44846.03125</v>
+      </c>
+      <c r="B4616" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4616" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4617">
+      <c r="A4617" s="6" t="n">
+        <v>44846.041666666664</v>
+      </c>
+      <c r="B4617" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4617" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4618">
+      <c r="A4618" s="6" t="n">
+        <v>44846.052083333336</v>
+      </c>
+      <c r="B4618" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4618" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4619">
+      <c r="A4619" s="6" t="n">
+        <v>44846.0625</v>
+      </c>
+      <c r="B4619" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4619" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4620">
+      <c r="A4620" s="6" t="n">
+        <v>44846.072916666664</v>
+      </c>
+      <c r="B4620" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4620" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4621">
+      <c r="A4621" s="6" t="n">
+        <v>44846.083333333336</v>
+      </c>
+      <c r="B4621" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4621" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4622">
+      <c r="A4622" s="6" t="n">
+        <v>44846.09375</v>
+      </c>
+      <c r="B4622" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4622" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4623">
+      <c r="A4623" s="6" t="n">
+        <v>44846.104166666664</v>
+      </c>
+      <c r="B4623" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4623" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4624">
+      <c r="A4624" s="6" t="n">
+        <v>44846.114583333336</v>
+      </c>
+      <c r="B4624" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4624" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4625">
+      <c r="A4625" s="6" t="n">
+        <v>44846.125</v>
+      </c>
+      <c r="B4625" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4625" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4626">
+      <c r="A4626" s="6" t="n">
+        <v>44846.135416666664</v>
+      </c>
+      <c r="B4626" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4626" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4627">
+      <c r="A4627" s="6" t="n">
+        <v>44846.145833333336</v>
+      </c>
+      <c r="B4627" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4627" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4628">
+      <c r="A4628" s="6" t="n">
+        <v>44846.15625</v>
+      </c>
+      <c r="B4628" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4628" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4629">
+      <c r="A4629" s="6" t="n">
+        <v>44846.166666666664</v>
+      </c>
+      <c r="B4629" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4629" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4630">
+      <c r="A4630" s="6" t="n">
+        <v>44846.177083333336</v>
+      </c>
+      <c r="B4630" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4630" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4631">
+      <c r="A4631" s="6" t="n">
+        <v>44846.1875</v>
+      </c>
+      <c r="B4631" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4631" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4632">
+      <c r="A4632" s="6" t="n">
+        <v>44846.197916666664</v>
+      </c>
+      <c r="B4632" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4632" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4633">
+      <c r="A4633" s="6" t="n">
+        <v>44846.208333333336</v>
+      </c>
+      <c r="B4633" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4633" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4634">
+      <c r="A4634" s="6" t="n">
+        <v>44846.21875</v>
+      </c>
+      <c r="B4634" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4634" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4635">
+      <c r="A4635" s="6" t="n">
+        <v>44846.229166666664</v>
+      </c>
+      <c r="B4635" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4635" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4636">
+      <c r="A4636" s="6" t="n">
+        <v>44846.239583333336</v>
+      </c>
+      <c r="B4636" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4636" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4637">
+      <c r="A4637" s="6" t="n">
+        <v>44846.25</v>
+      </c>
+      <c r="B4637" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4637" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4638">
+      <c r="A4638" s="6" t="n">
+        <v>44846.260416666664</v>
+      </c>
+      <c r="B4638" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4638" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4639">
+      <c r="A4639" s="6" t="n">
+        <v>44846.270833333336</v>
+      </c>
+      <c r="B4639" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4639" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4640">
+      <c r="A4640" s="6" t="n">
+        <v>44846.28125</v>
+      </c>
+      <c r="B4640" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4640" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4641">
+      <c r="A4641" s="6" t="n">
+        <v>44846.291666666664</v>
+      </c>
+      <c r="B4641" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4641" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4642">
+      <c r="A4642" s="6" t="n">
+        <v>44846.302083333336</v>
+      </c>
+      <c r="B4642" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4642" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4643">
+      <c r="A4643" s="6" t="n">
+        <v>44846.3125</v>
+      </c>
+      <c r="B4643" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4643" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4644">
+      <c r="A4644" s="6" t="n">
+        <v>44846.322916666664</v>
+      </c>
+      <c r="B4644" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4644" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4645">
+      <c r="A4645" s="6" t="n">
+        <v>44846.333333333336</v>
+      </c>
+      <c r="B4645" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4645" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4646">
+      <c r="A4646" s="6" t="n">
+        <v>44846.34375</v>
+      </c>
+      <c r="B4646" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4646" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4647">
+      <c r="A4647" s="6" t="n">
+        <v>44846.354166666664</v>
+      </c>
+      <c r="B4647" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4647" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4648">
+      <c r="A4648" s="6" t="n">
+        <v>44846.364583333336</v>
+      </c>
+      <c r="B4648" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4648" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4649">
+      <c r="A4649" s="6" t="n">
+        <v>44846.375</v>
+      </c>
+      <c r="B4649" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4649" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4650">
+      <c r="A4650" s="6" t="n">
+        <v>44846.385416666664</v>
+      </c>
+      <c r="B4650" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4650" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4651">
+      <c r="A4651" s="6" t="n">
+        <v>44846.395833333336</v>
+      </c>
+      <c r="B4651" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4651" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4652">
+      <c r="A4652" s="6" t="n">
+        <v>44846.40625</v>
+      </c>
+      <c r="B4652" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4652" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4653">
+      <c r="A4653" s="6" t="n">
+        <v>44846.416666666664</v>
+      </c>
+      <c r="B4653" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4653" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4654">
+      <c r="A4654" s="6" t="n">
+        <v>44846.427083333336</v>
+      </c>
+      <c r="B4654" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4654" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4655">
+      <c r="A4655" s="6" t="n">
+        <v>44846.4375</v>
+      </c>
+      <c r="B4655" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4655" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4656">
+      <c r="A4656" s="6" t="n">
+        <v>44846.447916666664</v>
+      </c>
+      <c r="B4656" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4656" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4657">
+      <c r="A4657" s="6" t="n">
+        <v>44846.458333333336</v>
+      </c>
+      <c r="B4657" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4657" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4658">
+      <c r="A4658" s="6" t="n">
+        <v>44846.46875</v>
+      </c>
+      <c r="B4658" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4658" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4659">
+      <c r="A4659" s="6" t="n">
+        <v>44846.479166666664</v>
+      </c>
+      <c r="B4659" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4659" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4660">
+      <c r="A4660" s="6" t="n">
+        <v>44846.489583333336</v>
+      </c>
+      <c r="B4660" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4660" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4661">
+      <c r="A4661" s="6" t="n">
+        <v>44846.5</v>
+      </c>
+      <c r="B4661" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4661" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4662">
+      <c r="A4662" s="6" t="n">
+        <v>44846.510416666664</v>
+      </c>
+      <c r="B4662" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4662" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4663">
+      <c r="A4663" s="6" t="n">
+        <v>44846.520833333336</v>
+      </c>
+      <c r="B4663" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4663" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4664">
+      <c r="A4664" s="6" t="n">
+        <v>44846.53125</v>
+      </c>
+      <c r="B4664" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4664" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4665">
+      <c r="A4665" s="6" t="n">
+        <v>44846.541666666664</v>
+      </c>
+      <c r="B4665" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4665" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4666">
+      <c r="A4666" s="6" t="n">
+        <v>44846.552083333336</v>
+      </c>
+      <c r="B4666" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4666" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4667">
+      <c r="A4667" s="6" t="n">
+        <v>44846.5625</v>
+      </c>
+      <c r="B4667" s="1"/>
+      <c r="C4667" s="1"/>
+    </row>
+    <row r="4668">
+      <c r="A4668" s="6" t="n">
+        <v>44846.572916666664</v>
+      </c>
+      <c r="B4668" s="1"/>
+      <c r="C4668" s="1"/>
+    </row>
+    <row r="4669">
+      <c r="A4669" s="6" t="n">
+        <v>44846.583333333336</v>
+      </c>
+      <c r="B4669" s="1"/>
+      <c r="C4669" s="1"/>
+    </row>
+    <row r="4670">
+      <c r="A4670" s="6" t="n">
+        <v>44846.59375</v>
+      </c>
+      <c r="B4670" s="1"/>
+      <c r="C4670" s="1"/>
+    </row>
+    <row r="4671">
+      <c r="A4671" s="6" t="n">
+        <v>44846.604166666664</v>
+      </c>
+      <c r="B4671" s="1"/>
+      <c r="C4671" s="1"/>
+    </row>
+    <row r="4672">
+      <c r="A4672" s="6" t="n">
+        <v>44846.614583333336</v>
+      </c>
+      <c r="B4672" s="1"/>
+      <c r="C4672" s="1"/>
+    </row>
+    <row r="4673">
+      <c r="A4673" s="6" t="n">
+        <v>44846.625</v>
+      </c>
+      <c r="B4673" s="1"/>
+      <c r="C4673" s="1"/>
+    </row>
+    <row r="4674">
+      <c r="A4674" s="6" t="n">
+        <v>44846.635416666664</v>
+      </c>
+      <c r="B4674" s="1"/>
+      <c r="C4674" s="1"/>
+    </row>
+    <row r="4675">
+      <c r="A4675" s="6" t="n">
+        <v>44846.645833333336</v>
+      </c>
+      <c r="B4675" s="1"/>
+      <c r="C4675" s="1"/>
+    </row>
+    <row r="4676">
+      <c r="A4676" s="6" t="n">
+        <v>44846.65625</v>
+      </c>
+      <c r="B4676" s="1"/>
+      <c r="C4676" s="1"/>
+    </row>
+    <row r="4677">
+      <c r="A4677" s="6" t="n">
+        <v>44846.666666666664</v>
+      </c>
+      <c r="B4677" s="1"/>
+      <c r="C4677" s="1"/>
+    </row>
+    <row r="4678">
+      <c r="A4678" s="6" t="n">
+        <v>44846.677083333336</v>
+      </c>
+      <c r="B4678" s="1"/>
+      <c r="C4678" s="1"/>
+    </row>
+    <row r="4679">
+      <c r="A4679" s="6" t="n">
+        <v>44846.6875</v>
+      </c>
+      <c r="B4679" s="1"/>
+      <c r="C4679" s="1"/>
+    </row>
+    <row r="4680">
+      <c r="A4680" s="6" t="n">
+        <v>44846.697916666664</v>
+      </c>
+      <c r="B4680" s="1"/>
+      <c r="C4680" s="1"/>
+    </row>
+    <row r="4681">
+      <c r="A4681" s="6" t="n">
+        <v>44846.708333333336</v>
+      </c>
+      <c r="B4681" s="1"/>
+      <c r="C4681" s="1"/>
+    </row>
+    <row r="4682">
+      <c r="A4682" s="6" t="n">
+        <v>44846.71875</v>
+      </c>
+      <c r="B4682" s="1"/>
+      <c r="C4682" s="1"/>
+    </row>
+    <row r="4683">
+      <c r="A4683" s="6" t="n">
+        <v>44846.729166666664</v>
+      </c>
+      <c r="B4683" s="1"/>
+      <c r="C4683" s="1"/>
+    </row>
+    <row r="4684">
+      <c r="A4684" s="6" t="n">
+        <v>44846.739583333336</v>
+      </c>
+      <c r="B4684" s="1"/>
+      <c r="C4684" s="1"/>
+    </row>
+    <row r="4685">
+      <c r="A4685" s="6" t="n">
+        <v>44846.75</v>
+      </c>
+      <c r="B4685" s="1"/>
+      <c r="C4685" s="1"/>
+    </row>
+    <row r="4686">
+      <c r="A4686" s="6" t="n">
+        <v>44846.760416666664</v>
+      </c>
+      <c r="B4686" s="1"/>
+      <c r="C4686" s="1"/>
+    </row>
+    <row r="4687">
+      <c r="A4687" s="6" t="n">
+        <v>44846.770833333336</v>
+      </c>
+      <c r="B4687" s="1"/>
+      <c r="C4687" s="1"/>
+    </row>
+    <row r="4688">
+      <c r="A4688" s="6" t="n">
+        <v>44846.78125</v>
+      </c>
+      <c r="B4688" s="1"/>
+      <c r="C4688" s="1"/>
+    </row>
+    <row r="4689">
+      <c r="A4689" s="6" t="n">
+        <v>44846.791666666664</v>
+      </c>
+      <c r="B4689" s="1"/>
+      <c r="C4689" s="1"/>
+    </row>
+    <row r="4690">
+      <c r="A4690" s="6" t="n">
+        <v>44846.802083333336</v>
+      </c>
+      <c r="B4690" s="1"/>
+      <c r="C4690" s="1"/>
+    </row>
+    <row r="4691">
+      <c r="A4691" s="6" t="n">
+        <v>44846.8125</v>
+      </c>
+      <c r="B4691" s="1"/>
+      <c r="C4691" s="1"/>
+    </row>
+    <row r="4692">
+      <c r="A4692" s="6" t="n">
+        <v>44846.822916666664</v>
+      </c>
+      <c r="B4692" s="1"/>
+      <c r="C4692" s="1"/>
+    </row>
+    <row r="4693">
+      <c r="A4693" s="6" t="n">
+        <v>44846.833333333336</v>
+      </c>
+      <c r="B4693" s="1"/>
+      <c r="C4693" s="1"/>
+    </row>
+    <row r="4694">
+      <c r="A4694" s="6" t="n">
+        <v>44846.84375</v>
+      </c>
+      <c r="B4694" s="1"/>
+      <c r="C4694" s="1"/>
+    </row>
+    <row r="4695">
+      <c r="A4695" s="6" t="n">
+        <v>44846.854166666664</v>
+      </c>
+      <c r="B4695" s="1"/>
+      <c r="C4695" s="1"/>
+    </row>
+    <row r="4696">
+      <c r="A4696" s="6" t="n">
+        <v>44846.864583333336</v>
+      </c>
+      <c r="B4696" s="1"/>
+      <c r="C4696" s="1"/>
+    </row>
+    <row r="4697">
+      <c r="A4697" s="6" t="n">
+        <v>44846.875</v>
+      </c>
+      <c r="B4697" s="1"/>
+      <c r="C4697" s="1"/>
+    </row>
+    <row r="4698">
+      <c r="A4698" s="6" t="n">
+        <v>44846.885416666664</v>
+      </c>
+      <c r="B4698" s="1"/>
+      <c r="C4698" s="1"/>
+    </row>
+    <row r="4699">
+      <c r="A4699" s="6" t="n">
+        <v>44846.895833333336</v>
+      </c>
+      <c r="B4699" s="1"/>
+      <c r="C4699" s="1"/>
+    </row>
+    <row r="4700">
+      <c r="A4700" s="6" t="n">
+        <v>44846.90625</v>
+      </c>
+      <c r="B4700" s="1"/>
+      <c r="C4700" s="1"/>
+    </row>
+    <row r="4701">
+      <c r="A4701" s="6" t="n">
+        <v>44846.916666666664</v>
+      </c>
+      <c r="B4701" s="1"/>
+      <c r="C4701" s="1"/>
+    </row>
+    <row r="4702">
+      <c r="A4702" s="6" t="n">
+        <v>44846.927083333336</v>
+      </c>
+      <c r="B4702" s="1"/>
+      <c r="C4702" s="1"/>
+    </row>
+    <row r="4703">
+      <c r="A4703" s="6" t="n">
+        <v>44846.9375</v>
+      </c>
+      <c r="B4703" s="1"/>
+      <c r="C4703" s="1"/>
+    </row>
+    <row r="4704">
+      <c r="A4704" s="6" t="n">
+        <v>44846.947916666664</v>
+      </c>
+      <c r="B4704" s="1"/>
+      <c r="C4704" s="1"/>
+    </row>
+    <row r="4705">
+      <c r="A4705" s="6" t="n">
+        <v>44846.958333333336</v>
+      </c>
+      <c r="B4705" s="1"/>
+      <c r="C4705" s="1"/>
+    </row>
+    <row r="4706">
+      <c r="A4706" s="6" t="n">
+        <v>44846.96875</v>
+      </c>
+      <c r="B4706" s="1"/>
+      <c r="C4706" s="1"/>
+    </row>
+    <row r="4707">
+      <c r="A4707" s="6" t="n">
+        <v>44846.979166666664</v>
+      </c>
+      <c r="B4707" s="1"/>
+      <c r="C4707" s="1"/>
+    </row>
+    <row r="4708">
+      <c r="A4708" s="6" t="n">
+        <v>44846.989583333336</v>
+      </c>
+      <c r="B4708" s="1"/>
+      <c r="C4708" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/export_data_domain_7992.xlsx
+++ b/data/export_data_domain_7992.xlsx
@@ -51457,295 +51457,6599 @@
       <c r="A4667" s="6" t="n">
         <v>44846.5625</v>
       </c>
-      <c r="B4667" s="1"/>
-      <c r="C4667" s="1"/>
+      <c r="B4667" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4667" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4668">
       <c r="A4668" s="6" t="n">
         <v>44846.572916666664</v>
       </c>
-      <c r="B4668" s="1"/>
-      <c r="C4668" s="1"/>
+      <c r="B4668" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4668" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4669">
       <c r="A4669" s="6" t="n">
         <v>44846.583333333336</v>
       </c>
-      <c r="B4669" s="1"/>
-      <c r="C4669" s="1"/>
+      <c r="B4669" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4669" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4670">
       <c r="A4670" s="6" t="n">
         <v>44846.59375</v>
       </c>
-      <c r="B4670" s="1"/>
-      <c r="C4670" s="1"/>
+      <c r="B4670" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4670" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4671">
       <c r="A4671" s="6" t="n">
         <v>44846.604166666664</v>
       </c>
-      <c r="B4671" s="1"/>
-      <c r="C4671" s="1"/>
+      <c r="B4671" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4671" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4672">
       <c r="A4672" s="6" t="n">
         <v>44846.614583333336</v>
       </c>
-      <c r="B4672" s="1"/>
-      <c r="C4672" s="1"/>
+      <c r="B4672" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4672" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4673">
       <c r="A4673" s="6" t="n">
         <v>44846.625</v>
       </c>
-      <c r="B4673" s="1"/>
-      <c r="C4673" s="1"/>
+      <c r="B4673" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4673" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4674">
       <c r="A4674" s="6" t="n">
         <v>44846.635416666664</v>
       </c>
-      <c r="B4674" s="1"/>
-      <c r="C4674" s="1"/>
+      <c r="B4674" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4674" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4675">
       <c r="A4675" s="6" t="n">
         <v>44846.645833333336</v>
       </c>
-      <c r="B4675" s="1"/>
-      <c r="C4675" s="1"/>
+      <c r="B4675" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4675" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4676">
       <c r="A4676" s="6" t="n">
         <v>44846.65625</v>
       </c>
-      <c r="B4676" s="1"/>
-      <c r="C4676" s="1"/>
+      <c r="B4676" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4676" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4677">
       <c r="A4677" s="6" t="n">
         <v>44846.666666666664</v>
       </c>
-      <c r="B4677" s="1"/>
-      <c r="C4677" s="1"/>
+      <c r="B4677" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4677" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4678">
       <c r="A4678" s="6" t="n">
         <v>44846.677083333336</v>
       </c>
-      <c r="B4678" s="1"/>
-      <c r="C4678" s="1"/>
+      <c r="B4678" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4678" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4679">
       <c r="A4679" s="6" t="n">
         <v>44846.6875</v>
       </c>
-      <c r="B4679" s="1"/>
-      <c r="C4679" s="1"/>
+      <c r="B4679" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4679" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4680">
       <c r="A4680" s="6" t="n">
         <v>44846.697916666664</v>
       </c>
-      <c r="B4680" s="1"/>
-      <c r="C4680" s="1"/>
+      <c r="B4680" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4680" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4681">
       <c r="A4681" s="6" t="n">
         <v>44846.708333333336</v>
       </c>
-      <c r="B4681" s="1"/>
-      <c r="C4681" s="1"/>
+      <c r="B4681" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4681" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4682">
       <c r="A4682" s="6" t="n">
         <v>44846.71875</v>
       </c>
-      <c r="B4682" s="1"/>
-      <c r="C4682" s="1"/>
+      <c r="B4682" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4682" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4683">
       <c r="A4683" s="6" t="n">
         <v>44846.729166666664</v>
       </c>
-      <c r="B4683" s="1"/>
-      <c r="C4683" s="1"/>
+      <c r="B4683" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4683" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4684">
       <c r="A4684" s="6" t="n">
         <v>44846.739583333336</v>
       </c>
-      <c r="B4684" s="1"/>
-      <c r="C4684" s="1"/>
+      <c r="B4684" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4684" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="4685">
       <c r="A4685" s="6" t="n">
         <v>44846.75</v>
       </c>
-      <c r="B4685" s="1"/>
-      <c r="C4685" s="1"/>
+      <c r="B4685" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4685" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4686">
       <c r="A4686" s="6" t="n">
         <v>44846.760416666664</v>
       </c>
-      <c r="B4686" s="1"/>
-      <c r="C4686" s="1"/>
+      <c r="B4686" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4686" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4687">
       <c r="A4687" s="6" t="n">
         <v>44846.770833333336</v>
       </c>
-      <c r="B4687" s="1"/>
-      <c r="C4687" s="1"/>
+      <c r="B4687" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4687" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4688">
       <c r="A4688" s="6" t="n">
         <v>44846.78125</v>
       </c>
-      <c r="B4688" s="1"/>
-      <c r="C4688" s="1"/>
+      <c r="B4688" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4688" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4689">
       <c r="A4689" s="6" t="n">
         <v>44846.791666666664</v>
       </c>
-      <c r="B4689" s="1"/>
-      <c r="C4689" s="1"/>
+      <c r="B4689" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4689" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4690">
       <c r="A4690" s="6" t="n">
         <v>44846.802083333336</v>
       </c>
-      <c r="B4690" s="1"/>
-      <c r="C4690" s="1"/>
+      <c r="B4690" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4690" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4691">
       <c r="A4691" s="6" t="n">
         <v>44846.8125</v>
       </c>
-      <c r="B4691" s="1"/>
-      <c r="C4691" s="1"/>
+      <c r="B4691" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4691" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4692">
       <c r="A4692" s="6" t="n">
         <v>44846.822916666664</v>
       </c>
-      <c r="B4692" s="1"/>
-      <c r="C4692" s="1"/>
+      <c r="B4692" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4692" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4693">
       <c r="A4693" s="6" t="n">
         <v>44846.833333333336</v>
       </c>
-      <c r="B4693" s="1"/>
-      <c r="C4693" s="1"/>
+      <c r="B4693" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4693" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4694">
       <c r="A4694" s="6" t="n">
         <v>44846.84375</v>
       </c>
-      <c r="B4694" s="1"/>
-      <c r="C4694" s="1"/>
+      <c r="B4694" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4694" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4695">
       <c r="A4695" s="6" t="n">
         <v>44846.854166666664</v>
       </c>
-      <c r="B4695" s="1"/>
-      <c r="C4695" s="1"/>
+      <c r="B4695" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4695" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4696">
       <c r="A4696" s="6" t="n">
         <v>44846.864583333336</v>
       </c>
-      <c r="B4696" s="1"/>
-      <c r="C4696" s="1"/>
+      <c r="B4696" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4696" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4697">
       <c r="A4697" s="6" t="n">
         <v>44846.875</v>
       </c>
-      <c r="B4697" s="1"/>
-      <c r="C4697" s="1"/>
+      <c r="B4697" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4697" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4698">
       <c r="A4698" s="6" t="n">
         <v>44846.885416666664</v>
       </c>
-      <c r="B4698" s="1"/>
-      <c r="C4698" s="1"/>
+      <c r="B4698" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4698" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4699">
       <c r="A4699" s="6" t="n">
         <v>44846.895833333336</v>
       </c>
-      <c r="B4699" s="1"/>
-      <c r="C4699" s="1"/>
+      <c r="B4699" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4699" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4700">
       <c r="A4700" s="6" t="n">
         <v>44846.90625</v>
       </c>
-      <c r="B4700" s="1"/>
-      <c r="C4700" s="1"/>
+      <c r="B4700" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4700" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4701">
       <c r="A4701" s="6" t="n">
         <v>44846.916666666664</v>
       </c>
-      <c r="B4701" s="1"/>
-      <c r="C4701" s="1"/>
+      <c r="B4701" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4701" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4702">
       <c r="A4702" s="6" t="n">
         <v>44846.927083333336</v>
       </c>
-      <c r="B4702" s="1"/>
-      <c r="C4702" s="1"/>
+      <c r="B4702" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4702" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4703">
       <c r="A4703" s="6" t="n">
         <v>44846.9375</v>
       </c>
-      <c r="B4703" s="1"/>
-      <c r="C4703" s="1"/>
+      <c r="B4703" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4703" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4704">
       <c r="A4704" s="6" t="n">
         <v>44846.947916666664</v>
       </c>
-      <c r="B4704" s="1"/>
-      <c r="C4704" s="1"/>
+      <c r="B4704" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4704" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4705">
       <c r="A4705" s="6" t="n">
         <v>44846.958333333336</v>
       </c>
-      <c r="B4705" s="1"/>
-      <c r="C4705" s="1"/>
+      <c r="B4705" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4705" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4706">
       <c r="A4706" s="6" t="n">
         <v>44846.96875</v>
       </c>
-      <c r="B4706" s="1"/>
-      <c r="C4706" s="1"/>
+      <c r="B4706" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4706" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4707">
       <c r="A4707" s="6" t="n">
         <v>44846.979166666664</v>
       </c>
-      <c r="B4707" s="1"/>
-      <c r="C4707" s="1"/>
+      <c r="B4707" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4707" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4708">
       <c r="A4708" s="6" t="n">
         <v>44846.989583333336</v>
       </c>
-      <c r="B4708" s="1"/>
-      <c r="C4708" s="1"/>
+      <c r="B4708" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4708" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4709">
+      <c r="A4709" s="6" t="n">
+        <v>44847.0</v>
+      </c>
+      <c r="B4709" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4709" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4710">
+      <c r="A4710" s="6" t="n">
+        <v>44847.010416666664</v>
+      </c>
+      <c r="B4710" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4710" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4711">
+      <c r="A4711" s="6" t="n">
+        <v>44847.020833333336</v>
+      </c>
+      <c r="B4711" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4711" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4712">
+      <c r="A4712" s="6" t="n">
+        <v>44847.03125</v>
+      </c>
+      <c r="B4712" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4712" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4713">
+      <c r="A4713" s="6" t="n">
+        <v>44847.041666666664</v>
+      </c>
+      <c r="B4713" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4713" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4714">
+      <c r="A4714" s="6" t="n">
+        <v>44847.052083333336</v>
+      </c>
+      <c r="B4714" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4714" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4715">
+      <c r="A4715" s="6" t="n">
+        <v>44847.0625</v>
+      </c>
+      <c r="B4715" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4715" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4716">
+      <c r="A4716" s="6" t="n">
+        <v>44847.072916666664</v>
+      </c>
+      <c r="B4716" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4716" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4717">
+      <c r="A4717" s="6" t="n">
+        <v>44847.083333333336</v>
+      </c>
+      <c r="B4717" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4717" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4718">
+      <c r="A4718" s="6" t="n">
+        <v>44847.09375</v>
+      </c>
+      <c r="B4718" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4718" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4719">
+      <c r="A4719" s="6" t="n">
+        <v>44847.104166666664</v>
+      </c>
+      <c r="B4719" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4719" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4720">
+      <c r="A4720" s="6" t="n">
+        <v>44847.114583333336</v>
+      </c>
+      <c r="B4720" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4720" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4721">
+      <c r="A4721" s="6" t="n">
+        <v>44847.125</v>
+      </c>
+      <c r="B4721" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4721" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4722">
+      <c r="A4722" s="6" t="n">
+        <v>44847.135416666664</v>
+      </c>
+      <c r="B4722" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4722" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4723">
+      <c r="A4723" s="6" t="n">
+        <v>44847.145833333336</v>
+      </c>
+      <c r="B4723" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4723" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4724">
+      <c r="A4724" s="6" t="n">
+        <v>44847.15625</v>
+      </c>
+      <c r="B4724" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4724" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4725">
+      <c r="A4725" s="6" t="n">
+        <v>44847.166666666664</v>
+      </c>
+      <c r="B4725" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4725" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4726">
+      <c r="A4726" s="6" t="n">
+        <v>44847.177083333336</v>
+      </c>
+      <c r="B4726" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4726" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4727">
+      <c r="A4727" s="6" t="n">
+        <v>44847.1875</v>
+      </c>
+      <c r="B4727" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4727" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4728">
+      <c r="A4728" s="6" t="n">
+        <v>44847.197916666664</v>
+      </c>
+      <c r="B4728" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4728" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4729">
+      <c r="A4729" s="6" t="n">
+        <v>44847.208333333336</v>
+      </c>
+      <c r="B4729" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4729" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4730">
+      <c r="A4730" s="6" t="n">
+        <v>44847.21875</v>
+      </c>
+      <c r="B4730" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4730" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4731">
+      <c r="A4731" s="6" t="n">
+        <v>44847.229166666664</v>
+      </c>
+      <c r="B4731" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4731" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4732">
+      <c r="A4732" s="6" t="n">
+        <v>44847.239583333336</v>
+      </c>
+      <c r="B4732" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4732" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4733">
+      <c r="A4733" s="6" t="n">
+        <v>44847.25</v>
+      </c>
+      <c r="B4733" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4733" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4734">
+      <c r="A4734" s="6" t="n">
+        <v>44847.260416666664</v>
+      </c>
+      <c r="B4734" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4734" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4735">
+      <c r="A4735" s="6" t="n">
+        <v>44847.270833333336</v>
+      </c>
+      <c r="B4735" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4735" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4736">
+      <c r="A4736" s="6" t="n">
+        <v>44847.28125</v>
+      </c>
+      <c r="B4736" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4736" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4737">
+      <c r="A4737" s="6" t="n">
+        <v>44847.291666666664</v>
+      </c>
+      <c r="B4737" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4737" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4738">
+      <c r="A4738" s="6" t="n">
+        <v>44847.302083333336</v>
+      </c>
+      <c r="B4738" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4738" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4739">
+      <c r="A4739" s="6" t="n">
+        <v>44847.3125</v>
+      </c>
+      <c r="B4739" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4739" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4740">
+      <c r="A4740" s="6" t="n">
+        <v>44847.322916666664</v>
+      </c>
+      <c r="B4740" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4740" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4741">
+      <c r="A4741" s="6" t="n">
+        <v>44847.333333333336</v>
+      </c>
+      <c r="B4741" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4741" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4742">
+      <c r="A4742" s="6" t="n">
+        <v>44847.34375</v>
+      </c>
+      <c r="B4742" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4742" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4743">
+      <c r="A4743" s="6" t="n">
+        <v>44847.354166666664</v>
+      </c>
+      <c r="B4743" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4743" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4744">
+      <c r="A4744" s="6" t="n">
+        <v>44847.364583333336</v>
+      </c>
+      <c r="B4744" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4744" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4745">
+      <c r="A4745" s="6" t="n">
+        <v>44847.375</v>
+      </c>
+      <c r="B4745" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4745" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4746">
+      <c r="A4746" s="6" t="n">
+        <v>44847.385416666664</v>
+      </c>
+      <c r="B4746" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4746" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4747">
+      <c r="A4747" s="6" t="n">
+        <v>44847.395833333336</v>
+      </c>
+      <c r="B4747" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4747" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4748">
+      <c r="A4748" s="6" t="n">
+        <v>44847.40625</v>
+      </c>
+      <c r="B4748" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4748" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4749">
+      <c r="A4749" s="6" t="n">
+        <v>44847.416666666664</v>
+      </c>
+      <c r="B4749" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4749" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4750">
+      <c r="A4750" s="6" t="n">
+        <v>44847.427083333336</v>
+      </c>
+      <c r="B4750" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4750" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4751">
+      <c r="A4751" s="6" t="n">
+        <v>44847.4375</v>
+      </c>
+      <c r="B4751" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4751" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4752">
+      <c r="A4752" s="6" t="n">
+        <v>44847.447916666664</v>
+      </c>
+      <c r="B4752" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4752" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4753">
+      <c r="A4753" s="6" t="n">
+        <v>44847.458333333336</v>
+      </c>
+      <c r="B4753" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4753" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4754">
+      <c r="A4754" s="6" t="n">
+        <v>44847.46875</v>
+      </c>
+      <c r="B4754" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4754" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4755">
+      <c r="A4755" s="6" t="n">
+        <v>44847.479166666664</v>
+      </c>
+      <c r="B4755" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4755" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4756">
+      <c r="A4756" s="6" t="n">
+        <v>44847.489583333336</v>
+      </c>
+      <c r="B4756" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4756" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4757">
+      <c r="A4757" s="6" t="n">
+        <v>44847.5</v>
+      </c>
+      <c r="B4757" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4757" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4758">
+      <c r="A4758" s="6" t="n">
+        <v>44847.510416666664</v>
+      </c>
+      <c r="B4758" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4758" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4759">
+      <c r="A4759" s="6" t="n">
+        <v>44847.520833333336</v>
+      </c>
+      <c r="B4759" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4759" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4760">
+      <c r="A4760" s="6" t="n">
+        <v>44847.53125</v>
+      </c>
+      <c r="B4760" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4760" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4761">
+      <c r="A4761" s="6" t="n">
+        <v>44847.541666666664</v>
+      </c>
+      <c r="B4761" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4761" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4762">
+      <c r="A4762" s="6" t="n">
+        <v>44847.552083333336</v>
+      </c>
+      <c r="B4762" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4762" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4763">
+      <c r="A4763" s="6" t="n">
+        <v>44847.5625</v>
+      </c>
+      <c r="B4763" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4763" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4764">
+      <c r="A4764" s="6" t="n">
+        <v>44847.572916666664</v>
+      </c>
+      <c r="B4764" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4764" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4765">
+      <c r="A4765" s="6" t="n">
+        <v>44847.583333333336</v>
+      </c>
+      <c r="B4765" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4765" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4766">
+      <c r="A4766" s="6" t="n">
+        <v>44847.59375</v>
+      </c>
+      <c r="B4766" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4766" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4767">
+      <c r="A4767" s="6" t="n">
+        <v>44847.604166666664</v>
+      </c>
+      <c r="B4767" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4767" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4768">
+      <c r="A4768" s="6" t="n">
+        <v>44847.614583333336</v>
+      </c>
+      <c r="B4768" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4768" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4769">
+      <c r="A4769" s="6" t="n">
+        <v>44847.625</v>
+      </c>
+      <c r="B4769" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4769" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4770">
+      <c r="A4770" s="6" t="n">
+        <v>44847.635416666664</v>
+      </c>
+      <c r="B4770" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4770" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4771">
+      <c r="A4771" s="6" t="n">
+        <v>44847.645833333336</v>
+      </c>
+      <c r="B4771" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4771" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4772">
+      <c r="A4772" s="6" t="n">
+        <v>44847.65625</v>
+      </c>
+      <c r="B4772" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4772" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4773">
+      <c r="A4773" s="6" t="n">
+        <v>44847.666666666664</v>
+      </c>
+      <c r="B4773" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4773" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4774">
+      <c r="A4774" s="6" t="n">
+        <v>44847.677083333336</v>
+      </c>
+      <c r="B4774" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4774" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4775">
+      <c r="A4775" s="6" t="n">
+        <v>44847.6875</v>
+      </c>
+      <c r="B4775" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4775" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4776">
+      <c r="A4776" s="6" t="n">
+        <v>44847.697916666664</v>
+      </c>
+      <c r="B4776" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4776" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4777">
+      <c r="A4777" s="6" t="n">
+        <v>44847.708333333336</v>
+      </c>
+      <c r="B4777" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4777" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4778">
+      <c r="A4778" s="6" t="n">
+        <v>44847.71875</v>
+      </c>
+      <c r="B4778" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4778" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4779">
+      <c r="A4779" s="6" t="n">
+        <v>44847.729166666664</v>
+      </c>
+      <c r="B4779" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4779" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4780">
+      <c r="A4780" s="6" t="n">
+        <v>44847.739583333336</v>
+      </c>
+      <c r="B4780" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4780" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4781">
+      <c r="A4781" s="6" t="n">
+        <v>44847.75</v>
+      </c>
+      <c r="B4781" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4781" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4782">
+      <c r="A4782" s="6" t="n">
+        <v>44847.760416666664</v>
+      </c>
+      <c r="B4782" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4782" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4783">
+      <c r="A4783" s="6" t="n">
+        <v>44847.770833333336</v>
+      </c>
+      <c r="B4783" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4783" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4784">
+      <c r="A4784" s="6" t="n">
+        <v>44847.78125</v>
+      </c>
+      <c r="B4784" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4784" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4785">
+      <c r="A4785" s="6" t="n">
+        <v>44847.791666666664</v>
+      </c>
+      <c r="B4785" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4785" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4786">
+      <c r="A4786" s="6" t="n">
+        <v>44847.802083333336</v>
+      </c>
+      <c r="B4786" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4786" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4787">
+      <c r="A4787" s="6" t="n">
+        <v>44847.8125</v>
+      </c>
+      <c r="B4787" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4787" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4788">
+      <c r="A4788" s="6" t="n">
+        <v>44847.822916666664</v>
+      </c>
+      <c r="B4788" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4788" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4789">
+      <c r="A4789" s="6" t="n">
+        <v>44847.833333333336</v>
+      </c>
+      <c r="B4789" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4789" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4790">
+      <c r="A4790" s="6" t="n">
+        <v>44847.84375</v>
+      </c>
+      <c r="B4790" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4790" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4791">
+      <c r="A4791" s="6" t="n">
+        <v>44847.854166666664</v>
+      </c>
+      <c r="B4791" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4791" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4792">
+      <c r="A4792" s="6" t="n">
+        <v>44847.864583333336</v>
+      </c>
+      <c r="B4792" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4792" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4793">
+      <c r="A4793" s="6" t="n">
+        <v>44847.875</v>
+      </c>
+      <c r="B4793" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4793" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4794">
+      <c r="A4794" s="6" t="n">
+        <v>44847.885416666664</v>
+      </c>
+      <c r="B4794" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4794" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4795">
+      <c r="A4795" s="6" t="n">
+        <v>44847.895833333336</v>
+      </c>
+      <c r="B4795" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4795" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4796">
+      <c r="A4796" s="6" t="n">
+        <v>44847.90625</v>
+      </c>
+      <c r="B4796" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4796" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4797">
+      <c r="A4797" s="6" t="n">
+        <v>44847.916666666664</v>
+      </c>
+      <c r="B4797" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4797" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4798">
+      <c r="A4798" s="6" t="n">
+        <v>44847.927083333336</v>
+      </c>
+      <c r="B4798" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4798" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4799">
+      <c r="A4799" s="6" t="n">
+        <v>44847.9375</v>
+      </c>
+      <c r="B4799" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4799" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4800">
+      <c r="A4800" s="6" t="n">
+        <v>44847.947916666664</v>
+      </c>
+      <c r="B4800" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4800" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4801">
+      <c r="A4801" s="6" t="n">
+        <v>44847.958333333336</v>
+      </c>
+      <c r="B4801" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4801" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4802">
+      <c r="A4802" s="6" t="n">
+        <v>44847.96875</v>
+      </c>
+      <c r="B4802" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4802" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4803">
+      <c r="A4803" s="6" t="n">
+        <v>44847.979166666664</v>
+      </c>
+      <c r="B4803" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4803" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4804">
+      <c r="A4804" s="6" t="n">
+        <v>44847.989583333336</v>
+      </c>
+      <c r="B4804" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4804" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4805">
+      <c r="A4805" s="6" t="n">
+        <v>44848.0</v>
+      </c>
+      <c r="B4805" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4805" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4806">
+      <c r="A4806" s="6" t="n">
+        <v>44848.010416666664</v>
+      </c>
+      <c r="B4806" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4806" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4807">
+      <c r="A4807" s="6" t="n">
+        <v>44848.020833333336</v>
+      </c>
+      <c r="B4807" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4807" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4808">
+      <c r="A4808" s="6" t="n">
+        <v>44848.03125</v>
+      </c>
+      <c r="B4808" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4808" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4809">
+      <c r="A4809" s="6" t="n">
+        <v>44848.041666666664</v>
+      </c>
+      <c r="B4809" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4809" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4810">
+      <c r="A4810" s="6" t="n">
+        <v>44848.052083333336</v>
+      </c>
+      <c r="B4810" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4810" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4811">
+      <c r="A4811" s="6" t="n">
+        <v>44848.0625</v>
+      </c>
+      <c r="B4811" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4811" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4812">
+      <c r="A4812" s="6" t="n">
+        <v>44848.072916666664</v>
+      </c>
+      <c r="B4812" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4812" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4813">
+      <c r="A4813" s="6" t="n">
+        <v>44848.083333333336</v>
+      </c>
+      <c r="B4813" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4813" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4814">
+      <c r="A4814" s="6" t="n">
+        <v>44848.09375</v>
+      </c>
+      <c r="B4814" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4814" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4815">
+      <c r="A4815" s="6" t="n">
+        <v>44848.104166666664</v>
+      </c>
+      <c r="B4815" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4815" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4816">
+      <c r="A4816" s="6" t="n">
+        <v>44848.114583333336</v>
+      </c>
+      <c r="B4816" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4816" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4817">
+      <c r="A4817" s="6" t="n">
+        <v>44848.125</v>
+      </c>
+      <c r="B4817" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4817" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4818">
+      <c r="A4818" s="6" t="n">
+        <v>44848.135416666664</v>
+      </c>
+      <c r="B4818" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4818" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4819">
+      <c r="A4819" s="6" t="n">
+        <v>44848.145833333336</v>
+      </c>
+      <c r="B4819" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4819" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4820">
+      <c r="A4820" s="6" t="n">
+        <v>44848.15625</v>
+      </c>
+      <c r="B4820" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4820" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4821">
+      <c r="A4821" s="6" t="n">
+        <v>44848.166666666664</v>
+      </c>
+      <c r="B4821" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4821" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4822">
+      <c r="A4822" s="6" t="n">
+        <v>44848.177083333336</v>
+      </c>
+      <c r="B4822" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4822" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4823">
+      <c r="A4823" s="6" t="n">
+        <v>44848.1875</v>
+      </c>
+      <c r="B4823" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4823" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4824">
+      <c r="A4824" s="6" t="n">
+        <v>44848.197916666664</v>
+      </c>
+      <c r="B4824" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4824" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4825">
+      <c r="A4825" s="6" t="n">
+        <v>44848.208333333336</v>
+      </c>
+      <c r="B4825" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4825" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4826">
+      <c r="A4826" s="6" t="n">
+        <v>44848.21875</v>
+      </c>
+      <c r="B4826" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4826" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4827">
+      <c r="A4827" s="6" t="n">
+        <v>44848.229166666664</v>
+      </c>
+      <c r="B4827" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4827" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4828">
+      <c r="A4828" s="6" t="n">
+        <v>44848.239583333336</v>
+      </c>
+      <c r="B4828" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4828" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4829">
+      <c r="A4829" s="6" t="n">
+        <v>44848.25</v>
+      </c>
+      <c r="B4829" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4829" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4830">
+      <c r="A4830" s="6" t="n">
+        <v>44848.260416666664</v>
+      </c>
+      <c r="B4830" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4830" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4831">
+      <c r="A4831" s="6" t="n">
+        <v>44848.270833333336</v>
+      </c>
+      <c r="B4831" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4831" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4832">
+      <c r="A4832" s="6" t="n">
+        <v>44848.28125</v>
+      </c>
+      <c r="B4832" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4832" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4833">
+      <c r="A4833" s="6" t="n">
+        <v>44848.291666666664</v>
+      </c>
+      <c r="B4833" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4833" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4834">
+      <c r="A4834" s="6" t="n">
+        <v>44848.302083333336</v>
+      </c>
+      <c r="B4834" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4834" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4835">
+      <c r="A4835" s="6" t="n">
+        <v>44848.3125</v>
+      </c>
+      <c r="B4835" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4835" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4836">
+      <c r="A4836" s="6" t="n">
+        <v>44848.322916666664</v>
+      </c>
+      <c r="B4836" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4836" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4837">
+      <c r="A4837" s="6" t="n">
+        <v>44848.333333333336</v>
+      </c>
+      <c r="B4837" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4837" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4838">
+      <c r="A4838" s="6" t="n">
+        <v>44848.34375</v>
+      </c>
+      <c r="B4838" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4838" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4839">
+      <c r="A4839" s="6" t="n">
+        <v>44848.354166666664</v>
+      </c>
+      <c r="B4839" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4839" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4840">
+      <c r="A4840" s="6" t="n">
+        <v>44848.364583333336</v>
+      </c>
+      <c r="B4840" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4840" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4841">
+      <c r="A4841" s="6" t="n">
+        <v>44848.375</v>
+      </c>
+      <c r="B4841" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4841" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4842">
+      <c r="A4842" s="6" t="n">
+        <v>44848.385416666664</v>
+      </c>
+      <c r="B4842" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4842" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4843">
+      <c r="A4843" s="6" t="n">
+        <v>44848.395833333336</v>
+      </c>
+      <c r="B4843" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4843" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4844">
+      <c r="A4844" s="6" t="n">
+        <v>44848.40625</v>
+      </c>
+      <c r="B4844" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4844" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4845">
+      <c r="A4845" s="6" t="n">
+        <v>44848.416666666664</v>
+      </c>
+      <c r="B4845" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4845" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4846">
+      <c r="A4846" s="6" t="n">
+        <v>44848.427083333336</v>
+      </c>
+      <c r="B4846" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4846" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4847">
+      <c r="A4847" s="6" t="n">
+        <v>44848.4375</v>
+      </c>
+      <c r="B4847" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4847" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4848">
+      <c r="A4848" s="6" t="n">
+        <v>44848.447916666664</v>
+      </c>
+      <c r="B4848" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4848" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4849">
+      <c r="A4849" s="6" t="n">
+        <v>44848.458333333336</v>
+      </c>
+      <c r="B4849" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4849" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4850">
+      <c r="A4850" s="6" t="n">
+        <v>44848.46875</v>
+      </c>
+      <c r="B4850" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4850" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4851">
+      <c r="A4851" s="6" t="n">
+        <v>44848.479166666664</v>
+      </c>
+      <c r="B4851" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4851" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4852">
+      <c r="A4852" s="6" t="n">
+        <v>44848.489583333336</v>
+      </c>
+      <c r="B4852" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4852" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4853">
+      <c r="A4853" s="6" t="n">
+        <v>44848.5</v>
+      </c>
+      <c r="B4853" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4853" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4854">
+      <c r="A4854" s="6" t="n">
+        <v>44848.510416666664</v>
+      </c>
+      <c r="B4854" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4854" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4855">
+      <c r="A4855" s="6" t="n">
+        <v>44848.520833333336</v>
+      </c>
+      <c r="B4855" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4855" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4856">
+      <c r="A4856" s="6" t="n">
+        <v>44848.53125</v>
+      </c>
+      <c r="B4856" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4856" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4857">
+      <c r="A4857" s="6" t="n">
+        <v>44848.541666666664</v>
+      </c>
+      <c r="B4857" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4857" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4858">
+      <c r="A4858" s="6" t="n">
+        <v>44848.552083333336</v>
+      </c>
+      <c r="B4858" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4858" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4859">
+      <c r="A4859" s="6" t="n">
+        <v>44848.5625</v>
+      </c>
+      <c r="B4859" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4859" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4860">
+      <c r="A4860" s="6" t="n">
+        <v>44848.572916666664</v>
+      </c>
+      <c r="B4860" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4860" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4861">
+      <c r="A4861" s="6" t="n">
+        <v>44848.583333333336</v>
+      </c>
+      <c r="B4861" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4861" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4862">
+      <c r="A4862" s="6" t="n">
+        <v>44848.59375</v>
+      </c>
+      <c r="B4862" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4862" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4863">
+      <c r="A4863" s="6" t="n">
+        <v>44848.604166666664</v>
+      </c>
+      <c r="B4863" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4863" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4864">
+      <c r="A4864" s="6" t="n">
+        <v>44848.614583333336</v>
+      </c>
+      <c r="B4864" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4864" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4865">
+      <c r="A4865" s="6" t="n">
+        <v>44848.625</v>
+      </c>
+      <c r="B4865" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4865" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4866">
+      <c r="A4866" s="6" t="n">
+        <v>44848.635416666664</v>
+      </c>
+      <c r="B4866" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4866" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4867">
+      <c r="A4867" s="6" t="n">
+        <v>44848.645833333336</v>
+      </c>
+      <c r="B4867" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4867" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4868">
+      <c r="A4868" s="6" t="n">
+        <v>44848.65625</v>
+      </c>
+      <c r="B4868" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4868" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4869">
+      <c r="A4869" s="6" t="n">
+        <v>44848.666666666664</v>
+      </c>
+      <c r="B4869" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4869" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4870">
+      <c r="A4870" s="6" t="n">
+        <v>44848.677083333336</v>
+      </c>
+      <c r="B4870" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4870" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4871">
+      <c r="A4871" s="6" t="n">
+        <v>44848.6875</v>
+      </c>
+      <c r="B4871" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4871" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4872">
+      <c r="A4872" s="6" t="n">
+        <v>44848.697916666664</v>
+      </c>
+      <c r="B4872" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4872" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4873">
+      <c r="A4873" s="6" t="n">
+        <v>44848.708333333336</v>
+      </c>
+      <c r="B4873" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C4873" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4874">
+      <c r="A4874" s="6" t="n">
+        <v>44848.71875</v>
+      </c>
+      <c r="B4874" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4874" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4875">
+      <c r="A4875" s="6" t="n">
+        <v>44848.729166666664</v>
+      </c>
+      <c r="B4875" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4875" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4876">
+      <c r="A4876" s="6" t="n">
+        <v>44848.739583333336</v>
+      </c>
+      <c r="B4876" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4876" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4877">
+      <c r="A4877" s="6" t="n">
+        <v>44848.75</v>
+      </c>
+      <c r="B4877" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4877" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4878">
+      <c r="A4878" s="6" t="n">
+        <v>44848.760416666664</v>
+      </c>
+      <c r="B4878" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4878" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4879">
+      <c r="A4879" s="6" t="n">
+        <v>44848.770833333336</v>
+      </c>
+      <c r="B4879" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4879" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4880">
+      <c r="A4880" s="6" t="n">
+        <v>44848.78125</v>
+      </c>
+      <c r="B4880" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4880" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4881">
+      <c r="A4881" s="6" t="n">
+        <v>44848.791666666664</v>
+      </c>
+      <c r="B4881" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4881" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4882">
+      <c r="A4882" s="6" t="n">
+        <v>44848.802083333336</v>
+      </c>
+      <c r="B4882" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4882" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4883">
+      <c r="A4883" s="6" t="n">
+        <v>44848.8125</v>
+      </c>
+      <c r="B4883" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4883" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4884">
+      <c r="A4884" s="6" t="n">
+        <v>44848.822916666664</v>
+      </c>
+      <c r="B4884" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4884" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4885">
+      <c r="A4885" s="6" t="n">
+        <v>44848.833333333336</v>
+      </c>
+      <c r="B4885" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4885" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4886">
+      <c r="A4886" s="6" t="n">
+        <v>44848.84375</v>
+      </c>
+      <c r="B4886" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4886" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4887">
+      <c r="A4887" s="6" t="n">
+        <v>44848.854166666664</v>
+      </c>
+      <c r="B4887" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4887" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4888">
+      <c r="A4888" s="6" t="n">
+        <v>44848.864583333336</v>
+      </c>
+      <c r="B4888" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4888" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4889">
+      <c r="A4889" s="6" t="n">
+        <v>44848.875</v>
+      </c>
+      <c r="B4889" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4889" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4890">
+      <c r="A4890" s="6" t="n">
+        <v>44848.885416666664</v>
+      </c>
+      <c r="B4890" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4890" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4891">
+      <c r="A4891" s="6" t="n">
+        <v>44848.895833333336</v>
+      </c>
+      <c r="B4891" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4891" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4892">
+      <c r="A4892" s="6" t="n">
+        <v>44848.90625</v>
+      </c>
+      <c r="B4892" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4892" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4893">
+      <c r="A4893" s="6" t="n">
+        <v>44848.916666666664</v>
+      </c>
+      <c r="B4893" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4893" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4894">
+      <c r="A4894" s="6" t="n">
+        <v>44848.927083333336</v>
+      </c>
+      <c r="B4894" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4894" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4895">
+      <c r="A4895" s="6" t="n">
+        <v>44848.9375</v>
+      </c>
+      <c r="B4895" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4895" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4896">
+      <c r="A4896" s="6" t="n">
+        <v>44848.947916666664</v>
+      </c>
+      <c r="B4896" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4896" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4897">
+      <c r="A4897" s="6" t="n">
+        <v>44848.958333333336</v>
+      </c>
+      <c r="B4897" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4897" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4898">
+      <c r="A4898" s="6" t="n">
+        <v>44848.96875</v>
+      </c>
+      <c r="B4898" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4898" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4899">
+      <c r="A4899" s="6" t="n">
+        <v>44848.979166666664</v>
+      </c>
+      <c r="B4899" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4899" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4900">
+      <c r="A4900" s="6" t="n">
+        <v>44848.989583333336</v>
+      </c>
+      <c r="B4900" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4900" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4901">
+      <c r="A4901" s="6" t="n">
+        <v>44849.0</v>
+      </c>
+      <c r="B4901" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4901" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4902">
+      <c r="A4902" s="6" t="n">
+        <v>44849.010416666664</v>
+      </c>
+      <c r="B4902" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4902" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4903">
+      <c r="A4903" s="6" t="n">
+        <v>44849.020833333336</v>
+      </c>
+      <c r="B4903" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4903" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4904">
+      <c r="A4904" s="6" t="n">
+        <v>44849.03125</v>
+      </c>
+      <c r="B4904" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4904" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4905">
+      <c r="A4905" s="6" t="n">
+        <v>44849.041666666664</v>
+      </c>
+      <c r="B4905" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4905" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4906">
+      <c r="A4906" s="6" t="n">
+        <v>44849.052083333336</v>
+      </c>
+      <c r="B4906" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4906" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4907">
+      <c r="A4907" s="6" t="n">
+        <v>44849.0625</v>
+      </c>
+      <c r="B4907" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4907" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4908">
+      <c r="A4908" s="6" t="n">
+        <v>44849.072916666664</v>
+      </c>
+      <c r="B4908" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4908" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4909">
+      <c r="A4909" s="6" t="n">
+        <v>44849.083333333336</v>
+      </c>
+      <c r="B4909" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4909" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4910">
+      <c r="A4910" s="6" t="n">
+        <v>44849.09375</v>
+      </c>
+      <c r="B4910" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4910" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4911">
+      <c r="A4911" s="6" t="n">
+        <v>44849.104166666664</v>
+      </c>
+      <c r="B4911" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4911" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4912">
+      <c r="A4912" s="6" t="n">
+        <v>44849.114583333336</v>
+      </c>
+      <c r="B4912" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4912" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4913">
+      <c r="A4913" s="6" t="n">
+        <v>44849.125</v>
+      </c>
+      <c r="B4913" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4913" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4914">
+      <c r="A4914" s="6" t="n">
+        <v>44849.135416666664</v>
+      </c>
+      <c r="B4914" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4914" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4915">
+      <c r="A4915" s="6" t="n">
+        <v>44849.145833333336</v>
+      </c>
+      <c r="B4915" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4915" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4916">
+      <c r="A4916" s="6" t="n">
+        <v>44849.15625</v>
+      </c>
+      <c r="B4916" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4916" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4917">
+      <c r="A4917" s="6" t="n">
+        <v>44849.166666666664</v>
+      </c>
+      <c r="B4917" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4917" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4918">
+      <c r="A4918" s="6" t="n">
+        <v>44849.177083333336</v>
+      </c>
+      <c r="B4918" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4918" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4919">
+      <c r="A4919" s="6" t="n">
+        <v>44849.1875</v>
+      </c>
+      <c r="B4919" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4919" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4920">
+      <c r="A4920" s="6" t="n">
+        <v>44849.197916666664</v>
+      </c>
+      <c r="B4920" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4920" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4921">
+      <c r="A4921" s="6" t="n">
+        <v>44849.208333333336</v>
+      </c>
+      <c r="B4921" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4921" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4922">
+      <c r="A4922" s="6" t="n">
+        <v>44849.21875</v>
+      </c>
+      <c r="B4922" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4922" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4923">
+      <c r="A4923" s="6" t="n">
+        <v>44849.229166666664</v>
+      </c>
+      <c r="B4923" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4923" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4924">
+      <c r="A4924" s="6" t="n">
+        <v>44849.239583333336</v>
+      </c>
+      <c r="B4924" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4924" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4925">
+      <c r="A4925" s="6" t="n">
+        <v>44849.25</v>
+      </c>
+      <c r="B4925" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4925" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4926">
+      <c r="A4926" s="6" t="n">
+        <v>44849.260416666664</v>
+      </c>
+      <c r="B4926" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4926" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4927">
+      <c r="A4927" s="6" t="n">
+        <v>44849.270833333336</v>
+      </c>
+      <c r="B4927" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4927" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4928">
+      <c r="A4928" s="6" t="n">
+        <v>44849.28125</v>
+      </c>
+      <c r="B4928" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4928" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4929">
+      <c r="A4929" s="6" t="n">
+        <v>44849.291666666664</v>
+      </c>
+      <c r="B4929" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4929" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4930">
+      <c r="A4930" s="6" t="n">
+        <v>44849.302083333336</v>
+      </c>
+      <c r="B4930" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4930" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4931">
+      <c r="A4931" s="6" t="n">
+        <v>44849.3125</v>
+      </c>
+      <c r="B4931" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4931" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4932">
+      <c r="A4932" s="6" t="n">
+        <v>44849.322916666664</v>
+      </c>
+      <c r="B4932" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4932" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4933">
+      <c r="A4933" s="6" t="n">
+        <v>44849.333333333336</v>
+      </c>
+      <c r="B4933" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4933" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4934">
+      <c r="A4934" s="6" t="n">
+        <v>44849.34375</v>
+      </c>
+      <c r="B4934" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4934" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4935">
+      <c r="A4935" s="6" t="n">
+        <v>44849.354166666664</v>
+      </c>
+      <c r="B4935" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4935" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4936">
+      <c r="A4936" s="6" t="n">
+        <v>44849.364583333336</v>
+      </c>
+      <c r="B4936" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4936" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4937">
+      <c r="A4937" s="6" t="n">
+        <v>44849.375</v>
+      </c>
+      <c r="B4937" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4937" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4938">
+      <c r="A4938" s="6" t="n">
+        <v>44849.385416666664</v>
+      </c>
+      <c r="B4938" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4938" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4939">
+      <c r="A4939" s="6" t="n">
+        <v>44849.395833333336</v>
+      </c>
+      <c r="B4939" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4939" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4940">
+      <c r="A4940" s="6" t="n">
+        <v>44849.40625</v>
+      </c>
+      <c r="B4940" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4940" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4941">
+      <c r="A4941" s="6" t="n">
+        <v>44849.416666666664</v>
+      </c>
+      <c r="B4941" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4941" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4942">
+      <c r="A4942" s="6" t="n">
+        <v>44849.427083333336</v>
+      </c>
+      <c r="B4942" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4942" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4943">
+      <c r="A4943" s="6" t="n">
+        <v>44849.4375</v>
+      </c>
+      <c r="B4943" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4943" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4944">
+      <c r="A4944" s="6" t="n">
+        <v>44849.447916666664</v>
+      </c>
+      <c r="B4944" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4944" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4945">
+      <c r="A4945" s="6" t="n">
+        <v>44849.458333333336</v>
+      </c>
+      <c r="B4945" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4945" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4946">
+      <c r="A4946" s="6" t="n">
+        <v>44849.46875</v>
+      </c>
+      <c r="B4946" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4946" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4947">
+      <c r="A4947" s="6" t="n">
+        <v>44849.479166666664</v>
+      </c>
+      <c r="B4947" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4947" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4948">
+      <c r="A4948" s="6" t="n">
+        <v>44849.489583333336</v>
+      </c>
+      <c r="B4948" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4948" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4949">
+      <c r="A4949" s="6" t="n">
+        <v>44849.5</v>
+      </c>
+      <c r="B4949" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4949" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4950">
+      <c r="A4950" s="6" t="n">
+        <v>44849.510416666664</v>
+      </c>
+      <c r="B4950" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4950" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4951">
+      <c r="A4951" s="6" t="n">
+        <v>44849.520833333336</v>
+      </c>
+      <c r="B4951" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4951" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4952">
+      <c r="A4952" s="6" t="n">
+        <v>44849.53125</v>
+      </c>
+      <c r="B4952" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4952" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4953">
+      <c r="A4953" s="6" t="n">
+        <v>44849.541666666664</v>
+      </c>
+      <c r="B4953" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4953" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4954">
+      <c r="A4954" s="6" t="n">
+        <v>44849.552083333336</v>
+      </c>
+      <c r="B4954" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4954" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4955">
+      <c r="A4955" s="6" t="n">
+        <v>44849.5625</v>
+      </c>
+      <c r="B4955" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4955" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4956">
+      <c r="A4956" s="6" t="n">
+        <v>44849.572916666664</v>
+      </c>
+      <c r="B4956" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4956" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4957">
+      <c r="A4957" s="6" t="n">
+        <v>44849.583333333336</v>
+      </c>
+      <c r="B4957" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4957" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4958">
+      <c r="A4958" s="6" t="n">
+        <v>44849.59375</v>
+      </c>
+      <c r="B4958" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4958" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4959">
+      <c r="A4959" s="6" t="n">
+        <v>44849.604166666664</v>
+      </c>
+      <c r="B4959" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4959" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4960">
+      <c r="A4960" s="6" t="n">
+        <v>44849.614583333336</v>
+      </c>
+      <c r="B4960" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4960" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4961">
+      <c r="A4961" s="6" t="n">
+        <v>44849.625</v>
+      </c>
+      <c r="B4961" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4961" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4962">
+      <c r="A4962" s="6" t="n">
+        <v>44849.635416666664</v>
+      </c>
+      <c r="B4962" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4962" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4963">
+      <c r="A4963" s="6" t="n">
+        <v>44849.645833333336</v>
+      </c>
+      <c r="B4963" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4963" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4964">
+      <c r="A4964" s="6" t="n">
+        <v>44849.65625</v>
+      </c>
+      <c r="B4964" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4964" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4965">
+      <c r="A4965" s="6" t="n">
+        <v>44849.666666666664</v>
+      </c>
+      <c r="B4965" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4965" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4966">
+      <c r="A4966" s="6" t="n">
+        <v>44849.677083333336</v>
+      </c>
+      <c r="B4966" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4966" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4967">
+      <c r="A4967" s="6" t="n">
+        <v>44849.6875</v>
+      </c>
+      <c r="B4967" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4967" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4968">
+      <c r="A4968" s="6" t="n">
+        <v>44849.697916666664</v>
+      </c>
+      <c r="B4968" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4968" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4969">
+      <c r="A4969" s="6" t="n">
+        <v>44849.708333333336</v>
+      </c>
+      <c r="B4969" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4969" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4970">
+      <c r="A4970" s="6" t="n">
+        <v>44849.71875</v>
+      </c>
+      <c r="B4970" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4970" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4971">
+      <c r="A4971" s="6" t="n">
+        <v>44849.729166666664</v>
+      </c>
+      <c r="B4971" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4971" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4972">
+      <c r="A4972" s="6" t="n">
+        <v>44849.739583333336</v>
+      </c>
+      <c r="B4972" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4972" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4973">
+      <c r="A4973" s="6" t="n">
+        <v>44849.75</v>
+      </c>
+      <c r="B4973" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4973" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4974">
+      <c r="A4974" s="6" t="n">
+        <v>44849.760416666664</v>
+      </c>
+      <c r="B4974" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C4974" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4975">
+      <c r="A4975" s="6" t="n">
+        <v>44849.770833333336</v>
+      </c>
+      <c r="B4975" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4975" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4976">
+      <c r="A4976" s="6" t="n">
+        <v>44849.78125</v>
+      </c>
+      <c r="B4976" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4976" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4977">
+      <c r="A4977" s="6" t="n">
+        <v>44849.791666666664</v>
+      </c>
+      <c r="B4977" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4977" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4978">
+      <c r="A4978" s="6" t="n">
+        <v>44849.802083333336</v>
+      </c>
+      <c r="B4978" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4978" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4979">
+      <c r="A4979" s="6" t="n">
+        <v>44849.8125</v>
+      </c>
+      <c r="B4979" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4979" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4980">
+      <c r="A4980" s="6" t="n">
+        <v>44849.822916666664</v>
+      </c>
+      <c r="B4980" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4980" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4981">
+      <c r="A4981" s="6" t="n">
+        <v>44849.833333333336</v>
+      </c>
+      <c r="B4981" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4981" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4982">
+      <c r="A4982" s="6" t="n">
+        <v>44849.84375</v>
+      </c>
+      <c r="B4982" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4982" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4983">
+      <c r="A4983" s="6" t="n">
+        <v>44849.854166666664</v>
+      </c>
+      <c r="B4983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4984">
+      <c r="A4984" s="6" t="n">
+        <v>44849.864583333336</v>
+      </c>
+      <c r="B4984" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4984" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4985">
+      <c r="A4985" s="6" t="n">
+        <v>44849.875</v>
+      </c>
+      <c r="B4985" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4985" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4986">
+      <c r="A4986" s="6" t="n">
+        <v>44849.885416666664</v>
+      </c>
+      <c r="B4986" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4986" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4987">
+      <c r="A4987" s="6" t="n">
+        <v>44849.895833333336</v>
+      </c>
+      <c r="B4987" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4987" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4988">
+      <c r="A4988" s="6" t="n">
+        <v>44849.90625</v>
+      </c>
+      <c r="B4988" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4988" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4989">
+      <c r="A4989" s="6" t="n">
+        <v>44849.916666666664</v>
+      </c>
+      <c r="B4989" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4989" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4990">
+      <c r="A4990" s="6" t="n">
+        <v>44849.927083333336</v>
+      </c>
+      <c r="B4990" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4990" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4991">
+      <c r="A4991" s="6" t="n">
+        <v>44849.9375</v>
+      </c>
+      <c r="B4991" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4991" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4992">
+      <c r="A4992" s="6" t="n">
+        <v>44849.947916666664</v>
+      </c>
+      <c r="B4992" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4992" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4993">
+      <c r="A4993" s="6" t="n">
+        <v>44849.958333333336</v>
+      </c>
+      <c r="B4993" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4993" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4994">
+      <c r="A4994" s="6" t="n">
+        <v>44849.96875</v>
+      </c>
+      <c r="B4994" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4994" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4995">
+      <c r="A4995" s="6" t="n">
+        <v>44849.979166666664</v>
+      </c>
+      <c r="B4995" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4995" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4996">
+      <c r="A4996" s="6" t="n">
+        <v>44849.989583333336</v>
+      </c>
+      <c r="B4996" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4996" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4997">
+      <c r="A4997" s="6" t="n">
+        <v>44850.0</v>
+      </c>
+      <c r="B4997" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4997" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4998">
+      <c r="A4998" s="6" t="n">
+        <v>44850.010416666664</v>
+      </c>
+      <c r="B4998" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4998" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4999">
+      <c r="A4999" s="6" t="n">
+        <v>44850.020833333336</v>
+      </c>
+      <c r="B4999" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4999" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5000">
+      <c r="A5000" s="6" t="n">
+        <v>44850.03125</v>
+      </c>
+      <c r="B5000" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5000" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5001">
+      <c r="A5001" s="6" t="n">
+        <v>44850.041666666664</v>
+      </c>
+      <c r="B5001" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5001" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5002">
+      <c r="A5002" s="6" t="n">
+        <v>44850.052083333336</v>
+      </c>
+      <c r="B5002" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5002" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5003">
+      <c r="A5003" s="6" t="n">
+        <v>44850.0625</v>
+      </c>
+      <c r="B5003" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5003" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5004">
+      <c r="A5004" s="6" t="n">
+        <v>44850.072916666664</v>
+      </c>
+      <c r="B5004" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5004" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5005">
+      <c r="A5005" s="6" t="n">
+        <v>44850.083333333336</v>
+      </c>
+      <c r="B5005" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5005" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5006">
+      <c r="A5006" s="6" t="n">
+        <v>44850.09375</v>
+      </c>
+      <c r="B5006" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5006" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5007">
+      <c r="A5007" s="6" t="n">
+        <v>44850.104166666664</v>
+      </c>
+      <c r="B5007" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5007" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5008">
+      <c r="A5008" s="6" t="n">
+        <v>44850.114583333336</v>
+      </c>
+      <c r="B5008" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5008" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5009">
+      <c r="A5009" s="6" t="n">
+        <v>44850.125</v>
+      </c>
+      <c r="B5009" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5009" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5010">
+      <c r="A5010" s="6" t="n">
+        <v>44850.135416666664</v>
+      </c>
+      <c r="B5010" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5010" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5011">
+      <c r="A5011" s="6" t="n">
+        <v>44850.145833333336</v>
+      </c>
+      <c r="B5011" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5011" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5012">
+      <c r="A5012" s="6" t="n">
+        <v>44850.15625</v>
+      </c>
+      <c r="B5012" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5012" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5013">
+      <c r="A5013" s="6" t="n">
+        <v>44850.166666666664</v>
+      </c>
+      <c r="B5013" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5013" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5014">
+      <c r="A5014" s="6" t="n">
+        <v>44850.177083333336</v>
+      </c>
+      <c r="B5014" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5014" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5015">
+      <c r="A5015" s="6" t="n">
+        <v>44850.1875</v>
+      </c>
+      <c r="B5015" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5015" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5016">
+      <c r="A5016" s="6" t="n">
+        <v>44850.197916666664</v>
+      </c>
+      <c r="B5016" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5016" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5017">
+      <c r="A5017" s="6" t="n">
+        <v>44850.208333333336</v>
+      </c>
+      <c r="B5017" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5017" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5018">
+      <c r="A5018" s="6" t="n">
+        <v>44850.21875</v>
+      </c>
+      <c r="B5018" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5018" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5019">
+      <c r="A5019" s="6" t="n">
+        <v>44850.229166666664</v>
+      </c>
+      <c r="B5019" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5019" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5020">
+      <c r="A5020" s="6" t="n">
+        <v>44850.239583333336</v>
+      </c>
+      <c r="B5020" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5020" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5021">
+      <c r="A5021" s="6" t="n">
+        <v>44850.25</v>
+      </c>
+      <c r="B5021" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5021" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5022">
+      <c r="A5022" s="6" t="n">
+        <v>44850.260416666664</v>
+      </c>
+      <c r="B5022" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5022" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5023">
+      <c r="A5023" s="6" t="n">
+        <v>44850.270833333336</v>
+      </c>
+      <c r="B5023" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5023" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5024">
+      <c r="A5024" s="6" t="n">
+        <v>44850.28125</v>
+      </c>
+      <c r="B5024" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5024" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5025">
+      <c r="A5025" s="6" t="n">
+        <v>44850.291666666664</v>
+      </c>
+      <c r="B5025" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5025" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5026">
+      <c r="A5026" s="6" t="n">
+        <v>44850.302083333336</v>
+      </c>
+      <c r="B5026" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5026" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5027">
+      <c r="A5027" s="6" t="n">
+        <v>44850.3125</v>
+      </c>
+      <c r="B5027" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5027" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5028">
+      <c r="A5028" s="6" t="n">
+        <v>44850.322916666664</v>
+      </c>
+      <c r="B5028" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5028" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5029">
+      <c r="A5029" s="6" t="n">
+        <v>44850.333333333336</v>
+      </c>
+      <c r="B5029" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5029" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5030">
+      <c r="A5030" s="6" t="n">
+        <v>44850.34375</v>
+      </c>
+      <c r="B5030" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5030" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5031">
+      <c r="A5031" s="6" t="n">
+        <v>44850.354166666664</v>
+      </c>
+      <c r="B5031" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5031" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5032">
+      <c r="A5032" s="6" t="n">
+        <v>44850.364583333336</v>
+      </c>
+      <c r="B5032" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5032" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5033">
+      <c r="A5033" s="6" t="n">
+        <v>44850.375</v>
+      </c>
+      <c r="B5033" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5033" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5034">
+      <c r="A5034" s="6" t="n">
+        <v>44850.385416666664</v>
+      </c>
+      <c r="B5034" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5034" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5035">
+      <c r="A5035" s="6" t="n">
+        <v>44850.395833333336</v>
+      </c>
+      <c r="B5035" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5035" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5036">
+      <c r="A5036" s="6" t="n">
+        <v>44850.40625</v>
+      </c>
+      <c r="B5036" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5036" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5037">
+      <c r="A5037" s="6" t="n">
+        <v>44850.416666666664</v>
+      </c>
+      <c r="B5037" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5037" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5038">
+      <c r="A5038" s="6" t="n">
+        <v>44850.427083333336</v>
+      </c>
+      <c r="B5038" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5038" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5039">
+      <c r="A5039" s="6" t="n">
+        <v>44850.4375</v>
+      </c>
+      <c r="B5039" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5039" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5040">
+      <c r="A5040" s="6" t="n">
+        <v>44850.447916666664</v>
+      </c>
+      <c r="B5040" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5040" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5041">
+      <c r="A5041" s="6" t="n">
+        <v>44850.458333333336</v>
+      </c>
+      <c r="B5041" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5041" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5042">
+      <c r="A5042" s="6" t="n">
+        <v>44850.46875</v>
+      </c>
+      <c r="B5042" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5042" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5043">
+      <c r="A5043" s="6" t="n">
+        <v>44850.479166666664</v>
+      </c>
+      <c r="B5043" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5043" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5044">
+      <c r="A5044" s="6" t="n">
+        <v>44850.489583333336</v>
+      </c>
+      <c r="B5044" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5044" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5045">
+      <c r="A5045" s="6" t="n">
+        <v>44850.5</v>
+      </c>
+      <c r="B5045" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5045" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5046">
+      <c r="A5046" s="6" t="n">
+        <v>44850.510416666664</v>
+      </c>
+      <c r="B5046" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5046" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5047">
+      <c r="A5047" s="6" t="n">
+        <v>44850.520833333336</v>
+      </c>
+      <c r="B5047" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5047" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5048">
+      <c r="A5048" s="6" t="n">
+        <v>44850.53125</v>
+      </c>
+      <c r="B5048" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5048" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5049">
+      <c r="A5049" s="6" t="n">
+        <v>44850.541666666664</v>
+      </c>
+      <c r="B5049" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5049" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5050">
+      <c r="A5050" s="6" t="n">
+        <v>44850.552083333336</v>
+      </c>
+      <c r="B5050" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5050" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5051">
+      <c r="A5051" s="6" t="n">
+        <v>44850.5625</v>
+      </c>
+      <c r="B5051" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5051" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5052">
+      <c r="A5052" s="6" t="n">
+        <v>44850.572916666664</v>
+      </c>
+      <c r="B5052" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5052" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5053">
+      <c r="A5053" s="6" t="n">
+        <v>44850.583333333336</v>
+      </c>
+      <c r="B5053" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5053" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5054">
+      <c r="A5054" s="6" t="n">
+        <v>44850.59375</v>
+      </c>
+      <c r="B5054" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5054" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5055">
+      <c r="A5055" s="6" t="n">
+        <v>44850.604166666664</v>
+      </c>
+      <c r="B5055" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5055" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5056">
+      <c r="A5056" s="6" t="n">
+        <v>44850.614583333336</v>
+      </c>
+      <c r="B5056" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5056" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5057">
+      <c r="A5057" s="6" t="n">
+        <v>44850.625</v>
+      </c>
+      <c r="B5057" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5057" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5058">
+      <c r="A5058" s="6" t="n">
+        <v>44850.635416666664</v>
+      </c>
+      <c r="B5058" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5058" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5059">
+      <c r="A5059" s="6" t="n">
+        <v>44850.645833333336</v>
+      </c>
+      <c r="B5059" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5059" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5060">
+      <c r="A5060" s="6" t="n">
+        <v>44850.65625</v>
+      </c>
+      <c r="B5060" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5060" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5061">
+      <c r="A5061" s="6" t="n">
+        <v>44850.666666666664</v>
+      </c>
+      <c r="B5061" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5061" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5062">
+      <c r="A5062" s="6" t="n">
+        <v>44850.677083333336</v>
+      </c>
+      <c r="B5062" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5062" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5063">
+      <c r="A5063" s="6" t="n">
+        <v>44850.6875</v>
+      </c>
+      <c r="B5063" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5063" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5064">
+      <c r="A5064" s="6" t="n">
+        <v>44850.697916666664</v>
+      </c>
+      <c r="B5064" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5064" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5065">
+      <c r="A5065" s="6" t="n">
+        <v>44850.708333333336</v>
+      </c>
+      <c r="B5065" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5065" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5066">
+      <c r="A5066" s="6" t="n">
+        <v>44850.71875</v>
+      </c>
+      <c r="B5066" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5066" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5067">
+      <c r="A5067" s="6" t="n">
+        <v>44850.729166666664</v>
+      </c>
+      <c r="B5067" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5067" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5068">
+      <c r="A5068" s="6" t="n">
+        <v>44850.739583333336</v>
+      </c>
+      <c r="B5068" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5068" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5069">
+      <c r="A5069" s="6" t="n">
+        <v>44850.75</v>
+      </c>
+      <c r="B5069" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5069" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5070">
+      <c r="A5070" s="6" t="n">
+        <v>44850.760416666664</v>
+      </c>
+      <c r="B5070" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5070" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5071">
+      <c r="A5071" s="6" t="n">
+        <v>44850.770833333336</v>
+      </c>
+      <c r="B5071" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5071" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5072">
+      <c r="A5072" s="6" t="n">
+        <v>44850.78125</v>
+      </c>
+      <c r="B5072" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5072" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5073">
+      <c r="A5073" s="6" t="n">
+        <v>44850.791666666664</v>
+      </c>
+      <c r="B5073" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5073" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5074">
+      <c r="A5074" s="6" t="n">
+        <v>44850.802083333336</v>
+      </c>
+      <c r="B5074" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5074" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5075">
+      <c r="A5075" s="6" t="n">
+        <v>44850.8125</v>
+      </c>
+      <c r="B5075" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5075" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5076">
+      <c r="A5076" s="6" t="n">
+        <v>44850.822916666664</v>
+      </c>
+      <c r="B5076" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5076" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5077">
+      <c r="A5077" s="6" t="n">
+        <v>44850.833333333336</v>
+      </c>
+      <c r="B5077" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5077" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5078">
+      <c r="A5078" s="6" t="n">
+        <v>44850.84375</v>
+      </c>
+      <c r="B5078" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5078" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5079">
+      <c r="A5079" s="6" t="n">
+        <v>44850.854166666664</v>
+      </c>
+      <c r="B5079" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5079" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5080">
+      <c r="A5080" s="6" t="n">
+        <v>44850.864583333336</v>
+      </c>
+      <c r="B5080" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5080" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5081">
+      <c r="A5081" s="6" t="n">
+        <v>44850.875</v>
+      </c>
+      <c r="B5081" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5081" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5082">
+      <c r="A5082" s="6" t="n">
+        <v>44850.885416666664</v>
+      </c>
+      <c r="B5082" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5082" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5083">
+      <c r="A5083" s="6" t="n">
+        <v>44850.895833333336</v>
+      </c>
+      <c r="B5083" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5083" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5084">
+      <c r="A5084" s="6" t="n">
+        <v>44850.90625</v>
+      </c>
+      <c r="B5084" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5084" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5085">
+      <c r="A5085" s="6" t="n">
+        <v>44850.916666666664</v>
+      </c>
+      <c r="B5085" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5085" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5086">
+      <c r="A5086" s="6" t="n">
+        <v>44850.927083333336</v>
+      </c>
+      <c r="B5086" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5086" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5087">
+      <c r="A5087" s="6" t="n">
+        <v>44850.9375</v>
+      </c>
+      <c r="B5087" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5087" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5088">
+      <c r="A5088" s="6" t="n">
+        <v>44850.947916666664</v>
+      </c>
+      <c r="B5088" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5088" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5089">
+      <c r="A5089" s="6" t="n">
+        <v>44850.958333333336</v>
+      </c>
+      <c r="B5089" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5089" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5090">
+      <c r="A5090" s="6" t="n">
+        <v>44850.96875</v>
+      </c>
+      <c r="B5090" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5090" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5091">
+      <c r="A5091" s="6" t="n">
+        <v>44850.979166666664</v>
+      </c>
+      <c r="B5091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5092">
+      <c r="A5092" s="6" t="n">
+        <v>44850.989583333336</v>
+      </c>
+      <c r="B5092" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5092" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5093">
+      <c r="A5093" s="6" t="n">
+        <v>44851.0</v>
+      </c>
+      <c r="B5093" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5093" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5094">
+      <c r="A5094" s="6" t="n">
+        <v>44851.010416666664</v>
+      </c>
+      <c r="B5094" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5094" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5095">
+      <c r="A5095" s="6" t="n">
+        <v>44851.020833333336</v>
+      </c>
+      <c r="B5095" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5095" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5096">
+      <c r="A5096" s="6" t="n">
+        <v>44851.03125</v>
+      </c>
+      <c r="B5096" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5096" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5097">
+      <c r="A5097" s="6" t="n">
+        <v>44851.041666666664</v>
+      </c>
+      <c r="B5097" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5097" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5098">
+      <c r="A5098" s="6" t="n">
+        <v>44851.052083333336</v>
+      </c>
+      <c r="B5098" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5098" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5099">
+      <c r="A5099" s="6" t="n">
+        <v>44851.0625</v>
+      </c>
+      <c r="B5099" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5099" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5100">
+      <c r="A5100" s="6" t="n">
+        <v>44851.072916666664</v>
+      </c>
+      <c r="B5100" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5100" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5101">
+      <c r="A5101" s="6" t="n">
+        <v>44851.083333333336</v>
+      </c>
+      <c r="B5101" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5101" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5102">
+      <c r="A5102" s="6" t="n">
+        <v>44851.09375</v>
+      </c>
+      <c r="B5102" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5102" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5103">
+      <c r="A5103" s="6" t="n">
+        <v>44851.104166666664</v>
+      </c>
+      <c r="B5103" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5103" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5104">
+      <c r="A5104" s="6" t="n">
+        <v>44851.114583333336</v>
+      </c>
+      <c r="B5104" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5104" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5105">
+      <c r="A5105" s="6" t="n">
+        <v>44851.125</v>
+      </c>
+      <c r="B5105" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5105" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5106">
+      <c r="A5106" s="6" t="n">
+        <v>44851.135416666664</v>
+      </c>
+      <c r="B5106" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5106" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5107">
+      <c r="A5107" s="6" t="n">
+        <v>44851.145833333336</v>
+      </c>
+      <c r="B5107" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5107" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5108">
+      <c r="A5108" s="6" t="n">
+        <v>44851.15625</v>
+      </c>
+      <c r="B5108" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5108" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5109">
+      <c r="A5109" s="6" t="n">
+        <v>44851.166666666664</v>
+      </c>
+      <c r="B5109" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5109" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5110">
+      <c r="A5110" s="6" t="n">
+        <v>44851.177083333336</v>
+      </c>
+      <c r="B5110" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5110" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5111">
+      <c r="A5111" s="6" t="n">
+        <v>44851.1875</v>
+      </c>
+      <c r="B5111" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5111" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5112">
+      <c r="A5112" s="6" t="n">
+        <v>44851.197916666664</v>
+      </c>
+      <c r="B5112" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5112" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5113">
+      <c r="A5113" s="6" t="n">
+        <v>44851.208333333336</v>
+      </c>
+      <c r="B5113" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5113" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5114">
+      <c r="A5114" s="6" t="n">
+        <v>44851.21875</v>
+      </c>
+      <c r="B5114" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5114" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5115">
+      <c r="A5115" s="6" t="n">
+        <v>44851.229166666664</v>
+      </c>
+      <c r="B5115" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5115" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5116">
+      <c r="A5116" s="6" t="n">
+        <v>44851.239583333336</v>
+      </c>
+      <c r="B5116" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5116" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5117">
+      <c r="A5117" s="6" t="n">
+        <v>44851.25</v>
+      </c>
+      <c r="B5117" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5117" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5118">
+      <c r="A5118" s="6" t="n">
+        <v>44851.260416666664</v>
+      </c>
+      <c r="B5118" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5118" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5119">
+      <c r="A5119" s="6" t="n">
+        <v>44851.270833333336</v>
+      </c>
+      <c r="B5119" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5119" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5120">
+      <c r="A5120" s="6" t="n">
+        <v>44851.28125</v>
+      </c>
+      <c r="B5120" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5120" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5121">
+      <c r="A5121" s="6" t="n">
+        <v>44851.291666666664</v>
+      </c>
+      <c r="B5121" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5121" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5122">
+      <c r="A5122" s="6" t="n">
+        <v>44851.302083333336</v>
+      </c>
+      <c r="B5122" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5122" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5123">
+      <c r="A5123" s="6" t="n">
+        <v>44851.3125</v>
+      </c>
+      <c r="B5123" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5123" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5124">
+      <c r="A5124" s="6" t="n">
+        <v>44851.322916666664</v>
+      </c>
+      <c r="B5124" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5124" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5125">
+      <c r="A5125" s="6" t="n">
+        <v>44851.333333333336</v>
+      </c>
+      <c r="B5125" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5125" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5126">
+      <c r="A5126" s="6" t="n">
+        <v>44851.34375</v>
+      </c>
+      <c r="B5126" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5126" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5127">
+      <c r="A5127" s="6" t="n">
+        <v>44851.354166666664</v>
+      </c>
+      <c r="B5127" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5127" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5128">
+      <c r="A5128" s="6" t="n">
+        <v>44851.364583333336</v>
+      </c>
+      <c r="B5128" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5128" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5129">
+      <c r="A5129" s="6" t="n">
+        <v>44851.375</v>
+      </c>
+      <c r="B5129" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5129" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5130">
+      <c r="A5130" s="6" t="n">
+        <v>44851.385416666664</v>
+      </c>
+      <c r="B5130" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5130" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5131">
+      <c r="A5131" s="6" t="n">
+        <v>44851.395833333336</v>
+      </c>
+      <c r="B5131" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5131" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5132">
+      <c r="A5132" s="6" t="n">
+        <v>44851.40625</v>
+      </c>
+      <c r="B5132" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5132" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5133">
+      <c r="A5133" s="6" t="n">
+        <v>44851.416666666664</v>
+      </c>
+      <c r="B5133" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5133" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5134">
+      <c r="A5134" s="6" t="n">
+        <v>44851.427083333336</v>
+      </c>
+      <c r="B5134" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5134" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5135">
+      <c r="A5135" s="6" t="n">
+        <v>44851.4375</v>
+      </c>
+      <c r="B5135" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5135" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5136">
+      <c r="A5136" s="6" t="n">
+        <v>44851.447916666664</v>
+      </c>
+      <c r="B5136" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5136" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5137">
+      <c r="A5137" s="6" t="n">
+        <v>44851.458333333336</v>
+      </c>
+      <c r="B5137" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5137" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5138">
+      <c r="A5138" s="6" t="n">
+        <v>44851.46875</v>
+      </c>
+      <c r="B5138" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5138" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5139">
+      <c r="A5139" s="6" t="n">
+        <v>44851.479166666664</v>
+      </c>
+      <c r="B5139" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5139" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5140">
+      <c r="A5140" s="6" t="n">
+        <v>44851.489583333336</v>
+      </c>
+      <c r="B5140" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5140" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5141">
+      <c r="A5141" s="6" t="n">
+        <v>44851.5</v>
+      </c>
+      <c r="B5141" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5141" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5142">
+      <c r="A5142" s="6" t="n">
+        <v>44851.510416666664</v>
+      </c>
+      <c r="B5142" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5142" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5143">
+      <c r="A5143" s="6" t="n">
+        <v>44851.520833333336</v>
+      </c>
+      <c r="B5143" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5143" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5144">
+      <c r="A5144" s="6" t="n">
+        <v>44851.53125</v>
+      </c>
+      <c r="B5144" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5144" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5145">
+      <c r="A5145" s="6" t="n">
+        <v>44851.541666666664</v>
+      </c>
+      <c r="B5145" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5145" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5146">
+      <c r="A5146" s="6" t="n">
+        <v>44851.552083333336</v>
+      </c>
+      <c r="B5146" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5146" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5147">
+      <c r="A5147" s="6" t="n">
+        <v>44851.5625</v>
+      </c>
+      <c r="B5147" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5147" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5148">
+      <c r="A5148" s="6" t="n">
+        <v>44851.572916666664</v>
+      </c>
+      <c r="B5148" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5148" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5149">
+      <c r="A5149" s="6" t="n">
+        <v>44851.583333333336</v>
+      </c>
+      <c r="B5149" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5149" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5150">
+      <c r="A5150" s="6" t="n">
+        <v>44851.59375</v>
+      </c>
+      <c r="B5150" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5150" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5151">
+      <c r="A5151" s="6" t="n">
+        <v>44851.604166666664</v>
+      </c>
+      <c r="B5151" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5151" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5152">
+      <c r="A5152" s="6" t="n">
+        <v>44851.614583333336</v>
+      </c>
+      <c r="B5152" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5152" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5153">
+      <c r="A5153" s="6" t="n">
+        <v>44851.625</v>
+      </c>
+      <c r="B5153" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5153" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5154">
+      <c r="A5154" s="6" t="n">
+        <v>44851.635416666664</v>
+      </c>
+      <c r="B5154" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5154" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5155">
+      <c r="A5155" s="6" t="n">
+        <v>44851.645833333336</v>
+      </c>
+      <c r="B5155" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5155" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5156">
+      <c r="A5156" s="6" t="n">
+        <v>44851.65625</v>
+      </c>
+      <c r="B5156" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5156" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5157">
+      <c r="A5157" s="6" t="n">
+        <v>44851.666666666664</v>
+      </c>
+      <c r="B5157" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5157" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5158">
+      <c r="A5158" s="6" t="n">
+        <v>44851.677083333336</v>
+      </c>
+      <c r="B5158" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5158" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5159">
+      <c r="A5159" s="6" t="n">
+        <v>44851.6875</v>
+      </c>
+      <c r="B5159" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5159" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5160">
+      <c r="A5160" s="6" t="n">
+        <v>44851.697916666664</v>
+      </c>
+      <c r="B5160" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5160" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5161">
+      <c r="A5161" s="6" t="n">
+        <v>44851.708333333336</v>
+      </c>
+      <c r="B5161" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5161" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5162">
+      <c r="A5162" s="6" t="n">
+        <v>44851.71875</v>
+      </c>
+      <c r="B5162" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5162" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5163">
+      <c r="A5163" s="6" t="n">
+        <v>44851.729166666664</v>
+      </c>
+      <c r="B5163" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5163" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5164">
+      <c r="A5164" s="6" t="n">
+        <v>44851.739583333336</v>
+      </c>
+      <c r="B5164" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5164" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5165">
+      <c r="A5165" s="6" t="n">
+        <v>44851.75</v>
+      </c>
+      <c r="B5165" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5165" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5166">
+      <c r="A5166" s="6" t="n">
+        <v>44851.760416666664</v>
+      </c>
+      <c r="B5166" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5166" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5167">
+      <c r="A5167" s="6" t="n">
+        <v>44851.770833333336</v>
+      </c>
+      <c r="B5167" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5167" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5168">
+      <c r="A5168" s="6" t="n">
+        <v>44851.78125</v>
+      </c>
+      <c r="B5168" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5168" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5169">
+      <c r="A5169" s="6" t="n">
+        <v>44851.791666666664</v>
+      </c>
+      <c r="B5169" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5169" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5170">
+      <c r="A5170" s="6" t="n">
+        <v>44851.802083333336</v>
+      </c>
+      <c r="B5170" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5170" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5171">
+      <c r="A5171" s="6" t="n">
+        <v>44851.8125</v>
+      </c>
+      <c r="B5171" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5171" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5172">
+      <c r="A5172" s="6" t="n">
+        <v>44851.822916666664</v>
+      </c>
+      <c r="B5172" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5172" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5173">
+      <c r="A5173" s="6" t="n">
+        <v>44851.833333333336</v>
+      </c>
+      <c r="B5173" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5173" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5174">
+      <c r="A5174" s="6" t="n">
+        <v>44851.84375</v>
+      </c>
+      <c r="B5174" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5174" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5175">
+      <c r="A5175" s="6" t="n">
+        <v>44851.854166666664</v>
+      </c>
+      <c r="B5175" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5175" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5176">
+      <c r="A5176" s="6" t="n">
+        <v>44851.864583333336</v>
+      </c>
+      <c r="B5176" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5176" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5177">
+      <c r="A5177" s="6" t="n">
+        <v>44851.875</v>
+      </c>
+      <c r="B5177" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5177" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5178">
+      <c r="A5178" s="6" t="n">
+        <v>44851.885416666664</v>
+      </c>
+      <c r="B5178" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5178" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5179">
+      <c r="A5179" s="6" t="n">
+        <v>44851.895833333336</v>
+      </c>
+      <c r="B5179" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5179" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5180">
+      <c r="A5180" s="6" t="n">
+        <v>44851.90625</v>
+      </c>
+      <c r="B5180" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5180" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5181">
+      <c r="A5181" s="6" t="n">
+        <v>44851.916666666664</v>
+      </c>
+      <c r="B5181" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5181" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5182">
+      <c r="A5182" s="6" t="n">
+        <v>44851.927083333336</v>
+      </c>
+      <c r="B5182" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5182" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5183">
+      <c r="A5183" s="6" t="n">
+        <v>44851.9375</v>
+      </c>
+      <c r="B5183" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5183" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5184">
+      <c r="A5184" s="6" t="n">
+        <v>44851.947916666664</v>
+      </c>
+      <c r="B5184" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5184" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5185">
+      <c r="A5185" s="6" t="n">
+        <v>44851.958333333336</v>
+      </c>
+      <c r="B5185" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5185" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5186">
+      <c r="A5186" s="6" t="n">
+        <v>44851.96875</v>
+      </c>
+      <c r="B5186" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5186" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5187">
+      <c r="A5187" s="6" t="n">
+        <v>44851.979166666664</v>
+      </c>
+      <c r="B5187" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5187" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5188">
+      <c r="A5188" s="6" t="n">
+        <v>44851.989583333336</v>
+      </c>
+      <c r="B5188" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5188" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5189">
+      <c r="A5189" s="6" t="n">
+        <v>44852.0</v>
+      </c>
+      <c r="B5189" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5189" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5190">
+      <c r="A5190" s="6" t="n">
+        <v>44852.010416666664</v>
+      </c>
+      <c r="B5190" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5190" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5191">
+      <c r="A5191" s="6" t="n">
+        <v>44852.020833333336</v>
+      </c>
+      <c r="B5191" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5191" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5192">
+      <c r="A5192" s="6" t="n">
+        <v>44852.03125</v>
+      </c>
+      <c r="B5192" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5192" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5193">
+      <c r="A5193" s="6" t="n">
+        <v>44852.041666666664</v>
+      </c>
+      <c r="B5193" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5193" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5194">
+      <c r="A5194" s="6" t="n">
+        <v>44852.052083333336</v>
+      </c>
+      <c r="B5194" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5194" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5195">
+      <c r="A5195" s="6" t="n">
+        <v>44852.0625</v>
+      </c>
+      <c r="B5195" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5195" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5196">
+      <c r="A5196" s="6" t="n">
+        <v>44852.072916666664</v>
+      </c>
+      <c r="B5196" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5196" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5197">
+      <c r="A5197" s="6" t="n">
+        <v>44852.083333333336</v>
+      </c>
+      <c r="B5197" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5197" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5198">
+      <c r="A5198" s="6" t="n">
+        <v>44852.09375</v>
+      </c>
+      <c r="B5198" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5198" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5199">
+      <c r="A5199" s="6" t="n">
+        <v>44852.104166666664</v>
+      </c>
+      <c r="B5199" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5199" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5200">
+      <c r="A5200" s="6" t="n">
+        <v>44852.114583333336</v>
+      </c>
+      <c r="B5200" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5200" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5201">
+      <c r="A5201" s="6" t="n">
+        <v>44852.125</v>
+      </c>
+      <c r="B5201" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5201" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5202">
+      <c r="A5202" s="6" t="n">
+        <v>44852.135416666664</v>
+      </c>
+      <c r="B5202" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5202" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5203">
+      <c r="A5203" s="6" t="n">
+        <v>44852.145833333336</v>
+      </c>
+      <c r="B5203" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5203" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5204">
+      <c r="A5204" s="6" t="n">
+        <v>44852.15625</v>
+      </c>
+      <c r="B5204" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5204" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5205">
+      <c r="A5205" s="6" t="n">
+        <v>44852.166666666664</v>
+      </c>
+      <c r="B5205" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5205" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5206">
+      <c r="A5206" s="6" t="n">
+        <v>44852.177083333336</v>
+      </c>
+      <c r="B5206" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5206" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5207">
+      <c r="A5207" s="6" t="n">
+        <v>44852.1875</v>
+      </c>
+      <c r="B5207" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5207" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5208">
+      <c r="A5208" s="6" t="n">
+        <v>44852.197916666664</v>
+      </c>
+      <c r="B5208" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5208" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5209">
+      <c r="A5209" s="6" t="n">
+        <v>44852.208333333336</v>
+      </c>
+      <c r="B5209" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5209" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5210">
+      <c r="A5210" s="6" t="n">
+        <v>44852.21875</v>
+      </c>
+      <c r="B5210" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5210" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5211">
+      <c r="A5211" s="6" t="n">
+        <v>44852.229166666664</v>
+      </c>
+      <c r="B5211" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5211" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5212">
+      <c r="A5212" s="6" t="n">
+        <v>44852.239583333336</v>
+      </c>
+      <c r="B5212" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5212" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5213">
+      <c r="A5213" s="6" t="n">
+        <v>44852.25</v>
+      </c>
+      <c r="B5213" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5213" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5214">
+      <c r="A5214" s="6" t="n">
+        <v>44852.260416666664</v>
+      </c>
+      <c r="B5214" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5214" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5215">
+      <c r="A5215" s="6" t="n">
+        <v>44852.270833333336</v>
+      </c>
+      <c r="B5215" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5215" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5216">
+      <c r="A5216" s="6" t="n">
+        <v>44852.28125</v>
+      </c>
+      <c r="B5216" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5216" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5217">
+      <c r="A5217" s="6" t="n">
+        <v>44852.291666666664</v>
+      </c>
+      <c r="B5217" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5217" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5218">
+      <c r="A5218" s="6" t="n">
+        <v>44852.302083333336</v>
+      </c>
+      <c r="B5218" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5218" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5219">
+      <c r="A5219" s="6" t="n">
+        <v>44852.3125</v>
+      </c>
+      <c r="B5219" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5219" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5220">
+      <c r="A5220" s="6" t="n">
+        <v>44852.322916666664</v>
+      </c>
+      <c r="B5220" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5220" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5221">
+      <c r="A5221" s="6" t="n">
+        <v>44852.333333333336</v>
+      </c>
+      <c r="B5221" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5221" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5222">
+      <c r="A5222" s="6" t="n">
+        <v>44852.34375</v>
+      </c>
+      <c r="B5222" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5222" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5223">
+      <c r="A5223" s="6" t="n">
+        <v>44852.354166666664</v>
+      </c>
+      <c r="B5223" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5223" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5224">
+      <c r="A5224" s="6" t="n">
+        <v>44852.364583333336</v>
+      </c>
+      <c r="B5224" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5224" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5225">
+      <c r="A5225" s="6" t="n">
+        <v>44852.375</v>
+      </c>
+      <c r="B5225" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5225" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5226">
+      <c r="A5226" s="6" t="n">
+        <v>44852.385416666664</v>
+      </c>
+      <c r="B5226" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5226" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5227">
+      <c r="A5227" s="6" t="n">
+        <v>44852.395833333336</v>
+      </c>
+      <c r="B5227" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5227" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5228">
+      <c r="A5228" s="6" t="n">
+        <v>44852.40625</v>
+      </c>
+      <c r="B5228" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5228" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5229">
+      <c r="A5229" s="6" t="n">
+        <v>44852.416666666664</v>
+      </c>
+      <c r="B5229" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5229" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5230">
+      <c r="A5230" s="6" t="n">
+        <v>44852.427083333336</v>
+      </c>
+      <c r="B5230" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5230" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5231">
+      <c r="A5231" s="6" t="n">
+        <v>44852.4375</v>
+      </c>
+      <c r="B5231" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5231" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5232">
+      <c r="A5232" s="6" t="n">
+        <v>44852.447916666664</v>
+      </c>
+      <c r="B5232" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5232" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5233">
+      <c r="A5233" s="6" t="n">
+        <v>44852.458333333336</v>
+      </c>
+      <c r="B5233" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5233" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5234">
+      <c r="A5234" s="6" t="n">
+        <v>44852.46875</v>
+      </c>
+      <c r="B5234" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5234" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5235">
+      <c r="A5235" s="6" t="n">
+        <v>44852.479166666664</v>
+      </c>
+      <c r="B5235" s="1"/>
+      <c r="C5235" s="1"/>
+    </row>
+    <row r="5236">
+      <c r="A5236" s="6" t="n">
+        <v>44852.489583333336</v>
+      </c>
+      <c r="B5236" s="1"/>
+      <c r="C5236" s="1"/>
+    </row>
+    <row r="5237">
+      <c r="A5237" s="6" t="n">
+        <v>44852.5</v>
+      </c>
+      <c r="B5237" s="1"/>
+      <c r="C5237" s="1"/>
+    </row>
+    <row r="5238">
+      <c r="A5238" s="6" t="n">
+        <v>44852.510416666664</v>
+      </c>
+      <c r="B5238" s="1"/>
+      <c r="C5238" s="1"/>
+    </row>
+    <row r="5239">
+      <c r="A5239" s="6" t="n">
+        <v>44852.520833333336</v>
+      </c>
+      <c r="B5239" s="1"/>
+      <c r="C5239" s="1"/>
+    </row>
+    <row r="5240">
+      <c r="A5240" s="6" t="n">
+        <v>44852.53125</v>
+      </c>
+      <c r="B5240" s="1"/>
+      <c r="C5240" s="1"/>
+    </row>
+    <row r="5241">
+      <c r="A5241" s="6" t="n">
+        <v>44852.541666666664</v>
+      </c>
+      <c r="B5241" s="1"/>
+      <c r="C5241" s="1"/>
+    </row>
+    <row r="5242">
+      <c r="A5242" s="6" t="n">
+        <v>44852.552083333336</v>
+      </c>
+      <c r="B5242" s="1"/>
+      <c r="C5242" s="1"/>
+    </row>
+    <row r="5243">
+      <c r="A5243" s="6" t="n">
+        <v>44852.5625</v>
+      </c>
+      <c r="B5243" s="1"/>
+      <c r="C5243" s="1"/>
+    </row>
+    <row r="5244">
+      <c r="A5244" s="6" t="n">
+        <v>44852.572916666664</v>
+      </c>
+      <c r="B5244" s="1"/>
+      <c r="C5244" s="1"/>
+    </row>
+    <row r="5245">
+      <c r="A5245" s="6" t="n">
+        <v>44852.583333333336</v>
+      </c>
+      <c r="B5245" s="1"/>
+      <c r="C5245" s="1"/>
+    </row>
+    <row r="5246">
+      <c r="A5246" s="6" t="n">
+        <v>44852.59375</v>
+      </c>
+      <c r="B5246" s="1"/>
+      <c r="C5246" s="1"/>
+    </row>
+    <row r="5247">
+      <c r="A5247" s="6" t="n">
+        <v>44852.604166666664</v>
+      </c>
+      <c r="B5247" s="1"/>
+      <c r="C5247" s="1"/>
+    </row>
+    <row r="5248">
+      <c r="A5248" s="6" t="n">
+        <v>44852.614583333336</v>
+      </c>
+      <c r="B5248" s="1"/>
+      <c r="C5248" s="1"/>
+    </row>
+    <row r="5249">
+      <c r="A5249" s="6" t="n">
+        <v>44852.625</v>
+      </c>
+      <c r="B5249" s="1"/>
+      <c r="C5249" s="1"/>
+    </row>
+    <row r="5250">
+      <c r="A5250" s="6" t="n">
+        <v>44852.635416666664</v>
+      </c>
+      <c r="B5250" s="1"/>
+      <c r="C5250" s="1"/>
+    </row>
+    <row r="5251">
+      <c r="A5251" s="6" t="n">
+        <v>44852.645833333336</v>
+      </c>
+      <c r="B5251" s="1"/>
+      <c r="C5251" s="1"/>
+    </row>
+    <row r="5252">
+      <c r="A5252" s="6" t="n">
+        <v>44852.65625</v>
+      </c>
+      <c r="B5252" s="1"/>
+      <c r="C5252" s="1"/>
+    </row>
+    <row r="5253">
+      <c r="A5253" s="6" t="n">
+        <v>44852.666666666664</v>
+      </c>
+      <c r="B5253" s="1"/>
+      <c r="C5253" s="1"/>
+    </row>
+    <row r="5254">
+      <c r="A5254" s="6" t="n">
+        <v>44852.677083333336</v>
+      </c>
+      <c r="B5254" s="1"/>
+      <c r="C5254" s="1"/>
+    </row>
+    <row r="5255">
+      <c r="A5255" s="6" t="n">
+        <v>44852.6875</v>
+      </c>
+      <c r="B5255" s="1"/>
+      <c r="C5255" s="1"/>
+    </row>
+    <row r="5256">
+      <c r="A5256" s="6" t="n">
+        <v>44852.697916666664</v>
+      </c>
+      <c r="B5256" s="1"/>
+      <c r="C5256" s="1"/>
+    </row>
+    <row r="5257">
+      <c r="A5257" s="6" t="n">
+        <v>44852.708333333336</v>
+      </c>
+      <c r="B5257" s="1"/>
+      <c r="C5257" s="1"/>
+    </row>
+    <row r="5258">
+      <c r="A5258" s="6" t="n">
+        <v>44852.71875</v>
+      </c>
+      <c r="B5258" s="1"/>
+      <c r="C5258" s="1"/>
+    </row>
+    <row r="5259">
+      <c r="A5259" s="6" t="n">
+        <v>44852.729166666664</v>
+      </c>
+      <c r="B5259" s="1"/>
+      <c r="C5259" s="1"/>
+    </row>
+    <row r="5260">
+      <c r="A5260" s="6" t="n">
+        <v>44852.739583333336</v>
+      </c>
+      <c r="B5260" s="1"/>
+      <c r="C5260" s="1"/>
+    </row>
+    <row r="5261">
+      <c r="A5261" s="6" t="n">
+        <v>44852.75</v>
+      </c>
+      <c r="B5261" s="1"/>
+      <c r="C5261" s="1"/>
+    </row>
+    <row r="5262">
+      <c r="A5262" s="6" t="n">
+        <v>44852.760416666664</v>
+      </c>
+      <c r="B5262" s="1"/>
+      <c r="C5262" s="1"/>
+    </row>
+    <row r="5263">
+      <c r="A5263" s="6" t="n">
+        <v>44852.770833333336</v>
+      </c>
+      <c r="B5263" s="1"/>
+      <c r="C5263" s="1"/>
+    </row>
+    <row r="5264">
+      <c r="A5264" s="6" t="n">
+        <v>44852.78125</v>
+      </c>
+      <c r="B5264" s="1"/>
+      <c r="C5264" s="1"/>
+    </row>
+    <row r="5265">
+      <c r="A5265" s="6" t="n">
+        <v>44852.791666666664</v>
+      </c>
+      <c r="B5265" s="1"/>
+      <c r="C5265" s="1"/>
+    </row>
+    <row r="5266">
+      <c r="A5266" s="6" t="n">
+        <v>44852.802083333336</v>
+      </c>
+      <c r="B5266" s="1"/>
+      <c r="C5266" s="1"/>
+    </row>
+    <row r="5267">
+      <c r="A5267" s="6" t="n">
+        <v>44852.8125</v>
+      </c>
+      <c r="B5267" s="1"/>
+      <c r="C5267" s="1"/>
+    </row>
+    <row r="5268">
+      <c r="A5268" s="6" t="n">
+        <v>44852.822916666664</v>
+      </c>
+      <c r="B5268" s="1"/>
+      <c r="C5268" s="1"/>
+    </row>
+    <row r="5269">
+      <c r="A5269" s="6" t="n">
+        <v>44852.833333333336</v>
+      </c>
+      <c r="B5269" s="1"/>
+      <c r="C5269" s="1"/>
+    </row>
+    <row r="5270">
+      <c r="A5270" s="6" t="n">
+        <v>44852.84375</v>
+      </c>
+      <c r="B5270" s="1"/>
+      <c r="C5270" s="1"/>
+    </row>
+    <row r="5271">
+      <c r="A5271" s="6" t="n">
+        <v>44852.854166666664</v>
+      </c>
+      <c r="B5271" s="1"/>
+      <c r="C5271" s="1"/>
+    </row>
+    <row r="5272">
+      <c r="A5272" s="6" t="n">
+        <v>44852.864583333336</v>
+      </c>
+      <c r="B5272" s="1"/>
+      <c r="C5272" s="1"/>
+    </row>
+    <row r="5273">
+      <c r="A5273" s="6" t="n">
+        <v>44852.875</v>
+      </c>
+      <c r="B5273" s="1"/>
+      <c r="C5273" s="1"/>
+    </row>
+    <row r="5274">
+      <c r="A5274" s="6" t="n">
+        <v>44852.885416666664</v>
+      </c>
+      <c r="B5274" s="1"/>
+      <c r="C5274" s="1"/>
+    </row>
+    <row r="5275">
+      <c r="A5275" s="6" t="n">
+        <v>44852.895833333336</v>
+      </c>
+      <c r="B5275" s="1"/>
+      <c r="C5275" s="1"/>
+    </row>
+    <row r="5276">
+      <c r="A5276" s="6" t="n">
+        <v>44852.90625</v>
+      </c>
+      <c r="B5276" s="1"/>
+      <c r="C5276" s="1"/>
+    </row>
+    <row r="5277">
+      <c r="A5277" s="6" t="n">
+        <v>44852.916666666664</v>
+      </c>
+      <c r="B5277" s="1"/>
+      <c r="C5277" s="1"/>
+    </row>
+    <row r="5278">
+      <c r="A5278" s="6" t="n">
+        <v>44852.927083333336</v>
+      </c>
+      <c r="B5278" s="1"/>
+      <c r="C5278" s="1"/>
+    </row>
+    <row r="5279">
+      <c r="A5279" s="6" t="n">
+        <v>44852.9375</v>
+      </c>
+      <c r="B5279" s="1"/>
+      <c r="C5279" s="1"/>
+    </row>
+    <row r="5280">
+      <c r="A5280" s="6" t="n">
+        <v>44852.947916666664</v>
+      </c>
+      <c r="B5280" s="1"/>
+      <c r="C5280" s="1"/>
+    </row>
+    <row r="5281">
+      <c r="A5281" s="6" t="n">
+        <v>44852.958333333336</v>
+      </c>
+      <c r="B5281" s="1"/>
+      <c r="C5281" s="1"/>
+    </row>
+    <row r="5282">
+      <c r="A5282" s="6" t="n">
+        <v>44852.96875</v>
+      </c>
+      <c r="B5282" s="1"/>
+      <c r="C5282" s="1"/>
+    </row>
+    <row r="5283">
+      <c r="A5283" s="6" t="n">
+        <v>44852.979166666664</v>
+      </c>
+      <c r="B5283" s="1"/>
+      <c r="C5283" s="1"/>
+    </row>
+    <row r="5284">
+      <c r="A5284" s="6" t="n">
+        <v>44852.989583333336</v>
+      </c>
+      <c r="B5284" s="1"/>
+      <c r="C5284" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/export_data_domain_7992.xlsx
+++ b/data/export_data_domain_7992.xlsx
@@ -57705,351 +57705,7719 @@
       <c r="A5235" s="6" t="n">
         <v>44852.479166666664</v>
       </c>
-      <c r="B5235" s="1"/>
-      <c r="C5235" s="1"/>
+      <c r="B5235" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5235" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5236">
       <c r="A5236" s="6" t="n">
         <v>44852.489583333336</v>
       </c>
-      <c r="B5236" s="1"/>
-      <c r="C5236" s="1"/>
+      <c r="B5236" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5236" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5237">
       <c r="A5237" s="6" t="n">
         <v>44852.5</v>
       </c>
-      <c r="B5237" s="1"/>
-      <c r="C5237" s="1"/>
+      <c r="B5237" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5237" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5238">
       <c r="A5238" s="6" t="n">
         <v>44852.510416666664</v>
       </c>
-      <c r="B5238" s="1"/>
-      <c r="C5238" s="1"/>
+      <c r="B5238" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5238" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5239">
       <c r="A5239" s="6" t="n">
         <v>44852.520833333336</v>
       </c>
-      <c r="B5239" s="1"/>
-      <c r="C5239" s="1"/>
+      <c r="B5239" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5239" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5240">
       <c r="A5240" s="6" t="n">
         <v>44852.53125</v>
       </c>
-      <c r="B5240" s="1"/>
-      <c r="C5240" s="1"/>
+      <c r="B5240" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5240" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5241">
       <c r="A5241" s="6" t="n">
         <v>44852.541666666664</v>
       </c>
-      <c r="B5241" s="1"/>
-      <c r="C5241" s="1"/>
+      <c r="B5241" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5241" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5242">
       <c r="A5242" s="6" t="n">
         <v>44852.552083333336</v>
       </c>
-      <c r="B5242" s="1"/>
-      <c r="C5242" s="1"/>
+      <c r="B5242" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5242" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5243">
       <c r="A5243" s="6" t="n">
         <v>44852.5625</v>
       </c>
-      <c r="B5243" s="1"/>
-      <c r="C5243" s="1"/>
+      <c r="B5243" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5243" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5244">
       <c r="A5244" s="6" t="n">
         <v>44852.572916666664</v>
       </c>
-      <c r="B5244" s="1"/>
-      <c r="C5244" s="1"/>
+      <c r="B5244" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5244" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5245">
       <c r="A5245" s="6" t="n">
         <v>44852.583333333336</v>
       </c>
-      <c r="B5245" s="1"/>
-      <c r="C5245" s="1"/>
+      <c r="B5245" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5245" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5246">
       <c r="A5246" s="6" t="n">
         <v>44852.59375</v>
       </c>
-      <c r="B5246" s="1"/>
-      <c r="C5246" s="1"/>
+      <c r="B5246" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5246" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5247">
       <c r="A5247" s="6" t="n">
         <v>44852.604166666664</v>
       </c>
-      <c r="B5247" s="1"/>
-      <c r="C5247" s="1"/>
+      <c r="B5247" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5247" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5248">
       <c r="A5248" s="6" t="n">
         <v>44852.614583333336</v>
       </c>
-      <c r="B5248" s="1"/>
-      <c r="C5248" s="1"/>
+      <c r="B5248" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5248" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5249">
       <c r="A5249" s="6" t="n">
         <v>44852.625</v>
       </c>
-      <c r="B5249" s="1"/>
-      <c r="C5249" s="1"/>
+      <c r="B5249" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5249" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5250">
       <c r="A5250" s="6" t="n">
         <v>44852.635416666664</v>
       </c>
-      <c r="B5250" s="1"/>
-      <c r="C5250" s="1"/>
+      <c r="B5250" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5250" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5251">
       <c r="A5251" s="6" t="n">
         <v>44852.645833333336</v>
       </c>
-      <c r="B5251" s="1"/>
-      <c r="C5251" s="1"/>
+      <c r="B5251" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5251" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5252">
       <c r="A5252" s="6" t="n">
         <v>44852.65625</v>
       </c>
-      <c r="B5252" s="1"/>
-      <c r="C5252" s="1"/>
+      <c r="B5252" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5252" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5253">
       <c r="A5253" s="6" t="n">
         <v>44852.666666666664</v>
       </c>
-      <c r="B5253" s="1"/>
-      <c r="C5253" s="1"/>
+      <c r="B5253" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5253" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5254">
       <c r="A5254" s="6" t="n">
         <v>44852.677083333336</v>
       </c>
-      <c r="B5254" s="1"/>
-      <c r="C5254" s="1"/>
+      <c r="B5254" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5254" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5255">
       <c r="A5255" s="6" t="n">
         <v>44852.6875</v>
       </c>
-      <c r="B5255" s="1"/>
-      <c r="C5255" s="1"/>
+      <c r="B5255" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5255" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5256">
       <c r="A5256" s="6" t="n">
         <v>44852.697916666664</v>
       </c>
-      <c r="B5256" s="1"/>
-      <c r="C5256" s="1"/>
+      <c r="B5256" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5256" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5257">
       <c r="A5257" s="6" t="n">
         <v>44852.708333333336</v>
       </c>
-      <c r="B5257" s="1"/>
-      <c r="C5257" s="1"/>
+      <c r="B5257" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5257" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5258">
       <c r="A5258" s="6" t="n">
         <v>44852.71875</v>
       </c>
-      <c r="B5258" s="1"/>
-      <c r="C5258" s="1"/>
+      <c r="B5258" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5258" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5259">
       <c r="A5259" s="6" t="n">
         <v>44852.729166666664</v>
       </c>
-      <c r="B5259" s="1"/>
-      <c r="C5259" s="1"/>
+      <c r="B5259" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5259" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5260">
       <c r="A5260" s="6" t="n">
         <v>44852.739583333336</v>
       </c>
-      <c r="B5260" s="1"/>
-      <c r="C5260" s="1"/>
+      <c r="B5260" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5260" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5261">
       <c r="A5261" s="6" t="n">
         <v>44852.75</v>
       </c>
-      <c r="B5261" s="1"/>
-      <c r="C5261" s="1"/>
+      <c r="B5261" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5261" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5262">
       <c r="A5262" s="6" t="n">
         <v>44852.760416666664</v>
       </c>
-      <c r="B5262" s="1"/>
-      <c r="C5262" s="1"/>
+      <c r="B5262" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5262" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5263">
       <c r="A5263" s="6" t="n">
         <v>44852.770833333336</v>
       </c>
-      <c r="B5263" s="1"/>
-      <c r="C5263" s="1"/>
+      <c r="B5263" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5263" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5264">
       <c r="A5264" s="6" t="n">
         <v>44852.78125</v>
       </c>
-      <c r="B5264" s="1"/>
-      <c r="C5264" s="1"/>
+      <c r="B5264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5264" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5265">
       <c r="A5265" s="6" t="n">
         <v>44852.791666666664</v>
       </c>
-      <c r="B5265" s="1"/>
-      <c r="C5265" s="1"/>
+      <c r="B5265" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5265" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5266">
       <c r="A5266" s="6" t="n">
         <v>44852.802083333336</v>
       </c>
-      <c r="B5266" s="1"/>
-      <c r="C5266" s="1"/>
+      <c r="B5266" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5266" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5267">
       <c r="A5267" s="6" t="n">
         <v>44852.8125</v>
       </c>
-      <c r="B5267" s="1"/>
-      <c r="C5267" s="1"/>
+      <c r="B5267" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5267" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5268">
       <c r="A5268" s="6" t="n">
         <v>44852.822916666664</v>
       </c>
-      <c r="B5268" s="1"/>
-      <c r="C5268" s="1"/>
+      <c r="B5268" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5268" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5269">
       <c r="A5269" s="6" t="n">
         <v>44852.833333333336</v>
       </c>
-      <c r="B5269" s="1"/>
-      <c r="C5269" s="1"/>
+      <c r="B5269" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5269" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5270">
       <c r="A5270" s="6" t="n">
         <v>44852.84375</v>
       </c>
-      <c r="B5270" s="1"/>
-      <c r="C5270" s="1"/>
+      <c r="B5270" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5270" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5271">
       <c r="A5271" s="6" t="n">
         <v>44852.854166666664</v>
       </c>
-      <c r="B5271" s="1"/>
-      <c r="C5271" s="1"/>
+      <c r="B5271" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5271" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5272">
       <c r="A5272" s="6" t="n">
         <v>44852.864583333336</v>
       </c>
-      <c r="B5272" s="1"/>
-      <c r="C5272" s="1"/>
+      <c r="B5272" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5272" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5273">
       <c r="A5273" s="6" t="n">
         <v>44852.875</v>
       </c>
-      <c r="B5273" s="1"/>
-      <c r="C5273" s="1"/>
+      <c r="B5273" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5273" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5274">
       <c r="A5274" s="6" t="n">
         <v>44852.885416666664</v>
       </c>
-      <c r="B5274" s="1"/>
-      <c r="C5274" s="1"/>
+      <c r="B5274" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5274" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5275">
       <c r="A5275" s="6" t="n">
         <v>44852.895833333336</v>
       </c>
-      <c r="B5275" s="1"/>
-      <c r="C5275" s="1"/>
+      <c r="B5275" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5275" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5276">
       <c r="A5276" s="6" t="n">
         <v>44852.90625</v>
       </c>
-      <c r="B5276" s="1"/>
-      <c r="C5276" s="1"/>
+      <c r="B5276" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5276" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5277">
       <c r="A5277" s="6" t="n">
         <v>44852.916666666664</v>
       </c>
-      <c r="B5277" s="1"/>
-      <c r="C5277" s="1"/>
+      <c r="B5277" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5277" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5278">
       <c r="A5278" s="6" t="n">
         <v>44852.927083333336</v>
       </c>
-      <c r="B5278" s="1"/>
-      <c r="C5278" s="1"/>
+      <c r="B5278" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5278" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5279">
       <c r="A5279" s="6" t="n">
         <v>44852.9375</v>
       </c>
-      <c r="B5279" s="1"/>
-      <c r="C5279" s="1"/>
+      <c r="B5279" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5279" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5280">
       <c r="A5280" s="6" t="n">
         <v>44852.947916666664</v>
       </c>
-      <c r="B5280" s="1"/>
-      <c r="C5280" s="1"/>
+      <c r="B5280" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5280" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5281">
       <c r="A5281" s="6" t="n">
         <v>44852.958333333336</v>
       </c>
-      <c r="B5281" s="1"/>
-      <c r="C5281" s="1"/>
+      <c r="B5281" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5281" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5282">
       <c r="A5282" s="6" t="n">
         <v>44852.96875</v>
       </c>
-      <c r="B5282" s="1"/>
-      <c r="C5282" s="1"/>
+      <c r="B5282" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5282" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5283">
       <c r="A5283" s="6" t="n">
         <v>44852.979166666664</v>
       </c>
-      <c r="B5283" s="1"/>
-      <c r="C5283" s="1"/>
+      <c r="B5283" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5283" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5284">
       <c r="A5284" s="6" t="n">
         <v>44852.989583333336</v>
       </c>
-      <c r="B5284" s="1"/>
-      <c r="C5284" s="1"/>
+      <c r="B5284" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5284" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5285">
+      <c r="A5285" s="6" t="n">
+        <v>44853.0</v>
+      </c>
+      <c r="B5285" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5285" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5286">
+      <c r="A5286" s="6" t="n">
+        <v>44853.010416666664</v>
+      </c>
+      <c r="B5286" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5286" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5287">
+      <c r="A5287" s="6" t="n">
+        <v>44853.020833333336</v>
+      </c>
+      <c r="B5287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5288">
+      <c r="A5288" s="6" t="n">
+        <v>44853.03125</v>
+      </c>
+      <c r="B5288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5289">
+      <c r="A5289" s="6" t="n">
+        <v>44853.041666666664</v>
+      </c>
+      <c r="B5289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5290">
+      <c r="A5290" s="6" t="n">
+        <v>44853.052083333336</v>
+      </c>
+      <c r="B5290" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5290" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5291">
+      <c r="A5291" s="6" t="n">
+        <v>44853.0625</v>
+      </c>
+      <c r="B5291" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5291" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5292">
+      <c r="A5292" s="6" t="n">
+        <v>44853.072916666664</v>
+      </c>
+      <c r="B5292" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5292" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5293">
+      <c r="A5293" s="6" t="n">
+        <v>44853.083333333336</v>
+      </c>
+      <c r="B5293" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5293" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5294">
+      <c r="A5294" s="6" t="n">
+        <v>44853.09375</v>
+      </c>
+      <c r="B5294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5295">
+      <c r="A5295" s="6" t="n">
+        <v>44853.104166666664</v>
+      </c>
+      <c r="B5295" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5295" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5296">
+      <c r="A5296" s="6" t="n">
+        <v>44853.114583333336</v>
+      </c>
+      <c r="B5296" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5296" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5297">
+      <c r="A5297" s="6" t="n">
+        <v>44853.125</v>
+      </c>
+      <c r="B5297" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5297" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5298">
+      <c r="A5298" s="6" t="n">
+        <v>44853.135416666664</v>
+      </c>
+      <c r="B5298" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5298" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5299">
+      <c r="A5299" s="6" t="n">
+        <v>44853.145833333336</v>
+      </c>
+      <c r="B5299" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5299" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5300">
+      <c r="A5300" s="6" t="n">
+        <v>44853.15625</v>
+      </c>
+      <c r="B5300" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5300" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5301">
+      <c r="A5301" s="6" t="n">
+        <v>44853.166666666664</v>
+      </c>
+      <c r="B5301" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5301" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5302">
+      <c r="A5302" s="6" t="n">
+        <v>44853.177083333336</v>
+      </c>
+      <c r="B5302" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5302" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5303">
+      <c r="A5303" s="6" t="n">
+        <v>44853.1875</v>
+      </c>
+      <c r="B5303" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5303" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5304">
+      <c r="A5304" s="6" t="n">
+        <v>44853.197916666664</v>
+      </c>
+      <c r="B5304" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5304" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5305">
+      <c r="A5305" s="6" t="n">
+        <v>44853.208333333336</v>
+      </c>
+      <c r="B5305" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5305" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5306">
+      <c r="A5306" s="6" t="n">
+        <v>44853.21875</v>
+      </c>
+      <c r="B5306" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5306" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5307">
+      <c r="A5307" s="6" t="n">
+        <v>44853.229166666664</v>
+      </c>
+      <c r="B5307" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5307" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5308">
+      <c r="A5308" s="6" t="n">
+        <v>44853.239583333336</v>
+      </c>
+      <c r="B5308" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5308" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5309">
+      <c r="A5309" s="6" t="n">
+        <v>44853.25</v>
+      </c>
+      <c r="B5309" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5309" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5310">
+      <c r="A5310" s="6" t="n">
+        <v>44853.260416666664</v>
+      </c>
+      <c r="B5310" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5310" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5311">
+      <c r="A5311" s="6" t="n">
+        <v>44853.270833333336</v>
+      </c>
+      <c r="B5311" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5311" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5312">
+      <c r="A5312" s="6" t="n">
+        <v>44853.28125</v>
+      </c>
+      <c r="B5312" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5312" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5313">
+      <c r="A5313" s="6" t="n">
+        <v>44853.291666666664</v>
+      </c>
+      <c r="B5313" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5313" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5314">
+      <c r="A5314" s="6" t="n">
+        <v>44853.302083333336</v>
+      </c>
+      <c r="B5314" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5314" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5315">
+      <c r="A5315" s="6" t="n">
+        <v>44853.3125</v>
+      </c>
+      <c r="B5315" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5315" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5316">
+      <c r="A5316" s="6" t="n">
+        <v>44853.322916666664</v>
+      </c>
+      <c r="B5316" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5316" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5317">
+      <c r="A5317" s="6" t="n">
+        <v>44853.333333333336</v>
+      </c>
+      <c r="B5317" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5317" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5318">
+      <c r="A5318" s="6" t="n">
+        <v>44853.34375</v>
+      </c>
+      <c r="B5318" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5318" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5319">
+      <c r="A5319" s="6" t="n">
+        <v>44853.354166666664</v>
+      </c>
+      <c r="B5319" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5319" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5320">
+      <c r="A5320" s="6" t="n">
+        <v>44853.364583333336</v>
+      </c>
+      <c r="B5320" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5320" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5321">
+      <c r="A5321" s="6" t="n">
+        <v>44853.375</v>
+      </c>
+      <c r="B5321" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5321" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5322">
+      <c r="A5322" s="6" t="n">
+        <v>44853.385416666664</v>
+      </c>
+      <c r="B5322" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5322" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5323">
+      <c r="A5323" s="6" t="n">
+        <v>44853.395833333336</v>
+      </c>
+      <c r="B5323" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5323" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5324">
+      <c r="A5324" s="6" t="n">
+        <v>44853.40625</v>
+      </c>
+      <c r="B5324" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5324" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5325">
+      <c r="A5325" s="6" t="n">
+        <v>44853.416666666664</v>
+      </c>
+      <c r="B5325" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5325" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5326">
+      <c r="A5326" s="6" t="n">
+        <v>44853.427083333336</v>
+      </c>
+      <c r="B5326" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5326" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5327">
+      <c r="A5327" s="6" t="n">
+        <v>44853.4375</v>
+      </c>
+      <c r="B5327" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5327" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5328">
+      <c r="A5328" s="6" t="n">
+        <v>44853.447916666664</v>
+      </c>
+      <c r="B5328" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5328" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5329">
+      <c r="A5329" s="6" t="n">
+        <v>44853.458333333336</v>
+      </c>
+      <c r="B5329" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5329" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5330">
+      <c r="A5330" s="6" t="n">
+        <v>44853.46875</v>
+      </c>
+      <c r="B5330" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5330" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5331">
+      <c r="A5331" s="6" t="n">
+        <v>44853.479166666664</v>
+      </c>
+      <c r="B5331" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5331" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5332">
+      <c r="A5332" s="6" t="n">
+        <v>44853.489583333336</v>
+      </c>
+      <c r="B5332" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5332" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5333">
+      <c r="A5333" s="6" t="n">
+        <v>44853.5</v>
+      </c>
+      <c r="B5333" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5333" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5334">
+      <c r="A5334" s="6" t="n">
+        <v>44853.510416666664</v>
+      </c>
+      <c r="B5334" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5334" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5335">
+      <c r="A5335" s="6" t="n">
+        <v>44853.520833333336</v>
+      </c>
+      <c r="B5335" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5335" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5336">
+      <c r="A5336" s="6" t="n">
+        <v>44853.53125</v>
+      </c>
+      <c r="B5336" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5336" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5337">
+      <c r="A5337" s="6" t="n">
+        <v>44853.541666666664</v>
+      </c>
+      <c r="B5337" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5337" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5338">
+      <c r="A5338" s="6" t="n">
+        <v>44853.552083333336</v>
+      </c>
+      <c r="B5338" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5338" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5339">
+      <c r="A5339" s="6" t="n">
+        <v>44853.5625</v>
+      </c>
+      <c r="B5339" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5339" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5340">
+      <c r="A5340" s="6" t="n">
+        <v>44853.572916666664</v>
+      </c>
+      <c r="B5340" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5340" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5341">
+      <c r="A5341" s="6" t="n">
+        <v>44853.583333333336</v>
+      </c>
+      <c r="B5341" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5341" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5342">
+      <c r="A5342" s="6" t="n">
+        <v>44853.59375</v>
+      </c>
+      <c r="B5342" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5342" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5343">
+      <c r="A5343" s="6" t="n">
+        <v>44853.604166666664</v>
+      </c>
+      <c r="B5343" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5343" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5344">
+      <c r="A5344" s="6" t="n">
+        <v>44853.614583333336</v>
+      </c>
+      <c r="B5344" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5344" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5345">
+      <c r="A5345" s="6" t="n">
+        <v>44853.625</v>
+      </c>
+      <c r="B5345" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5345" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5346">
+      <c r="A5346" s="6" t="n">
+        <v>44853.635416666664</v>
+      </c>
+      <c r="B5346" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5346" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5347">
+      <c r="A5347" s="6" t="n">
+        <v>44853.645833333336</v>
+      </c>
+      <c r="B5347" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5347" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5348">
+      <c r="A5348" s="6" t="n">
+        <v>44853.65625</v>
+      </c>
+      <c r="B5348" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5348" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5349">
+      <c r="A5349" s="6" t="n">
+        <v>44853.666666666664</v>
+      </c>
+      <c r="B5349" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5349" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5350">
+      <c r="A5350" s="6" t="n">
+        <v>44853.677083333336</v>
+      </c>
+      <c r="B5350" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5350" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5351">
+      <c r="A5351" s="6" t="n">
+        <v>44853.6875</v>
+      </c>
+      <c r="B5351" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5351" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5352">
+      <c r="A5352" s="6" t="n">
+        <v>44853.697916666664</v>
+      </c>
+      <c r="B5352" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5352" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5353">
+      <c r="A5353" s="6" t="n">
+        <v>44853.708333333336</v>
+      </c>
+      <c r="B5353" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5353" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5354">
+      <c r="A5354" s="6" t="n">
+        <v>44853.71875</v>
+      </c>
+      <c r="B5354" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5354" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5355">
+      <c r="A5355" s="6" t="n">
+        <v>44853.729166666664</v>
+      </c>
+      <c r="B5355" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5355" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5356">
+      <c r="A5356" s="6" t="n">
+        <v>44853.739583333336</v>
+      </c>
+      <c r="B5356" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5356" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5357">
+      <c r="A5357" s="6" t="n">
+        <v>44853.75</v>
+      </c>
+      <c r="B5357" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5357" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5358">
+      <c r="A5358" s="6" t="n">
+        <v>44853.760416666664</v>
+      </c>
+      <c r="B5358" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5358" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5359">
+      <c r="A5359" s="6" t="n">
+        <v>44853.770833333336</v>
+      </c>
+      <c r="B5359" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5359" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5360">
+      <c r="A5360" s="6" t="n">
+        <v>44853.78125</v>
+      </c>
+      <c r="B5360" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5360" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5361">
+      <c r="A5361" s="6" t="n">
+        <v>44853.791666666664</v>
+      </c>
+      <c r="B5361" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5361" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5362">
+      <c r="A5362" s="6" t="n">
+        <v>44853.802083333336</v>
+      </c>
+      <c r="B5362" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5362" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5363">
+      <c r="A5363" s="6" t="n">
+        <v>44853.8125</v>
+      </c>
+      <c r="B5363" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5363" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5364">
+      <c r="A5364" s="6" t="n">
+        <v>44853.822916666664</v>
+      </c>
+      <c r="B5364" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5364" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5365">
+      <c r="A5365" s="6" t="n">
+        <v>44853.833333333336</v>
+      </c>
+      <c r="B5365" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5365" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5366">
+      <c r="A5366" s="6" t="n">
+        <v>44853.84375</v>
+      </c>
+      <c r="B5366" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5366" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5367">
+      <c r="A5367" s="6" t="n">
+        <v>44853.854166666664</v>
+      </c>
+      <c r="B5367" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5367" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5368">
+      <c r="A5368" s="6" t="n">
+        <v>44853.864583333336</v>
+      </c>
+      <c r="B5368" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5368" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5369">
+      <c r="A5369" s="6" t="n">
+        <v>44853.875</v>
+      </c>
+      <c r="B5369" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5369" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5370">
+      <c r="A5370" s="6" t="n">
+        <v>44853.885416666664</v>
+      </c>
+      <c r="B5370" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5370" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5371">
+      <c r="A5371" s="6" t="n">
+        <v>44853.895833333336</v>
+      </c>
+      <c r="B5371" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5371" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5372">
+      <c r="A5372" s="6" t="n">
+        <v>44853.90625</v>
+      </c>
+      <c r="B5372" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5372" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5373">
+      <c r="A5373" s="6" t="n">
+        <v>44853.916666666664</v>
+      </c>
+      <c r="B5373" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5373" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5374">
+      <c r="A5374" s="6" t="n">
+        <v>44853.927083333336</v>
+      </c>
+      <c r="B5374" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5374" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5375">
+      <c r="A5375" s="6" t="n">
+        <v>44853.9375</v>
+      </c>
+      <c r="B5375" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5375" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5376">
+      <c r="A5376" s="6" t="n">
+        <v>44853.947916666664</v>
+      </c>
+      <c r="B5376" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5376" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5377">
+      <c r="A5377" s="6" t="n">
+        <v>44853.958333333336</v>
+      </c>
+      <c r="B5377" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5377" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5378">
+      <c r="A5378" s="6" t="n">
+        <v>44853.96875</v>
+      </c>
+      <c r="B5378" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5378" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5379">
+      <c r="A5379" s="6" t="n">
+        <v>44853.979166666664</v>
+      </c>
+      <c r="B5379" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5379" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5380">
+      <c r="A5380" s="6" t="n">
+        <v>44853.989583333336</v>
+      </c>
+      <c r="B5380" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5380" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5381">
+      <c r="A5381" s="6" t="n">
+        <v>44854.0</v>
+      </c>
+      <c r="B5381" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5381" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5382">
+      <c r="A5382" s="6" t="n">
+        <v>44854.010416666664</v>
+      </c>
+      <c r="B5382" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5382" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5383">
+      <c r="A5383" s="6" t="n">
+        <v>44854.020833333336</v>
+      </c>
+      <c r="B5383" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5383" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5384">
+      <c r="A5384" s="6" t="n">
+        <v>44854.03125</v>
+      </c>
+      <c r="B5384" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5384" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5385">
+      <c r="A5385" s="6" t="n">
+        <v>44854.041666666664</v>
+      </c>
+      <c r="B5385" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5385" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5386">
+      <c r="A5386" s="6" t="n">
+        <v>44854.052083333336</v>
+      </c>
+      <c r="B5386" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5386" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5387">
+      <c r="A5387" s="6" t="n">
+        <v>44854.0625</v>
+      </c>
+      <c r="B5387" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5387" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5388">
+      <c r="A5388" s="6" t="n">
+        <v>44854.072916666664</v>
+      </c>
+      <c r="B5388" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5388" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5389">
+      <c r="A5389" s="6" t="n">
+        <v>44854.083333333336</v>
+      </c>
+      <c r="B5389" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5389" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5390">
+      <c r="A5390" s="6" t="n">
+        <v>44854.09375</v>
+      </c>
+      <c r="B5390" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5390" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5391">
+      <c r="A5391" s="6" t="n">
+        <v>44854.104166666664</v>
+      </c>
+      <c r="B5391" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5391" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5392">
+      <c r="A5392" s="6" t="n">
+        <v>44854.114583333336</v>
+      </c>
+      <c r="B5392" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5392" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5393">
+      <c r="A5393" s="6" t="n">
+        <v>44854.125</v>
+      </c>
+      <c r="B5393" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5393" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5394">
+      <c r="A5394" s="6" t="n">
+        <v>44854.135416666664</v>
+      </c>
+      <c r="B5394" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5394" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5395">
+      <c r="A5395" s="6" t="n">
+        <v>44854.145833333336</v>
+      </c>
+      <c r="B5395" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5395" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5396">
+      <c r="A5396" s="6" t="n">
+        <v>44854.15625</v>
+      </c>
+      <c r="B5396" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5396" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5397">
+      <c r="A5397" s="6" t="n">
+        <v>44854.166666666664</v>
+      </c>
+      <c r="B5397" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5397" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5398">
+      <c r="A5398" s="6" t="n">
+        <v>44854.177083333336</v>
+      </c>
+      <c r="B5398" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5398" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5399">
+      <c r="A5399" s="6" t="n">
+        <v>44854.1875</v>
+      </c>
+      <c r="B5399" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5399" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5400">
+      <c r="A5400" s="6" t="n">
+        <v>44854.197916666664</v>
+      </c>
+      <c r="B5400" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5400" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5401">
+      <c r="A5401" s="6" t="n">
+        <v>44854.208333333336</v>
+      </c>
+      <c r="B5401" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5401" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5402">
+      <c r="A5402" s="6" t="n">
+        <v>44854.21875</v>
+      </c>
+      <c r="B5402" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5402" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5403">
+      <c r="A5403" s="6" t="n">
+        <v>44854.229166666664</v>
+      </c>
+      <c r="B5403" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5403" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5404">
+      <c r="A5404" s="6" t="n">
+        <v>44854.239583333336</v>
+      </c>
+      <c r="B5404" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5404" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5405">
+      <c r="A5405" s="6" t="n">
+        <v>44854.25</v>
+      </c>
+      <c r="B5405" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5405" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5406">
+      <c r="A5406" s="6" t="n">
+        <v>44854.260416666664</v>
+      </c>
+      <c r="B5406" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5406" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5407">
+      <c r="A5407" s="6" t="n">
+        <v>44854.270833333336</v>
+      </c>
+      <c r="B5407" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5407" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5408">
+      <c r="A5408" s="6" t="n">
+        <v>44854.28125</v>
+      </c>
+      <c r="B5408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5408" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5409">
+      <c r="A5409" s="6" t="n">
+        <v>44854.291666666664</v>
+      </c>
+      <c r="B5409" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5409" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5410">
+      <c r="A5410" s="6" t="n">
+        <v>44854.302083333336</v>
+      </c>
+      <c r="B5410" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5410" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5411">
+      <c r="A5411" s="6" t="n">
+        <v>44854.3125</v>
+      </c>
+      <c r="B5411" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5411" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5412">
+      <c r="A5412" s="6" t="n">
+        <v>44854.322916666664</v>
+      </c>
+      <c r="B5412" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5412" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5413">
+      <c r="A5413" s="6" t="n">
+        <v>44854.333333333336</v>
+      </c>
+      <c r="B5413" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5413" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5414">
+      <c r="A5414" s="6" t="n">
+        <v>44854.34375</v>
+      </c>
+      <c r="B5414" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5414" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5415">
+      <c r="A5415" s="6" t="n">
+        <v>44854.354166666664</v>
+      </c>
+      <c r="B5415" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5415" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5416">
+      <c r="A5416" s="6" t="n">
+        <v>44854.364583333336</v>
+      </c>
+      <c r="B5416" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5416" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5417">
+      <c r="A5417" s="6" t="n">
+        <v>44854.375</v>
+      </c>
+      <c r="B5417" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5417" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5418">
+      <c r="A5418" s="6" t="n">
+        <v>44854.385416666664</v>
+      </c>
+      <c r="B5418" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5418" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5419">
+      <c r="A5419" s="6" t="n">
+        <v>44854.395833333336</v>
+      </c>
+      <c r="B5419" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5419" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5420">
+      <c r="A5420" s="6" t="n">
+        <v>44854.40625</v>
+      </c>
+      <c r="B5420" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5420" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5421">
+      <c r="A5421" s="6" t="n">
+        <v>44854.416666666664</v>
+      </c>
+      <c r="B5421" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5421" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5422">
+      <c r="A5422" s="6" t="n">
+        <v>44854.427083333336</v>
+      </c>
+      <c r="B5422" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5422" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5423">
+      <c r="A5423" s="6" t="n">
+        <v>44854.4375</v>
+      </c>
+      <c r="B5423" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5423" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5424">
+      <c r="A5424" s="6" t="n">
+        <v>44854.447916666664</v>
+      </c>
+      <c r="B5424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5424" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5425">
+      <c r="A5425" s="6" t="n">
+        <v>44854.458333333336</v>
+      </c>
+      <c r="B5425" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5425" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5426">
+      <c r="A5426" s="6" t="n">
+        <v>44854.46875</v>
+      </c>
+      <c r="B5426" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5426" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5427">
+      <c r="A5427" s="6" t="n">
+        <v>44854.479166666664</v>
+      </c>
+      <c r="B5427" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5427" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5428">
+      <c r="A5428" s="6" t="n">
+        <v>44854.489583333336</v>
+      </c>
+      <c r="B5428" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5428" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5429">
+      <c r="A5429" s="6" t="n">
+        <v>44854.5</v>
+      </c>
+      <c r="B5429" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5429" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5430">
+      <c r="A5430" s="6" t="n">
+        <v>44854.510416666664</v>
+      </c>
+      <c r="B5430" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5430" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5431">
+      <c r="A5431" s="6" t="n">
+        <v>44854.520833333336</v>
+      </c>
+      <c r="B5431" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5431" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5432">
+      <c r="A5432" s="6" t="n">
+        <v>44854.53125</v>
+      </c>
+      <c r="B5432" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5432" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5433">
+      <c r="A5433" s="6" t="n">
+        <v>44854.541666666664</v>
+      </c>
+      <c r="B5433" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5433" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5434">
+      <c r="A5434" s="6" t="n">
+        <v>44854.552083333336</v>
+      </c>
+      <c r="B5434" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5434" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5435">
+      <c r="A5435" s="6" t="n">
+        <v>44854.5625</v>
+      </c>
+      <c r="B5435" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5435" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5436">
+      <c r="A5436" s="6" t="n">
+        <v>44854.572916666664</v>
+      </c>
+      <c r="B5436" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5436" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5437">
+      <c r="A5437" s="6" t="n">
+        <v>44854.583333333336</v>
+      </c>
+      <c r="B5437" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5437" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5438">
+      <c r="A5438" s="6" t="n">
+        <v>44854.59375</v>
+      </c>
+      <c r="B5438" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5438" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5439">
+      <c r="A5439" s="6" t="n">
+        <v>44854.604166666664</v>
+      </c>
+      <c r="B5439" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5439" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5440">
+      <c r="A5440" s="6" t="n">
+        <v>44854.614583333336</v>
+      </c>
+      <c r="B5440" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5440" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5441">
+      <c r="A5441" s="6" t="n">
+        <v>44854.625</v>
+      </c>
+      <c r="B5441" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5441" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5442">
+      <c r="A5442" s="6" t="n">
+        <v>44854.635416666664</v>
+      </c>
+      <c r="B5442" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5442" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5443">
+      <c r="A5443" s="6" t="n">
+        <v>44854.645833333336</v>
+      </c>
+      <c r="B5443" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5443" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5444">
+      <c r="A5444" s="6" t="n">
+        <v>44854.65625</v>
+      </c>
+      <c r="B5444" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5444" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5445">
+      <c r="A5445" s="6" t="n">
+        <v>44854.666666666664</v>
+      </c>
+      <c r="B5445" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5445" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5446">
+      <c r="A5446" s="6" t="n">
+        <v>44854.677083333336</v>
+      </c>
+      <c r="B5446" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5446" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5447">
+      <c r="A5447" s="6" t="n">
+        <v>44854.6875</v>
+      </c>
+      <c r="B5447" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5447" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5448">
+      <c r="A5448" s="6" t="n">
+        <v>44854.697916666664</v>
+      </c>
+      <c r="B5448" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5448" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5449">
+      <c r="A5449" s="6" t="n">
+        <v>44854.708333333336</v>
+      </c>
+      <c r="B5449" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5449" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5450">
+      <c r="A5450" s="6" t="n">
+        <v>44854.71875</v>
+      </c>
+      <c r="B5450" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5450" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5451">
+      <c r="A5451" s="6" t="n">
+        <v>44854.729166666664</v>
+      </c>
+      <c r="B5451" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5451" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5452">
+      <c r="A5452" s="6" t="n">
+        <v>44854.739583333336</v>
+      </c>
+      <c r="B5452" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5452" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5453">
+      <c r="A5453" s="6" t="n">
+        <v>44854.75</v>
+      </c>
+      <c r="B5453" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5453" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5454">
+      <c r="A5454" s="6" t="n">
+        <v>44854.760416666664</v>
+      </c>
+      <c r="B5454" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5454" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5455">
+      <c r="A5455" s="6" t="n">
+        <v>44854.770833333336</v>
+      </c>
+      <c r="B5455" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5455" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5456">
+      <c r="A5456" s="6" t="n">
+        <v>44854.78125</v>
+      </c>
+      <c r="B5456" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5456" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5457">
+      <c r="A5457" s="6" t="n">
+        <v>44854.791666666664</v>
+      </c>
+      <c r="B5457" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5457" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5458">
+      <c r="A5458" s="6" t="n">
+        <v>44854.802083333336</v>
+      </c>
+      <c r="B5458" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5458" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5459">
+      <c r="A5459" s="6" t="n">
+        <v>44854.8125</v>
+      </c>
+      <c r="B5459" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5459" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5460">
+      <c r="A5460" s="6" t="n">
+        <v>44854.822916666664</v>
+      </c>
+      <c r="B5460" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5460" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5461">
+      <c r="A5461" s="6" t="n">
+        <v>44854.833333333336</v>
+      </c>
+      <c r="B5461" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5461" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5462">
+      <c r="A5462" s="6" t="n">
+        <v>44854.84375</v>
+      </c>
+      <c r="B5462" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5462" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5463">
+      <c r="A5463" s="6" t="n">
+        <v>44854.854166666664</v>
+      </c>
+      <c r="B5463" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5463" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5464">
+      <c r="A5464" s="6" t="n">
+        <v>44854.864583333336</v>
+      </c>
+      <c r="B5464" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5464" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5465">
+      <c r="A5465" s="6" t="n">
+        <v>44854.875</v>
+      </c>
+      <c r="B5465" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5465" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5466">
+      <c r="A5466" s="6" t="n">
+        <v>44854.885416666664</v>
+      </c>
+      <c r="B5466" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5466" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5467">
+      <c r="A5467" s="6" t="n">
+        <v>44854.895833333336</v>
+      </c>
+      <c r="B5467" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5467" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5468">
+      <c r="A5468" s="6" t="n">
+        <v>44854.90625</v>
+      </c>
+      <c r="B5468" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5468" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5469">
+      <c r="A5469" s="6" t="n">
+        <v>44854.916666666664</v>
+      </c>
+      <c r="B5469" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5469" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5470">
+      <c r="A5470" s="6" t="n">
+        <v>44854.927083333336</v>
+      </c>
+      <c r="B5470" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5470" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5471">
+      <c r="A5471" s="6" t="n">
+        <v>44854.9375</v>
+      </c>
+      <c r="B5471" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5471" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5472">
+      <c r="A5472" s="6" t="n">
+        <v>44854.947916666664</v>
+      </c>
+      <c r="B5472" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5472" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5473">
+      <c r="A5473" s="6" t="n">
+        <v>44854.958333333336</v>
+      </c>
+      <c r="B5473" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5473" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5474">
+      <c r="A5474" s="6" t="n">
+        <v>44854.96875</v>
+      </c>
+      <c r="B5474" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5474" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5475">
+      <c r="A5475" s="6" t="n">
+        <v>44854.979166666664</v>
+      </c>
+      <c r="B5475" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5475" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5476">
+      <c r="A5476" s="6" t="n">
+        <v>44854.989583333336</v>
+      </c>
+      <c r="B5476" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5476" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5477">
+      <c r="A5477" s="6" t="n">
+        <v>44855.0</v>
+      </c>
+      <c r="B5477" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5477" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5478">
+      <c r="A5478" s="6" t="n">
+        <v>44855.010416666664</v>
+      </c>
+      <c r="B5478" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5478" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5479">
+      <c r="A5479" s="6" t="n">
+        <v>44855.020833333336</v>
+      </c>
+      <c r="B5479" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5479" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5480">
+      <c r="A5480" s="6" t="n">
+        <v>44855.03125</v>
+      </c>
+      <c r="B5480" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5480" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5481">
+      <c r="A5481" s="6" t="n">
+        <v>44855.041666666664</v>
+      </c>
+      <c r="B5481" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5481" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5482">
+      <c r="A5482" s="6" t="n">
+        <v>44855.052083333336</v>
+      </c>
+      <c r="B5482" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5482" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5483">
+      <c r="A5483" s="6" t="n">
+        <v>44855.0625</v>
+      </c>
+      <c r="B5483" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5483" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5484">
+      <c r="A5484" s="6" t="n">
+        <v>44855.072916666664</v>
+      </c>
+      <c r="B5484" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5484" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5485">
+      <c r="A5485" s="6" t="n">
+        <v>44855.083333333336</v>
+      </c>
+      <c r="B5485" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5485" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5486">
+      <c r="A5486" s="6" t="n">
+        <v>44855.09375</v>
+      </c>
+      <c r="B5486" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5486" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5487">
+      <c r="A5487" s="6" t="n">
+        <v>44855.104166666664</v>
+      </c>
+      <c r="B5487" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5487" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5488">
+      <c r="A5488" s="6" t="n">
+        <v>44855.114583333336</v>
+      </c>
+      <c r="B5488" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5488" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5489">
+      <c r="A5489" s="6" t="n">
+        <v>44855.125</v>
+      </c>
+      <c r="B5489" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5489" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5490">
+      <c r="A5490" s="6" t="n">
+        <v>44855.135416666664</v>
+      </c>
+      <c r="B5490" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5490" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5491">
+      <c r="A5491" s="6" t="n">
+        <v>44855.145833333336</v>
+      </c>
+      <c r="B5491" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5491" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5492">
+      <c r="A5492" s="6" t="n">
+        <v>44855.15625</v>
+      </c>
+      <c r="B5492" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5492" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5493">
+      <c r="A5493" s="6" t="n">
+        <v>44855.166666666664</v>
+      </c>
+      <c r="B5493" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5493" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5494">
+      <c r="A5494" s="6" t="n">
+        <v>44855.177083333336</v>
+      </c>
+      <c r="B5494" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5494" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5495">
+      <c r="A5495" s="6" t="n">
+        <v>44855.1875</v>
+      </c>
+      <c r="B5495" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5495" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5496">
+      <c r="A5496" s="6" t="n">
+        <v>44855.197916666664</v>
+      </c>
+      <c r="B5496" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5496" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5497">
+      <c r="A5497" s="6" t="n">
+        <v>44855.208333333336</v>
+      </c>
+      <c r="B5497" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5497" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5498">
+      <c r="A5498" s="6" t="n">
+        <v>44855.21875</v>
+      </c>
+      <c r="B5498" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5498" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5499">
+      <c r="A5499" s="6" t="n">
+        <v>44855.229166666664</v>
+      </c>
+      <c r="B5499" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5499" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5500">
+      <c r="A5500" s="6" t="n">
+        <v>44855.239583333336</v>
+      </c>
+      <c r="B5500" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5500" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5501">
+      <c r="A5501" s="6" t="n">
+        <v>44855.25</v>
+      </c>
+      <c r="B5501" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5501" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5502">
+      <c r="A5502" s="6" t="n">
+        <v>44855.260416666664</v>
+      </c>
+      <c r="B5502" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5502" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5503">
+      <c r="A5503" s="6" t="n">
+        <v>44855.270833333336</v>
+      </c>
+      <c r="B5503" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5503" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5504">
+      <c r="A5504" s="6" t="n">
+        <v>44855.28125</v>
+      </c>
+      <c r="B5504" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5504" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5505">
+      <c r="A5505" s="6" t="n">
+        <v>44855.291666666664</v>
+      </c>
+      <c r="B5505" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5505" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5506">
+      <c r="A5506" s="6" t="n">
+        <v>44855.302083333336</v>
+      </c>
+      <c r="B5506" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5506" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5507">
+      <c r="A5507" s="6" t="n">
+        <v>44855.3125</v>
+      </c>
+      <c r="B5507" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5507" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5508">
+      <c r="A5508" s="6" t="n">
+        <v>44855.322916666664</v>
+      </c>
+      <c r="B5508" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5508" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5509">
+      <c r="A5509" s="6" t="n">
+        <v>44855.333333333336</v>
+      </c>
+      <c r="B5509" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5509" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5510">
+      <c r="A5510" s="6" t="n">
+        <v>44855.34375</v>
+      </c>
+      <c r="B5510" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5510" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5511">
+      <c r="A5511" s="6" t="n">
+        <v>44855.354166666664</v>
+      </c>
+      <c r="B5511" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5511" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5512">
+      <c r="A5512" s="6" t="n">
+        <v>44855.364583333336</v>
+      </c>
+      <c r="B5512" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5512" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5513">
+      <c r="A5513" s="6" t="n">
+        <v>44855.375</v>
+      </c>
+      <c r="B5513" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5513" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5514">
+      <c r="A5514" s="6" t="n">
+        <v>44855.385416666664</v>
+      </c>
+      <c r="B5514" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5514" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5515">
+      <c r="A5515" s="6" t="n">
+        <v>44855.395833333336</v>
+      </c>
+      <c r="B5515" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5515" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5516">
+      <c r="A5516" s="6" t="n">
+        <v>44855.40625</v>
+      </c>
+      <c r="B5516" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5516" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5517">
+      <c r="A5517" s="6" t="n">
+        <v>44855.416666666664</v>
+      </c>
+      <c r="B5517" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5517" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5518">
+      <c r="A5518" s="6" t="n">
+        <v>44855.427083333336</v>
+      </c>
+      <c r="B5518" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5518" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5519">
+      <c r="A5519" s="6" t="n">
+        <v>44855.4375</v>
+      </c>
+      <c r="B5519" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5519" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5520">
+      <c r="A5520" s="6" t="n">
+        <v>44855.447916666664</v>
+      </c>
+      <c r="B5520" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5520" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5521">
+      <c r="A5521" s="6" t="n">
+        <v>44855.458333333336</v>
+      </c>
+      <c r="B5521" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5521" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5522">
+      <c r="A5522" s="6" t="n">
+        <v>44855.46875</v>
+      </c>
+      <c r="B5522" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5522" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5523">
+      <c r="A5523" s="6" t="n">
+        <v>44855.479166666664</v>
+      </c>
+      <c r="B5523" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5523" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5524">
+      <c r="A5524" s="6" t="n">
+        <v>44855.489583333336</v>
+      </c>
+      <c r="B5524" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5524" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5525">
+      <c r="A5525" s="6" t="n">
+        <v>44855.5</v>
+      </c>
+      <c r="B5525" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5525" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5526">
+      <c r="A5526" s="6" t="n">
+        <v>44855.510416666664</v>
+      </c>
+      <c r="B5526" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5526" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5527">
+      <c r="A5527" s="6" t="n">
+        <v>44855.520833333336</v>
+      </c>
+      <c r="B5527" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5527" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5528">
+      <c r="A5528" s="6" t="n">
+        <v>44855.53125</v>
+      </c>
+      <c r="B5528" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5528" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5529">
+      <c r="A5529" s="6" t="n">
+        <v>44855.541666666664</v>
+      </c>
+      <c r="B5529" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5529" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5530">
+      <c r="A5530" s="6" t="n">
+        <v>44855.552083333336</v>
+      </c>
+      <c r="B5530" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5530" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5531">
+      <c r="A5531" s="6" t="n">
+        <v>44855.5625</v>
+      </c>
+      <c r="B5531" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5531" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5532">
+      <c r="A5532" s="6" t="n">
+        <v>44855.572916666664</v>
+      </c>
+      <c r="B5532" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5532" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5533">
+      <c r="A5533" s="6" t="n">
+        <v>44855.583333333336</v>
+      </c>
+      <c r="B5533" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5533" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5534">
+      <c r="A5534" s="6" t="n">
+        <v>44855.59375</v>
+      </c>
+      <c r="B5534" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5534" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5535">
+      <c r="A5535" s="6" t="n">
+        <v>44855.604166666664</v>
+      </c>
+      <c r="B5535" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5535" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5536">
+      <c r="A5536" s="6" t="n">
+        <v>44855.614583333336</v>
+      </c>
+      <c r="B5536" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5536" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5537">
+      <c r="A5537" s="6" t="n">
+        <v>44855.625</v>
+      </c>
+      <c r="B5537" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5537" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5538">
+      <c r="A5538" s="6" t="n">
+        <v>44855.635416666664</v>
+      </c>
+      <c r="B5538" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5538" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5539">
+      <c r="A5539" s="6" t="n">
+        <v>44855.645833333336</v>
+      </c>
+      <c r="B5539" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5539" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5540">
+      <c r="A5540" s="6" t="n">
+        <v>44855.65625</v>
+      </c>
+      <c r="B5540" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5540" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5541">
+      <c r="A5541" s="6" t="n">
+        <v>44855.666666666664</v>
+      </c>
+      <c r="B5541" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5541" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5542">
+      <c r="A5542" s="6" t="n">
+        <v>44855.677083333336</v>
+      </c>
+      <c r="B5542" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5542" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5543">
+      <c r="A5543" s="6" t="n">
+        <v>44855.6875</v>
+      </c>
+      <c r="B5543" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5543" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5544">
+      <c r="A5544" s="6" t="n">
+        <v>44855.697916666664</v>
+      </c>
+      <c r="B5544" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5544" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5545">
+      <c r="A5545" s="6" t="n">
+        <v>44855.708333333336</v>
+      </c>
+      <c r="B5545" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C5545" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5546">
+      <c r="A5546" s="6" t="n">
+        <v>44855.71875</v>
+      </c>
+      <c r="B5546" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5546" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5547">
+      <c r="A5547" s="6" t="n">
+        <v>44855.729166666664</v>
+      </c>
+      <c r="B5547" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C5547" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5548">
+      <c r="A5548" s="6" t="n">
+        <v>44855.739583333336</v>
+      </c>
+      <c r="B5548" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5548" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5549">
+      <c r="A5549" s="6" t="n">
+        <v>44855.75</v>
+      </c>
+      <c r="B5549" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5549" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5550">
+      <c r="A5550" s="6" t="n">
+        <v>44855.760416666664</v>
+      </c>
+      <c r="B5550" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5550" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5551">
+      <c r="A5551" s="6" t="n">
+        <v>44855.770833333336</v>
+      </c>
+      <c r="B5551" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5551" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5552">
+      <c r="A5552" s="6" t="n">
+        <v>44855.78125</v>
+      </c>
+      <c r="B5552" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5552" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5553">
+      <c r="A5553" s="6" t="n">
+        <v>44855.791666666664</v>
+      </c>
+      <c r="B5553" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5553" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5554">
+      <c r="A5554" s="6" t="n">
+        <v>44855.802083333336</v>
+      </c>
+      <c r="B5554" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5554" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5555">
+      <c r="A5555" s="6" t="n">
+        <v>44855.8125</v>
+      </c>
+      <c r="B5555" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5555" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5556">
+      <c r="A5556" s="6" t="n">
+        <v>44855.822916666664</v>
+      </c>
+      <c r="B5556" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5556" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5557">
+      <c r="A5557" s="6" t="n">
+        <v>44855.833333333336</v>
+      </c>
+      <c r="B5557" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5557" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5558">
+      <c r="A5558" s="6" t="n">
+        <v>44855.84375</v>
+      </c>
+      <c r="B5558" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5558" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5559">
+      <c r="A5559" s="6" t="n">
+        <v>44855.854166666664</v>
+      </c>
+      <c r="B5559" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5559" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5560">
+      <c r="A5560" s="6" t="n">
+        <v>44855.864583333336</v>
+      </c>
+      <c r="B5560" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5560" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5561">
+      <c r="A5561" s="6" t="n">
+        <v>44855.875</v>
+      </c>
+      <c r="B5561" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5561" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5562">
+      <c r="A5562" s="6" t="n">
+        <v>44855.885416666664</v>
+      </c>
+      <c r="B5562" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5562" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5563">
+      <c r="A5563" s="6" t="n">
+        <v>44855.895833333336</v>
+      </c>
+      <c r="B5563" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5563" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5564">
+      <c r="A5564" s="6" t="n">
+        <v>44855.90625</v>
+      </c>
+      <c r="B5564" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5564" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5565">
+      <c r="A5565" s="6" t="n">
+        <v>44855.916666666664</v>
+      </c>
+      <c r="B5565" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5565" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5566">
+      <c r="A5566" s="6" t="n">
+        <v>44855.927083333336</v>
+      </c>
+      <c r="B5566" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5566" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5567">
+      <c r="A5567" s="6" t="n">
+        <v>44855.9375</v>
+      </c>
+      <c r="B5567" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5567" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5568">
+      <c r="A5568" s="6" t="n">
+        <v>44855.947916666664</v>
+      </c>
+      <c r="B5568" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5568" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5569">
+      <c r="A5569" s="6" t="n">
+        <v>44855.958333333336</v>
+      </c>
+      <c r="B5569" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5569" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5570">
+      <c r="A5570" s="6" t="n">
+        <v>44855.96875</v>
+      </c>
+      <c r="B5570" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5570" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5571">
+      <c r="A5571" s="6" t="n">
+        <v>44855.979166666664</v>
+      </c>
+      <c r="B5571" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5571" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5572">
+      <c r="A5572" s="6" t="n">
+        <v>44855.989583333336</v>
+      </c>
+      <c r="B5572" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5572" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5573">
+      <c r="A5573" s="6" t="n">
+        <v>44856.0</v>
+      </c>
+      <c r="B5573" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5573" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5574">
+      <c r="A5574" s="6" t="n">
+        <v>44856.010416666664</v>
+      </c>
+      <c r="B5574" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5574" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5575">
+      <c r="A5575" s="6" t="n">
+        <v>44856.020833333336</v>
+      </c>
+      <c r="B5575" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5575" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5576">
+      <c r="A5576" s="6" t="n">
+        <v>44856.03125</v>
+      </c>
+      <c r="B5576" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5576" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5577">
+      <c r="A5577" s="6" t="n">
+        <v>44856.041666666664</v>
+      </c>
+      <c r="B5577" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5577" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5578">
+      <c r="A5578" s="6" t="n">
+        <v>44856.052083333336</v>
+      </c>
+      <c r="B5578" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5578" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5579">
+      <c r="A5579" s="6" t="n">
+        <v>44856.0625</v>
+      </c>
+      <c r="B5579" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5579" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5580">
+      <c r="A5580" s="6" t="n">
+        <v>44856.072916666664</v>
+      </c>
+      <c r="B5580" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5580" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5581">
+      <c r="A5581" s="6" t="n">
+        <v>44856.083333333336</v>
+      </c>
+      <c r="B5581" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5581" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5582">
+      <c r="A5582" s="6" t="n">
+        <v>44856.09375</v>
+      </c>
+      <c r="B5582" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5582" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5583">
+      <c r="A5583" s="6" t="n">
+        <v>44856.104166666664</v>
+      </c>
+      <c r="B5583" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5583" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5584">
+      <c r="A5584" s="6" t="n">
+        <v>44856.114583333336</v>
+      </c>
+      <c r="B5584" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5584" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5585">
+      <c r="A5585" s="6" t="n">
+        <v>44856.125</v>
+      </c>
+      <c r="B5585" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5585" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5586">
+      <c r="A5586" s="6" t="n">
+        <v>44856.135416666664</v>
+      </c>
+      <c r="B5586" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5586" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5587">
+      <c r="A5587" s="6" t="n">
+        <v>44856.145833333336</v>
+      </c>
+      <c r="B5587" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5587" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5588">
+      <c r="A5588" s="6" t="n">
+        <v>44856.15625</v>
+      </c>
+      <c r="B5588" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5588" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5589">
+      <c r="A5589" s="6" t="n">
+        <v>44856.166666666664</v>
+      </c>
+      <c r="B5589" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5589" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5590">
+      <c r="A5590" s="6" t="n">
+        <v>44856.177083333336</v>
+      </c>
+      <c r="B5590" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5590" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5591">
+      <c r="A5591" s="6" t="n">
+        <v>44856.1875</v>
+      </c>
+      <c r="B5591" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5591" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5592">
+      <c r="A5592" s="6" t="n">
+        <v>44856.197916666664</v>
+      </c>
+      <c r="B5592" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5592" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5593">
+      <c r="A5593" s="6" t="n">
+        <v>44856.208333333336</v>
+      </c>
+      <c r="B5593" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5593" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5594">
+      <c r="A5594" s="6" t="n">
+        <v>44856.21875</v>
+      </c>
+      <c r="B5594" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5594" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5595">
+      <c r="A5595" s="6" t="n">
+        <v>44856.229166666664</v>
+      </c>
+      <c r="B5595" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5595" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5596">
+      <c r="A5596" s="6" t="n">
+        <v>44856.239583333336</v>
+      </c>
+      <c r="B5596" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5596" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5597">
+      <c r="A5597" s="6" t="n">
+        <v>44856.25</v>
+      </c>
+      <c r="B5597" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5597" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5598">
+      <c r="A5598" s="6" t="n">
+        <v>44856.260416666664</v>
+      </c>
+      <c r="B5598" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5598" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5599">
+      <c r="A5599" s="6" t="n">
+        <v>44856.270833333336</v>
+      </c>
+      <c r="B5599" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5599" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5600">
+      <c r="A5600" s="6" t="n">
+        <v>44856.28125</v>
+      </c>
+      <c r="B5600" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5600" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5601">
+      <c r="A5601" s="6" t="n">
+        <v>44856.291666666664</v>
+      </c>
+      <c r="B5601" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5601" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5602">
+      <c r="A5602" s="6" t="n">
+        <v>44856.302083333336</v>
+      </c>
+      <c r="B5602" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5602" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5603">
+      <c r="A5603" s="6" t="n">
+        <v>44856.3125</v>
+      </c>
+      <c r="B5603" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5603" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5604">
+      <c r="A5604" s="6" t="n">
+        <v>44856.322916666664</v>
+      </c>
+      <c r="B5604" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5604" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5605">
+      <c r="A5605" s="6" t="n">
+        <v>44856.333333333336</v>
+      </c>
+      <c r="B5605" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5605" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5606">
+      <c r="A5606" s="6" t="n">
+        <v>44856.34375</v>
+      </c>
+      <c r="B5606" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5606" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5607">
+      <c r="A5607" s="6" t="n">
+        <v>44856.354166666664</v>
+      </c>
+      <c r="B5607" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5607" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5608">
+      <c r="A5608" s="6" t="n">
+        <v>44856.364583333336</v>
+      </c>
+      <c r="B5608" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5608" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5609">
+      <c r="A5609" s="6" t="n">
+        <v>44856.375</v>
+      </c>
+      <c r="B5609" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5609" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5610">
+      <c r="A5610" s="6" t="n">
+        <v>44856.385416666664</v>
+      </c>
+      <c r="B5610" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5610" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5611">
+      <c r="A5611" s="6" t="n">
+        <v>44856.395833333336</v>
+      </c>
+      <c r="B5611" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5611" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5612">
+      <c r="A5612" s="6" t="n">
+        <v>44856.40625</v>
+      </c>
+      <c r="B5612" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5612" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5613">
+      <c r="A5613" s="6" t="n">
+        <v>44856.416666666664</v>
+      </c>
+      <c r="B5613" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5613" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5614">
+      <c r="A5614" s="6" t="n">
+        <v>44856.427083333336</v>
+      </c>
+      <c r="B5614" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5614" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5615">
+      <c r="A5615" s="6" t="n">
+        <v>44856.4375</v>
+      </c>
+      <c r="B5615" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5615" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5616">
+      <c r="A5616" s="6" t="n">
+        <v>44856.447916666664</v>
+      </c>
+      <c r="B5616" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5616" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5617">
+      <c r="A5617" s="6" t="n">
+        <v>44856.458333333336</v>
+      </c>
+      <c r="B5617" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5617" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5618">
+      <c r="A5618" s="6" t="n">
+        <v>44856.46875</v>
+      </c>
+      <c r="B5618" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5618" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5619">
+      <c r="A5619" s="6" t="n">
+        <v>44856.479166666664</v>
+      </c>
+      <c r="B5619" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5619" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5620">
+      <c r="A5620" s="6" t="n">
+        <v>44856.489583333336</v>
+      </c>
+      <c r="B5620" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5620" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5621">
+      <c r="A5621" s="6" t="n">
+        <v>44856.5</v>
+      </c>
+      <c r="B5621" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5621" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5622">
+      <c r="A5622" s="6" t="n">
+        <v>44856.510416666664</v>
+      </c>
+      <c r="B5622" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5622" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5623">
+      <c r="A5623" s="6" t="n">
+        <v>44856.520833333336</v>
+      </c>
+      <c r="B5623" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5623" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5624">
+      <c r="A5624" s="6" t="n">
+        <v>44856.53125</v>
+      </c>
+      <c r="B5624" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5624" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5625">
+      <c r="A5625" s="6" t="n">
+        <v>44856.541666666664</v>
+      </c>
+      <c r="B5625" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5625" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5626">
+      <c r="A5626" s="6" t="n">
+        <v>44856.552083333336</v>
+      </c>
+      <c r="B5626" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5626" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5627">
+      <c r="A5627" s="6" t="n">
+        <v>44856.5625</v>
+      </c>
+      <c r="B5627" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5627" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5628">
+      <c r="A5628" s="6" t="n">
+        <v>44856.572916666664</v>
+      </c>
+      <c r="B5628" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5628" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5629">
+      <c r="A5629" s="6" t="n">
+        <v>44856.583333333336</v>
+      </c>
+      <c r="B5629" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5629" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5630">
+      <c r="A5630" s="6" t="n">
+        <v>44856.59375</v>
+      </c>
+      <c r="B5630" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5630" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5631">
+      <c r="A5631" s="6" t="n">
+        <v>44856.604166666664</v>
+      </c>
+      <c r="B5631" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5631" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5632">
+      <c r="A5632" s="6" t="n">
+        <v>44856.614583333336</v>
+      </c>
+      <c r="B5632" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5632" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5633">
+      <c r="A5633" s="6" t="n">
+        <v>44856.625</v>
+      </c>
+      <c r="B5633" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5633" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5634">
+      <c r="A5634" s="6" t="n">
+        <v>44856.635416666664</v>
+      </c>
+      <c r="B5634" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5634" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5635">
+      <c r="A5635" s="6" t="n">
+        <v>44856.645833333336</v>
+      </c>
+      <c r="B5635" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5635" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5636">
+      <c r="A5636" s="6" t="n">
+        <v>44856.65625</v>
+      </c>
+      <c r="B5636" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5636" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5637">
+      <c r="A5637" s="6" t="n">
+        <v>44856.666666666664</v>
+      </c>
+      <c r="B5637" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5637" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5638">
+      <c r="A5638" s="6" t="n">
+        <v>44856.677083333336</v>
+      </c>
+      <c r="B5638" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5638" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5639">
+      <c r="A5639" s="6" t="n">
+        <v>44856.6875</v>
+      </c>
+      <c r="B5639" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5639" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5640">
+      <c r="A5640" s="6" t="n">
+        <v>44856.697916666664</v>
+      </c>
+      <c r="B5640" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5640" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5641">
+      <c r="A5641" s="6" t="n">
+        <v>44856.708333333336</v>
+      </c>
+      <c r="B5641" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5641" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5642">
+      <c r="A5642" s="6" t="n">
+        <v>44856.71875</v>
+      </c>
+      <c r="B5642" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5642" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5643">
+      <c r="A5643" s="6" t="n">
+        <v>44856.729166666664</v>
+      </c>
+      <c r="B5643" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5643" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5644">
+      <c r="A5644" s="6" t="n">
+        <v>44856.739583333336</v>
+      </c>
+      <c r="B5644" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5644" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5645">
+      <c r="A5645" s="6" t="n">
+        <v>44856.75</v>
+      </c>
+      <c r="B5645" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5645" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5646">
+      <c r="A5646" s="6" t="n">
+        <v>44856.760416666664</v>
+      </c>
+      <c r="B5646" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5646" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5647">
+      <c r="A5647" s="6" t="n">
+        <v>44856.770833333336</v>
+      </c>
+      <c r="B5647" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5647" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5648">
+      <c r="A5648" s="6" t="n">
+        <v>44856.78125</v>
+      </c>
+      <c r="B5648" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5648" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5649">
+      <c r="A5649" s="6" t="n">
+        <v>44856.791666666664</v>
+      </c>
+      <c r="B5649" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5649" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5650">
+      <c r="A5650" s="6" t="n">
+        <v>44856.802083333336</v>
+      </c>
+      <c r="B5650" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5650" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5651">
+      <c r="A5651" s="6" t="n">
+        <v>44856.8125</v>
+      </c>
+      <c r="B5651" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5651" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5652">
+      <c r="A5652" s="6" t="n">
+        <v>44856.822916666664</v>
+      </c>
+      <c r="B5652" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5652" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5653">
+      <c r="A5653" s="6" t="n">
+        <v>44856.833333333336</v>
+      </c>
+      <c r="B5653" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5653" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5654">
+      <c r="A5654" s="6" t="n">
+        <v>44856.84375</v>
+      </c>
+      <c r="B5654" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5654" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5655">
+      <c r="A5655" s="6" t="n">
+        <v>44856.854166666664</v>
+      </c>
+      <c r="B5655" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5655" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5656">
+      <c r="A5656" s="6" t="n">
+        <v>44856.864583333336</v>
+      </c>
+      <c r="B5656" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5656" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5657">
+      <c r="A5657" s="6" t="n">
+        <v>44856.875</v>
+      </c>
+      <c r="B5657" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5657" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5658">
+      <c r="A5658" s="6" t="n">
+        <v>44856.885416666664</v>
+      </c>
+      <c r="B5658" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5658" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5659">
+      <c r="A5659" s="6" t="n">
+        <v>44856.895833333336</v>
+      </c>
+      <c r="B5659" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5659" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5660">
+      <c r="A5660" s="6" t="n">
+        <v>44856.90625</v>
+      </c>
+      <c r="B5660" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5660" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5661">
+      <c r="A5661" s="6" t="n">
+        <v>44856.916666666664</v>
+      </c>
+      <c r="B5661" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5661" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5662">
+      <c r="A5662" s="6" t="n">
+        <v>44856.927083333336</v>
+      </c>
+      <c r="B5662" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5662" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5663">
+      <c r="A5663" s="6" t="n">
+        <v>44856.9375</v>
+      </c>
+      <c r="B5663" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5663" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5664">
+      <c r="A5664" s="6" t="n">
+        <v>44856.947916666664</v>
+      </c>
+      <c r="B5664" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5664" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5665">
+      <c r="A5665" s="6" t="n">
+        <v>44856.958333333336</v>
+      </c>
+      <c r="B5665" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5665" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5666">
+      <c r="A5666" s="6" t="n">
+        <v>44856.96875</v>
+      </c>
+      <c r="B5666" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5666" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5667">
+      <c r="A5667" s="6" t="n">
+        <v>44856.979166666664</v>
+      </c>
+      <c r="B5667" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5667" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5668">
+      <c r="A5668" s="6" t="n">
+        <v>44856.989583333336</v>
+      </c>
+      <c r="B5668" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5668" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5669">
+      <c r="A5669" s="6" t="n">
+        <v>44857.0</v>
+      </c>
+      <c r="B5669" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5669" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5670">
+      <c r="A5670" s="6" t="n">
+        <v>44857.010416666664</v>
+      </c>
+      <c r="B5670" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5670" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5671">
+      <c r="A5671" s="6" t="n">
+        <v>44857.020833333336</v>
+      </c>
+      <c r="B5671" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5671" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5672">
+      <c r="A5672" s="6" t="n">
+        <v>44857.03125</v>
+      </c>
+      <c r="B5672" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5672" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5673">
+      <c r="A5673" s="6" t="n">
+        <v>44857.041666666664</v>
+      </c>
+      <c r="B5673" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5673" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5674">
+      <c r="A5674" s="6" t="n">
+        <v>44857.052083333336</v>
+      </c>
+      <c r="B5674" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5674" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5675">
+      <c r="A5675" s="6" t="n">
+        <v>44857.0625</v>
+      </c>
+      <c r="B5675" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5675" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5676">
+      <c r="A5676" s="6" t="n">
+        <v>44857.072916666664</v>
+      </c>
+      <c r="B5676" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5676" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5677">
+      <c r="A5677" s="6" t="n">
+        <v>44857.083333333336</v>
+      </c>
+      <c r="B5677" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5677" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5678">
+      <c r="A5678" s="6" t="n">
+        <v>44857.09375</v>
+      </c>
+      <c r="B5678" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5678" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5679">
+      <c r="A5679" s="6" t="n">
+        <v>44857.104166666664</v>
+      </c>
+      <c r="B5679" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5679" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5680">
+      <c r="A5680" s="6" t="n">
+        <v>44857.114583333336</v>
+      </c>
+      <c r="B5680" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5680" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5681">
+      <c r="A5681" s="6" t="n">
+        <v>44857.125</v>
+      </c>
+      <c r="B5681" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5681" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5682">
+      <c r="A5682" s="6" t="n">
+        <v>44857.135416666664</v>
+      </c>
+      <c r="B5682" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5682" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5683">
+      <c r="A5683" s="6" t="n">
+        <v>44857.145833333336</v>
+      </c>
+      <c r="B5683" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5683" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5684">
+      <c r="A5684" s="6" t="n">
+        <v>44857.15625</v>
+      </c>
+      <c r="B5684" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5684" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5685">
+      <c r="A5685" s="6" t="n">
+        <v>44857.166666666664</v>
+      </c>
+      <c r="B5685" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5685" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5686">
+      <c r="A5686" s="6" t="n">
+        <v>44857.177083333336</v>
+      </c>
+      <c r="B5686" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5686" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5687">
+      <c r="A5687" s="6" t="n">
+        <v>44857.1875</v>
+      </c>
+      <c r="B5687" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5687" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5688">
+      <c r="A5688" s="6" t="n">
+        <v>44857.197916666664</v>
+      </c>
+      <c r="B5688" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5688" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5689">
+      <c r="A5689" s="6" t="n">
+        <v>44857.208333333336</v>
+      </c>
+      <c r="B5689" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5689" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5690">
+      <c r="A5690" s="6" t="n">
+        <v>44857.21875</v>
+      </c>
+      <c r="B5690" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5690" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5691">
+      <c r="A5691" s="6" t="n">
+        <v>44857.229166666664</v>
+      </c>
+      <c r="B5691" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5691" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5692">
+      <c r="A5692" s="6" t="n">
+        <v>44857.239583333336</v>
+      </c>
+      <c r="B5692" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5692" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5693">
+      <c r="A5693" s="6" t="n">
+        <v>44857.25</v>
+      </c>
+      <c r="B5693" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5693" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5694">
+      <c r="A5694" s="6" t="n">
+        <v>44857.260416666664</v>
+      </c>
+      <c r="B5694" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5694" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5695">
+      <c r="A5695" s="6" t="n">
+        <v>44857.270833333336</v>
+      </c>
+      <c r="B5695" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5695" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5696">
+      <c r="A5696" s="6" t="n">
+        <v>44857.28125</v>
+      </c>
+      <c r="B5696" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5696" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5697">
+      <c r="A5697" s="6" t="n">
+        <v>44857.291666666664</v>
+      </c>
+      <c r="B5697" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5697" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5698">
+      <c r="A5698" s="6" t="n">
+        <v>44857.302083333336</v>
+      </c>
+      <c r="B5698" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5698" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5699">
+      <c r="A5699" s="6" t="n">
+        <v>44857.3125</v>
+      </c>
+      <c r="B5699" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5699" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5700">
+      <c r="A5700" s="6" t="n">
+        <v>44857.322916666664</v>
+      </c>
+      <c r="B5700" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5700" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5701">
+      <c r="A5701" s="6" t="n">
+        <v>44857.333333333336</v>
+      </c>
+      <c r="B5701" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5701" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5702">
+      <c r="A5702" s="6" t="n">
+        <v>44857.34375</v>
+      </c>
+      <c r="B5702" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5702" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5703">
+      <c r="A5703" s="6" t="n">
+        <v>44857.354166666664</v>
+      </c>
+      <c r="B5703" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5703" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5704">
+      <c r="A5704" s="6" t="n">
+        <v>44857.364583333336</v>
+      </c>
+      <c r="B5704" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5704" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5705">
+      <c r="A5705" s="6" t="n">
+        <v>44857.375</v>
+      </c>
+      <c r="B5705" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5705" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5706">
+      <c r="A5706" s="6" t="n">
+        <v>44857.385416666664</v>
+      </c>
+      <c r="B5706" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5706" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5707">
+      <c r="A5707" s="6" t="n">
+        <v>44857.395833333336</v>
+      </c>
+      <c r="B5707" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5707" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5708">
+      <c r="A5708" s="6" t="n">
+        <v>44857.40625</v>
+      </c>
+      <c r="B5708" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5708" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5709">
+      <c r="A5709" s="6" t="n">
+        <v>44857.416666666664</v>
+      </c>
+      <c r="B5709" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5709" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5710">
+      <c r="A5710" s="6" t="n">
+        <v>44857.427083333336</v>
+      </c>
+      <c r="B5710" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5710" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5711">
+      <c r="A5711" s="6" t="n">
+        <v>44857.4375</v>
+      </c>
+      <c r="B5711" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5711" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5712">
+      <c r="A5712" s="6" t="n">
+        <v>44857.447916666664</v>
+      </c>
+      <c r="B5712" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5712" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5713">
+      <c r="A5713" s="6" t="n">
+        <v>44857.458333333336</v>
+      </c>
+      <c r="B5713" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5713" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5714">
+      <c r="A5714" s="6" t="n">
+        <v>44857.46875</v>
+      </c>
+      <c r="B5714" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5714" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5715">
+      <c r="A5715" s="6" t="n">
+        <v>44857.479166666664</v>
+      </c>
+      <c r="B5715" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5715" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5716">
+      <c r="A5716" s="6" t="n">
+        <v>44857.489583333336</v>
+      </c>
+      <c r="B5716" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5716" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5717">
+      <c r="A5717" s="6" t="n">
+        <v>44857.5</v>
+      </c>
+      <c r="B5717" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5717" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5718">
+      <c r="A5718" s="6" t="n">
+        <v>44857.510416666664</v>
+      </c>
+      <c r="B5718" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5718" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5719">
+      <c r="A5719" s="6" t="n">
+        <v>44857.520833333336</v>
+      </c>
+      <c r="B5719" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5719" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5720">
+      <c r="A5720" s="6" t="n">
+        <v>44857.53125</v>
+      </c>
+      <c r="B5720" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5720" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5721">
+      <c r="A5721" s="6" t="n">
+        <v>44857.541666666664</v>
+      </c>
+      <c r="B5721" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5721" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5722">
+      <c r="A5722" s="6" t="n">
+        <v>44857.552083333336</v>
+      </c>
+      <c r="B5722" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5722" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5723">
+      <c r="A5723" s="6" t="n">
+        <v>44857.5625</v>
+      </c>
+      <c r="B5723" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5723" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5724">
+      <c r="A5724" s="6" t="n">
+        <v>44857.572916666664</v>
+      </c>
+      <c r="B5724" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5724" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5725">
+      <c r="A5725" s="6" t="n">
+        <v>44857.583333333336</v>
+      </c>
+      <c r="B5725" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5725" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5726">
+      <c r="A5726" s="6" t="n">
+        <v>44857.59375</v>
+      </c>
+      <c r="B5726" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5726" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5727">
+      <c r="A5727" s="6" t="n">
+        <v>44857.604166666664</v>
+      </c>
+      <c r="B5727" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5727" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5728">
+      <c r="A5728" s="6" t="n">
+        <v>44857.614583333336</v>
+      </c>
+      <c r="B5728" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5728" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5729">
+      <c r="A5729" s="6" t="n">
+        <v>44857.625</v>
+      </c>
+      <c r="B5729" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5729" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5730">
+      <c r="A5730" s="6" t="n">
+        <v>44857.635416666664</v>
+      </c>
+      <c r="B5730" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5730" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5731">
+      <c r="A5731" s="6" t="n">
+        <v>44857.645833333336</v>
+      </c>
+      <c r="B5731" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5731" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5732">
+      <c r="A5732" s="6" t="n">
+        <v>44857.65625</v>
+      </c>
+      <c r="B5732" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5732" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5733">
+      <c r="A5733" s="6" t="n">
+        <v>44857.666666666664</v>
+      </c>
+      <c r="B5733" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5733" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5734">
+      <c r="A5734" s="6" t="n">
+        <v>44857.677083333336</v>
+      </c>
+      <c r="B5734" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5734" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5735">
+      <c r="A5735" s="6" t="n">
+        <v>44857.6875</v>
+      </c>
+      <c r="B5735" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5735" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5736">
+      <c r="A5736" s="6" t="n">
+        <v>44857.697916666664</v>
+      </c>
+      <c r="B5736" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C5736" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5737">
+      <c r="A5737" s="6" t="n">
+        <v>44857.708333333336</v>
+      </c>
+      <c r="B5737" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5737" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5738">
+      <c r="A5738" s="6" t="n">
+        <v>44857.71875</v>
+      </c>
+      <c r="B5738" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5738" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5739">
+      <c r="A5739" s="6" t="n">
+        <v>44857.729166666664</v>
+      </c>
+      <c r="B5739" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5739" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5740">
+      <c r="A5740" s="6" t="n">
+        <v>44857.739583333336</v>
+      </c>
+      <c r="B5740" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5740" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5741">
+      <c r="A5741" s="6" t="n">
+        <v>44857.75</v>
+      </c>
+      <c r="B5741" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5741" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5742">
+      <c r="A5742" s="6" t="n">
+        <v>44857.760416666664</v>
+      </c>
+      <c r="B5742" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5742" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5743">
+      <c r="A5743" s="6" t="n">
+        <v>44857.770833333336</v>
+      </c>
+      <c r="B5743" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5743" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5744">
+      <c r="A5744" s="6" t="n">
+        <v>44857.78125</v>
+      </c>
+      <c r="B5744" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5744" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5745">
+      <c r="A5745" s="6" t="n">
+        <v>44857.791666666664</v>
+      </c>
+      <c r="B5745" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5745" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5746">
+      <c r="A5746" s="6" t="n">
+        <v>44857.802083333336</v>
+      </c>
+      <c r="B5746" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5746" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5747">
+      <c r="A5747" s="6" t="n">
+        <v>44857.8125</v>
+      </c>
+      <c r="B5747" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5747" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5748">
+      <c r="A5748" s="6" t="n">
+        <v>44857.822916666664</v>
+      </c>
+      <c r="B5748" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5748" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5749">
+      <c r="A5749" s="6" t="n">
+        <v>44857.833333333336</v>
+      </c>
+      <c r="B5749" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5749" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5750">
+      <c r="A5750" s="6" t="n">
+        <v>44857.84375</v>
+      </c>
+      <c r="B5750" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5750" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5751">
+      <c r="A5751" s="6" t="n">
+        <v>44857.854166666664</v>
+      </c>
+      <c r="B5751" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5751" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5752">
+      <c r="A5752" s="6" t="n">
+        <v>44857.864583333336</v>
+      </c>
+      <c r="B5752" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5752" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5753">
+      <c r="A5753" s="6" t="n">
+        <v>44857.875</v>
+      </c>
+      <c r="B5753" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5753" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5754">
+      <c r="A5754" s="6" t="n">
+        <v>44857.885416666664</v>
+      </c>
+      <c r="B5754" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5754" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5755">
+      <c r="A5755" s="6" t="n">
+        <v>44857.895833333336</v>
+      </c>
+      <c r="B5755" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5755" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5756">
+      <c r="A5756" s="6" t="n">
+        <v>44857.90625</v>
+      </c>
+      <c r="B5756" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5756" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5757">
+      <c r="A5757" s="6" t="n">
+        <v>44857.916666666664</v>
+      </c>
+      <c r="B5757" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5757" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5758">
+      <c r="A5758" s="6" t="n">
+        <v>44857.927083333336</v>
+      </c>
+      <c r="B5758" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5758" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5759">
+      <c r="A5759" s="6" t="n">
+        <v>44857.9375</v>
+      </c>
+      <c r="B5759" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5759" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5760">
+      <c r="A5760" s="6" t="n">
+        <v>44857.947916666664</v>
+      </c>
+      <c r="B5760" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5760" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5761">
+      <c r="A5761" s="6" t="n">
+        <v>44857.958333333336</v>
+      </c>
+      <c r="B5761" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5761" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5762">
+      <c r="A5762" s="6" t="n">
+        <v>44857.96875</v>
+      </c>
+      <c r="B5762" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5762" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5763">
+      <c r="A5763" s="6" t="n">
+        <v>44857.979166666664</v>
+      </c>
+      <c r="B5763" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5763" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5764">
+      <c r="A5764" s="6" t="n">
+        <v>44857.989583333336</v>
+      </c>
+      <c r="B5764" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5764" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5765">
+      <c r="A5765" s="6" t="n">
+        <v>44858.0</v>
+      </c>
+      <c r="B5765" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5765" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5766">
+      <c r="A5766" s="6" t="n">
+        <v>44858.010416666664</v>
+      </c>
+      <c r="B5766" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5766" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5767">
+      <c r="A5767" s="6" t="n">
+        <v>44858.020833333336</v>
+      </c>
+      <c r="B5767" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5767" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5768">
+      <c r="A5768" s="6" t="n">
+        <v>44858.03125</v>
+      </c>
+      <c r="B5768" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5768" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5769">
+      <c r="A5769" s="6" t="n">
+        <v>44858.041666666664</v>
+      </c>
+      <c r="B5769" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5769" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5770">
+      <c r="A5770" s="6" t="n">
+        <v>44858.052083333336</v>
+      </c>
+      <c r="B5770" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5770" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5771">
+      <c r="A5771" s="6" t="n">
+        <v>44858.0625</v>
+      </c>
+      <c r="B5771" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5771" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5772">
+      <c r="A5772" s="6" t="n">
+        <v>44858.072916666664</v>
+      </c>
+      <c r="B5772" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5772" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5773">
+      <c r="A5773" s="6" t="n">
+        <v>44858.083333333336</v>
+      </c>
+      <c r="B5773" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5773" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5774">
+      <c r="A5774" s="6" t="n">
+        <v>44858.09375</v>
+      </c>
+      <c r="B5774" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5774" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5775">
+      <c r="A5775" s="6" t="n">
+        <v>44858.104166666664</v>
+      </c>
+      <c r="B5775" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5775" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5776">
+      <c r="A5776" s="6" t="n">
+        <v>44858.114583333336</v>
+      </c>
+      <c r="B5776" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5776" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5777">
+      <c r="A5777" s="6" t="n">
+        <v>44858.125</v>
+      </c>
+      <c r="B5777" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5777" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5778">
+      <c r="A5778" s="6" t="n">
+        <v>44858.135416666664</v>
+      </c>
+      <c r="B5778" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5778" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5779">
+      <c r="A5779" s="6" t="n">
+        <v>44858.145833333336</v>
+      </c>
+      <c r="B5779" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5779" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5780">
+      <c r="A5780" s="6" t="n">
+        <v>44858.15625</v>
+      </c>
+      <c r="B5780" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5780" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5781">
+      <c r="A5781" s="6" t="n">
+        <v>44858.166666666664</v>
+      </c>
+      <c r="B5781" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5781" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5782">
+      <c r="A5782" s="6" t="n">
+        <v>44858.177083333336</v>
+      </c>
+      <c r="B5782" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5782" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5783">
+      <c r="A5783" s="6" t="n">
+        <v>44858.1875</v>
+      </c>
+      <c r="B5783" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5783" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5784">
+      <c r="A5784" s="6" t="n">
+        <v>44858.197916666664</v>
+      </c>
+      <c r="B5784" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5784" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5785">
+      <c r="A5785" s="6" t="n">
+        <v>44858.208333333336</v>
+      </c>
+      <c r="B5785" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5785" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5786">
+      <c r="A5786" s="6" t="n">
+        <v>44858.21875</v>
+      </c>
+      <c r="B5786" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5786" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5787">
+      <c r="A5787" s="6" t="n">
+        <v>44858.229166666664</v>
+      </c>
+      <c r="B5787" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5787" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5788">
+      <c r="A5788" s="6" t="n">
+        <v>44858.239583333336</v>
+      </c>
+      <c r="B5788" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5788" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5789">
+      <c r="A5789" s="6" t="n">
+        <v>44858.25</v>
+      </c>
+      <c r="B5789" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5789" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5790">
+      <c r="A5790" s="6" t="n">
+        <v>44858.260416666664</v>
+      </c>
+      <c r="B5790" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5790" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5791">
+      <c r="A5791" s="6" t="n">
+        <v>44858.270833333336</v>
+      </c>
+      <c r="B5791" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5791" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5792">
+      <c r="A5792" s="6" t="n">
+        <v>44858.28125</v>
+      </c>
+      <c r="B5792" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5792" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5793">
+      <c r="A5793" s="6" t="n">
+        <v>44858.291666666664</v>
+      </c>
+      <c r="B5793" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5793" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5794">
+      <c r="A5794" s="6" t="n">
+        <v>44858.302083333336</v>
+      </c>
+      <c r="B5794" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5794" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5795">
+      <c r="A5795" s="6" t="n">
+        <v>44858.3125</v>
+      </c>
+      <c r="B5795" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5795" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5796">
+      <c r="A5796" s="6" t="n">
+        <v>44858.322916666664</v>
+      </c>
+      <c r="B5796" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5796" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5797">
+      <c r="A5797" s="6" t="n">
+        <v>44858.333333333336</v>
+      </c>
+      <c r="B5797" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5797" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5798">
+      <c r="A5798" s="6" t="n">
+        <v>44858.34375</v>
+      </c>
+      <c r="B5798" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5798" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5799">
+      <c r="A5799" s="6" t="n">
+        <v>44858.354166666664</v>
+      </c>
+      <c r="B5799" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5799" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5800">
+      <c r="A5800" s="6" t="n">
+        <v>44858.364583333336</v>
+      </c>
+      <c r="B5800" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5800" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5801">
+      <c r="A5801" s="6" t="n">
+        <v>44858.375</v>
+      </c>
+      <c r="B5801" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5801" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5802">
+      <c r="A5802" s="6" t="n">
+        <v>44858.385416666664</v>
+      </c>
+      <c r="B5802" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5802" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5803">
+      <c r="A5803" s="6" t="n">
+        <v>44858.395833333336</v>
+      </c>
+      <c r="B5803" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5803" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5804">
+      <c r="A5804" s="6" t="n">
+        <v>44858.40625</v>
+      </c>
+      <c r="B5804" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5804" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5805">
+      <c r="A5805" s="6" t="n">
+        <v>44858.416666666664</v>
+      </c>
+      <c r="B5805" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5805" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5806">
+      <c r="A5806" s="6" t="n">
+        <v>44858.427083333336</v>
+      </c>
+      <c r="B5806" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5806" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5807">
+      <c r="A5807" s="6" t="n">
+        <v>44858.4375</v>
+      </c>
+      <c r="B5807" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5807" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5808">
+      <c r="A5808" s="6" t="n">
+        <v>44858.447916666664</v>
+      </c>
+      <c r="B5808" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5808" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5809">
+      <c r="A5809" s="6" t="n">
+        <v>44858.458333333336</v>
+      </c>
+      <c r="B5809" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5809" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5810">
+      <c r="A5810" s="6" t="n">
+        <v>44858.46875</v>
+      </c>
+      <c r="B5810" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5810" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5811">
+      <c r="A5811" s="6" t="n">
+        <v>44858.479166666664</v>
+      </c>
+      <c r="B5811" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5811" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5812">
+      <c r="A5812" s="6" t="n">
+        <v>44858.489583333336</v>
+      </c>
+      <c r="B5812" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5812" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5813">
+      <c r="A5813" s="6" t="n">
+        <v>44858.5</v>
+      </c>
+      <c r="B5813" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5813" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5814">
+      <c r="A5814" s="6" t="n">
+        <v>44858.510416666664</v>
+      </c>
+      <c r="B5814" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5814" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5815">
+      <c r="A5815" s="6" t="n">
+        <v>44858.520833333336</v>
+      </c>
+      <c r="B5815" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5815" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5816">
+      <c r="A5816" s="6" t="n">
+        <v>44858.53125</v>
+      </c>
+      <c r="B5816" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C5816" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5817">
+      <c r="A5817" s="6" t="n">
+        <v>44858.541666666664</v>
+      </c>
+      <c r="B5817" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5817" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5818">
+      <c r="A5818" s="6" t="n">
+        <v>44858.552083333336</v>
+      </c>
+      <c r="B5818" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5818" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5819">
+      <c r="A5819" s="6" t="n">
+        <v>44858.5625</v>
+      </c>
+      <c r="B5819" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5819" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5820">
+      <c r="A5820" s="6" t="n">
+        <v>44858.572916666664</v>
+      </c>
+      <c r="B5820" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5820" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5821">
+      <c r="A5821" s="6" t="n">
+        <v>44858.583333333336</v>
+      </c>
+      <c r="B5821" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5821" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5822">
+      <c r="A5822" s="6" t="n">
+        <v>44858.59375</v>
+      </c>
+      <c r="B5822" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5822" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5823">
+      <c r="A5823" s="6" t="n">
+        <v>44858.604166666664</v>
+      </c>
+      <c r="B5823" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5823" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5824">
+      <c r="A5824" s="6" t="n">
+        <v>44858.614583333336</v>
+      </c>
+      <c r="B5824" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5824" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5825">
+      <c r="A5825" s="6" t="n">
+        <v>44858.625</v>
+      </c>
+      <c r="B5825" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5825" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5826">
+      <c r="A5826" s="6" t="n">
+        <v>44858.635416666664</v>
+      </c>
+      <c r="B5826" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5826" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5827">
+      <c r="A5827" s="6" t="n">
+        <v>44858.645833333336</v>
+      </c>
+      <c r="B5827" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5827" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5828">
+      <c r="A5828" s="6" t="n">
+        <v>44858.65625</v>
+      </c>
+      <c r="B5828" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5828" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5829">
+      <c r="A5829" s="6" t="n">
+        <v>44858.666666666664</v>
+      </c>
+      <c r="B5829" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5829" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5830">
+      <c r="A5830" s="6" t="n">
+        <v>44858.677083333336</v>
+      </c>
+      <c r="B5830" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5830" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5831">
+      <c r="A5831" s="6" t="n">
+        <v>44858.6875</v>
+      </c>
+      <c r="B5831" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5831" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5832">
+      <c r="A5832" s="6" t="n">
+        <v>44858.697916666664</v>
+      </c>
+      <c r="B5832" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5832" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5833">
+      <c r="A5833" s="6" t="n">
+        <v>44858.708333333336</v>
+      </c>
+      <c r="B5833" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C5833" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5834">
+      <c r="A5834" s="6" t="n">
+        <v>44858.71875</v>
+      </c>
+      <c r="B5834" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5834" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5835">
+      <c r="A5835" s="6" t="n">
+        <v>44858.729166666664</v>
+      </c>
+      <c r="B5835" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5835" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5836">
+      <c r="A5836" s="6" t="n">
+        <v>44858.739583333336</v>
+      </c>
+      <c r="B5836" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5836" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5837">
+      <c r="A5837" s="6" t="n">
+        <v>44858.75</v>
+      </c>
+      <c r="B5837" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5837" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5838">
+      <c r="A5838" s="6" t="n">
+        <v>44858.760416666664</v>
+      </c>
+      <c r="B5838" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5838" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5839">
+      <c r="A5839" s="6" t="n">
+        <v>44858.770833333336</v>
+      </c>
+      <c r="B5839" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5839" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5840">
+      <c r="A5840" s="6" t="n">
+        <v>44858.78125</v>
+      </c>
+      <c r="B5840" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5840" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5841">
+      <c r="A5841" s="6" t="n">
+        <v>44858.791666666664</v>
+      </c>
+      <c r="B5841" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5841" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5842">
+      <c r="A5842" s="6" t="n">
+        <v>44858.802083333336</v>
+      </c>
+      <c r="B5842" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5842" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5843">
+      <c r="A5843" s="6" t="n">
+        <v>44858.8125</v>
+      </c>
+      <c r="B5843" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5843" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5844">
+      <c r="A5844" s="6" t="n">
+        <v>44858.822916666664</v>
+      </c>
+      <c r="B5844" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5844" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5845">
+      <c r="A5845" s="6" t="n">
+        <v>44858.833333333336</v>
+      </c>
+      <c r="B5845" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5845" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5846">
+      <c r="A5846" s="6" t="n">
+        <v>44858.84375</v>
+      </c>
+      <c r="B5846" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5846" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5847">
+      <c r="A5847" s="6" t="n">
+        <v>44858.854166666664</v>
+      </c>
+      <c r="B5847" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5847" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5848">
+      <c r="A5848" s="6" t="n">
+        <v>44858.864583333336</v>
+      </c>
+      <c r="B5848" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5848" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5849">
+      <c r="A5849" s="6" t="n">
+        <v>44858.875</v>
+      </c>
+      <c r="B5849" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5849" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5850">
+      <c r="A5850" s="6" t="n">
+        <v>44858.885416666664</v>
+      </c>
+      <c r="B5850" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5850" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5851">
+      <c r="A5851" s="6" t="n">
+        <v>44858.895833333336</v>
+      </c>
+      <c r="B5851" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5851" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5852">
+      <c r="A5852" s="6" t="n">
+        <v>44858.90625</v>
+      </c>
+      <c r="B5852" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5852" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5853">
+      <c r="A5853" s="6" t="n">
+        <v>44858.916666666664</v>
+      </c>
+      <c r="B5853" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5853" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5854">
+      <c r="A5854" s="6" t="n">
+        <v>44858.927083333336</v>
+      </c>
+      <c r="B5854" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5854" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5855">
+      <c r="A5855" s="6" t="n">
+        <v>44858.9375</v>
+      </c>
+      <c r="B5855" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5855" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5856">
+      <c r="A5856" s="6" t="n">
+        <v>44858.947916666664</v>
+      </c>
+      <c r="B5856" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5856" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5857">
+      <c r="A5857" s="6" t="n">
+        <v>44858.958333333336</v>
+      </c>
+      <c r="B5857" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5857" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5858">
+      <c r="A5858" s="6" t="n">
+        <v>44858.96875</v>
+      </c>
+      <c r="B5858" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5858" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5859">
+      <c r="A5859" s="6" t="n">
+        <v>44858.979166666664</v>
+      </c>
+      <c r="B5859" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5859" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5860">
+      <c r="A5860" s="6" t="n">
+        <v>44858.989583333336</v>
+      </c>
+      <c r="B5860" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5860" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5861">
+      <c r="A5861" s="6" t="n">
+        <v>44859.0</v>
+      </c>
+      <c r="B5861" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5861" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5862">
+      <c r="A5862" s="6" t="n">
+        <v>44859.010416666664</v>
+      </c>
+      <c r="B5862" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5862" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5863">
+      <c r="A5863" s="6" t="n">
+        <v>44859.020833333336</v>
+      </c>
+      <c r="B5863" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5863" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5864">
+      <c r="A5864" s="6" t="n">
+        <v>44859.03125</v>
+      </c>
+      <c r="B5864" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5864" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5865">
+      <c r="A5865" s="6" t="n">
+        <v>44859.041666666664</v>
+      </c>
+      <c r="B5865" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5865" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5866">
+      <c r="A5866" s="6" t="n">
+        <v>44859.052083333336</v>
+      </c>
+      <c r="B5866" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5866" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5867">
+      <c r="A5867" s="6" t="n">
+        <v>44859.0625</v>
+      </c>
+      <c r="B5867" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5867" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5868">
+      <c r="A5868" s="6" t="n">
+        <v>44859.072916666664</v>
+      </c>
+      <c r="B5868" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5868" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5869">
+      <c r="A5869" s="6" t="n">
+        <v>44859.083333333336</v>
+      </c>
+      <c r="B5869" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5869" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5870">
+      <c r="A5870" s="6" t="n">
+        <v>44859.09375</v>
+      </c>
+      <c r="B5870" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5870" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5871">
+      <c r="A5871" s="6" t="n">
+        <v>44859.104166666664</v>
+      </c>
+      <c r="B5871" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5871" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5872">
+      <c r="A5872" s="6" t="n">
+        <v>44859.114583333336</v>
+      </c>
+      <c r="B5872" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5872" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5873">
+      <c r="A5873" s="6" t="n">
+        <v>44859.125</v>
+      </c>
+      <c r="B5873" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5873" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5874">
+      <c r="A5874" s="6" t="n">
+        <v>44859.135416666664</v>
+      </c>
+      <c r="B5874" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5874" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5875">
+      <c r="A5875" s="6" t="n">
+        <v>44859.145833333336</v>
+      </c>
+      <c r="B5875" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5875" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5876">
+      <c r="A5876" s="6" t="n">
+        <v>44859.15625</v>
+      </c>
+      <c r="B5876" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5876" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5877">
+      <c r="A5877" s="6" t="n">
+        <v>44859.166666666664</v>
+      </c>
+      <c r="B5877" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5877" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5878">
+      <c r="A5878" s="6" t="n">
+        <v>44859.177083333336</v>
+      </c>
+      <c r="B5878" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5878" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5879">
+      <c r="A5879" s="6" t="n">
+        <v>44859.1875</v>
+      </c>
+      <c r="B5879" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5879" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5880">
+      <c r="A5880" s="6" t="n">
+        <v>44859.197916666664</v>
+      </c>
+      <c r="B5880" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5880" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5881">
+      <c r="A5881" s="6" t="n">
+        <v>44859.208333333336</v>
+      </c>
+      <c r="B5881" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5881" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5882">
+      <c r="A5882" s="6" t="n">
+        <v>44859.21875</v>
+      </c>
+      <c r="B5882" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5882" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5883">
+      <c r="A5883" s="6" t="n">
+        <v>44859.229166666664</v>
+      </c>
+      <c r="B5883" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5883" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5884">
+      <c r="A5884" s="6" t="n">
+        <v>44859.239583333336</v>
+      </c>
+      <c r="B5884" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5884" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5885">
+      <c r="A5885" s="6" t="n">
+        <v>44859.25</v>
+      </c>
+      <c r="B5885" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5885" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5886">
+      <c r="A5886" s="6" t="n">
+        <v>44859.260416666664</v>
+      </c>
+      <c r="B5886" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5886" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5887">
+      <c r="A5887" s="6" t="n">
+        <v>44859.270833333336</v>
+      </c>
+      <c r="B5887" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5887" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5888">
+      <c r="A5888" s="6" t="n">
+        <v>44859.28125</v>
+      </c>
+      <c r="B5888" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5888" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5889">
+      <c r="A5889" s="6" t="n">
+        <v>44859.291666666664</v>
+      </c>
+      <c r="B5889" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5889" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5890">
+      <c r="A5890" s="6" t="n">
+        <v>44859.302083333336</v>
+      </c>
+      <c r="B5890" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5890" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5891">
+      <c r="A5891" s="6" t="n">
+        <v>44859.3125</v>
+      </c>
+      <c r="B5891" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5891" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5892">
+      <c r="A5892" s="6" t="n">
+        <v>44859.322916666664</v>
+      </c>
+      <c r="B5892" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5892" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5893">
+      <c r="A5893" s="6" t="n">
+        <v>44859.333333333336</v>
+      </c>
+      <c r="B5893" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5893" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5894">
+      <c r="A5894" s="6" t="n">
+        <v>44859.34375</v>
+      </c>
+      <c r="B5894" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5894" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5895">
+      <c r="A5895" s="6" t="n">
+        <v>44859.354166666664</v>
+      </c>
+      <c r="B5895" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5895" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5896">
+      <c r="A5896" s="6" t="n">
+        <v>44859.364583333336</v>
+      </c>
+      <c r="B5896" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5896" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5897">
+      <c r="A5897" s="6" t="n">
+        <v>44859.375</v>
+      </c>
+      <c r="B5897" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5897" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5898">
+      <c r="A5898" s="6" t="n">
+        <v>44859.385416666664</v>
+      </c>
+      <c r="B5898" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5898" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5899">
+      <c r="A5899" s="6" t="n">
+        <v>44859.395833333336</v>
+      </c>
+      <c r="B5899" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5899" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5900">
+      <c r="A5900" s="6" t="n">
+        <v>44859.40625</v>
+      </c>
+      <c r="B5900" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5900" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5901">
+      <c r="A5901" s="6" t="n">
+        <v>44859.416666666664</v>
+      </c>
+      <c r="B5901" s="1"/>
+      <c r="C5901" s="1"/>
+    </row>
+    <row r="5902">
+      <c r="A5902" s="6" t="n">
+        <v>44859.427083333336</v>
+      </c>
+      <c r="B5902" s="1"/>
+      <c r="C5902" s="1"/>
+    </row>
+    <row r="5903">
+      <c r="A5903" s="6" t="n">
+        <v>44859.4375</v>
+      </c>
+      <c r="B5903" s="1"/>
+      <c r="C5903" s="1"/>
+    </row>
+    <row r="5904">
+      <c r="A5904" s="6" t="n">
+        <v>44859.447916666664</v>
+      </c>
+      <c r="B5904" s="1"/>
+      <c r="C5904" s="1"/>
+    </row>
+    <row r="5905">
+      <c r="A5905" s="6" t="n">
+        <v>44859.458333333336</v>
+      </c>
+      <c r="B5905" s="1"/>
+      <c r="C5905" s="1"/>
+    </row>
+    <row r="5906">
+      <c r="A5906" s="6" t="n">
+        <v>44859.46875</v>
+      </c>
+      <c r="B5906" s="1"/>
+      <c r="C5906" s="1"/>
+    </row>
+    <row r="5907">
+      <c r="A5907" s="6" t="n">
+        <v>44859.479166666664</v>
+      </c>
+      <c r="B5907" s="1"/>
+      <c r="C5907" s="1"/>
+    </row>
+    <row r="5908">
+      <c r="A5908" s="6" t="n">
+        <v>44859.489583333336</v>
+      </c>
+      <c r="B5908" s="1"/>
+      <c r="C5908" s="1"/>
+    </row>
+    <row r="5909">
+      <c r="A5909" s="6" t="n">
+        <v>44859.5</v>
+      </c>
+      <c r="B5909" s="1"/>
+      <c r="C5909" s="1"/>
+    </row>
+    <row r="5910">
+      <c r="A5910" s="6" t="n">
+        <v>44859.510416666664</v>
+      </c>
+      <c r="B5910" s="1"/>
+      <c r="C5910" s="1"/>
+    </row>
+    <row r="5911">
+      <c r="A5911" s="6" t="n">
+        <v>44859.520833333336</v>
+      </c>
+      <c r="B5911" s="1"/>
+      <c r="C5911" s="1"/>
+    </row>
+    <row r="5912">
+      <c r="A5912" s="6" t="n">
+        <v>44859.53125</v>
+      </c>
+      <c r="B5912" s="1"/>
+      <c r="C5912" s="1"/>
+    </row>
+    <row r="5913">
+      <c r="A5913" s="6" t="n">
+        <v>44859.541666666664</v>
+      </c>
+      <c r="B5913" s="1"/>
+      <c r="C5913" s="1"/>
+    </row>
+    <row r="5914">
+      <c r="A5914" s="6" t="n">
+        <v>44859.552083333336</v>
+      </c>
+      <c r="B5914" s="1"/>
+      <c r="C5914" s="1"/>
+    </row>
+    <row r="5915">
+      <c r="A5915" s="6" t="n">
+        <v>44859.5625</v>
+      </c>
+      <c r="B5915" s="1"/>
+      <c r="C5915" s="1"/>
+    </row>
+    <row r="5916">
+      <c r="A5916" s="6" t="n">
+        <v>44859.572916666664</v>
+      </c>
+      <c r="B5916" s="1"/>
+      <c r="C5916" s="1"/>
+    </row>
+    <row r="5917">
+      <c r="A5917" s="6" t="n">
+        <v>44859.583333333336</v>
+      </c>
+      <c r="B5917" s="1"/>
+      <c r="C5917" s="1"/>
+    </row>
+    <row r="5918">
+      <c r="A5918" s="6" t="n">
+        <v>44859.59375</v>
+      </c>
+      <c r="B5918" s="1"/>
+      <c r="C5918" s="1"/>
+    </row>
+    <row r="5919">
+      <c r="A5919" s="6" t="n">
+        <v>44859.604166666664</v>
+      </c>
+      <c r="B5919" s="1"/>
+      <c r="C5919" s="1"/>
+    </row>
+    <row r="5920">
+      <c r="A5920" s="6" t="n">
+        <v>44859.614583333336</v>
+      </c>
+      <c r="B5920" s="1"/>
+      <c r="C5920" s="1"/>
+    </row>
+    <row r="5921">
+      <c r="A5921" s="6" t="n">
+        <v>44859.625</v>
+      </c>
+      <c r="B5921" s="1"/>
+      <c r="C5921" s="1"/>
+    </row>
+    <row r="5922">
+      <c r="A5922" s="6" t="n">
+        <v>44859.635416666664</v>
+      </c>
+      <c r="B5922" s="1"/>
+      <c r="C5922" s="1"/>
+    </row>
+    <row r="5923">
+      <c r="A5923" s="6" t="n">
+        <v>44859.645833333336</v>
+      </c>
+      <c r="B5923" s="1"/>
+      <c r="C5923" s="1"/>
+    </row>
+    <row r="5924">
+      <c r="A5924" s="6" t="n">
+        <v>44859.65625</v>
+      </c>
+      <c r="B5924" s="1"/>
+      <c r="C5924" s="1"/>
+    </row>
+    <row r="5925">
+      <c r="A5925" s="6" t="n">
+        <v>44859.666666666664</v>
+      </c>
+      <c r="B5925" s="1"/>
+      <c r="C5925" s="1"/>
+    </row>
+    <row r="5926">
+      <c r="A5926" s="6" t="n">
+        <v>44859.677083333336</v>
+      </c>
+      <c r="B5926" s="1"/>
+      <c r="C5926" s="1"/>
+    </row>
+    <row r="5927">
+      <c r="A5927" s="6" t="n">
+        <v>44859.6875</v>
+      </c>
+      <c r="B5927" s="1"/>
+      <c r="C5927" s="1"/>
+    </row>
+    <row r="5928">
+      <c r="A5928" s="6" t="n">
+        <v>44859.697916666664</v>
+      </c>
+      <c r="B5928" s="1"/>
+      <c r="C5928" s="1"/>
+    </row>
+    <row r="5929">
+      <c r="A5929" s="6" t="n">
+        <v>44859.708333333336</v>
+      </c>
+      <c r="B5929" s="1"/>
+      <c r="C5929" s="1"/>
+    </row>
+    <row r="5930">
+      <c r="A5930" s="6" t="n">
+        <v>44859.71875</v>
+      </c>
+      <c r="B5930" s="1"/>
+      <c r="C5930" s="1"/>
+    </row>
+    <row r="5931">
+      <c r="A5931" s="6" t="n">
+        <v>44859.729166666664</v>
+      </c>
+      <c r="B5931" s="1"/>
+      <c r="C5931" s="1"/>
+    </row>
+    <row r="5932">
+      <c r="A5932" s="6" t="n">
+        <v>44859.739583333336</v>
+      </c>
+      <c r="B5932" s="1"/>
+      <c r="C5932" s="1"/>
+    </row>
+    <row r="5933">
+      <c r="A5933" s="6" t="n">
+        <v>44859.75</v>
+      </c>
+      <c r="B5933" s="1"/>
+      <c r="C5933" s="1"/>
+    </row>
+    <row r="5934">
+      <c r="A5934" s="6" t="n">
+        <v>44859.760416666664</v>
+      </c>
+      <c r="B5934" s="1"/>
+      <c r="C5934" s="1"/>
+    </row>
+    <row r="5935">
+      <c r="A5935" s="6" t="n">
+        <v>44859.770833333336</v>
+      </c>
+      <c r="B5935" s="1"/>
+      <c r="C5935" s="1"/>
+    </row>
+    <row r="5936">
+      <c r="A5936" s="6" t="n">
+        <v>44859.78125</v>
+      </c>
+      <c r="B5936" s="1"/>
+      <c r="C5936" s="1"/>
+    </row>
+    <row r="5937">
+      <c r="A5937" s="6" t="n">
+        <v>44859.791666666664</v>
+      </c>
+      <c r="B5937" s="1"/>
+      <c r="C5937" s="1"/>
+    </row>
+    <row r="5938">
+      <c r="A5938" s="6" t="n">
+        <v>44859.802083333336</v>
+      </c>
+      <c r="B5938" s="1"/>
+      <c r="C5938" s="1"/>
+    </row>
+    <row r="5939">
+      <c r="A5939" s="6" t="n">
+        <v>44859.8125</v>
+      </c>
+      <c r="B5939" s="1"/>
+      <c r="C5939" s="1"/>
+    </row>
+    <row r="5940">
+      <c r="A5940" s="6" t="n">
+        <v>44859.822916666664</v>
+      </c>
+      <c r="B5940" s="1"/>
+      <c r="C5940" s="1"/>
+    </row>
+    <row r="5941">
+      <c r="A5941" s="6" t="n">
+        <v>44859.833333333336</v>
+      </c>
+      <c r="B5941" s="1"/>
+      <c r="C5941" s="1"/>
+    </row>
+    <row r="5942">
+      <c r="A5942" s="6" t="n">
+        <v>44859.84375</v>
+      </c>
+      <c r="B5942" s="1"/>
+      <c r="C5942" s="1"/>
+    </row>
+    <row r="5943">
+      <c r="A5943" s="6" t="n">
+        <v>44859.854166666664</v>
+      </c>
+      <c r="B5943" s="1"/>
+      <c r="C5943" s="1"/>
+    </row>
+    <row r="5944">
+      <c r="A5944" s="6" t="n">
+        <v>44859.864583333336</v>
+      </c>
+      <c r="B5944" s="1"/>
+      <c r="C5944" s="1"/>
+    </row>
+    <row r="5945">
+      <c r="A5945" s="6" t="n">
+        <v>44859.875</v>
+      </c>
+      <c r="B5945" s="1"/>
+      <c r="C5945" s="1"/>
+    </row>
+    <row r="5946">
+      <c r="A5946" s="6" t="n">
+        <v>44859.885416666664</v>
+      </c>
+      <c r="B5946" s="1"/>
+      <c r="C5946" s="1"/>
+    </row>
+    <row r="5947">
+      <c r="A5947" s="6" t="n">
+        <v>44859.895833333336</v>
+      </c>
+      <c r="B5947" s="1"/>
+      <c r="C5947" s="1"/>
+    </row>
+    <row r="5948">
+      <c r="A5948" s="6" t="n">
+        <v>44859.90625</v>
+      </c>
+      <c r="B5948" s="1"/>
+      <c r="C5948" s="1"/>
+    </row>
+    <row r="5949">
+      <c r="A5949" s="6" t="n">
+        <v>44859.916666666664</v>
+      </c>
+      <c r="B5949" s="1"/>
+      <c r="C5949" s="1"/>
+    </row>
+    <row r="5950">
+      <c r="A5950" s="6" t="n">
+        <v>44859.927083333336</v>
+      </c>
+      <c r="B5950" s="1"/>
+      <c r="C5950" s="1"/>
+    </row>
+    <row r="5951">
+      <c r="A5951" s="6" t="n">
+        <v>44859.9375</v>
+      </c>
+      <c r="B5951" s="1"/>
+      <c r="C5951" s="1"/>
+    </row>
+    <row r="5952">
+      <c r="A5952" s="6" t="n">
+        <v>44859.947916666664</v>
+      </c>
+      <c r="B5952" s="1"/>
+      <c r="C5952" s="1"/>
+    </row>
+    <row r="5953">
+      <c r="A5953" s="6" t="n">
+        <v>44859.958333333336</v>
+      </c>
+      <c r="B5953" s="1"/>
+      <c r="C5953" s="1"/>
+    </row>
+    <row r="5954">
+      <c r="A5954" s="6" t="n">
+        <v>44859.96875</v>
+      </c>
+      <c r="B5954" s="1"/>
+      <c r="C5954" s="1"/>
+    </row>
+    <row r="5955">
+      <c r="A5955" s="6" t="n">
+        <v>44859.979166666664</v>
+      </c>
+      <c r="B5955" s="1"/>
+      <c r="C5955" s="1"/>
+    </row>
+    <row r="5956">
+      <c r="A5956" s="6" t="n">
+        <v>44859.989583333336</v>
+      </c>
+      <c r="B5956" s="1"/>
+      <c r="C5956" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/export_data_domain_7992.xlsx
+++ b/data/export_data_domain_7992.xlsx
@@ -65031,393 +65031,4673 @@
       <c r="A5901" s="6" t="n">
         <v>44859.416666666664</v>
       </c>
-      <c r="B5901" s="1"/>
-      <c r="C5901" s="1"/>
+      <c r="B5901" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5901" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5902">
       <c r="A5902" s="6" t="n">
         <v>44859.427083333336</v>
       </c>
-      <c r="B5902" s="1"/>
-      <c r="C5902" s="1"/>
+      <c r="B5902" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5902" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5903">
       <c r="A5903" s="6" t="n">
         <v>44859.4375</v>
       </c>
-      <c r="B5903" s="1"/>
-      <c r="C5903" s="1"/>
+      <c r="B5903" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5903" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5904">
       <c r="A5904" s="6" t="n">
         <v>44859.447916666664</v>
       </c>
-      <c r="B5904" s="1"/>
-      <c r="C5904" s="1"/>
+      <c r="B5904" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5904" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5905">
       <c r="A5905" s="6" t="n">
         <v>44859.458333333336</v>
       </c>
-      <c r="B5905" s="1"/>
-      <c r="C5905" s="1"/>
+      <c r="B5905" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5905" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5906">
       <c r="A5906" s="6" t="n">
         <v>44859.46875</v>
       </c>
-      <c r="B5906" s="1"/>
-      <c r="C5906" s="1"/>
+      <c r="B5906" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5906" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5907">
       <c r="A5907" s="6" t="n">
         <v>44859.479166666664</v>
       </c>
-      <c r="B5907" s="1"/>
-      <c r="C5907" s="1"/>
+      <c r="B5907" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5907" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5908">
       <c r="A5908" s="6" t="n">
         <v>44859.489583333336</v>
       </c>
-      <c r="B5908" s="1"/>
-      <c r="C5908" s="1"/>
+      <c r="B5908" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5908" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5909">
       <c r="A5909" s="6" t="n">
         <v>44859.5</v>
       </c>
-      <c r="B5909" s="1"/>
-      <c r="C5909" s="1"/>
+      <c r="B5909" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5909" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5910">
       <c r="A5910" s="6" t="n">
         <v>44859.510416666664</v>
       </c>
-      <c r="B5910" s="1"/>
-      <c r="C5910" s="1"/>
+      <c r="B5910" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5910" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5911">
       <c r="A5911" s="6" t="n">
         <v>44859.520833333336</v>
       </c>
-      <c r="B5911" s="1"/>
-      <c r="C5911" s="1"/>
+      <c r="B5911" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5911" s="1" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5912">
       <c r="A5912" s="6" t="n">
         <v>44859.53125</v>
       </c>
-      <c r="B5912" s="1"/>
-      <c r="C5912" s="1"/>
+      <c r="B5912" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5912" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5913">
       <c r="A5913" s="6" t="n">
         <v>44859.541666666664</v>
       </c>
-      <c r="B5913" s="1"/>
-      <c r="C5913" s="1"/>
+      <c r="B5913" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5913" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5914">
       <c r="A5914" s="6" t="n">
         <v>44859.552083333336</v>
       </c>
-      <c r="B5914" s="1"/>
-      <c r="C5914" s="1"/>
+      <c r="B5914" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5914" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5915">
       <c r="A5915" s="6" t="n">
         <v>44859.5625</v>
       </c>
-      <c r="B5915" s="1"/>
-      <c r="C5915" s="1"/>
+      <c r="B5915" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5915" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5916">
       <c r="A5916" s="6" t="n">
         <v>44859.572916666664</v>
       </c>
-      <c r="B5916" s="1"/>
-      <c r="C5916" s="1"/>
+      <c r="B5916" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5916" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5917">
       <c r="A5917" s="6" t="n">
         <v>44859.583333333336</v>
       </c>
-      <c r="B5917" s="1"/>
-      <c r="C5917" s="1"/>
+      <c r="B5917" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5917" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5918">
       <c r="A5918" s="6" t="n">
         <v>44859.59375</v>
       </c>
-      <c r="B5918" s="1"/>
-      <c r="C5918" s="1"/>
+      <c r="B5918" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5918" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5919">
       <c r="A5919" s="6" t="n">
         <v>44859.604166666664</v>
       </c>
-      <c r="B5919" s="1"/>
-      <c r="C5919" s="1"/>
+      <c r="B5919" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5919" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5920">
       <c r="A5920" s="6" t="n">
         <v>44859.614583333336</v>
       </c>
-      <c r="B5920" s="1"/>
-      <c r="C5920" s="1"/>
+      <c r="B5920" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5920" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5921">
       <c r="A5921" s="6" t="n">
         <v>44859.625</v>
       </c>
-      <c r="B5921" s="1"/>
-      <c r="C5921" s="1"/>
+      <c r="B5921" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5921" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5922">
       <c r="A5922" s="6" t="n">
         <v>44859.635416666664</v>
       </c>
-      <c r="B5922" s="1"/>
-      <c r="C5922" s="1"/>
+      <c r="B5922" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5922" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5923">
       <c r="A5923" s="6" t="n">
         <v>44859.645833333336</v>
       </c>
-      <c r="B5923" s="1"/>
-      <c r="C5923" s="1"/>
+      <c r="B5923" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5923" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5924">
       <c r="A5924" s="6" t="n">
         <v>44859.65625</v>
       </c>
-      <c r="B5924" s="1"/>
-      <c r="C5924" s="1"/>
+      <c r="B5924" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C5924" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5925">
       <c r="A5925" s="6" t="n">
         <v>44859.666666666664</v>
       </c>
-      <c r="B5925" s="1"/>
-      <c r="C5925" s="1"/>
+      <c r="B5925" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5925" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5926">
       <c r="A5926" s="6" t="n">
         <v>44859.677083333336</v>
       </c>
-      <c r="B5926" s="1"/>
-      <c r="C5926" s="1"/>
+      <c r="B5926" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5926" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5927">
       <c r="A5927" s="6" t="n">
         <v>44859.6875</v>
       </c>
-      <c r="B5927" s="1"/>
-      <c r="C5927" s="1"/>
+      <c r="B5927" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5927" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5928">
       <c r="A5928" s="6" t="n">
         <v>44859.697916666664</v>
       </c>
-      <c r="B5928" s="1"/>
-      <c r="C5928" s="1"/>
+      <c r="B5928" s="1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C5928" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5929">
       <c r="A5929" s="6" t="n">
         <v>44859.708333333336</v>
       </c>
-      <c r="B5929" s="1"/>
-      <c r="C5929" s="1"/>
+      <c r="B5929" s="1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C5929" s="1" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5930">
       <c r="A5930" s="6" t="n">
         <v>44859.71875</v>
       </c>
-      <c r="B5930" s="1"/>
-      <c r="C5930" s="1"/>
+      <c r="B5930" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5930" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5931">
       <c r="A5931" s="6" t="n">
         <v>44859.729166666664</v>
       </c>
-      <c r="B5931" s="1"/>
-      <c r="C5931" s="1"/>
+      <c r="B5931" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5931" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5932">
       <c r="A5932" s="6" t="n">
         <v>44859.739583333336</v>
       </c>
-      <c r="B5932" s="1"/>
-      <c r="C5932" s="1"/>
+      <c r="B5932" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5932" s="1" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="5933">
       <c r="A5933" s="6" t="n">
         <v>44859.75</v>
       </c>
-      <c r="B5933" s="1"/>
-      <c r="C5933" s="1"/>
+      <c r="B5933" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5933" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5934">
       <c r="A5934" s="6" t="n">
         <v>44859.760416666664</v>
       </c>
-      <c r="B5934" s="1"/>
-      <c r="C5934" s="1"/>
+      <c r="B5934" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5934" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5935">
       <c r="A5935" s="6" t="n">
         <v>44859.770833333336</v>
       </c>
-      <c r="B5935" s="1"/>
-      <c r="C5935" s="1"/>
+      <c r="B5935" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5935" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5936">
       <c r="A5936" s="6" t="n">
         <v>44859.78125</v>
       </c>
-      <c r="B5936" s="1"/>
-      <c r="C5936" s="1"/>
+      <c r="B5936" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5936" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5937">
       <c r="A5937" s="6" t="n">
         <v>44859.791666666664</v>
       </c>
-      <c r="B5937" s="1"/>
-      <c r="C5937" s="1"/>
+      <c r="B5937" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5937" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5938">
       <c r="A5938" s="6" t="n">
         <v>44859.802083333336</v>
       </c>
-      <c r="B5938" s="1"/>
-      <c r="C5938" s="1"/>
+      <c r="B5938" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5938" s="1" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5939">
       <c r="A5939" s="6" t="n">
         <v>44859.8125</v>
       </c>
-      <c r="B5939" s="1"/>
-      <c r="C5939" s="1"/>
+      <c r="B5939" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5939" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5940">
       <c r="A5940" s="6" t="n">
         <v>44859.822916666664</v>
       </c>
-      <c r="B5940" s="1"/>
-      <c r="C5940" s="1"/>
+      <c r="B5940" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5940" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5941">
       <c r="A5941" s="6" t="n">
         <v>44859.833333333336</v>
       </c>
-      <c r="B5941" s="1"/>
-      <c r="C5941" s="1"/>
+      <c r="B5941" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5941" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5942">
       <c r="A5942" s="6" t="n">
         <v>44859.84375</v>
       </c>
-      <c r="B5942" s="1"/>
-      <c r="C5942" s="1"/>
+      <c r="B5942" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5942" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5943">
       <c r="A5943" s="6" t="n">
         <v>44859.854166666664</v>
       </c>
-      <c r="B5943" s="1"/>
-      <c r="C5943" s="1"/>
+      <c r="B5943" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5943" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5944">
       <c r="A5944" s="6" t="n">
         <v>44859.864583333336</v>
       </c>
-      <c r="B5944" s="1"/>
-      <c r="C5944" s="1"/>
+      <c r="B5944" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5944" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5945">
       <c r="A5945" s="6" t="n">
         <v>44859.875</v>
       </c>
-      <c r="B5945" s="1"/>
-      <c r="C5945" s="1"/>
+      <c r="B5945" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5945" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5946">
       <c r="A5946" s="6" t="n">
         <v>44859.885416666664</v>
       </c>
-      <c r="B5946" s="1"/>
-      <c r="C5946" s="1"/>
+      <c r="B5946" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5946" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5947">
       <c r="A5947" s="6" t="n">
         <v>44859.895833333336</v>
       </c>
-      <c r="B5947" s="1"/>
-      <c r="C5947" s="1"/>
+      <c r="B5947" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5947" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5948">
       <c r="A5948" s="6" t="n">
         <v>44859.90625</v>
       </c>
-      <c r="B5948" s="1"/>
-      <c r="C5948" s="1"/>
+      <c r="B5948" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5948" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5949">
       <c r="A5949" s="6" t="n">
         <v>44859.916666666664</v>
       </c>
-      <c r="B5949" s="1"/>
-      <c r="C5949" s="1"/>
+      <c r="B5949" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5949" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5950">
       <c r="A5950" s="6" t="n">
         <v>44859.927083333336</v>
       </c>
-      <c r="B5950" s="1"/>
-      <c r="C5950" s="1"/>
+      <c r="B5950" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5950" s="1" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5951">
       <c r="A5951" s="6" t="n">
         <v>44859.9375</v>
       </c>
-      <c r="B5951" s="1"/>
-      <c r="C5951" s="1"/>
+      <c r="B5951" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5951" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5952">
       <c r="A5952" s="6" t="n">
         <v>44859.947916666664</v>
       </c>
-      <c r="B5952" s="1"/>
-      <c r="C5952" s="1"/>
+      <c r="B5952" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5952" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5953">
       <c r="A5953" s="6" t="n">
         <v>44859.958333333336</v>
       </c>
-      <c r="B5953" s="1"/>
-      <c r="C5953" s="1"/>
+      <c r="B5953" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5953" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5954">
       <c r="A5954" s="6" t="n">
         <v>44859.96875</v>
       </c>
-      <c r="B5954" s="1"/>
-      <c r="C5954" s="1"/>
+      <c r="B5954" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5954" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5955">
       <c r="A5955" s="6" t="n">
         <v>44859.979166666664</v>
       </c>
-      <c r="B5955" s="1"/>
-      <c r="C5955" s="1"/>
+      <c r="B5955" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5955" s="1" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5956">
       <c r="A5956" s="6" t="n">
         <v>44859.989583333336</v>
       </c>
-      <c r="B5956" s="1"/>
-      <c r="C5956" s="1"/>
+      <c r="B5956" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5956" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5957">
+      <c r="A5957" s="6" t="n">
+        <v>44860.0</v>
+      </c>
+      <c r="B5957" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5957" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5958">
+      <c r="A5958" s="6" t="n">
+        <v>44860.010416666664</v>
+      </c>
+      <c r="B5958" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5958" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5959">
+      <c r="A5959" s="6" t="n">
+        <v>44860.020833333336</v>
+      </c>
+      <c r="B5959" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5959" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5960">
+      <c r="A5960" s="6" t="n">
+        <v>44860.03125</v>
+      </c>
+      <c r="B5960" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5960" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5961">
+      <c r="A5961" s="6" t="n">
+        <v>44860.041666666664</v>
+      </c>
+      <c r="B5961" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5961" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5962">
+      <c r="A5962" s="6" t="n">
+        <v>44860.052083333336</v>
+      </c>
+      <c r="B5962" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5962" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5963">
+      <c r="A5963" s="6" t="n">
+        <v>44860.0625</v>
+      </c>
+      <c r="B5963" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5963" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5964">
+      <c r="A5964" s="6" t="n">
+        <v>44860.072916666664</v>
+      </c>
+      <c r="B5964" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5964" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5965">
+      <c r="A5965" s="6" t="n">
+        <v>44860.083333333336</v>
+      </c>
+      <c r="B5965" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5965" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5966">
+      <c r="A5966" s="6" t="n">
+        <v>44860.09375</v>
+      </c>
+      <c r="B5966" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5966" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5967">
+      <c r="A5967" s="6" t="n">
+        <v>44860.104166666664</v>
+      </c>
+      <c r="B5967" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5967" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5968">
+      <c r="A5968" s="6" t="n">
+        <v>44860.114583333336</v>
+      </c>
+      <c r="B5968" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5968" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5969">
+      <c r="A5969" s="6" t="n">
+        <v>44860.125</v>
+      </c>
+      <c r="B5969" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5969" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5970">
+      <c r="A5970" s="6" t="n">
+        <v>44860.135416666664</v>
+      </c>
+      <c r="B5970" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5970" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5971">
+      <c r="A5971" s="6" t="n">
+        <v>44860.145833333336</v>
+      </c>
+      <c r="B5971" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5971" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5972">
+      <c r="A5972" s="6" t="n">
+        <v>44860.15625</v>
+      </c>
+      <c r="B5972" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5972" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5973">
+      <c r="A5973" s="6" t="n">
+        <v>44860.166666666664</v>
+      </c>
+      <c r="B5973" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5973" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5974">
+      <c r="A5974" s="6" t="n">
+        <v>44860.177083333336</v>
+      </c>
+      <c r="B5974" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5974" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5975">
+      <c r="A5975" s="6" t="n">
+        <v>44860.1875</v>
+      </c>
+      <c r="B5975" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5975" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5976">
+      <c r="A5976" s="6" t="n">
+        <v>44860.197916666664</v>
+      </c>
+      <c r="B5976" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5976" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5977">
+      <c r="A5977" s="6" t="n">
+        <v>44860.208333333336</v>
+      </c>
+      <c r="B5977" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5977" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5978">
+      <c r="A5978" s="6" t="n">
+        <v>44860.21875</v>
+      </c>
+      <c r="B5978" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5978" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5979">
+      <c r="A5979" s="6" t="n">
+        <v>44860.229166666664</v>
+      </c>
+      <c r="B5979" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5979" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5980">
+      <c r="A5980" s="6" t="n">
+        <v>44860.239583333336</v>
+      </c>
+      <c r="B5980" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5980" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5981">
+      <c r="A5981" s="6" t="n">
+        <v>44860.25</v>
+      </c>
+      <c r="B5981" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5981" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5982">
+      <c r="A5982" s="6" t="n">
+        <v>44860.260416666664</v>
+      </c>
+      <c r="B5982" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5982" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5983">
+      <c r="A5983" s="6" t="n">
+        <v>44860.270833333336</v>
+      </c>
+      <c r="B5983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5983" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5984">
+      <c r="A5984" s="6" t="n">
+        <v>44860.28125</v>
+      </c>
+      <c r="B5984" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5984" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5985">
+      <c r="A5985" s="6" t="n">
+        <v>44860.291666666664</v>
+      </c>
+      <c r="B5985" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5985" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5986">
+      <c r="A5986" s="6" t="n">
+        <v>44860.302083333336</v>
+      </c>
+      <c r="B5986" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5986" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5987">
+      <c r="A5987" s="6" t="n">
+        <v>44860.3125</v>
+      </c>
+      <c r="B5987" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5987" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5988">
+      <c r="A5988" s="6" t="n">
+        <v>44860.322916666664</v>
+      </c>
+      <c r="B5988" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5988" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5989">
+      <c r="A5989" s="6" t="n">
+        <v>44860.333333333336</v>
+      </c>
+      <c r="B5989" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C5989" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5990">
+      <c r="A5990" s="6" t="n">
+        <v>44860.34375</v>
+      </c>
+      <c r="B5990" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5990" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5991">
+      <c r="A5991" s="6" t="n">
+        <v>44860.354166666664</v>
+      </c>
+      <c r="B5991" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5991" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5992">
+      <c r="A5992" s="6" t="n">
+        <v>44860.364583333336</v>
+      </c>
+      <c r="B5992" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5992" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5993">
+      <c r="A5993" s="6" t="n">
+        <v>44860.375</v>
+      </c>
+      <c r="B5993" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5993" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5994">
+      <c r="A5994" s="6" t="n">
+        <v>44860.385416666664</v>
+      </c>
+      <c r="B5994" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5994" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5995">
+      <c r="A5995" s="6" t="n">
+        <v>44860.395833333336</v>
+      </c>
+      <c r="B5995" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5995" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5996">
+      <c r="A5996" s="6" t="n">
+        <v>44860.40625</v>
+      </c>
+      <c r="B5996" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5996" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5997">
+      <c r="A5997" s="6" t="n">
+        <v>44860.416666666664</v>
+      </c>
+      <c r="B5997" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5997" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5998">
+      <c r="A5998" s="6" t="n">
+        <v>44860.427083333336</v>
+      </c>
+      <c r="B5998" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5998" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5999">
+      <c r="A5999" s="6" t="n">
+        <v>44860.4375</v>
+      </c>
+      <c r="B5999" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5999" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6000">
+      <c r="A6000" s="6" t="n">
+        <v>44860.447916666664</v>
+      </c>
+      <c r="B6000" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6000" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6001">
+      <c r="A6001" s="6" t="n">
+        <v>44860.458333333336</v>
+      </c>
+      <c r="B6001" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6001" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6002">
+      <c r="A6002" s="6" t="n">
+        <v>44860.46875</v>
+      </c>
+      <c r="B6002" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6002" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6003">
+      <c r="A6003" s="6" t="n">
+        <v>44860.479166666664</v>
+      </c>
+      <c r="B6003" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6003" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6004">
+      <c r="A6004" s="6" t="n">
+        <v>44860.489583333336</v>
+      </c>
+      <c r="B6004" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6004" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6005">
+      <c r="A6005" s="6" t="n">
+        <v>44860.5</v>
+      </c>
+      <c r="B6005" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6005" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6006">
+      <c r="A6006" s="6" t="n">
+        <v>44860.510416666664</v>
+      </c>
+      <c r="B6006" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6006" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6007">
+      <c r="A6007" s="6" t="n">
+        <v>44860.520833333336</v>
+      </c>
+      <c r="B6007" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6007" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6008">
+      <c r="A6008" s="6" t="n">
+        <v>44860.53125</v>
+      </c>
+      <c r="B6008" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6008" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6009">
+      <c r="A6009" s="6" t="n">
+        <v>44860.541666666664</v>
+      </c>
+      <c r="B6009" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6009" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6010">
+      <c r="A6010" s="6" t="n">
+        <v>44860.552083333336</v>
+      </c>
+      <c r="B6010" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6010" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6011">
+      <c r="A6011" s="6" t="n">
+        <v>44860.5625</v>
+      </c>
+      <c r="B6011" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6011" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6012">
+      <c r="A6012" s="6" t="n">
+        <v>44860.572916666664</v>
+      </c>
+      <c r="B6012" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6012" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6013">
+      <c r="A6013" s="6" t="n">
+        <v>44860.583333333336</v>
+      </c>
+      <c r="B6013" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6013" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6014">
+      <c r="A6014" s="6" t="n">
+        <v>44860.59375</v>
+      </c>
+      <c r="B6014" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6014" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6015">
+      <c r="A6015" s="6" t="n">
+        <v>44860.604166666664</v>
+      </c>
+      <c r="B6015" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6015" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6016">
+      <c r="A6016" s="6" t="n">
+        <v>44860.614583333336</v>
+      </c>
+      <c r="B6016" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6016" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6017">
+      <c r="A6017" s="6" t="n">
+        <v>44860.625</v>
+      </c>
+      <c r="B6017" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6017" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6018">
+      <c r="A6018" s="6" t="n">
+        <v>44860.635416666664</v>
+      </c>
+      <c r="B6018" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6018" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6019">
+      <c r="A6019" s="6" t="n">
+        <v>44860.645833333336</v>
+      </c>
+      <c r="B6019" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6019" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6020">
+      <c r="A6020" s="6" t="n">
+        <v>44860.65625</v>
+      </c>
+      <c r="B6020" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6020" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6021">
+      <c r="A6021" s="6" t="n">
+        <v>44860.666666666664</v>
+      </c>
+      <c r="B6021" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6021" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6022">
+      <c r="A6022" s="6" t="n">
+        <v>44860.677083333336</v>
+      </c>
+      <c r="B6022" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6022" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6023">
+      <c r="A6023" s="6" t="n">
+        <v>44860.6875</v>
+      </c>
+      <c r="B6023" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6023" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6024">
+      <c r="A6024" s="6" t="n">
+        <v>44860.697916666664</v>
+      </c>
+      <c r="B6024" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C6024" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6025">
+      <c r="A6025" s="6" t="n">
+        <v>44860.708333333336</v>
+      </c>
+      <c r="B6025" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6025" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6026">
+      <c r="A6026" s="6" t="n">
+        <v>44860.71875</v>
+      </c>
+      <c r="B6026" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6026" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6027">
+      <c r="A6027" s="6" t="n">
+        <v>44860.729166666664</v>
+      </c>
+      <c r="B6027" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6027" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6028">
+      <c r="A6028" s="6" t="n">
+        <v>44860.739583333336</v>
+      </c>
+      <c r="B6028" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6028" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6029">
+      <c r="A6029" s="6" t="n">
+        <v>44860.75</v>
+      </c>
+      <c r="B6029" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6029" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6030">
+      <c r="A6030" s="6" t="n">
+        <v>44860.760416666664</v>
+      </c>
+      <c r="B6030" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6030" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6031">
+      <c r="A6031" s="6" t="n">
+        <v>44860.770833333336</v>
+      </c>
+      <c r="B6031" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6031" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6032">
+      <c r="A6032" s="6" t="n">
+        <v>44860.78125</v>
+      </c>
+      <c r="B6032" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6032" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6033">
+      <c r="A6033" s="6" t="n">
+        <v>44860.791666666664</v>
+      </c>
+      <c r="B6033" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6033" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6034">
+      <c r="A6034" s="6" t="n">
+        <v>44860.802083333336</v>
+      </c>
+      <c r="B6034" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6034" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6035">
+      <c r="A6035" s="6" t="n">
+        <v>44860.8125</v>
+      </c>
+      <c r="B6035" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6035" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6036">
+      <c r="A6036" s="6" t="n">
+        <v>44860.822916666664</v>
+      </c>
+      <c r="B6036" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6036" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6037">
+      <c r="A6037" s="6" t="n">
+        <v>44860.833333333336</v>
+      </c>
+      <c r="B6037" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6037" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6038">
+      <c r="A6038" s="6" t="n">
+        <v>44860.84375</v>
+      </c>
+      <c r="B6038" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6038" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6039">
+      <c r="A6039" s="6" t="n">
+        <v>44860.854166666664</v>
+      </c>
+      <c r="B6039" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6039" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6040">
+      <c r="A6040" s="6" t="n">
+        <v>44860.864583333336</v>
+      </c>
+      <c r="B6040" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6040" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6041">
+      <c r="A6041" s="6" t="n">
+        <v>44860.875</v>
+      </c>
+      <c r="B6041" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6041" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6042">
+      <c r="A6042" s="6" t="n">
+        <v>44860.885416666664</v>
+      </c>
+      <c r="B6042" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6042" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6043">
+      <c r="A6043" s="6" t="n">
+        <v>44860.895833333336</v>
+      </c>
+      <c r="B6043" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6043" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6044">
+      <c r="A6044" s="6" t="n">
+        <v>44860.90625</v>
+      </c>
+      <c r="B6044" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6044" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6045">
+      <c r="A6045" s="6" t="n">
+        <v>44860.916666666664</v>
+      </c>
+      <c r="B6045" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6045" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6046">
+      <c r="A6046" s="6" t="n">
+        <v>44860.927083333336</v>
+      </c>
+      <c r="B6046" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6046" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6047">
+      <c r="A6047" s="6" t="n">
+        <v>44860.9375</v>
+      </c>
+      <c r="B6047" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6047" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6048">
+      <c r="A6048" s="6" t="n">
+        <v>44860.947916666664</v>
+      </c>
+      <c r="B6048" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6048" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6049">
+      <c r="A6049" s="6" t="n">
+        <v>44860.958333333336</v>
+      </c>
+      <c r="B6049" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6049" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6050">
+      <c r="A6050" s="6" t="n">
+        <v>44860.96875</v>
+      </c>
+      <c r="B6050" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6050" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6051">
+      <c r="A6051" s="6" t="n">
+        <v>44860.979166666664</v>
+      </c>
+      <c r="B6051" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6051" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6052">
+      <c r="A6052" s="6" t="n">
+        <v>44860.989583333336</v>
+      </c>
+      <c r="B6052" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6052" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6053">
+      <c r="A6053" s="6" t="n">
+        <v>44861.0</v>
+      </c>
+      <c r="B6053" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6053" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6054">
+      <c r="A6054" s="6" t="n">
+        <v>44861.010416666664</v>
+      </c>
+      <c r="B6054" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6054" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6055">
+      <c r="A6055" s="6" t="n">
+        <v>44861.020833333336</v>
+      </c>
+      <c r="B6055" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6055" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6056">
+      <c r="A6056" s="6" t="n">
+        <v>44861.03125</v>
+      </c>
+      <c r="B6056" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6056" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6057">
+      <c r="A6057" s="6" t="n">
+        <v>44861.041666666664</v>
+      </c>
+      <c r="B6057" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6057" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6058">
+      <c r="A6058" s="6" t="n">
+        <v>44861.052083333336</v>
+      </c>
+      <c r="B6058" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6058" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6059">
+      <c r="A6059" s="6" t="n">
+        <v>44861.0625</v>
+      </c>
+      <c r="B6059" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6059" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6060">
+      <c r="A6060" s="6" t="n">
+        <v>44861.072916666664</v>
+      </c>
+      <c r="B6060" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6060" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6061">
+      <c r="A6061" s="6" t="n">
+        <v>44861.083333333336</v>
+      </c>
+      <c r="B6061" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6061" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6062">
+      <c r="A6062" s="6" t="n">
+        <v>44861.09375</v>
+      </c>
+      <c r="B6062" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6062" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6063">
+      <c r="A6063" s="6" t="n">
+        <v>44861.104166666664</v>
+      </c>
+      <c r="B6063" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6063" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6064">
+      <c r="A6064" s="6" t="n">
+        <v>44861.114583333336</v>
+      </c>
+      <c r="B6064" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6064" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6065">
+      <c r="A6065" s="6" t="n">
+        <v>44861.125</v>
+      </c>
+      <c r="B6065" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6065" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6066">
+      <c r="A6066" s="6" t="n">
+        <v>44861.135416666664</v>
+      </c>
+      <c r="B6066" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6066" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6067">
+      <c r="A6067" s="6" t="n">
+        <v>44861.145833333336</v>
+      </c>
+      <c r="B6067" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6067" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6068">
+      <c r="A6068" s="6" t="n">
+        <v>44861.15625</v>
+      </c>
+      <c r="B6068" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6068" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6069">
+      <c r="A6069" s="6" t="n">
+        <v>44861.166666666664</v>
+      </c>
+      <c r="B6069" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6069" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6070">
+      <c r="A6070" s="6" t="n">
+        <v>44861.177083333336</v>
+      </c>
+      <c r="B6070" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6070" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6071">
+      <c r="A6071" s="6" t="n">
+        <v>44861.1875</v>
+      </c>
+      <c r="B6071" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6071" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6072">
+      <c r="A6072" s="6" t="n">
+        <v>44861.197916666664</v>
+      </c>
+      <c r="B6072" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6072" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6073">
+      <c r="A6073" s="6" t="n">
+        <v>44861.208333333336</v>
+      </c>
+      <c r="B6073" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6073" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6074">
+      <c r="A6074" s="6" t="n">
+        <v>44861.21875</v>
+      </c>
+      <c r="B6074" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6074" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6075">
+      <c r="A6075" s="6" t="n">
+        <v>44861.229166666664</v>
+      </c>
+      <c r="B6075" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6075" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6076">
+      <c r="A6076" s="6" t="n">
+        <v>44861.239583333336</v>
+      </c>
+      <c r="B6076" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6076" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6077">
+      <c r="A6077" s="6" t="n">
+        <v>44861.25</v>
+      </c>
+      <c r="B6077" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6077" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6078">
+      <c r="A6078" s="6" t="n">
+        <v>44861.260416666664</v>
+      </c>
+      <c r="B6078" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6078" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6079">
+      <c r="A6079" s="6" t="n">
+        <v>44861.270833333336</v>
+      </c>
+      <c r="B6079" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6079" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6080">
+      <c r="A6080" s="6" t="n">
+        <v>44861.28125</v>
+      </c>
+      <c r="B6080" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6080" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6081">
+      <c r="A6081" s="6" t="n">
+        <v>44861.291666666664</v>
+      </c>
+      <c r="B6081" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6081" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6082">
+      <c r="A6082" s="6" t="n">
+        <v>44861.302083333336</v>
+      </c>
+      <c r="B6082" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6082" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6083">
+      <c r="A6083" s="6" t="n">
+        <v>44861.3125</v>
+      </c>
+      <c r="B6083" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6083" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6084">
+      <c r="A6084" s="6" t="n">
+        <v>44861.322916666664</v>
+      </c>
+      <c r="B6084" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6084" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6085">
+      <c r="A6085" s="6" t="n">
+        <v>44861.333333333336</v>
+      </c>
+      <c r="B6085" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6085" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6086">
+      <c r="A6086" s="6" t="n">
+        <v>44861.34375</v>
+      </c>
+      <c r="B6086" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6086" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6087">
+      <c r="A6087" s="6" t="n">
+        <v>44861.354166666664</v>
+      </c>
+      <c r="B6087" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6087" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6088">
+      <c r="A6088" s="6" t="n">
+        <v>44861.364583333336</v>
+      </c>
+      <c r="B6088" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6088" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6089">
+      <c r="A6089" s="6" t="n">
+        <v>44861.375</v>
+      </c>
+      <c r="B6089" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6089" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6090">
+      <c r="A6090" s="6" t="n">
+        <v>44861.385416666664</v>
+      </c>
+      <c r="B6090" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6090" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6091">
+      <c r="A6091" s="6" t="n">
+        <v>44861.395833333336</v>
+      </c>
+      <c r="B6091" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6091" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6092">
+      <c r="A6092" s="6" t="n">
+        <v>44861.40625</v>
+      </c>
+      <c r="B6092" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6092" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6093">
+      <c r="A6093" s="6" t="n">
+        <v>44861.416666666664</v>
+      </c>
+      <c r="B6093" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6093" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6094">
+      <c r="A6094" s="6" t="n">
+        <v>44861.427083333336</v>
+      </c>
+      <c r="B6094" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6094" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6095">
+      <c r="A6095" s="6" t="n">
+        <v>44861.4375</v>
+      </c>
+      <c r="B6095" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6095" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6096">
+      <c r="A6096" s="6" t="n">
+        <v>44861.447916666664</v>
+      </c>
+      <c r="B6096" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6096" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6097">
+      <c r="A6097" s="6" t="n">
+        <v>44861.458333333336</v>
+      </c>
+      <c r="B6097" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6097" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6098">
+      <c r="A6098" s="6" t="n">
+        <v>44861.46875</v>
+      </c>
+      <c r="B6098" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6098" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6099">
+      <c r="A6099" s="6" t="n">
+        <v>44861.479166666664</v>
+      </c>
+      <c r="B6099" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6099" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6100">
+      <c r="A6100" s="6" t="n">
+        <v>44861.489583333336</v>
+      </c>
+      <c r="B6100" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6100" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6101">
+      <c r="A6101" s="6" t="n">
+        <v>44861.5</v>
+      </c>
+      <c r="B6101" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6101" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6102">
+      <c r="A6102" s="6" t="n">
+        <v>44861.510416666664</v>
+      </c>
+      <c r="B6102" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6102" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6103">
+      <c r="A6103" s="6" t="n">
+        <v>44861.520833333336</v>
+      </c>
+      <c r="B6103" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6103" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6104">
+      <c r="A6104" s="6" t="n">
+        <v>44861.53125</v>
+      </c>
+      <c r="B6104" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6104" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6105">
+      <c r="A6105" s="6" t="n">
+        <v>44861.541666666664</v>
+      </c>
+      <c r="B6105" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6105" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6106">
+      <c r="A6106" s="6" t="n">
+        <v>44861.552083333336</v>
+      </c>
+      <c r="B6106" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6106" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6107">
+      <c r="A6107" s="6" t="n">
+        <v>44861.5625</v>
+      </c>
+      <c r="B6107" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6107" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6108">
+      <c r="A6108" s="6" t="n">
+        <v>44861.572916666664</v>
+      </c>
+      <c r="B6108" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6108" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6109">
+      <c r="A6109" s="6" t="n">
+        <v>44861.583333333336</v>
+      </c>
+      <c r="B6109" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6109" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6110">
+      <c r="A6110" s="6" t="n">
+        <v>44861.59375</v>
+      </c>
+      <c r="B6110" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6110" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6111">
+      <c r="A6111" s="6" t="n">
+        <v>44861.604166666664</v>
+      </c>
+      <c r="B6111" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6111" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6112">
+      <c r="A6112" s="6" t="n">
+        <v>44861.614583333336</v>
+      </c>
+      <c r="B6112" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6112" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6113">
+      <c r="A6113" s="6" t="n">
+        <v>44861.625</v>
+      </c>
+      <c r="B6113" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6113" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6114">
+      <c r="A6114" s="6" t="n">
+        <v>44861.635416666664</v>
+      </c>
+      <c r="B6114" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6114" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6115">
+      <c r="A6115" s="6" t="n">
+        <v>44861.645833333336</v>
+      </c>
+      <c r="B6115" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6115" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6116">
+      <c r="A6116" s="6" t="n">
+        <v>44861.65625</v>
+      </c>
+      <c r="B6116" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6116" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6117">
+      <c r="A6117" s="6" t="n">
+        <v>44861.666666666664</v>
+      </c>
+      <c r="B6117" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6117" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6118">
+      <c r="A6118" s="6" t="n">
+        <v>44861.677083333336</v>
+      </c>
+      <c r="B6118" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6118" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6119">
+      <c r="A6119" s="6" t="n">
+        <v>44861.6875</v>
+      </c>
+      <c r="B6119" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6119" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6120">
+      <c r="A6120" s="6" t="n">
+        <v>44861.697916666664</v>
+      </c>
+      <c r="B6120" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C6120" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6121">
+      <c r="A6121" s="6" t="n">
+        <v>44861.708333333336</v>
+      </c>
+      <c r="B6121" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6121" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6122">
+      <c r="A6122" s="6" t="n">
+        <v>44861.71875</v>
+      </c>
+      <c r="B6122" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6122" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6123">
+      <c r="A6123" s="6" t="n">
+        <v>44861.729166666664</v>
+      </c>
+      <c r="B6123" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6123" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6124">
+      <c r="A6124" s="6" t="n">
+        <v>44861.739583333336</v>
+      </c>
+      <c r="B6124" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6124" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6125">
+      <c r="A6125" s="6" t="n">
+        <v>44861.75</v>
+      </c>
+      <c r="B6125" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6125" s="1" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="6126">
+      <c r="A6126" s="6" t="n">
+        <v>44861.760416666664</v>
+      </c>
+      <c r="B6126" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6126" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6127">
+      <c r="A6127" s="6" t="n">
+        <v>44861.770833333336</v>
+      </c>
+      <c r="B6127" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6127" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6128">
+      <c r="A6128" s="6" t="n">
+        <v>44861.78125</v>
+      </c>
+      <c r="B6128" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6128" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6129">
+      <c r="A6129" s="6" t="n">
+        <v>44861.791666666664</v>
+      </c>
+      <c r="B6129" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6129" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6130">
+      <c r="A6130" s="6" t="n">
+        <v>44861.802083333336</v>
+      </c>
+      <c r="B6130" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6130" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6131">
+      <c r="A6131" s="6" t="n">
+        <v>44861.8125</v>
+      </c>
+      <c r="B6131" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6131" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6132">
+      <c r="A6132" s="6" t="n">
+        <v>44861.822916666664</v>
+      </c>
+      <c r="B6132" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6132" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6133">
+      <c r="A6133" s="6" t="n">
+        <v>44861.833333333336</v>
+      </c>
+      <c r="B6133" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6133" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6134">
+      <c r="A6134" s="6" t="n">
+        <v>44861.84375</v>
+      </c>
+      <c r="B6134" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6134" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6135">
+      <c r="A6135" s="6" t="n">
+        <v>44861.854166666664</v>
+      </c>
+      <c r="B6135" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6135" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6136">
+      <c r="A6136" s="6" t="n">
+        <v>44861.864583333336</v>
+      </c>
+      <c r="B6136" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6136" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6137">
+      <c r="A6137" s="6" t="n">
+        <v>44861.875</v>
+      </c>
+      <c r="B6137" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6137" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6138">
+      <c r="A6138" s="6" t="n">
+        <v>44861.885416666664</v>
+      </c>
+      <c r="B6138" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6138" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6139">
+      <c r="A6139" s="6" t="n">
+        <v>44861.895833333336</v>
+      </c>
+      <c r="B6139" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6139" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6140">
+      <c r="A6140" s="6" t="n">
+        <v>44861.90625</v>
+      </c>
+      <c r="B6140" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6140" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6141">
+      <c r="A6141" s="6" t="n">
+        <v>44861.916666666664</v>
+      </c>
+      <c r="B6141" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6141" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6142">
+      <c r="A6142" s="6" t="n">
+        <v>44861.927083333336</v>
+      </c>
+      <c r="B6142" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6142" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6143">
+      <c r="A6143" s="6" t="n">
+        <v>44861.9375</v>
+      </c>
+      <c r="B6143" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6143" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6144">
+      <c r="A6144" s="6" t="n">
+        <v>44861.947916666664</v>
+      </c>
+      <c r="B6144" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6144" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6145">
+      <c r="A6145" s="6" t="n">
+        <v>44861.958333333336</v>
+      </c>
+      <c r="B6145" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6145" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6146">
+      <c r="A6146" s="6" t="n">
+        <v>44861.96875</v>
+      </c>
+      <c r="B6146" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6146" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6147">
+      <c r="A6147" s="6" t="n">
+        <v>44861.979166666664</v>
+      </c>
+      <c r="B6147" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6147" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6148">
+      <c r="A6148" s="6" t="n">
+        <v>44861.989583333336</v>
+      </c>
+      <c r="B6148" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6148" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6149">
+      <c r="A6149" s="6" t="n">
+        <v>44862.0</v>
+      </c>
+      <c r="B6149" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6149" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6150">
+      <c r="A6150" s="6" t="n">
+        <v>44862.010416666664</v>
+      </c>
+      <c r="B6150" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6150" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6151">
+      <c r="A6151" s="6" t="n">
+        <v>44862.020833333336</v>
+      </c>
+      <c r="B6151" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6151" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6152">
+      <c r="A6152" s="6" t="n">
+        <v>44862.03125</v>
+      </c>
+      <c r="B6152" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6152" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6153">
+      <c r="A6153" s="6" t="n">
+        <v>44862.041666666664</v>
+      </c>
+      <c r="B6153" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6153" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6154">
+      <c r="A6154" s="6" t="n">
+        <v>44862.052083333336</v>
+      </c>
+      <c r="B6154" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6154" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6155">
+      <c r="A6155" s="6" t="n">
+        <v>44862.0625</v>
+      </c>
+      <c r="B6155" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6155" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6156">
+      <c r="A6156" s="6" t="n">
+        <v>44862.072916666664</v>
+      </c>
+      <c r="B6156" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6156" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6157">
+      <c r="A6157" s="6" t="n">
+        <v>44862.083333333336</v>
+      </c>
+      <c r="B6157" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6157" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6158">
+      <c r="A6158" s="6" t="n">
+        <v>44862.09375</v>
+      </c>
+      <c r="B6158" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6158" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6159">
+      <c r="A6159" s="6" t="n">
+        <v>44862.104166666664</v>
+      </c>
+      <c r="B6159" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6159" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6160">
+      <c r="A6160" s="6" t="n">
+        <v>44862.114583333336</v>
+      </c>
+      <c r="B6160" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6160" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6161">
+      <c r="A6161" s="6" t="n">
+        <v>44862.125</v>
+      </c>
+      <c r="B6161" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6161" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6162">
+      <c r="A6162" s="6" t="n">
+        <v>44862.135416666664</v>
+      </c>
+      <c r="B6162" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6162" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6163">
+      <c r="A6163" s="6" t="n">
+        <v>44862.145833333336</v>
+      </c>
+      <c r="B6163" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6163" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6164">
+      <c r="A6164" s="6" t="n">
+        <v>44862.15625</v>
+      </c>
+      <c r="B6164" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6164" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6165">
+      <c r="A6165" s="6" t="n">
+        <v>44862.166666666664</v>
+      </c>
+      <c r="B6165" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6165" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6166">
+      <c r="A6166" s="6" t="n">
+        <v>44862.177083333336</v>
+      </c>
+      <c r="B6166" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6166" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6167">
+      <c r="A6167" s="6" t="n">
+        <v>44862.1875</v>
+      </c>
+      <c r="B6167" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6167" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6168">
+      <c r="A6168" s="6" t="n">
+        <v>44862.197916666664</v>
+      </c>
+      <c r="B6168" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6168" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6169">
+      <c r="A6169" s="6" t="n">
+        <v>44862.208333333336</v>
+      </c>
+      <c r="B6169" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6169" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6170">
+      <c r="A6170" s="6" t="n">
+        <v>44862.21875</v>
+      </c>
+      <c r="B6170" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6170" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6171">
+      <c r="A6171" s="6" t="n">
+        <v>44862.229166666664</v>
+      </c>
+      <c r="B6171" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6171" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6172">
+      <c r="A6172" s="6" t="n">
+        <v>44862.239583333336</v>
+      </c>
+      <c r="B6172" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6172" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6173">
+      <c r="A6173" s="6" t="n">
+        <v>44862.25</v>
+      </c>
+      <c r="B6173" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6173" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6174">
+      <c r="A6174" s="6" t="n">
+        <v>44862.260416666664</v>
+      </c>
+      <c r="B6174" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6174" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6175">
+      <c r="A6175" s="6" t="n">
+        <v>44862.270833333336</v>
+      </c>
+      <c r="B6175" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6175" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6176">
+      <c r="A6176" s="6" t="n">
+        <v>44862.28125</v>
+      </c>
+      <c r="B6176" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6176" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6177">
+      <c r="A6177" s="6" t="n">
+        <v>44862.291666666664</v>
+      </c>
+      <c r="B6177" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6177" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6178">
+      <c r="A6178" s="6" t="n">
+        <v>44862.302083333336</v>
+      </c>
+      <c r="B6178" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6178" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6179">
+      <c r="A6179" s="6" t="n">
+        <v>44862.3125</v>
+      </c>
+      <c r="B6179" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6179" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6180">
+      <c r="A6180" s="6" t="n">
+        <v>44862.322916666664</v>
+      </c>
+      <c r="B6180" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6180" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6181">
+      <c r="A6181" s="6" t="n">
+        <v>44862.333333333336</v>
+      </c>
+      <c r="B6181" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6181" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6182">
+      <c r="A6182" s="6" t="n">
+        <v>44862.34375</v>
+      </c>
+      <c r="B6182" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6182" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6183">
+      <c r="A6183" s="6" t="n">
+        <v>44862.354166666664</v>
+      </c>
+      <c r="B6183" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6183" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6184">
+      <c r="A6184" s="6" t="n">
+        <v>44862.364583333336</v>
+      </c>
+      <c r="B6184" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6184" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6185">
+      <c r="A6185" s="6" t="n">
+        <v>44862.375</v>
+      </c>
+      <c r="B6185" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6185" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6186">
+      <c r="A6186" s="6" t="n">
+        <v>44862.385416666664</v>
+      </c>
+      <c r="B6186" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6186" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6187">
+      <c r="A6187" s="6" t="n">
+        <v>44862.395833333336</v>
+      </c>
+      <c r="B6187" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6187" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6188">
+      <c r="A6188" s="6" t="n">
+        <v>44862.40625</v>
+      </c>
+      <c r="B6188" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6188" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6189">
+      <c r="A6189" s="6" t="n">
+        <v>44862.416666666664</v>
+      </c>
+      <c r="B6189" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6189" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6190">
+      <c r="A6190" s="6" t="n">
+        <v>44862.427083333336</v>
+      </c>
+      <c r="B6190" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6190" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6191">
+      <c r="A6191" s="6" t="n">
+        <v>44862.4375</v>
+      </c>
+      <c r="B6191" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6191" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6192">
+      <c r="A6192" s="6" t="n">
+        <v>44862.447916666664</v>
+      </c>
+      <c r="B6192" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6192" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6193">
+      <c r="A6193" s="6" t="n">
+        <v>44862.458333333336</v>
+      </c>
+      <c r="B6193" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6193" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6194">
+      <c r="A6194" s="6" t="n">
+        <v>44862.46875</v>
+      </c>
+      <c r="B6194" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6194" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6195">
+      <c r="A6195" s="6" t="n">
+        <v>44862.479166666664</v>
+      </c>
+      <c r="B6195" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6195" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6196">
+      <c r="A6196" s="6" t="n">
+        <v>44862.489583333336</v>
+      </c>
+      <c r="B6196" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6196" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6197">
+      <c r="A6197" s="6" t="n">
+        <v>44862.5</v>
+      </c>
+      <c r="B6197" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6197" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6198">
+      <c r="A6198" s="6" t="n">
+        <v>44862.510416666664</v>
+      </c>
+      <c r="B6198" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6198" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6199">
+      <c r="A6199" s="6" t="n">
+        <v>44862.520833333336</v>
+      </c>
+      <c r="B6199" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6199" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6200">
+      <c r="A6200" s="6" t="n">
+        <v>44862.53125</v>
+      </c>
+      <c r="B6200" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6200" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6201">
+      <c r="A6201" s="6" t="n">
+        <v>44862.541666666664</v>
+      </c>
+      <c r="B6201" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6201" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6202">
+      <c r="A6202" s="6" t="n">
+        <v>44862.552083333336</v>
+      </c>
+      <c r="B6202" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6202" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6203">
+      <c r="A6203" s="6" t="n">
+        <v>44862.5625</v>
+      </c>
+      <c r="B6203" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6203" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6204">
+      <c r="A6204" s="6" t="n">
+        <v>44862.572916666664</v>
+      </c>
+      <c r="B6204" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6204" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6205">
+      <c r="A6205" s="6" t="n">
+        <v>44862.583333333336</v>
+      </c>
+      <c r="B6205" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6205" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6206">
+      <c r="A6206" s="6" t="n">
+        <v>44862.59375</v>
+      </c>
+      <c r="B6206" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6206" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6207">
+      <c r="A6207" s="6" t="n">
+        <v>44862.604166666664</v>
+      </c>
+      <c r="B6207" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6207" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6208">
+      <c r="A6208" s="6" t="n">
+        <v>44862.614583333336</v>
+      </c>
+      <c r="B6208" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6208" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6209">
+      <c r="A6209" s="6" t="n">
+        <v>44862.625</v>
+      </c>
+      <c r="B6209" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6209" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6210">
+      <c r="A6210" s="6" t="n">
+        <v>44862.635416666664</v>
+      </c>
+      <c r="B6210" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6210" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6211">
+      <c r="A6211" s="6" t="n">
+        <v>44862.645833333336</v>
+      </c>
+      <c r="B6211" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6211" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6212">
+      <c r="A6212" s="6" t="n">
+        <v>44862.65625</v>
+      </c>
+      <c r="B6212" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6212" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6213">
+      <c r="A6213" s="6" t="n">
+        <v>44862.666666666664</v>
+      </c>
+      <c r="B6213" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6213" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6214">
+      <c r="A6214" s="6" t="n">
+        <v>44862.677083333336</v>
+      </c>
+      <c r="B6214" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6214" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6215">
+      <c r="A6215" s="6" t="n">
+        <v>44862.6875</v>
+      </c>
+      <c r="B6215" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6215" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6216">
+      <c r="A6216" s="6" t="n">
+        <v>44862.697916666664</v>
+      </c>
+      <c r="B6216" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6216" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6217">
+      <c r="A6217" s="6" t="n">
+        <v>44862.708333333336</v>
+      </c>
+      <c r="B6217" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6217" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6218">
+      <c r="A6218" s="6" t="n">
+        <v>44862.71875</v>
+      </c>
+      <c r="B6218" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6218" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6219">
+      <c r="A6219" s="6" t="n">
+        <v>44862.729166666664</v>
+      </c>
+      <c r="B6219" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6219" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6220">
+      <c r="A6220" s="6" t="n">
+        <v>44862.739583333336</v>
+      </c>
+      <c r="B6220" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6220" s="1" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6221">
+      <c r="A6221" s="6" t="n">
+        <v>44862.75</v>
+      </c>
+      <c r="B6221" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6221" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6222">
+      <c r="A6222" s="6" t="n">
+        <v>44862.760416666664</v>
+      </c>
+      <c r="B6222" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6222" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6223">
+      <c r="A6223" s="6" t="n">
+        <v>44862.770833333336</v>
+      </c>
+      <c r="B6223" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6223" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6224">
+      <c r="A6224" s="6" t="n">
+        <v>44862.78125</v>
+      </c>
+      <c r="B6224" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C6224" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6225">
+      <c r="A6225" s="6" t="n">
+        <v>44862.791666666664</v>
+      </c>
+      <c r="B6225" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6225" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6226">
+      <c r="A6226" s="6" t="n">
+        <v>44862.802083333336</v>
+      </c>
+      <c r="B6226" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6226" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6227">
+      <c r="A6227" s="6" t="n">
+        <v>44862.8125</v>
+      </c>
+      <c r="B6227" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6227" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6228">
+      <c r="A6228" s="6" t="n">
+        <v>44862.822916666664</v>
+      </c>
+      <c r="B6228" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6228" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6229">
+      <c r="A6229" s="6" t="n">
+        <v>44862.833333333336</v>
+      </c>
+      <c r="B6229" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6229" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6230">
+      <c r="A6230" s="6" t="n">
+        <v>44862.84375</v>
+      </c>
+      <c r="B6230" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6230" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6231">
+      <c r="A6231" s="6" t="n">
+        <v>44862.854166666664</v>
+      </c>
+      <c r="B6231" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6231" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6232">
+      <c r="A6232" s="6" t="n">
+        <v>44862.864583333336</v>
+      </c>
+      <c r="B6232" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6232" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6233">
+      <c r="A6233" s="6" t="n">
+        <v>44862.875</v>
+      </c>
+      <c r="B6233" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6233" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6234">
+      <c r="A6234" s="6" t="n">
+        <v>44862.885416666664</v>
+      </c>
+      <c r="B6234" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6234" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6235">
+      <c r="A6235" s="6" t="n">
+        <v>44862.895833333336</v>
+      </c>
+      <c r="B6235" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6235" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6236">
+      <c r="A6236" s="6" t="n">
+        <v>44862.90625</v>
+      </c>
+      <c r="B6236" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6236" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6237">
+      <c r="A6237" s="6" t="n">
+        <v>44862.916666666664</v>
+      </c>
+      <c r="B6237" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6237" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6238">
+      <c r="A6238" s="6" t="n">
+        <v>44862.927083333336</v>
+      </c>
+      <c r="B6238" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6238" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6239">
+      <c r="A6239" s="6" t="n">
+        <v>44862.9375</v>
+      </c>
+      <c r="B6239" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6239" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6240">
+      <c r="A6240" s="6" t="n">
+        <v>44862.947916666664</v>
+      </c>
+      <c r="B6240" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6240" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6241">
+      <c r="A6241" s="6" t="n">
+        <v>44862.958333333336</v>
+      </c>
+      <c r="B6241" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6241" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6242">
+      <c r="A6242" s="6" t="n">
+        <v>44862.96875</v>
+      </c>
+      <c r="B6242" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6242" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6243">
+      <c r="A6243" s="6" t="n">
+        <v>44862.979166666664</v>
+      </c>
+      <c r="B6243" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6243" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6244">
+      <c r="A6244" s="6" t="n">
+        <v>44862.989583333336</v>
+      </c>
+      <c r="B6244" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6244" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6245">
+      <c r="A6245" s="6" t="n">
+        <v>44863.0</v>
+      </c>
+      <c r="B6245" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6245" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6246">
+      <c r="A6246" s="6" t="n">
+        <v>44863.010416666664</v>
+      </c>
+      <c r="B6246" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6246" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6247">
+      <c r="A6247" s="6" t="n">
+        <v>44863.020833333336</v>
+      </c>
+      <c r="B6247" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6247" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6248">
+      <c r="A6248" s="6" t="n">
+        <v>44863.03125</v>
+      </c>
+      <c r="B6248" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6248" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6249">
+      <c r="A6249" s="6" t="n">
+        <v>44863.041666666664</v>
+      </c>
+      <c r="B6249" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6249" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6250">
+      <c r="A6250" s="6" t="n">
+        <v>44863.052083333336</v>
+      </c>
+      <c r="B6250" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6250" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6251">
+      <c r="A6251" s="6" t="n">
+        <v>44863.0625</v>
+      </c>
+      <c r="B6251" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6251" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6252">
+      <c r="A6252" s="6" t="n">
+        <v>44863.072916666664</v>
+      </c>
+      <c r="B6252" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6252" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6253">
+      <c r="A6253" s="6" t="n">
+        <v>44863.083333333336</v>
+      </c>
+      <c r="B6253" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6253" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6254">
+      <c r="A6254" s="6" t="n">
+        <v>44863.09375</v>
+      </c>
+      <c r="B6254" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6254" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6255">
+      <c r="A6255" s="6" t="n">
+        <v>44863.104166666664</v>
+      </c>
+      <c r="B6255" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6255" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6256">
+      <c r="A6256" s="6" t="n">
+        <v>44863.114583333336</v>
+      </c>
+      <c r="B6256" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6256" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6257">
+      <c r="A6257" s="6" t="n">
+        <v>44863.125</v>
+      </c>
+      <c r="B6257" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6257" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6258">
+      <c r="A6258" s="6" t="n">
+        <v>44863.135416666664</v>
+      </c>
+      <c r="B6258" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6258" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6259">
+      <c r="A6259" s="6" t="n">
+        <v>44863.145833333336</v>
+      </c>
+      <c r="B6259" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6259" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6260">
+      <c r="A6260" s="6" t="n">
+        <v>44863.15625</v>
+      </c>
+      <c r="B6260" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6260" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6261">
+      <c r="A6261" s="6" t="n">
+        <v>44863.166666666664</v>
+      </c>
+      <c r="B6261" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6261" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6262">
+      <c r="A6262" s="6" t="n">
+        <v>44863.177083333336</v>
+      </c>
+      <c r="B6262" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6262" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6263">
+      <c r="A6263" s="6" t="n">
+        <v>44863.1875</v>
+      </c>
+      <c r="B6263" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6263" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6264">
+      <c r="A6264" s="6" t="n">
+        <v>44863.197916666664</v>
+      </c>
+      <c r="B6264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6264" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6265">
+      <c r="A6265" s="6" t="n">
+        <v>44863.208333333336</v>
+      </c>
+      <c r="B6265" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6265" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6266">
+      <c r="A6266" s="6" t="n">
+        <v>44863.21875</v>
+      </c>
+      <c r="B6266" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6266" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6267">
+      <c r="A6267" s="6" t="n">
+        <v>44863.229166666664</v>
+      </c>
+      <c r="B6267" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6267" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6268">
+      <c r="A6268" s="6" t="n">
+        <v>44863.239583333336</v>
+      </c>
+      <c r="B6268" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6268" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6269">
+      <c r="A6269" s="6" t="n">
+        <v>44863.25</v>
+      </c>
+      <c r="B6269" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6269" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6270">
+      <c r="A6270" s="6" t="n">
+        <v>44863.260416666664</v>
+      </c>
+      <c r="B6270" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6270" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6271">
+      <c r="A6271" s="6" t="n">
+        <v>44863.270833333336</v>
+      </c>
+      <c r="B6271" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6271" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6272">
+      <c r="A6272" s="6" t="n">
+        <v>44863.28125</v>
+      </c>
+      <c r="B6272" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6272" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6273">
+      <c r="A6273" s="6" t="n">
+        <v>44863.291666666664</v>
+      </c>
+      <c r="B6273" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6273" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6274">
+      <c r="A6274" s="6" t="n">
+        <v>44863.302083333336</v>
+      </c>
+      <c r="B6274" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6274" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6275">
+      <c r="A6275" s="6" t="n">
+        <v>44863.3125</v>
+      </c>
+      <c r="B6275" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6275" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6276">
+      <c r="A6276" s="6" t="n">
+        <v>44863.322916666664</v>
+      </c>
+      <c r="B6276" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6276" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6277">
+      <c r="A6277" s="6" t="n">
+        <v>44863.333333333336</v>
+      </c>
+      <c r="B6277" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6277" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6278">
+      <c r="A6278" s="6" t="n">
+        <v>44863.34375</v>
+      </c>
+      <c r="B6278" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6278" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6279">
+      <c r="A6279" s="6" t="n">
+        <v>44863.354166666664</v>
+      </c>
+      <c r="B6279" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6279" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6280">
+      <c r="A6280" s="6" t="n">
+        <v>44863.364583333336</v>
+      </c>
+      <c r="B6280" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6280" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6281">
+      <c r="A6281" s="6" t="n">
+        <v>44863.375</v>
+      </c>
+      <c r="B6281" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6281" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6282">
+      <c r="A6282" s="6" t="n">
+        <v>44863.385416666664</v>
+      </c>
+      <c r="B6282" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6282" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6283">
+      <c r="A6283" s="6" t="n">
+        <v>44863.395833333336</v>
+      </c>
+      <c r="B6283" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6283" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6284">
+      <c r="A6284" s="6" t="n">
+        <v>44863.40625</v>
+      </c>
+      <c r="B6284" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6284" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6285">
+      <c r="A6285" s="6" t="n">
+        <v>44863.416666666664</v>
+      </c>
+      <c r="B6285" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6285" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6286">
+      <c r="A6286" s="6" t="n">
+        <v>44863.427083333336</v>
+      </c>
+      <c r="B6286" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6286" s="1" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6287">
+      <c r="A6287" s="6" t="n">
+        <v>44863.4375</v>
+      </c>
+      <c r="B6287" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6287" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6288">
+      <c r="A6288" s="6" t="n">
+        <v>44863.447916666664</v>
+      </c>
+      <c r="B6288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6288" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6289">
+      <c r="A6289" s="6" t="n">
+        <v>44863.458333333336</v>
+      </c>
+      <c r="B6289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6289" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6290">
+      <c r="A6290" s="6" t="n">
+        <v>44863.46875</v>
+      </c>
+      <c r="B6290" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6290" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6291">
+      <c r="A6291" s="6" t="n">
+        <v>44863.479166666664</v>
+      </c>
+      <c r="B6291" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6291" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6292">
+      <c r="A6292" s="6" t="n">
+        <v>44863.489583333336</v>
+      </c>
+      <c r="B6292" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6292" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6293">
+      <c r="A6293" s="6" t="n">
+        <v>44863.5</v>
+      </c>
+      <c r="B6293" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6293" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6294">
+      <c r="A6294" s="6" t="n">
+        <v>44863.510416666664</v>
+      </c>
+      <c r="B6294" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6294" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6295">
+      <c r="A6295" s="6" t="n">
+        <v>44863.520833333336</v>
+      </c>
+      <c r="B6295" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6295" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6296">
+      <c r="A6296" s="6" t="n">
+        <v>44863.53125</v>
+      </c>
+      <c r="B6296" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6296" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6297">
+      <c r="A6297" s="6" t="n">
+        <v>44863.541666666664</v>
+      </c>
+      <c r="B6297" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6297" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6298">
+      <c r="A6298" s="6" t="n">
+        <v>44863.552083333336</v>
+      </c>
+      <c r="B6298" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C6298" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6299">
+      <c r="A6299" s="6" t="n">
+        <v>44863.5625</v>
+      </c>
+      <c r="B6299" s="1"/>
+      <c r="C6299" s="1"/>
+    </row>
+    <row r="6300">
+      <c r="A6300" s="6" t="n">
+        <v>44863.572916666664</v>
+      </c>
+      <c r="B6300" s="1"/>
+      <c r="C6300" s="1"/>
+    </row>
+    <row r="6301">
+      <c r="A6301" s="6" t="n">
+        <v>44863.583333333336</v>
+      </c>
+      <c r="B6301" s="1"/>
+      <c r="C6301" s="1"/>
+    </row>
+    <row r="6302">
+      <c r="A6302" s="6" t="n">
+        <v>44863.59375</v>
+      </c>
+      <c r="B6302" s="1"/>
+      <c r="C6302" s="1"/>
+    </row>
+    <row r="6303">
+      <c r="A6303" s="6" t="n">
+        <v>44863.604166666664</v>
+      </c>
+      <c r="B6303" s="1"/>
+      <c r="C6303" s="1"/>
+    </row>
+    <row r="6304">
+      <c r="A6304" s="6" t="n">
+        <v>44863.614583333336</v>
+      </c>
+      <c r="B6304" s="1"/>
+      <c r="C6304" s="1"/>
+    </row>
+    <row r="6305">
+      <c r="A6305" s="6" t="n">
+        <v>44863.625</v>
+      </c>
+      <c r="B6305" s="1"/>
+      <c r="C6305" s="1"/>
+    </row>
+    <row r="6306">
+      <c r="A6306" s="6" t="n">
+        <v>44863.635416666664</v>
+      </c>
+      <c r="B6306" s="1"/>
+      <c r="C6306" s="1"/>
+    </row>
+    <row r="6307">
+      <c r="A6307" s="6" t="n">
+        <v>44863.645833333336</v>
+      </c>
+      <c r="B6307" s="1"/>
+      <c r="C6307" s="1"/>
+    </row>
+    <row r="6308">
+      <c r="A6308" s="6" t="n">
+        <v>44863.65625</v>
+      </c>
+      <c r="B6308" s="1"/>
+      <c r="C6308" s="1"/>
+    </row>
+    <row r="6309">
+      <c r="A6309" s="6" t="n">
+        <v>44863.666666666664</v>
+      </c>
+      <c r="B6309" s="1"/>
+      <c r="C6309" s="1"/>
+    </row>
+    <row r="6310">
+      <c r="A6310" s="6" t="n">
+        <v>44863.677083333336</v>
+      </c>
+      <c r="B6310" s="1"/>
+      <c r="C6310" s="1"/>
+    </row>
+    <row r="6311">
+      <c r="A6311" s="6" t="n">
+        <v>44863.6875</v>
+      </c>
+      <c r="B6311" s="1"/>
+      <c r="C6311" s="1"/>
+    </row>
+    <row r="6312">
+      <c r="A6312" s="6" t="n">
+        <v>44863.697916666664</v>
+      </c>
+      <c r="B6312" s="1"/>
+      <c r="C6312" s="1"/>
+    </row>
+    <row r="6313">
+      <c r="A6313" s="6" t="n">
+        <v>44863.708333333336</v>
+      </c>
+      <c r="B6313" s="1"/>
+      <c r="C6313" s="1"/>
+    </row>
+    <row r="6314">
+      <c r="A6314" s="6" t="n">
+        <v>44863.71875</v>
+      </c>
+      <c r="B6314" s="1"/>
+      <c r="C6314" s="1"/>
+    </row>
+    <row r="6315">
+      <c r="A6315" s="6" t="n">
+        <v>44863.729166666664</v>
+      </c>
+      <c r="B6315" s="1"/>
+      <c r="C6315" s="1"/>
+    </row>
+    <row r="6316">
+      <c r="A6316" s="6" t="n">
+        <v>44863.739583333336</v>
+      </c>
+      <c r="B6316" s="1"/>
+      <c r="C6316" s="1"/>
+    </row>
+    <row r="6317">
+      <c r="A6317" s="6" t="n">
+        <v>44863.75</v>
+      </c>
+      <c r="B6317" s="1"/>
+      <c r="C6317" s="1"/>
+    </row>
+    <row r="6318">
+      <c r="A6318" s="6" t="n">
+        <v>44863.760416666664</v>
+      </c>
+      <c r="B6318" s="1"/>
+      <c r="C6318" s="1"/>
+    </row>
+    <row r="6319">
+      <c r="A6319" s="6" t="n">
+        <v>44863.770833333336</v>
+      </c>
+      <c r="B6319" s="1"/>
+      <c r="C6319" s="1"/>
+    </row>
+    <row r="6320">
+      <c r="A6320" s="6" t="n">
+        <v>44863.78125</v>
+      </c>
+      <c r="B6320" s="1"/>
+      <c r="C6320" s="1"/>
+    </row>
+    <row r="6321">
+      <c r="A6321" s="6" t="n">
+        <v>44863.791666666664</v>
+      </c>
+      <c r="B6321" s="1"/>
+      <c r="C6321" s="1"/>
+    </row>
+    <row r="6322">
+      <c r="A6322" s="6" t="n">
+        <v>44863.802083333336</v>
+      </c>
+      <c r="B6322" s="1"/>
+      <c r="C6322" s="1"/>
+    </row>
+    <row r="6323">
+      <c r="A6323" s="6" t="n">
+        <v>44863.8125</v>
+      </c>
+      <c r="B6323" s="1"/>
+      <c r="C6323" s="1"/>
+    </row>
+    <row r="6324">
+      <c r="A6324" s="6" t="n">
+        <v>44863.822916666664</v>
+      </c>
+      <c r="B6324" s="1"/>
+      <c r="C6324" s="1"/>
+    </row>
+    <row r="6325">
+      <c r="A6325" s="6" t="n">
+        <v>44863.833333333336</v>
+      </c>
+      <c r="B6325" s="1"/>
+      <c r="C6325" s="1"/>
+    </row>
+    <row r="6326">
+      <c r="A6326" s="6" t="n">
+        <v>44863.84375</v>
+      </c>
+      <c r="B6326" s="1"/>
+      <c r="C6326" s="1"/>
+    </row>
+    <row r="6327">
+      <c r="A6327" s="6" t="n">
+        <v>44863.854166666664</v>
+      </c>
+      <c r="B6327" s="1"/>
+      <c r="C6327" s="1"/>
+    </row>
+    <row r="6328">
+      <c r="A6328" s="6" t="n">
+        <v>44863.864583333336</v>
+      </c>
+      <c r="B6328" s="1"/>
+      <c r="C6328" s="1"/>
+    </row>
+    <row r="6329">
+      <c r="A6329" s="6" t="n">
+        <v>44863.875</v>
+      </c>
+      <c r="B6329" s="1"/>
+      <c r="C6329" s="1"/>
+    </row>
+    <row r="6330">
+      <c r="A6330" s="6" t="n">
+        <v>44863.885416666664</v>
+      </c>
+      <c r="B6330" s="1"/>
+      <c r="C6330" s="1"/>
+    </row>
+    <row r="6331">
+      <c r="A6331" s="6" t="n">
+        <v>44863.895833333336</v>
+      </c>
+      <c r="B6331" s="1"/>
+      <c r="C6331" s="1"/>
+    </row>
+    <row r="6332">
+      <c r="A6332" s="6" t="n">
+        <v>44863.90625</v>
+      </c>
+      <c r="B6332" s="1"/>
+      <c r="C6332" s="1"/>
+    </row>
+    <row r="6333">
+      <c r="A6333" s="6" t="n">
+        <v>44863.916666666664</v>
+      </c>
+      <c r="B6333" s="1"/>
+      <c r="C6333" s="1"/>
+    </row>
+    <row r="6334">
+      <c r="A6334" s="6" t="n">
+        <v>44863.927083333336</v>
+      </c>
+      <c r="B6334" s="1"/>
+      <c r="C6334" s="1"/>
+    </row>
+    <row r="6335">
+      <c r="A6335" s="6" t="n">
+        <v>44863.9375</v>
+      </c>
+      <c r="B6335" s="1"/>
+      <c r="C6335" s="1"/>
+    </row>
+    <row r="6336">
+      <c r="A6336" s="6" t="n">
+        <v>44863.947916666664</v>
+      </c>
+      <c r="B6336" s="1"/>
+      <c r="C6336" s="1"/>
+    </row>
+    <row r="6337">
+      <c r="A6337" s="6" t="n">
+        <v>44863.958333333336</v>
+      </c>
+      <c r="B6337" s="1"/>
+      <c r="C6337" s="1"/>
+    </row>
+    <row r="6338">
+      <c r="A6338" s="6" t="n">
+        <v>44863.96875</v>
+      </c>
+      <c r="B6338" s="1"/>
+      <c r="C6338" s="1"/>
+    </row>
+    <row r="6339">
+      <c r="A6339" s="6" t="n">
+        <v>44863.979166666664</v>
+      </c>
+      <c r="B6339" s="1"/>
+      <c r="C6339" s="1"/>
+    </row>
+    <row r="6340">
+      <c r="A6340" s="6" t="n">
+        <v>44863.989583333336</v>
+      </c>
+      <c r="B6340" s="1"/>
+      <c r="C6340" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
